--- a/results/11-2020/xx.xlsx
+++ b/results/11-2020/xx.xlsx
@@ -900,7 +900,7 @@
         <v>21.286</v>
       </c>
       <c r="E2">
-        <v>631.7</v>
+        <v>631.7000000000001</v>
       </c>
       <c r="F2">
         <v>3065.1</v>
@@ -1139,7 +1139,7 @@
         <v>117.4</v>
       </c>
       <c r="AB3">
-        <v>695.2</v>
+        <v>695.2000000000001</v>
       </c>
       <c r="AC3">
         <v>838.9</v>
@@ -1309,7 +1309,7 @@
         <v>122.2</v>
       </c>
       <c r="AB4">
-        <v>686.7</v>
+        <v>686.7000000000001</v>
       </c>
       <c r="AC4">
         <v>858.1</v>
@@ -1410,7 +1410,7 @@
         <v>22.055</v>
       </c>
       <c r="E5">
-        <v>660.2</v>
+        <v>660.2000000000001</v>
       </c>
       <c r="F5">
         <v>3097.5</v>
@@ -1580,7 +1580,7 @@
         <v>22.389</v>
       </c>
       <c r="E6">
-        <v>679.2</v>
+        <v>679.2000000000001</v>
       </c>
       <c r="F6">
         <v>3157</v>
@@ -1750,7 +1750,7 @@
         <v>22.689</v>
       </c>
       <c r="E7">
-        <v>693.2</v>
+        <v>693.2000000000001</v>
       </c>
       <c r="F7">
         <v>3186</v>
@@ -2090,7 +2090,7 @@
         <v>23.107</v>
       </c>
       <c r="E9">
-        <v>721.7</v>
+        <v>721.7000000000001</v>
       </c>
       <c r="F9">
         <v>3264.7</v>
@@ -2231,7 +2231,7 @@
         <v>0.569081404</v>
       </c>
       <c r="CU9">
-        <v>4.154294249199999</v>
+        <v>4.1542942492</v>
       </c>
       <c r="CV9">
         <v>3.1457057508</v>
@@ -2329,7 +2329,7 @@
         <v>140.8</v>
       </c>
       <c r="AB10">
-        <v>639.7</v>
+        <v>639.7000000000001</v>
       </c>
       <c r="AC10">
         <v>888.8</v>
@@ -2413,7 +2413,7 @@
         <v>22.8661111416</v>
       </c>
       <c r="CY10">
-        <v>68.5338888584</v>
+        <v>68.53388885840001</v>
       </c>
     </row>
     <row r="11">
@@ -2741,7 +2741,7 @@
         <v>0.546908828</v>
       </c>
       <c r="CU12">
-        <v>4.703415920799999</v>
+        <v>4.7034159208</v>
       </c>
       <c r="CV12">
         <v>3.8965840792</v>
@@ -2842,7 +2842,7 @@
         <v>617.9</v>
       </c>
       <c r="AC13">
-        <v>906.7</v>
+        <v>906.7000000000001</v>
       </c>
       <c r="AD13">
         <v>105.3</v>
@@ -3689,7 +3689,7 @@
         <v>171.9</v>
       </c>
       <c r="AB18">
-        <v>609.7</v>
+        <v>609.7000000000001</v>
       </c>
       <c r="AC18">
         <v>944.9</v>
@@ -4202,7 +4202,7 @@
         <v>617.6</v>
       </c>
       <c r="AC21">
-        <v>955.2</v>
+        <v>955.2000000000001</v>
       </c>
       <c r="AD21">
         <v>132</v>
@@ -4300,7 +4300,7 @@
         <v>29.142</v>
       </c>
       <c r="E22">
-        <v>985.2</v>
+        <v>985.2000000000001</v>
       </c>
       <c r="F22">
         <v>3540.6</v>
@@ -4879,7 +4879,7 @@
         <v>214.8</v>
       </c>
       <c r="AB25">
-        <v>622.7</v>
+        <v>622.7000000000001</v>
       </c>
       <c r="AC25">
         <v>1002.1</v>
@@ -5559,7 +5559,7 @@
         <v>220.6</v>
       </c>
       <c r="AB29">
-        <v>616.7</v>
+        <v>616.7000000000001</v>
       </c>
       <c r="AC29">
         <v>986</v>
@@ -5977,7 +5977,7 @@
         <v>7.5836005525</v>
       </c>
       <c r="CW31">
-        <v>43.7836005525</v>
+        <v>43.78360055250001</v>
       </c>
       <c r="CX31">
         <v>39.3596005525</v>
@@ -6239,7 +6239,7 @@
         <v>240.5</v>
       </c>
       <c r="AB33">
-        <v>630.7</v>
+        <v>630.7000000000001</v>
       </c>
       <c r="AC33">
         <v>1002.4</v>
@@ -6785,7 +6785,7 @@
         <v>3.5</v>
       </c>
       <c r="AN36">
-        <v>49.67599999999999</v>
+        <v>49.676</v>
       </c>
       <c r="AO36">
         <v>313.5</v>
@@ -7429,7 +7429,7 @@
         <v>289.4</v>
       </c>
       <c r="AB40">
-        <v>660.2</v>
+        <v>660.2000000000001</v>
       </c>
       <c r="AC40">
         <v>1049.6</v>
@@ -7850,7 +7850,7 @@
         <v>53.647165036</v>
       </c>
       <c r="CX42">
-        <v>47.351165036</v>
+        <v>47.35116503600001</v>
       </c>
       <c r="CY42">
         <v>203.848834964</v>
@@ -8094,7 +8094,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="W44">
-        <v>592.2</v>
+        <v>592.2000000000001</v>
       </c>
       <c r="X44">
         <v>168</v>
@@ -8530,7 +8530,7 @@
         <v>56.721137037</v>
       </c>
       <c r="CX46">
-        <v>56.38113703699999</v>
+        <v>56.381137037</v>
       </c>
       <c r="CY46">
         <v>239.718862963</v>
@@ -8604,7 +8604,7 @@
         <v>65.90000000000001</v>
       </c>
       <c r="W47">
-        <v>648.7</v>
+        <v>648.7000000000001</v>
       </c>
       <c r="X47">
         <v>194.8</v>
@@ -8944,7 +8944,7 @@
         <v>58.9</v>
       </c>
       <c r="W49">
-        <v>677.7</v>
+        <v>677.7000000000001</v>
       </c>
       <c r="X49">
         <v>202.2</v>
@@ -9421,13 +9421,13 @@
         <v>45.84</v>
       </c>
       <c r="L52">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="O52">
         <v>51.8</v>
@@ -9547,7 +9547,7 @@
         <v>13.6320139956</v>
       </c>
       <c r="CW52">
-        <v>48.43201399559999</v>
+        <v>48.4320139956</v>
       </c>
       <c r="CX52">
         <v>70.05201399559999</v>
@@ -10134,7 +10134,7 @@
         <v>70.7</v>
       </c>
       <c r="W56">
-        <v>782.2</v>
+        <v>782.2000000000001</v>
       </c>
       <c r="X56">
         <v>228.9</v>
@@ -10149,7 +10149,7 @@
         <v>387.8</v>
       </c>
       <c r="AB56">
-        <v>808.7</v>
+        <v>808.7000000000001</v>
       </c>
       <c r="AC56">
         <v>1043.2</v>
@@ -10489,7 +10489,7 @@
         <v>401.6</v>
       </c>
       <c r="AB58">
-        <v>789.2</v>
+        <v>789.2000000000001</v>
       </c>
       <c r="AC58">
         <v>1057.1</v>
@@ -10781,7 +10781,7 @@
         <v>46.312</v>
       </c>
       <c r="L60">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="M60">
         <v>0.71</v>
@@ -10814,7 +10814,7 @@
         <v>71.3</v>
       </c>
       <c r="W60">
-        <v>835.7</v>
+        <v>835.7000000000001</v>
       </c>
       <c r="X60">
         <v>261.8</v>
@@ -11208,7 +11208,7 @@
         <v>89.304</v>
       </c>
       <c r="AO62">
-        <v>542.7</v>
+        <v>542.7000000000001</v>
       </c>
       <c r="AR62">
         <v>17.044</v>
@@ -11238,7 +11238,7 @@
         <v>-1</v>
       </c>
       <c r="CI62">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU62">
         <v>21.193775808</v>
@@ -11375,10 +11375,10 @@
         <v>4.8</v>
       </c>
       <c r="AN63">
-        <v>90.73999999999999</v>
+        <v>90.74</v>
       </c>
       <c r="AO63">
-        <v>557.7</v>
+        <v>557.7000000000001</v>
       </c>
       <c r="AR63">
         <v>19.408</v>
@@ -11408,13 +11408,13 @@
         <v>-1</v>
       </c>
       <c r="CI63">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU63">
         <v>21.635312804</v>
       </c>
       <c r="CV63">
-        <v>17.564687196</v>
+        <v>17.56468719600001</v>
       </c>
       <c r="CW63">
         <v>53.664687196</v>
@@ -11464,7 +11464,7 @@
         <v>1.93</v>
       </c>
       <c r="M64">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="N64">
         <v>1.26</v>
@@ -11509,7 +11509,7 @@
         <v>464.3</v>
       </c>
       <c r="AB64">
-        <v>894.2</v>
+        <v>894.2000000000001</v>
       </c>
       <c r="AC64">
         <v>1152.7</v>
@@ -11578,7 +11578,7 @@
         <v>-1</v>
       </c>
       <c r="CI64">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU64">
         <v>22.1320419245</v>
@@ -11587,7 +11587,7 @@
         <v>17.9679580755</v>
       </c>
       <c r="CW64">
-        <v>54.2679580755</v>
+        <v>54.26795807550001</v>
       </c>
       <c r="CX64">
         <v>70.4839580755</v>
@@ -11679,7 +11679,7 @@
         <v>472.1</v>
       </c>
       <c r="AB65">
-        <v>894.7</v>
+        <v>894.7000000000001</v>
       </c>
       <c r="AC65">
         <v>1161.5</v>
@@ -11718,7 +11718,7 @@
         <v>94.88799999999999</v>
       </c>
       <c r="AO65">
-        <v>582.2</v>
+        <v>582.2000000000001</v>
       </c>
       <c r="AR65">
         <v>21.184</v>
@@ -11748,7 +11748,7 @@
         <v>-1</v>
       </c>
       <c r="CI65">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU65">
         <v>22.6839631695</v>
@@ -11849,7 +11849,7 @@
         <v>482.8</v>
       </c>
       <c r="AB66">
-        <v>892.2</v>
+        <v>892.2000000000001</v>
       </c>
       <c r="AC66">
         <v>1182.9</v>
@@ -12947,13 +12947,13 @@
         <v>21.6054430768</v>
       </c>
       <c r="CW72">
-        <v>51.4054430768</v>
+        <v>51.40544307680001</v>
       </c>
       <c r="CX72">
         <v>78.79744307679999</v>
       </c>
       <c r="CY72">
-        <v>370.7025569231999</v>
+        <v>370.7025569232</v>
       </c>
     </row>
     <row r="73">
@@ -13033,13 +13033,13 @@
         <v>56.718</v>
       </c>
       <c r="Z73">
-        <v>513.7</v>
+        <v>513.7000000000001</v>
       </c>
       <c r="AA73">
         <v>542.3</v>
       </c>
       <c r="AB73">
-        <v>975.7</v>
+        <v>975.7000000000001</v>
       </c>
       <c r="AC73">
         <v>1238.9</v>
@@ -13209,7 +13209,7 @@
         <v>551.1</v>
       </c>
       <c r="AB74">
-        <v>947.7</v>
+        <v>947.7000000000001</v>
       </c>
       <c r="AC74">
         <v>1252.6</v>
@@ -13588,7 +13588,7 @@
         <v>112.276</v>
       </c>
       <c r="AO76">
-        <v>703.2</v>
+        <v>703.2000000000001</v>
       </c>
       <c r="AR76">
         <v>20.388</v>
@@ -13695,7 +13695,7 @@
         <v>15.4</v>
       </c>
       <c r="T77">
-        <v>517.2</v>
+        <v>517.2000000000001</v>
       </c>
       <c r="U77">
         <v>382.6</v>
@@ -13847,7 +13847,7 @@
         <v>0.35</v>
       </c>
       <c r="N78">
-        <v>-0.6899999999999999</v>
+        <v>-0.69</v>
       </c>
       <c r="O78">
         <v>93.8</v>
@@ -13886,7 +13886,7 @@
         <v>519.9</v>
       </c>
       <c r="AA78">
-        <v>596.7</v>
+        <v>596.7000000000001</v>
       </c>
       <c r="AB78">
         <v>944.5</v>
@@ -14029,13 +14029,13 @@
         <v>13.7</v>
       </c>
       <c r="R79">
-        <v>515.7</v>
+        <v>515.7000000000001</v>
       </c>
       <c r="S79">
         <v>16.3</v>
       </c>
       <c r="T79">
-        <v>566.7</v>
+        <v>566.7000000000001</v>
       </c>
       <c r="U79">
         <v>397.5</v>
@@ -14059,7 +14059,7 @@
         <v>611.5</v>
       </c>
       <c r="AB79">
-        <v>963.7</v>
+        <v>963.7000000000001</v>
       </c>
       <c r="AC79">
         <v>1314.2</v>
@@ -14199,7 +14199,7 @@
         <v>14.6</v>
       </c>
       <c r="R80">
-        <v>524.7</v>
+        <v>524.7000000000001</v>
       </c>
       <c r="S80">
         <v>16.7</v>
@@ -14226,7 +14226,7 @@
         <v>541.4</v>
       </c>
       <c r="AA80">
-        <v>623.2</v>
+        <v>623.2000000000001</v>
       </c>
       <c r="AB80">
         <v>971.6</v>
@@ -14313,7 +14313,7 @@
         <v>90.172442221</v>
       </c>
       <c r="CY80">
-        <v>434.5275577789999</v>
+        <v>434.527557779</v>
       </c>
     </row>
     <row r="81">
@@ -14396,7 +14396,7 @@
         <v>540.8</v>
       </c>
       <c r="AA81">
-        <v>639.7</v>
+        <v>639.7000000000001</v>
       </c>
       <c r="AB81">
         <v>967.1</v>
@@ -14524,7 +14524,7 @@
         <v>1.33</v>
       </c>
       <c r="M82">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="N82">
         <v>0.63</v>
@@ -14539,7 +14539,7 @@
         <v>16.4</v>
       </c>
       <c r="R82">
-        <v>556.2</v>
+        <v>556.2000000000001</v>
       </c>
       <c r="S82">
         <v>17.3</v>
@@ -14563,13 +14563,13 @@
         <v>62.319</v>
       </c>
       <c r="Z82">
-        <v>553.7</v>
+        <v>553.7000000000001</v>
       </c>
       <c r="AA82">
         <v>658.8</v>
       </c>
       <c r="AB82">
-        <v>983.2</v>
+        <v>983.2000000000001</v>
       </c>
       <c r="AC82">
         <v>1365.4</v>
@@ -14837,7 +14837,7 @@
         <v>9398.5</v>
       </c>
       <c r="D84">
-        <v>64.004</v>
+        <v>64.00400000000001</v>
       </c>
       <c r="E84">
         <v>3846.7</v>
@@ -14885,7 +14885,7 @@
         <v>18.7</v>
       </c>
       <c r="T84">
-        <v>600.7</v>
+        <v>600.7000000000001</v>
       </c>
       <c r="U84">
         <v>426.8</v>
@@ -14903,7 +14903,7 @@
         <v>63.685</v>
       </c>
       <c r="Z84">
-        <v>562.2</v>
+        <v>562.2000000000001</v>
       </c>
       <c r="AA84">
         <v>680.3</v>
@@ -15007,7 +15007,7 @@
         <v>9312.9</v>
       </c>
       <c r="D85">
-        <v>64.49299999999999</v>
+        <v>64.493</v>
       </c>
       <c r="E85">
         <v>3867.9</v>
@@ -15073,7 +15073,7 @@
         <v>64.527</v>
       </c>
       <c r="Z85">
-        <v>569.7</v>
+        <v>569.7000000000001</v>
       </c>
       <c r="AA85">
         <v>698.8</v>
@@ -15177,7 +15177,7 @@
         <v>9269.4</v>
       </c>
       <c r="D86">
-        <v>65.12</v>
+        <v>65.12000000000001</v>
       </c>
       <c r="E86">
         <v>3873.6</v>
@@ -15565,7 +15565,7 @@
         <v>23.1</v>
       </c>
       <c r="T88">
-        <v>590.2</v>
+        <v>590.2000000000001</v>
       </c>
       <c r="U88">
         <v>461.3</v>
@@ -15607,7 +15607,7 @@
         <v>423.7</v>
       </c>
       <c r="AH88">
-        <v>469.736</v>
+        <v>469.7360000000001</v>
       </c>
       <c r="AI88">
         <v>127</v>
@@ -15628,7 +15628,7 @@
         <v>183.964</v>
       </c>
       <c r="AO88">
-        <v>919.2</v>
+        <v>919.2000000000001</v>
       </c>
       <c r="AR88">
         <v>21.056</v>
@@ -15717,7 +15717,7 @@
         <v>0.33</v>
       </c>
       <c r="N89">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="O89">
         <v>122.5</v>
@@ -15735,7 +15735,7 @@
         <v>24.2</v>
       </c>
       <c r="T89">
-        <v>598.7</v>
+        <v>598.7000000000001</v>
       </c>
       <c r="U89">
         <v>471.5</v>
@@ -15857,7 +15857,7 @@
         <v>9534.299999999999</v>
       </c>
       <c r="D90">
-        <v>66.74299999999999</v>
+        <v>66.743</v>
       </c>
       <c r="E90">
         <v>4100.4</v>
@@ -16036,7 +16036,7 @@
         <v>6203.2</v>
       </c>
       <c r="G91">
-        <v>66.998</v>
+        <v>66.99800000000001</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -16075,7 +16075,7 @@
         <v>25.8</v>
       </c>
       <c r="T91">
-        <v>607.2</v>
+        <v>607.2000000000001</v>
       </c>
       <c r="U91">
         <v>481.2</v>
@@ -16117,7 +16117,7 @@
         <v>445.1</v>
       </c>
       <c r="AH91">
-        <v>525.0839999999999</v>
+        <v>525.084</v>
       </c>
       <c r="AI91">
         <v>139</v>
@@ -16138,7 +16138,7 @@
         <v>204.016</v>
       </c>
       <c r="AO91">
-        <v>975.2</v>
+        <v>975.2000000000001</v>
       </c>
       <c r="AR91">
         <v>22.8</v>
@@ -16245,7 +16245,7 @@
         <v>26.4</v>
       </c>
       <c r="T92">
-        <v>616.2</v>
+        <v>616.2000000000001</v>
       </c>
       <c r="U92">
         <v>486</v>
@@ -16263,7 +16263,7 @@
         <v>67.419</v>
       </c>
       <c r="Z92">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AA92">
         <v>759.8</v>
@@ -16308,7 +16308,7 @@
         <v>211.16</v>
       </c>
       <c r="AO92">
-        <v>988.2</v>
+        <v>988.2000000000001</v>
       </c>
       <c r="AR92">
         <v>22.288</v>
@@ -16609,7 +16609,7 @@
         <v>771.5</v>
       </c>
       <c r="AB94">
-        <v>942.2</v>
+        <v>942.2000000000001</v>
       </c>
       <c r="AC94">
         <v>1438.9</v>
@@ -16755,7 +16755,7 @@
         <v>35.5</v>
       </c>
       <c r="R95">
-        <v>771.7</v>
+        <v>771.7000000000001</v>
       </c>
       <c r="S95">
         <v>28.3</v>
@@ -16779,7 +16779,7 @@
         <v>68.753</v>
       </c>
       <c r="Z95">
-        <v>576.7</v>
+        <v>576.7000000000001</v>
       </c>
       <c r="AA95">
         <v>782.3</v>
@@ -16937,7 +16937,7 @@
         <v>28.7</v>
       </c>
       <c r="T96">
-        <v>659.2</v>
+        <v>659.2000000000001</v>
       </c>
       <c r="U96">
         <v>504.9</v>
@@ -16955,10 +16955,10 @@
         <v>69.05200000000001</v>
       </c>
       <c r="Z96">
-        <v>578.7</v>
+        <v>578.7000000000001</v>
       </c>
       <c r="AA96">
-        <v>788.7</v>
+        <v>788.7000000000001</v>
       </c>
       <c r="AB96">
         <v>928.8</v>
@@ -17003,7 +17003,7 @@
         <v>1028.1</v>
       </c>
       <c r="AP96">
-        <v>85.251</v>
+        <v>85.25100000000001</v>
       </c>
       <c r="AQ96">
         <v>80.604</v>
@@ -17065,7 +17065,7 @@
         <v>10091</v>
       </c>
       <c r="D97">
-        <v>69.495</v>
+        <v>69.49500000000001</v>
       </c>
       <c r="E97">
         <v>4552.7</v>
@@ -17289,7 +17289,7 @@
         <v>30.1</v>
       </c>
       <c r="T98">
-        <v>673.7</v>
+        <v>673.7000000000001</v>
       </c>
       <c r="U98">
         <v>531.5</v>
@@ -17319,7 +17319,7 @@
         <v>1471.3</v>
       </c>
       <c r="AD98">
-        <v>526.7</v>
+        <v>526.7000000000001</v>
       </c>
       <c r="AE98">
         <v>75.5</v>
@@ -17388,7 +17388,7 @@
         <v>-1</v>
       </c>
       <c r="CI98">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU98">
         <v>78.94799999999999</v>
@@ -17564,7 +17564,7 @@
         <v>-1</v>
       </c>
       <c r="CI99">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU99">
         <v>81.77200000000001</v>
@@ -17671,7 +17671,7 @@
         <v>1505.6</v>
       </c>
       <c r="AD100">
-        <v>544.2</v>
+        <v>544.2000000000001</v>
       </c>
       <c r="AE100">
         <v>80.5</v>
@@ -17740,7 +17740,7 @@
         <v>-1</v>
       </c>
       <c r="CI100">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU100">
         <v>82.892</v>
@@ -17841,7 +17841,7 @@
         <v>847.1</v>
       </c>
       <c r="AB101">
-        <v>891.7</v>
+        <v>891.7000000000001</v>
       </c>
       <c r="AC101">
         <v>1511.1</v>
@@ -17916,7 +17916,7 @@
         <v>-1</v>
       </c>
       <c r="CI101">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU101">
         <v>85.54000000000001</v>
@@ -17945,7 +17945,7 @@
         <v>10543.6</v>
       </c>
       <c r="D102">
-        <v>71.35599999999999</v>
+        <v>71.356</v>
       </c>
       <c r="E102">
         <v>4862.4</v>
@@ -17957,7 +17957,7 @@
         <v>71.274</v>
       </c>
       <c r="H102">
-        <v>65.11499999999999</v>
+        <v>65.115</v>
       </c>
       <c r="I102">
         <v>56.378</v>
@@ -18005,7 +18005,7 @@
         <v>1437.6</v>
       </c>
       <c r="X102">
-        <v>528.2</v>
+        <v>528.2000000000001</v>
       </c>
       <c r="Y102">
         <v>71.27</v>
@@ -18017,13 +18017,13 @@
         <v>858.5</v>
       </c>
       <c r="AB102">
-        <v>889.2</v>
+        <v>889.2000000000001</v>
       </c>
       <c r="AC102">
         <v>1522.9</v>
       </c>
       <c r="AD102">
-        <v>567.7</v>
+        <v>567.7000000000001</v>
       </c>
       <c r="AE102">
         <v>76.59999999999999</v>
@@ -18032,7 +18032,7 @@
         <v>155.3</v>
       </c>
       <c r="AG102">
-        <v>514.2</v>
+        <v>514.2000000000001</v>
       </c>
       <c r="AH102">
         <v>617.456</v>
@@ -18181,7 +18181,7 @@
         <v>1452.9</v>
       </c>
       <c r="X103">
-        <v>532.7</v>
+        <v>532.7000000000001</v>
       </c>
       <c r="Y103">
         <v>71.685</v>
@@ -18193,7 +18193,7 @@
         <v>871.9</v>
       </c>
       <c r="AB103">
-        <v>886.2</v>
+        <v>886.2000000000001</v>
       </c>
       <c r="AC103">
         <v>1534.9</v>
@@ -18235,7 +18235,7 @@
         <v>1132.8</v>
       </c>
       <c r="AP103">
-        <v>94.48399999999999</v>
+        <v>94.484</v>
       </c>
       <c r="AQ103">
         <v>90.54000000000001</v>
@@ -18283,7 +18283,7 @@
         <v>151.016</v>
       </c>
       <c r="CY103">
-        <v>714.5839999999999</v>
+        <v>714.584</v>
       </c>
     </row>
     <row r="104">
@@ -18306,7 +18306,7 @@
         <v>6944.7</v>
       </c>
       <c r="G104">
-        <v>71.98099999999999</v>
+        <v>71.981</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -18339,13 +18339,13 @@
         <v>22</v>
       </c>
       <c r="R104">
-        <v>870.7</v>
+        <v>870.7000000000001</v>
       </c>
       <c r="S104">
         <v>32.9</v>
       </c>
       <c r="T104">
-        <v>752.2</v>
+        <v>752.2000000000001</v>
       </c>
       <c r="U104">
         <v>558.9</v>
@@ -18691,13 +18691,13 @@
         <v>23</v>
       </c>
       <c r="R106">
-        <v>893.2</v>
+        <v>893.2000000000001</v>
       </c>
       <c r="S106">
         <v>34</v>
       </c>
       <c r="T106">
-        <v>801.7</v>
+        <v>801.7000000000001</v>
       </c>
       <c r="U106">
         <v>570.4</v>
@@ -18739,7 +18739,7 @@
         <v>532.9</v>
       </c>
       <c r="AH106">
-        <v>652.724</v>
+        <v>652.7240000000001</v>
       </c>
       <c r="AI106">
         <v>177.1</v>
@@ -18876,7 +18876,7 @@
         <v>839.6</v>
       </c>
       <c r="U107">
-        <v>577.7</v>
+        <v>577.7000000000001</v>
       </c>
       <c r="V107">
         <v>205.5</v>
@@ -18912,7 +18912,7 @@
         <v>171.9</v>
       </c>
       <c r="AG107">
-        <v>541.7</v>
+        <v>541.7000000000001</v>
       </c>
       <c r="AH107">
         <v>658.652</v>
@@ -18942,7 +18942,7 @@
         <v>102.461</v>
       </c>
       <c r="AQ107">
-        <v>96.376</v>
+        <v>96.37600000000001</v>
       </c>
       <c r="AR107">
         <v>27.904</v>
@@ -18975,7 +18975,7 @@
         <v>0.598665966</v>
       </c>
       <c r="CU107">
-        <v>96.376</v>
+        <v>96.37600000000001</v>
       </c>
       <c r="CV107">
         <v>69.42400000000001</v>
@@ -19079,7 +19079,7 @@
         <v>1577.1</v>
       </c>
       <c r="AD108">
-        <v>674.2</v>
+        <v>674.2000000000001</v>
       </c>
       <c r="AE108">
         <v>71.7</v>
@@ -19219,7 +19219,7 @@
         <v>21.7</v>
       </c>
       <c r="R109">
-        <v>910.7</v>
+        <v>910.7000000000001</v>
       </c>
       <c r="S109">
         <v>35.8</v>
@@ -19228,7 +19228,7 @@
         <v>863.5</v>
       </c>
       <c r="U109">
-        <v>593.2</v>
+        <v>593.2000000000001</v>
       </c>
       <c r="V109">
         <v>208.6</v>
@@ -19240,7 +19240,7 @@
         <v>569.4</v>
       </c>
       <c r="Y109">
-        <v>73.995</v>
+        <v>73.99500000000001</v>
       </c>
       <c r="Z109">
         <v>576.9</v>
@@ -19291,7 +19291,7 @@
         <v>1192</v>
       </c>
       <c r="AP109">
-        <v>97.60899999999999</v>
+        <v>97.609</v>
       </c>
       <c r="AQ109">
         <v>93.892</v>
@@ -19404,7 +19404,7 @@
         <v>902.1</v>
       </c>
       <c r="U110">
-        <v>595.7</v>
+        <v>595.7000000000001</v>
       </c>
       <c r="V110">
         <v>210</v>
@@ -19419,13 +19419,13 @@
         <v>74.32299999999999</v>
       </c>
       <c r="Z110">
-        <v>570.7</v>
+        <v>570.7000000000001</v>
       </c>
       <c r="AA110">
         <v>945.3</v>
       </c>
       <c r="AB110">
-        <v>846.2</v>
+        <v>846.2000000000001</v>
       </c>
       <c r="AC110">
         <v>1600.1</v>
@@ -19577,7 +19577,7 @@
         <v>38</v>
       </c>
       <c r="T111">
-        <v>916.2</v>
+        <v>916.2000000000001</v>
       </c>
       <c r="U111">
         <v>610.4</v>
@@ -19595,7 +19595,7 @@
         <v>74.509</v>
       </c>
       <c r="Z111">
-        <v>587.2</v>
+        <v>587.2000000000001</v>
       </c>
       <c r="AA111">
         <v>955.4</v>
@@ -19628,7 +19628,7 @@
         <v>176.9</v>
       </c>
       <c r="AK111">
-        <v>530.7</v>
+        <v>530.7000000000001</v>
       </c>
       <c r="AL111">
         <v>33.6</v>
@@ -19691,7 +19691,7 @@
         <v>148.568</v>
       </c>
       <c r="CY111">
-        <v>782.6319999999999</v>
+        <v>782.632</v>
       </c>
     </row>
     <row r="112">
@@ -19747,7 +19747,7 @@
         <v>19.6</v>
       </c>
       <c r="R112">
-        <v>937.2</v>
+        <v>937.2000000000001</v>
       </c>
       <c r="S112">
         <v>38.6</v>
@@ -19774,7 +19774,7 @@
         <v>586</v>
       </c>
       <c r="AA112">
-        <v>969.2</v>
+        <v>969.2000000000001</v>
       </c>
       <c r="AB112">
         <v>861.3</v>
@@ -19858,7 +19858,7 @@
         <v>97.108</v>
       </c>
       <c r="CV112">
-        <v>66.59199999999998</v>
+        <v>66.59199999999999</v>
       </c>
       <c r="CW112">
         <v>90.392</v>
@@ -19923,7 +19923,7 @@
         <v>19.4</v>
       </c>
       <c r="R113">
-        <v>942.7</v>
+        <v>942.7000000000001</v>
       </c>
       <c r="S113">
         <v>39</v>
@@ -19947,7 +19947,7 @@
         <v>74.941</v>
       </c>
       <c r="Z113">
-        <v>589.2</v>
+        <v>589.2000000000001</v>
       </c>
       <c r="AA113">
         <v>985.6</v>
@@ -20123,7 +20123,7 @@
         <v>74.947</v>
       </c>
       <c r="Z114">
-        <v>572.2</v>
+        <v>572.2000000000001</v>
       </c>
       <c r="AA114">
         <v>995.9</v>
@@ -20496,7 +20496,7 @@
         <v>180.1</v>
       </c>
       <c r="AG116">
-        <v>622.2</v>
+        <v>622.2000000000001</v>
       </c>
       <c r="AH116">
         <v>703.72</v>
@@ -20651,7 +20651,7 @@
         <v>75.51000000000001</v>
       </c>
       <c r="Z117">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AA117">
         <v>1053.2</v>
@@ -20663,7 +20663,7 @@
         <v>1718.3</v>
       </c>
       <c r="AD117">
-        <v>861.7</v>
+        <v>861.7000000000001</v>
       </c>
       <c r="AE117">
         <v>81.7</v>
@@ -20672,7 +20672,7 @@
         <v>176.4</v>
       </c>
       <c r="AG117">
-        <v>632.2</v>
+        <v>632.2000000000001</v>
       </c>
       <c r="AH117">
         <v>705.388</v>
@@ -20761,7 +20761,7 @@
         <v>12403.3</v>
       </c>
       <c r="D118">
-        <v>75.85899999999999</v>
+        <v>75.859</v>
       </c>
       <c r="E118">
         <v>6102.5</v>
@@ -20860,7 +20860,7 @@
         <v>208.2</v>
       </c>
       <c r="AK118">
-        <v>576.2</v>
+        <v>576.2000000000001</v>
       </c>
       <c r="AL118">
         <v>36.3</v>
@@ -20923,7 +20923,7 @@
         <v>161.004</v>
       </c>
       <c r="CY118">
-        <v>822.296</v>
+        <v>822.2960000000001</v>
       </c>
     </row>
     <row r="119">
@@ -21000,7 +21000,7 @@
         <v>659</v>
       </c>
       <c r="Y119">
-        <v>76.12</v>
+        <v>76.12000000000001</v>
       </c>
       <c r="Z119">
         <v>599.8</v>
@@ -21191,7 +21191,7 @@
         <v>1766</v>
       </c>
       <c r="AD120">
-        <v>904.2</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AE120">
         <v>83.8</v>
@@ -21200,10 +21200,10 @@
         <v>187.7</v>
       </c>
       <c r="AG120">
-        <v>656.7</v>
+        <v>656.7000000000001</v>
       </c>
       <c r="AH120">
-        <v>721.248</v>
+        <v>721.2480000000001</v>
       </c>
       <c r="AI120">
         <v>223.1</v>
@@ -21212,7 +21212,7 @@
         <v>216.4</v>
       </c>
       <c r="AK120">
-        <v>595.2</v>
+        <v>595.2000000000001</v>
       </c>
       <c r="AL120">
         <v>35.6</v>
@@ -21340,7 +21340,7 @@
         <v>1154</v>
       </c>
       <c r="U121">
-        <v>690.7</v>
+        <v>690.7000000000001</v>
       </c>
       <c r="V121">
         <v>228</v>
@@ -21355,7 +21355,7 @@
         <v>76.97499999999999</v>
       </c>
       <c r="Z121">
-        <v>635.2</v>
+        <v>635.2000000000001</v>
       </c>
       <c r="AA121">
         <v>1147.1</v>
@@ -21388,7 +21388,7 @@
         <v>224</v>
       </c>
       <c r="AK121">
-        <v>603.7</v>
+        <v>603.7000000000001</v>
       </c>
       <c r="AL121">
         <v>35.9</v>
@@ -21528,7 +21528,7 @@
         <v>699.5</v>
       </c>
       <c r="Y122">
-        <v>77.61799999999999</v>
+        <v>77.618</v>
       </c>
       <c r="Z122">
         <v>620.4</v>
@@ -21618,7 +21618,7 @@
         <v>114.852</v>
       </c>
       <c r="CV122">
-        <v>75.34799999999998</v>
+        <v>75.34799999999999</v>
       </c>
       <c r="CW122">
         <v>109.648</v>
@@ -21877,7 +21877,7 @@
         <v>1832.3</v>
       </c>
       <c r="X124">
-        <v>715.2</v>
+        <v>715.2000000000001</v>
       </c>
       <c r="Y124">
         <v>78.45</v>
@@ -21904,7 +21904,7 @@
         <v>185.6</v>
       </c>
       <c r="AG124">
-        <v>704.2</v>
+        <v>704.2000000000001</v>
       </c>
       <c r="AH124">
         <v>757.408</v>
@@ -21916,7 +21916,7 @@
         <v>236.6</v>
       </c>
       <c r="AK124">
-        <v>623.7</v>
+        <v>623.7000000000001</v>
       </c>
       <c r="AL124">
         <v>33.5</v>
@@ -22080,10 +22080,10 @@
         <v>187.6</v>
       </c>
       <c r="AG125">
-        <v>709.2</v>
+        <v>709.2000000000001</v>
       </c>
       <c r="AH125">
-        <v>765.1799999999999</v>
+        <v>765.18</v>
       </c>
       <c r="AI125">
         <v>241.1</v>
@@ -22220,7 +22220,7 @@
         <v>1301.9</v>
       </c>
       <c r="U126">
-        <v>724.2</v>
+        <v>724.2000000000001</v>
       </c>
       <c r="V126">
         <v>185.1</v>
@@ -22322,13 +22322,13 @@
         <v>129.388</v>
       </c>
       <c r="CV126">
-        <v>85.61199999999999</v>
+        <v>85.612</v>
       </c>
       <c r="CW126">
         <v>124.612</v>
       </c>
       <c r="CX126">
-        <v>185.8879999999999</v>
+        <v>185.888</v>
       </c>
       <c r="CY126">
         <v>921.812</v>
@@ -22435,7 +22435,7 @@
         <v>723.4</v>
       </c>
       <c r="AH127">
-        <v>803.1319999999999</v>
+        <v>803.132</v>
       </c>
       <c r="AI127">
         <v>262.2</v>
@@ -22599,7 +22599,7 @@
         <v>1869</v>
       </c>
       <c r="AD128">
-        <v>881.7</v>
+        <v>881.7000000000001</v>
       </c>
       <c r="AE128">
         <v>83.59999999999999</v>
@@ -22620,7 +22620,7 @@
         <v>231.9</v>
       </c>
       <c r="AK128">
-        <v>641.7</v>
+        <v>641.7000000000001</v>
       </c>
       <c r="AL128">
         <v>28.3</v>
@@ -22718,7 +22718,7 @@
         <v>68.76300000000001</v>
       </c>
       <c r="K129">
-        <v>67.623</v>
+        <v>67.62300000000001</v>
       </c>
       <c r="L129">
         <v>1.21</v>
@@ -22757,7 +22757,7 @@
         <v>1992</v>
       </c>
       <c r="X129">
-        <v>738.7</v>
+        <v>738.7000000000001</v>
       </c>
       <c r="Y129">
         <v>79.89100000000001</v>
@@ -22784,7 +22784,7 @@
         <v>115.8</v>
       </c>
       <c r="AG129">
-        <v>724.2</v>
+        <v>724.2000000000001</v>
       </c>
       <c r="AH129">
         <v>825.0920000000001</v>
@@ -23115,7 +23115,7 @@
         <v>80.648</v>
       </c>
       <c r="Z131">
-        <v>734.7</v>
+        <v>734.7000000000001</v>
       </c>
       <c r="AA131">
         <v>1338.8</v>
@@ -23127,7 +23127,7 @@
         <v>1924.2</v>
       </c>
       <c r="AD131">
-        <v>836.7</v>
+        <v>836.7000000000001</v>
       </c>
       <c r="AE131">
         <v>87.3</v>
@@ -23139,7 +23139,7 @@
         <v>739.9</v>
       </c>
       <c r="AH131">
-        <v>877.8579999999999</v>
+        <v>877.858</v>
       </c>
       <c r="AI131">
         <v>285.7</v>
@@ -23291,7 +23291,7 @@
         <v>81.041</v>
       </c>
       <c r="Z132">
-        <v>748.2</v>
+        <v>748.2000000000001</v>
       </c>
       <c r="AA132">
         <v>1352.2</v>
@@ -23422,7 +23422,7 @@
         <v>71.151</v>
       </c>
       <c r="K133">
-        <v>68.61799999999999</v>
+        <v>68.618</v>
       </c>
       <c r="L133">
         <v>0.59</v>
@@ -23491,7 +23491,7 @@
         <v>743.8</v>
       </c>
       <c r="AH133">
-        <v>888.8579999999999</v>
+        <v>888.858</v>
       </c>
       <c r="AI133">
         <v>297.4</v>
@@ -23640,7 +23640,7 @@
         <v>767.1</v>
       </c>
       <c r="Y134">
-        <v>81.98999999999999</v>
+        <v>81.99</v>
       </c>
       <c r="Z134">
         <v>792.3</v>
@@ -23941,7 +23941,7 @@
         <v>82.52200000000001</v>
       </c>
       <c r="H136">
-        <v>80.35899999999999</v>
+        <v>80.359</v>
       </c>
       <c r="I136">
         <v>72.15600000000001</v>
@@ -23977,7 +23977,7 @@
         <v>61.1</v>
       </c>
       <c r="T136">
-        <v>950.7</v>
+        <v>950.7000000000001</v>
       </c>
       <c r="U136">
         <v>813</v>
@@ -23989,13 +23989,13 @@
         <v>2221.2</v>
       </c>
       <c r="X136">
-        <v>787.7</v>
+        <v>787.7000000000001</v>
       </c>
       <c r="Y136">
         <v>82.517</v>
       </c>
       <c r="Z136">
-        <v>832.7</v>
+        <v>832.7000000000001</v>
       </c>
       <c r="AA136">
         <v>1388.5</v>
@@ -24016,7 +24016,7 @@
         <v>180.3</v>
       </c>
       <c r="AG136">
-        <v>767.2</v>
+        <v>767.2000000000001</v>
       </c>
       <c r="AH136">
         <v>931.726</v>
@@ -24192,7 +24192,7 @@
         <v>200.4</v>
       </c>
       <c r="AG137">
-        <v>778.2</v>
+        <v>778.2000000000001</v>
       </c>
       <c r="AH137">
         <v>944.915</v>
@@ -24359,7 +24359,7 @@
         <v>1922.7</v>
       </c>
       <c r="AD138">
-        <v>773.2</v>
+        <v>773.2000000000001</v>
       </c>
       <c r="AE138">
         <v>94.09999999999999</v>
@@ -24380,7 +24380,7 @@
         <v>239</v>
       </c>
       <c r="AK138">
-        <v>753.2</v>
+        <v>753.2000000000001</v>
       </c>
       <c r="AL138">
         <v>37.8</v>
@@ -24523,7 +24523,7 @@
         <v>84.155</v>
       </c>
       <c r="Z139">
-        <v>884.2</v>
+        <v>884.2000000000001</v>
       </c>
       <c r="AA139">
         <v>1437.2</v>
@@ -24645,7 +24645,7 @@
         <v>84.586</v>
       </c>
       <c r="H140">
-        <v>83.11199999999999</v>
+        <v>83.112</v>
       </c>
       <c r="I140">
         <v>75.913</v>
@@ -24693,13 +24693,13 @@
         <v>2357.2</v>
       </c>
       <c r="X140">
-        <v>843.7</v>
+        <v>843.7000000000001</v>
       </c>
       <c r="Y140">
         <v>84.57899999999999</v>
       </c>
       <c r="Z140">
-        <v>902.2</v>
+        <v>902.2000000000001</v>
       </c>
       <c r="AA140">
         <v>1455</v>
@@ -24711,7 +24711,7 @@
         <v>1916.6</v>
       </c>
       <c r="AD140">
-        <v>816.7</v>
+        <v>816.7000000000001</v>
       </c>
       <c r="AE140">
         <v>95.90000000000001</v>
@@ -24985,7 +24985,7 @@
         <v>14771.6</v>
       </c>
       <c r="D142">
-        <v>86.36799999999999</v>
+        <v>86.368</v>
       </c>
       <c r="E142">
         <v>8523</v>
@@ -25045,7 +25045,7 @@
         <v>2426.9</v>
       </c>
       <c r="X142">
-        <v>862.7</v>
+        <v>862.7000000000001</v>
       </c>
       <c r="Y142">
         <v>85.78700000000001</v>
@@ -25397,7 +25397,7 @@
         <v>2495.1</v>
       </c>
       <c r="X144">
-        <v>884.2</v>
+        <v>884.2000000000001</v>
       </c>
       <c r="Y144">
         <v>87.22499999999999</v>
@@ -25531,7 +25531,7 @@
         <v>81.467</v>
       </c>
       <c r="J145">
-        <v>81.873</v>
+        <v>81.87300000000001</v>
       </c>
       <c r="K145">
         <v>79.82299999999999</v>
@@ -25698,7 +25698,7 @@
         <v>10288.9</v>
       </c>
       <c r="G146">
-        <v>88.35899999999999</v>
+        <v>88.359</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -25788,7 +25788,7 @@
         <v>294.9</v>
       </c>
       <c r="AK146">
-        <v>882.7</v>
+        <v>882.7000000000001</v>
       </c>
       <c r="AL146">
         <v>59.6</v>
@@ -25916,7 +25916,7 @@
         <v>1351.3</v>
       </c>
       <c r="U147">
-        <v>991.7</v>
+        <v>991.7000000000001</v>
       </c>
       <c r="V147">
         <v>427.6</v>
@@ -25925,7 +25925,7 @@
         <v>2610.9</v>
       </c>
       <c r="X147">
-        <v>922.7</v>
+        <v>922.7000000000001</v>
       </c>
       <c r="Y147">
         <v>89.065</v>
@@ -25964,7 +25964,7 @@
         <v>310.1</v>
       </c>
       <c r="AK147">
-        <v>892.2</v>
+        <v>892.2000000000001</v>
       </c>
       <c r="AL147">
         <v>60.3</v>
@@ -26101,7 +26101,7 @@
         <v>2630.7</v>
       </c>
       <c r="X148">
-        <v>927.2</v>
+        <v>927.2000000000001</v>
       </c>
       <c r="Y148">
         <v>89.708</v>
@@ -26128,7 +26128,7 @@
         <v>384.8</v>
       </c>
       <c r="AG148">
-        <v>906.2</v>
+        <v>906.2000000000001</v>
       </c>
       <c r="AH148">
         <v>1164.285</v>
@@ -26832,7 +26832,7 @@
         <v>314.6</v>
       </c>
       <c r="AG152">
-        <v>946.7</v>
+        <v>946.7000000000001</v>
       </c>
       <c r="AH152">
         <v>1238.056</v>
@@ -27080,7 +27080,7 @@
         <v>162.872</v>
       </c>
       <c r="CX153">
-        <v>279.575</v>
+        <v>279.5750000000001</v>
       </c>
       <c r="CY153">
         <v>1449.025</v>
@@ -27184,7 +27184,7 @@
         <v>241.7</v>
       </c>
       <c r="AG154">
-        <v>970.2</v>
+        <v>970.2000000000001</v>
       </c>
       <c r="AH154">
         <v>1286.323</v>
@@ -27285,19 +27285,19 @@
         <v>94.289</v>
       </c>
       <c r="H155">
-        <v>94.373</v>
+        <v>94.37300000000001</v>
       </c>
       <c r="I155">
         <v>92.54000000000001</v>
       </c>
       <c r="J155">
-        <v>92.748</v>
+        <v>92.74800000000001</v>
       </c>
       <c r="K155">
         <v>91.699</v>
       </c>
       <c r="L155">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="M155">
         <v>0.04</v>
@@ -27813,7 +27813,7 @@
         <v>93.274</v>
       </c>
       <c r="H158">
-        <v>93.876</v>
+        <v>93.87600000000001</v>
       </c>
       <c r="I158">
         <v>91.482</v>
@@ -27861,7 +27861,7 @@
         <v>3019.7</v>
       </c>
       <c r="X158">
-        <v>964.7</v>
+        <v>964.7000000000001</v>
       </c>
       <c r="Y158">
         <v>93.273</v>
@@ -27879,7 +27879,7 @@
         <v>2007.7</v>
       </c>
       <c r="AD158">
-        <v>921.2</v>
+        <v>921.2000000000001</v>
       </c>
       <c r="AE158">
         <v>86.7</v>
@@ -27900,7 +27900,7 @@
         <v>281.1</v>
       </c>
       <c r="AK158">
-        <v>929.2</v>
+        <v>929.2000000000001</v>
       </c>
       <c r="AL158">
         <v>43.7</v>
@@ -27977,7 +27977,7 @@
         <v>15134.1</v>
       </c>
       <c r="D159">
-        <v>94.85599999999999</v>
+        <v>94.856</v>
       </c>
       <c r="E159">
         <v>9760.200000000001</v>
@@ -28037,7 +28037,7 @@
         <v>3067.6</v>
       </c>
       <c r="X159">
-        <v>971.2</v>
+        <v>971.2000000000001</v>
       </c>
       <c r="Y159">
         <v>93.69199999999999</v>
@@ -28171,10 +28171,10 @@
         <v>92.166</v>
       </c>
       <c r="J160">
-        <v>91.85599999999999</v>
+        <v>91.856</v>
       </c>
       <c r="K160">
-        <v>93.48999999999999</v>
+        <v>93.49</v>
       </c>
       <c r="L160">
         <v>0.23</v>
@@ -28273,7 +28273,7 @@
         <v>263.924</v>
       </c>
       <c r="AR160">
-        <v>67.126</v>
+        <v>67.12600000000001</v>
       </c>
       <c r="AS160">
         <v>65.90000000000001</v>
@@ -28312,7 +28312,7 @@
         <v>201.476</v>
       </c>
       <c r="CX160">
-        <v>334.2</v>
+        <v>334.2000000000001</v>
       </c>
       <c r="CY160">
         <v>1802.7</v>
@@ -28389,7 +28389,7 @@
         <v>3117.8</v>
       </c>
       <c r="X161">
-        <v>972.2</v>
+        <v>972.2000000000001</v>
       </c>
       <c r="Y161">
         <v>95.068</v>
@@ -28437,7 +28437,7 @@
         <v>18.3</v>
       </c>
       <c r="AN161">
-        <v>580.3099999999999</v>
+        <v>580.31</v>
       </c>
       <c r="AO161">
         <v>2444.1</v>
@@ -28517,7 +28517,7 @@
         <v>95.395</v>
       </c>
       <c r="H162">
-        <v>95.48399999999999</v>
+        <v>95.484</v>
       </c>
       <c r="I162">
         <v>93.76600000000001</v>
@@ -28613,7 +28613,7 @@
         <v>18</v>
       </c>
       <c r="AN162">
-        <v>575.6319999999999</v>
+        <v>575.632</v>
       </c>
       <c r="AO162">
         <v>2439.7</v>
@@ -28759,7 +28759,7 @@
         <v>1972.8</v>
       </c>
       <c r="AD163">
-        <v>935.2</v>
+        <v>935.2000000000001</v>
       </c>
       <c r="AE163">
         <v>96.40000000000001</v>
@@ -28768,7 +28768,7 @@
         <v>212.2</v>
       </c>
       <c r="AG163">
-        <v>971.7</v>
+        <v>971.7000000000001</v>
       </c>
       <c r="AH163">
         <v>1690.733</v>
@@ -28780,7 +28780,7 @@
         <v>278</v>
       </c>
       <c r="AK163">
-        <v>965.7</v>
+        <v>965.7000000000001</v>
       </c>
       <c r="AL163">
         <v>43.4</v>
@@ -28801,7 +28801,7 @@
         <v>272.456</v>
       </c>
       <c r="AR163">
-        <v>73.73699999999999</v>
+        <v>73.737</v>
       </c>
       <c r="AS163">
         <v>53.4</v>
@@ -28857,7 +28857,7 @@
         <v>15672</v>
       </c>
       <c r="D164">
-        <v>96.251</v>
+        <v>96.25100000000001</v>
       </c>
       <c r="E164">
         <v>10220.6</v>
@@ -28890,7 +28890,7 @@
         <v>-0.15</v>
       </c>
       <c r="O164">
-        <v>515.7</v>
+        <v>515.7000000000001</v>
       </c>
       <c r="P164">
         <v>405.6</v>
@@ -29010,7 +29010,7 @@
         <v>283.691</v>
       </c>
       <c r="CV164">
-        <v>121.909</v>
+        <v>121.9090000000001</v>
       </c>
       <c r="CW164">
         <v>234.109</v>
@@ -29096,7 +29096,7 @@
         <v>994.3</v>
       </c>
       <c r="Y165">
-        <v>96.248</v>
+        <v>96.24800000000001</v>
       </c>
       <c r="Z165">
         <v>1311.1</v>
@@ -29111,7 +29111,7 @@
         <v>1937</v>
       </c>
       <c r="AD165">
-        <v>977.2</v>
+        <v>977.2000000000001</v>
       </c>
       <c r="AE165">
         <v>98.7</v>
@@ -29132,7 +29132,7 @@
         <v>311.9</v>
       </c>
       <c r="AK165">
-        <v>977.7</v>
+        <v>977.7000000000001</v>
       </c>
       <c r="AL165">
         <v>50.4</v>
@@ -29269,7 +29269,7 @@
         <v>3156</v>
       </c>
       <c r="X166">
-        <v>916.2</v>
+        <v>916.2000000000001</v>
       </c>
       <c r="Y166">
         <v>97.089</v>
@@ -29403,7 +29403,7 @@
         <v>97.801</v>
       </c>
       <c r="J167">
-        <v>98.129</v>
+        <v>98.12900000000001</v>
       </c>
       <c r="K167">
         <v>96.34699999999999</v>
@@ -29573,7 +29573,7 @@
         <v>98.523</v>
       </c>
       <c r="H168">
-        <v>99.498</v>
+        <v>99.49800000000001</v>
       </c>
       <c r="I168">
         <v>98.31399999999999</v>
@@ -29824,7 +29824,7 @@
         <v>238</v>
       </c>
       <c r="AG169">
-        <v>904.2</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AH169">
         <v>1735.099</v>
@@ -30110,7 +30110,7 @@
         <v>99.294</v>
       </c>
       <c r="K171">
-        <v>99.879</v>
+        <v>99.87900000000001</v>
       </c>
       <c r="L171">
         <v>-0.41</v>
@@ -30176,7 +30176,7 @@
         <v>275.5</v>
       </c>
       <c r="AG171">
-        <v>932.2</v>
+        <v>932.2000000000001</v>
       </c>
       <c r="AH171">
         <v>1731.81</v>
@@ -30352,7 +30352,7 @@
         <v>280.8</v>
       </c>
       <c r="AG172">
-        <v>935.2</v>
+        <v>935.2000000000001</v>
       </c>
       <c r="AH172">
         <v>1740.904</v>
@@ -30641,7 +30641,7 @@
         <v>101.023</v>
       </c>
       <c r="L174">
-        <v>-0.68</v>
+        <v>-0.6800000000000001</v>
       </c>
       <c r="M174">
         <v>0.03</v>
@@ -31002,7 +31002,7 @@
         <v>-0.43</v>
       </c>
       <c r="O176">
-        <v>573.7</v>
+        <v>573.7000000000001</v>
       </c>
       <c r="P176">
         <v>448.2</v>
@@ -31077,7 +31077,7 @@
         <v>17.8</v>
       </c>
       <c r="AN176">
-        <v>611.3049999999999</v>
+        <v>611.305</v>
       </c>
       <c r="AO176">
         <v>2528.2</v>
@@ -31178,7 +31178,7 @@
         <v>-0.5</v>
       </c>
       <c r="O177">
-        <v>580.2</v>
+        <v>580.2000000000001</v>
       </c>
       <c r="P177">
         <v>448.6</v>
@@ -31829,7 +31829,7 @@
         <v>174.8</v>
       </c>
       <c r="CW180">
-        <v>178.7</v>
+        <v>178.7000000000001</v>
       </c>
       <c r="CX180">
         <v>334.9010000000001</v>
@@ -32646,7 +32646,7 @@
         <v>1957.938</v>
       </c>
       <c r="AI185">
-        <v>548.2</v>
+        <v>548.2000000000001</v>
       </c>
       <c r="AJ185">
         <v>412.3</v>
@@ -32876,7 +32876,7 @@
         <v>-1</v>
       </c>
       <c r="CI186">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU186">
         <v>359.556</v>
@@ -32938,7 +32938,7 @@
         <v>-0.2</v>
       </c>
       <c r="O187">
-        <v>658.7</v>
+        <v>658.7000000000001</v>
       </c>
       <c r="P187">
         <v>558.8</v>
@@ -33052,7 +33052,7 @@
         <v>-1</v>
       </c>
       <c r="CI187">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU187">
         <v>364.761</v>
@@ -33114,7 +33114,7 @@
         <v>0.12</v>
       </c>
       <c r="O188">
-        <v>665.2</v>
+        <v>665.2000000000001</v>
       </c>
       <c r="P188">
         <v>566.4</v>
@@ -33174,7 +33174,7 @@
         <v>1997.784</v>
       </c>
       <c r="AI188">
-        <v>562.7</v>
+        <v>562.7000000000001</v>
       </c>
       <c r="AJ188">
         <v>417.2</v>
@@ -33228,7 +33228,7 @@
         <v>-1</v>
       </c>
       <c r="CI188">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU188">
         <v>377.98</v>
@@ -33404,7 +33404,7 @@
         <v>-1</v>
       </c>
       <c r="CI189">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU189">
         <v>387.911</v>
@@ -33613,7 +33613,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM190">
-        <v>0.007183780093211078</v>
+        <v>0.007183780093211079</v>
       </c>
       <c r="BN190">
         <v>0.01217558474847791</v>
@@ -33879,7 +33879,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM191">
-        <v>0.007183780093211078</v>
+        <v>0.007183780093211079</v>
       </c>
       <c r="BN191">
         <v>0.01217558474847791</v>
@@ -34118,7 +34118,7 @@
         <v>-1</v>
       </c>
       <c r="BB192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BC192">
         <v>0.007912990400088749</v>
@@ -34133,7 +34133,7 @@
         <v>0.004138414333876295</v>
       </c>
       <c r="BG192">
-        <v>0.005940741568430274</v>
+        <v>0.005940741568430275</v>
       </c>
       <c r="BH192">
         <v>0.01003595080416275</v>
@@ -34163,19 +34163,19 @@
         <v>0.005338741728637908</v>
       </c>
       <c r="BQ192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BR192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BS192">
         <v>0.01317896738063529</v>
       </c>
       <c r="BT192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BU192">
-        <v>0.005055088423257414</v>
+        <v>0.005055088423257415</v>
       </c>
       <c r="BV192">
         <v>0.00803007361770991</v>
@@ -34396,7 +34396,7 @@
         <v>0.01566411886781882</v>
       </c>
       <c r="BC193">
-        <v>0.008748265762293927</v>
+        <v>0.008748265762293928</v>
       </c>
       <c r="BD193">
         <v>0.004449942254746819</v>
@@ -34429,13 +34429,13 @@
         <v>0.0162792059495227</v>
       </c>
       <c r="BN193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="BO193">
         <v>0.01431101995151973</v>
       </c>
       <c r="BP193">
-        <v>0.00776384858661272</v>
+        <v>0.007763848586612721</v>
       </c>
       <c r="BQ193">
         <v>0.0156641188678186</v>
@@ -34510,10 +34510,10 @@
         <v>0.00955482011316322</v>
       </c>
       <c r="CQ193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="CR193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="CS193">
         <v>0.01148564106586103</v>
@@ -34710,7 +34710,7 @@
         <v>0.006258607928194548</v>
       </c>
       <c r="BG194">
-        <v>0.005758175044841884</v>
+        <v>0.005758175044841885</v>
       </c>
       <c r="BH194">
         <v>0.01045906538203933</v>
@@ -34776,13 +34776,13 @@
         <v>-0.1587188612099644</v>
       </c>
       <c r="CD194">
-        <v>0.01168224299065423</v>
+        <v>0.01168224299065424</v>
       </c>
       <c r="CE194">
         <v>0.0006119167224032385</v>
       </c>
       <c r="CF194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CG194">
         <v>0.004405286343612369</v>
@@ -34806,10 +34806,10 @@
         <v>0.004626400453376256</v>
       </c>
       <c r="CO194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CP194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CQ194">
         <v>0.01783646050498033</v>
@@ -35021,7 +35021,7 @@
         <v>0.00988038707961425</v>
       </c>
       <c r="BJ195">
-        <v>0.006341570085283132</v>
+        <v>0.006341570085283133</v>
       </c>
       <c r="BK195">
         <v>0.009687217798210579</v>
@@ -35039,7 +35039,7 @@
         <v>0.01520515613652873</v>
       </c>
       <c r="BP195">
-        <v>0.00532798395185563</v>
+        <v>0.005327983951855631</v>
       </c>
       <c r="BQ195">
         <v>0.01720956990953826</v>
@@ -35628,7 +35628,7 @@
         <v>-0.000957381099444099</v>
       </c>
       <c r="BK197">
-        <v>0.002744813110518995</v>
+        <v>0.002744813110518996</v>
       </c>
       <c r="BL197">
         <v>-0.003153626670671206</v>
@@ -35849,7 +35849,7 @@
         <v>2271.243</v>
       </c>
       <c r="AI198">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AJ198">
         <v>475.2</v>
@@ -36044,7 +36044,7 @@
         <v>194.871</v>
       </c>
       <c r="CW198">
-        <v>189.671</v>
+        <v>189.6710000000001</v>
       </c>
       <c r="CX198">
         <v>361.7280000000001</v>
@@ -36097,7 +36097,7 @@
         <v>0.58</v>
       </c>
       <c r="O199">
-        <v>779.7</v>
+        <v>779.7000000000001</v>
       </c>
       <c r="P199">
         <v>615</v>
@@ -36355,7 +36355,7 @@
         <v>192.828</v>
       </c>
       <c r="CX199">
-        <v>362.623</v>
+        <v>362.6230000000001</v>
       </c>
       <c r="CY199">
         <v>2708.377</v>
@@ -36522,7 +36522,7 @@
         <v>0.009475030810251139</v>
       </c>
       <c r="BC200">
-        <v>0.00521504160993369</v>
+        <v>0.005215041609933691</v>
       </c>
       <c r="BD200">
         <v>0.004581925787650931</v>
@@ -36594,7 +36594,7 @@
         <v>0.01467473406806219</v>
       </c>
       <c r="CA200">
-        <v>0.006529816813175326</v>
+        <v>0.006529816813175327</v>
       </c>
       <c r="CB200">
         <v>0.03644214981858163</v>
@@ -36612,7 +36612,7 @@
         <v>0.01262688876206286</v>
       </c>
       <c r="CG200">
-        <v>0.006529816813175326</v>
+        <v>0.006529816813175327</v>
       </c>
       <c r="CH200">
         <v>1652.892256</v>
@@ -36884,7 +36884,7 @@
         <v>0.008661947313450158</v>
       </c>
       <c r="BU201">
-        <v>0.003925347353803676</v>
+        <v>0.003925347353803677</v>
       </c>
       <c r="BV201">
         <v>0.004985097894305568</v>
@@ -37021,7 +37021,7 @@
         <v>0.1</v>
       </c>
       <c r="O202">
-        <v>804.7</v>
+        <v>804.7000000000001</v>
       </c>
       <c r="P202">
         <v>624.1</v>
@@ -37108,7 +37108,7 @@
         <v>423.429</v>
       </c>
       <c r="AR202">
-        <v>72.23999999999999</v>
+        <v>72.24</v>
       </c>
       <c r="AS202">
         <v>74.5</v>
@@ -37273,7 +37273,7 @@
         <v>423.429</v>
       </c>
       <c r="CV202">
-        <v>200.671</v>
+        <v>200.6710000000001</v>
       </c>
       <c r="CW202">
         <v>204.371</v>
@@ -37446,7 +37446,7 @@
         <v>1</v>
       </c>
       <c r="BB203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BC203">
         <v>-0.100893694605162</v>
@@ -37491,16 +37491,16 @@
         <v>-0.007733952049497339</v>
       </c>
       <c r="BQ203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BR203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BS203">
         <v>-0.1064963764583536</v>
       </c>
       <c r="BT203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BU203">
         <v>-0.001268877009791836</v>
@@ -37604,7 +37604,7 @@
         <v>21157.6</v>
       </c>
       <c r="C204">
-        <v>18584</v>
+        <v>18583.5</v>
       </c>
       <c r="D204">
         <v>113.86</v>
@@ -37616,7 +37616,7 @@
         <v>12917.3</v>
       </c>
       <c r="G204">
-        <v>111.442</v>
+        <v>111.45</v>
       </c>
       <c r="H204">
         <v>111.334</v>
@@ -37631,7 +37631,7 @@
         <v>117.835</v>
       </c>
       <c r="L204">
-        <v>-0.68</v>
+        <v>-0.6800000000000001</v>
       </c>
       <c r="M204">
         <v>-0.3</v>
@@ -37640,7 +37640,7 @@
         <v>-0.39</v>
       </c>
       <c r="O204">
-        <v>842.7</v>
+        <v>842.7000000000001</v>
       </c>
       <c r="P204">
         <v>699</v>
@@ -37697,7 +37697,7 @@
         <v>1419.3</v>
       </c>
       <c r="AH204">
-        <v>2779.483</v>
+        <v>2782.663000000001</v>
       </c>
       <c r="AI204">
         <v>727.5</v>
@@ -37715,13 +37715,13 @@
         <v>20.2</v>
       </c>
       <c r="AN204">
-        <v>1577.917</v>
+        <v>1574.737</v>
       </c>
       <c r="AO204">
         <v>3183.5</v>
       </c>
       <c r="AP204">
-        <v>533.02</v>
+        <v>533.712</v>
       </c>
       <c r="AQ204">
         <v>486.072</v>
@@ -37739,7 +37739,7 @@
         <v>1212.3</v>
       </c>
       <c r="AV204">
-        <v>734.317</v>
+        <v>731.1369999999999</v>
       </c>
       <c r="AW204">
         <v>15.6</v>
@@ -37772,7 +37772,7 @@
         <v>0.004541326067211582</v>
       </c>
       <c r="BG204">
-        <v>0.003546099290780091</v>
+        <v>0.003546099290780092</v>
       </c>
       <c r="BH204">
         <v>0.06620617348669389</v>
@@ -37901,10 +37901,10 @@
         <v>241.428</v>
       </c>
       <c r="CX204">
-        <v>1091.845</v>
+        <v>1088.665</v>
       </c>
       <c r="CY204">
-        <v>3265.555</v>
+        <v>3268.735000000001</v>
       </c>
     </row>
     <row r="205">
@@ -37915,7 +37915,7 @@
         <v>21585.44235748715</v>
       </c>
       <c r="C205">
-        <v>18942.38155188251</v>
+        <v>18941.87190967545</v>
       </c>
       <c r="D205">
         <v>113.9605830388693</v>
@@ -37924,7 +37924,7 @@
         <v>14673.73671911152</v>
       </c>
       <c r="G205">
-        <v>111.6277096841443</v>
+        <v>111.6357230155407</v>
       </c>
       <c r="H205">
         <v>111.7404429224393</v>
@@ -37936,7 +37936,7 @@
         <v>117.3625371307344</v>
       </c>
       <c r="K205">
-        <v>118.2425705193324</v>
+        <v>118.2425705193325</v>
       </c>
       <c r="O205">
         <v>829.9102013704255</v>
@@ -37945,7 +37945,7 @@
         <v>725.6751577500193</v>
       </c>
       <c r="R205">
-        <v>4084.568615360537</v>
+        <v>4084.244006383561</v>
       </c>
       <c r="T205">
         <v>2209.356316549763</v>
@@ -37981,7 +37981,7 @@
         <v>1438.934411606116</v>
       </c>
       <c r="AH205">
-        <v>2502.706822860537</v>
+        <v>2505.570163883561</v>
       </c>
       <c r="AI205">
         <v>733.0468076642578</v>
@@ -37999,10 +37999,10 @@
         <v>20.60847807035016</v>
       </c>
       <c r="AN205">
-        <v>1581.8617925</v>
+        <v>1578.6738425</v>
       </c>
       <c r="AP205">
-        <v>553.3610480456584</v>
+        <v>554.0794560702121</v>
       </c>
       <c r="AQ205">
         <v>504.62142385961</v>
@@ -38170,10 +38170,10 @@
         <v>228.4253838046478</v>
       </c>
       <c r="CX205">
-        <v>1077.24036864039</v>
+        <v>1074.05241864039</v>
       </c>
       <c r="CY205">
-        <v>3007.328246720147</v>
+        <v>3010.191587743171</v>
       </c>
       <c r="CZ205">
         <v>2172.257277183414</v>
@@ -38187,7 +38187,7 @@
         <v>21943.43505158746</v>
       </c>
       <c r="C206">
-        <v>19219.91256079211</v>
+        <v>19219.3954516509</v>
       </c>
       <c r="D206">
         <v>114.1617491166078</v>
@@ -38196,7 +38196,7 @@
         <v>14815.80710030079</v>
       </c>
       <c r="G206">
-        <v>111.870201744157</v>
+        <v>111.8782324831419</v>
       </c>
       <c r="H206">
         <v>112.1805865841747</v>
@@ -38217,7 +38217,7 @@
         <v>752.3503155000386</v>
       </c>
       <c r="R206">
-        <v>3868.447283460817</v>
+        <v>3867.862916187507</v>
       </c>
       <c r="T206">
         <v>2225.244106429406</v>
@@ -38235,16 +38235,16 @@
         <v>1479.519091108499</v>
       </c>
       <c r="Z206">
-        <v>1503.946787774315</v>
+        <v>1503.946787774316</v>
       </c>
       <c r="AA206">
-        <v>2349.604111874999</v>
+        <v>2349.604111875</v>
       </c>
       <c r="AD206">
         <v>1701.072552232697</v>
       </c>
       <c r="AE206">
-        <v>148.9000330528642</v>
+        <v>148.9000330528643</v>
       </c>
       <c r="AF206">
         <v>213.038119309442</v>
@@ -38253,7 +38253,7 @@
         <v>1458.568823212232</v>
       </c>
       <c r="AH206">
-        <v>2282.630836479567</v>
+        <v>2285.242389081257</v>
       </c>
       <c r="AI206">
         <v>735.9890273818207</v>
@@ -38271,10 +38271,10 @@
         <v>20.95026789626738</v>
       </c>
       <c r="AN206">
-        <v>1585.81644698125</v>
+        <v>1582.62052710625</v>
       </c>
       <c r="AP206">
-        <v>573.702096091317</v>
+        <v>574.4469121404243</v>
       </c>
       <c r="AQ206">
         <v>523.17084771922</v>
@@ -38325,7 +38325,7 @@
         <v>0.007546475243879858</v>
       </c>
       <c r="BK206">
-        <v>7.441029838517466e-05</v>
+        <v>7.441029838517466e-005</v>
       </c>
       <c r="BL206">
         <v>0.01261599416119275</v>
@@ -38388,7 +38388,7 @@
         <v>-0.01541106327944253</v>
       </c>
       <c r="CF206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CG206">
         <v>0.004331415828897622</v>
@@ -38415,10 +38415,10 @@
         <v>0.003388375028452018</v>
       </c>
       <c r="CO206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CP206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CQ206">
         <v>0.004013686011317352</v>
@@ -38442,10 +38442,10 @@
         <v>212.8181796626008</v>
       </c>
       <c r="CX206">
-        <v>1062.64559926203</v>
+        <v>1059.44967938703</v>
       </c>
       <c r="CY206">
-        <v>2805.801684198787</v>
+        <v>2808.413236800478</v>
       </c>
       <c r="CZ206">
         <v>2187.984375696709</v>
@@ -38459,7 +38459,7 @@
         <v>22292.36730669641</v>
       </c>
       <c r="C207">
-        <v>19461.20744551955</v>
+        <v>19460.68384437219</v>
       </c>
       <c r="D207">
         <v>114.5640812720848</v>
@@ -38468,13 +38468,13 @@
         <v>14925.92465583064</v>
       </c>
       <c r="G207">
-        <v>112.2544619788588</v>
+        <v>112.2625203024337</v>
       </c>
       <c r="H207">
         <v>112.7875213699921</v>
       </c>
       <c r="I207">
-        <v>118.586018087723</v>
+        <v>118.5860180877231</v>
       </c>
       <c r="J207">
         <v>118.4199680974019</v>
@@ -38489,13 +38489,13 @@
         <v>779.025473250058</v>
       </c>
       <c r="R207">
-        <v>3693.156768870957</v>
+        <v>3692.359326507944</v>
       </c>
       <c r="T207">
         <v>2240.915466001915</v>
       </c>
       <c r="U207">
-        <v>1536.634159546232</v>
+        <v>1536.634159546233</v>
       </c>
       <c r="V207">
         <v>288.5997902390438</v>
@@ -38525,7 +38525,7 @@
         <v>1478.203234818348</v>
       </c>
       <c r="AH207">
-        <v>2103.375780772254</v>
+        <v>2105.782248083929</v>
       </c>
       <c r="AI207">
         <v>739.3653450904994</v>
@@ -38543,10 +38543,10 @@
         <v>21.28340736166992</v>
       </c>
       <c r="AN207">
-        <v>1589.780988098703</v>
+        <v>1586.577078424016</v>
       </c>
       <c r="AP207">
-        <v>594.0431441369756</v>
+        <v>594.8143682106365</v>
       </c>
       <c r="AQ207">
         <v>541.72027157883</v>
@@ -38561,7 +38561,7 @@
         <v>0.6061875574147406</v>
       </c>
       <c r="AU207">
-        <v>1224.801959756483</v>
+        <v>1224.801959756484</v>
       </c>
       <c r="AY207">
         <v>19466.4</v>
@@ -38585,7 +38585,7 @@
         <v>0.003603603603603567</v>
       </c>
       <c r="BG207">
-        <v>0.003524229074890028</v>
+        <v>0.003524229074890029</v>
       </c>
       <c r="BH207">
         <v>0.007432437179045959</v>
@@ -38714,10 +38714,10 @@
         <v>197.6450735116695</v>
       </c>
       <c r="CX207">
-        <v>1048.060716519873</v>
+        <v>1044.856806845186</v>
       </c>
       <c r="CY207">
-        <v>2645.096052351083</v>
+        <v>2647.502519662759</v>
       </c>
       <c r="CZ207">
         <v>2203.49504390287</v>
@@ -38731,7 +38731,7 @@
         <v>22665.32026052663</v>
       </c>
       <c r="C208">
-        <v>19712.76574114252</v>
+        <v>19712.23537185332</v>
       </c>
       <c r="D208">
         <v>114.9664134275619</v>
@@ -38740,7 +38740,7 @@
         <v>15063.8318024063</v>
       </c>
       <c r="G208">
-        <v>112.683490264899</v>
+        <v>112.6915793867931</v>
       </c>
       <c r="H208">
         <v>113.3149172473705</v>
@@ -38761,10 +38761,10 @@
         <v>805.7006310000771</v>
       </c>
       <c r="R208">
-        <v>3572.920830269724</v>
+        <v>3571.960712378625</v>
       </c>
       <c r="T208">
-        <v>2257.160617551478</v>
+        <v>2257.160617551479</v>
       </c>
       <c r="U208">
         <v>1561.915937216751</v>
@@ -38797,7 +38797,7 @@
         <v>1497.837646424464</v>
       </c>
       <c r="AH208">
-        <v>1975.190937230528</v>
+        <v>1977.450748562489</v>
       </c>
       <c r="AI208">
         <v>743.3204601206656</v>
@@ -38815,10 +38815,10 @@
         <v>21.6394803409951</v>
       </c>
       <c r="AN208">
-        <v>1597.729893039196</v>
+        <v>1594.509963816136</v>
       </c>
       <c r="AP208">
-        <v>614.3841921826339</v>
+        <v>615.1818242808486</v>
       </c>
       <c r="AQ208">
         <v>560.2696954384398</v>
@@ -38986,10 +38986,10 @@
         <v>183.0507646822258</v>
       </c>
       <c r="CX208">
-        <v>1037.460197600756</v>
+        <v>1034.240268377696</v>
       </c>
       <c r="CY208">
-        <v>2535.460632668967</v>
+        <v>2537.720444000929</v>
       </c>
       <c r="CZ208">
         <v>2219.579504086085</v>
@@ -39003,7 +39003,7 @@
         <v>22915.11445643946</v>
       </c>
       <c r="C209">
-        <v>19856.55822236248</v>
+        <v>19856.02398435607</v>
       </c>
       <c r="D209">
         <v>115.3687455830389</v>
@@ -39012,7 +39012,7 @@
         <v>15228.27956964369</v>
       </c>
       <c r="G209">
-        <v>113.0691415060961</v>
+        <v>113.0772583124353</v>
       </c>
       <c r="H209">
         <v>113.8433632972791</v>
@@ -39033,7 +39033,7 @@
         <v>797.6809551436586</v>
       </c>
       <c r="R209">
-        <v>3653.283968063146</v>
+        <v>3652.377934288124</v>
       </c>
       <c r="T209">
         <v>2284.640284594805</v>
@@ -39069,7 +39069,7 @@
         <v>1520.860154840823</v>
       </c>
       <c r="AH209">
-        <v>2043.571100826156</v>
+        <v>2045.909145743368</v>
       </c>
       <c r="AI209">
         <v>749.0255657576989</v>
@@ -39087,10 +39087,10 @@
         <v>21.87796876867306</v>
       </c>
       <c r="AN209">
-        <v>1609.71286723699</v>
+        <v>1606.468788544757</v>
       </c>
       <c r="AP209">
-        <v>608.2688164673432</v>
+        <v>609.0585092011908</v>
       </c>
       <c r="AQ209">
         <v>554.6929574085671</v>
@@ -39171,7 +39171,7 @@
         <v>0.01102098682222774</v>
       </c>
       <c r="BU209">
-        <v>0.004663517061526345</v>
+        <v>0.004663517061526346</v>
       </c>
       <c r="BV209">
         <v>0.005492326385298174</v>
@@ -39258,10 +39258,10 @@
         <v>194.3326083491319</v>
       </c>
       <c r="CX209">
-        <v>1055.019909828423</v>
+        <v>1051.77583113619</v>
       </c>
       <c r="CY209">
-        <v>2598.264058234723</v>
+        <v>2600.602103151935</v>
       </c>
       <c r="CZ209">
         <v>2246.587963321157</v>
@@ -39275,7 +39275,7 @@
         <v>23143.73251005855</v>
       </c>
       <c r="C210">
-        <v>19971.65504454801</v>
+        <v>19971.11770987721</v>
       </c>
       <c r="D210">
         <v>115.8716607773852</v>
@@ -39284,7 +39284,7 @@
         <v>15390.22939611291</v>
       </c>
       <c r="G210">
-        <v>113.5144986733316</v>
+        <v>113.5226474501786</v>
       </c>
       <c r="H210">
         <v>114.4361950166039</v>
@@ -39305,7 +39305,7 @@
         <v>789.6612792872402</v>
       </c>
       <c r="R210">
-        <v>3715.027129150194</v>
+        <v>3714.140878107185</v>
       </c>
       <c r="T210">
         <v>2311.614108710991</v>
@@ -39341,7 +39341,7 @@
         <v>1543.882663257182</v>
       </c>
       <c r="AH210">
-        <v>2089.217133240834</v>
+        <v>2091.607401676981</v>
       </c>
       <c r="AI210">
         <v>755.5236676854063</v>
@@ -39350,7 +39350,7 @@
         <v>552.8435366290881</v>
       </c>
       <c r="AK210">
-        <v>1438.552700872405</v>
+        <v>1438.552700872406</v>
       </c>
       <c r="AL210">
         <v>68.51292740575495</v>
@@ -39359,10 +39359,10 @@
         <v>22.09623949328765</v>
       </c>
       <c r="AN210">
-        <v>1625.80999590936</v>
+        <v>1622.533476430204</v>
       </c>
       <c r="AP210">
-        <v>602.1534407520526</v>
+        <v>602.935194121533</v>
       </c>
       <c r="AQ210">
         <v>549.1162193786943</v>
@@ -39401,7 +39401,7 @@
         <v>0.003565062388591667</v>
       </c>
       <c r="BG210">
-        <v>0.004359197907584988</v>
+        <v>0.004359197907584989</v>
       </c>
       <c r="BH210">
         <v>0.01063480780797188</v>
@@ -39530,10 +39530,10 @@
         <v>206.407448306712</v>
       </c>
       <c r="CX210">
-        <v>1076.693776530666</v>
+        <v>1073.41725705151</v>
       </c>
       <c r="CY210">
-        <v>2638.333352619528</v>
+        <v>2640.723621055675</v>
       </c>
       <c r="CZ210">
         <v>2273.090579629088</v>
@@ -39547,7 +39547,7 @@
         <v>23370.03277695892</v>
       </c>
       <c r="C211">
-        <v>20075.54589769454</v>
+        <v>20075.00576785443</v>
       </c>
       <c r="D211">
         <v>116.3745759717315</v>
@@ -39556,7 +39556,7 @@
         <v>15564.87708815364</v>
       </c>
       <c r="G211">
-        <v>114.0125308687194</v>
+        <v>114.0207153974155</v>
       </c>
       <c r="H211">
         <v>115.0295571360764</v>
@@ -39577,7 +39577,7 @@
         <v>781.6416034308218</v>
       </c>
       <c r="R211">
-        <v>3763.340025849981</v>
+        <v>3762.454941683361</v>
       </c>
       <c r="T211">
         <v>2338.532566934654</v>
@@ -39613,7 +39613,7 @@
         <v>1566.905171673542</v>
       </c>
       <c r="AH211">
-        <v>2120.404127327369</v>
+        <v>2122.830076730514</v>
       </c>
       <c r="AI211">
         <v>762.1035031796422</v>
@@ -39631,10 +39631,10 @@
         <v>22.31229733497988</v>
       </c>
       <c r="AN211">
-        <v>1642.935898522611</v>
+        <v>1639.624864952847</v>
       </c>
       <c r="AP211">
-        <v>596.038065036762</v>
+        <v>596.8118790418752</v>
       </c>
       <c r="AQ211">
         <v>543.5394813488216</v>
@@ -39802,10 +39802,10 @@
         <v>218.5640218308206</v>
       </c>
       <c r="CX211">
-        <v>1099.396417173789</v>
+        <v>1096.085383604025</v>
       </c>
       <c r="CY211">
-        <v>2663.943608676191</v>
+        <v>2666.369558079336</v>
       </c>
       <c r="CZ211">
         <v>2299.537830044497</v>
@@ -39816,10 +39816,10 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>23606.65773015176</v>
+        <v>23606.65773015177</v>
       </c>
       <c r="C212">
-        <v>20183.31171209756</v>
+        <v>20182.76868283282</v>
       </c>
       <c r="D212">
         <v>116.978074204947</v>
@@ -39828,7 +39828,7 @@
         <v>15749.10021980565</v>
       </c>
       <c r="G212">
-        <v>114.5304005837664</v>
+        <v>114.5386222883721</v>
       </c>
       <c r="H212">
         <v>115.6352420918661</v>
@@ -39849,7 +39849,7 @@
         <v>773.6219275744032</v>
       </c>
       <c r="R212">
-        <v>3789.939509626796</v>
+        <v>3789.036096691753</v>
       </c>
       <c r="T212">
         <v>2365.697655043192</v>
@@ -39885,7 +39885,7 @@
         <v>1589.927680089901</v>
       </c>
       <c r="AH212">
-        <v>2131.569991357856</v>
+        <v>2134.008715599924</v>
       </c>
       <c r="AI212">
         <v>769.4129060861806</v>
@@ -39903,10 +39903,10 @@
         <v>22.53821256423535</v>
       </c>
       <c r="AN212">
-        <v>1658.36951826894</v>
+        <v>1655.02738109183</v>
       </c>
       <c r="AP212">
-        <v>589.9226893214712</v>
+        <v>590.6885639622172</v>
       </c>
       <c r="AQ212">
         <v>537.9627433189488</v>
@@ -39948,7 +39948,7 @@
         <v>0.005185825410544354</v>
       </c>
       <c r="BH212">
-        <v>0.01183582309122277</v>
+        <v>0.01183582309122278</v>
       </c>
       <c r="BI212">
         <v>0.007260626229012246</v>
@@ -40005,7 +40005,7 @@
         <v>0.005265913175032333</v>
       </c>
       <c r="CA212">
-        <v>0.0120838822321585</v>
+        <v>0.01208388223215851</v>
       </c>
       <c r="CB212">
         <v>0.02286587698255294</v>
@@ -40023,7 +40023,7 @@
         <v>-0.0102600422255138</v>
       </c>
       <c r="CG212">
-        <v>0.0120838822321585</v>
+        <v>0.01208388223215851</v>
       </c>
       <c r="CH212">
         <v>1762.330095</v>
@@ -40071,16 +40071,16 @@
         <v>235.6591842554544</v>
       </c>
       <c r="CW212">
-        <v>231.4501627672317</v>
+        <v>231.4501627672318</v>
       </c>
       <c r="CX212">
-        <v>1120.406774949991</v>
+        <v>1117.064637772881</v>
       </c>
       <c r="CY212">
-        <v>2669.532734676804</v>
+        <v>2671.971458918873</v>
       </c>
       <c r="CZ212">
-        <v>2326.231710344779</v>
+        <v>2326.23171034478</v>
       </c>
     </row>
     <row r="213">
@@ -40091,7 +40091,7 @@
         <v>23846.75936342269</v>
       </c>
       <c r="C213">
-        <v>20293.48628620054</v>
+        <v>20292.94029270383</v>
       </c>
       <c r="D213">
         <v>117.4809893992933</v>
@@ -40100,7 +40100,7 @@
         <v>15938.31923299399</v>
       </c>
       <c r="G213">
-        <v>115.0306215518262</v>
+        <v>115.0388791654047</v>
       </c>
       <c r="H213">
         <v>116.261472570254</v>
@@ -40121,7 +40121,7 @@
         <v>765.6809605056582</v>
       </c>
       <c r="R213">
-        <v>3812.792815644009</v>
+        <v>3811.872562297073</v>
       </c>
       <c r="T213">
         <v>2394.137324934136</v>
@@ -40157,13 +40157,13 @@
         <v>1612.953773964624</v>
       </c>
       <c r="AH213">
-        <v>2140.817343125016</v>
+        <v>2143.266647240615</v>
       </c>
       <c r="AI213">
         <v>776.1379567080762</v>
       </c>
       <c r="AJ213">
-        <v>569.6370184838466</v>
+        <v>569.6370184838467</v>
       </c>
       <c r="AK213">
         <v>1482.250975481018</v>
@@ -40175,10 +40175,10 @@
         <v>22.76744711787436</v>
       </c>
       <c r="AN213">
-        <v>1671.975472518994</v>
+        <v>1668.605915056459</v>
       </c>
       <c r="AP213">
-        <v>583.8673327163461</v>
+        <v>584.6253459132987</v>
       </c>
       <c r="AQ213">
         <v>532.4407379612392</v>
@@ -40229,7 +40229,7 @@
         <v>0</v>
       </c>
       <c r="BK213">
-        <v>-0.00135521758771262</v>
+        <v>-0.001355217587712621</v>
       </c>
       <c r="BL213">
         <v>0.0007967333930882781</v>
@@ -40346,10 +40346,10 @@
         <v>243.6972187468371</v>
       </c>
       <c r="CX213">
-        <v>1139.534734557755</v>
+        <v>1136.16517709522</v>
       </c>
       <c r="CY213">
-        <v>2673.258081086255</v>
+        <v>2675.707385201854</v>
       </c>
       <c r="CZ213">
         <v>2354.174073483847</v>
@@ -40363,7 +40363,7 @@
         <v>24088.12524399473</v>
       </c>
       <c r="C214">
-        <v>20403.87031766873</v>
+        <v>20403.32135430462</v>
       </c>
       <c r="D214">
         <v>118.0844876325088</v>
@@ -40372,7 +40372,7 @@
         <v>16122.95868810736</v>
       </c>
       <c r="G214">
-        <v>115.5341148455821</v>
+        <v>115.5424086030413</v>
       </c>
       <c r="H214">
         <v>116.8688724528375</v>
@@ -40381,7 +40381,7 @@
         <v>124.2328689441611</v>
       </c>
       <c r="J214">
-        <v>124.0589119548094</v>
+        <v>124.0589119548095</v>
       </c>
       <c r="K214">
         <v>124.9891575625008</v>
@@ -40393,7 +40393,7 @@
         <v>757.739993436913</v>
       </c>
       <c r="R214">
-        <v>3836.008097704027</v>
+        <v>3835.072915134779</v>
       </c>
       <c r="T214">
         <v>2422.60719440282</v>
@@ -40420,7 +40420,7 @@
         <v>1847.204573202166</v>
       </c>
       <c r="AE214">
-        <v>170.1493142683267</v>
+        <v>170.1493142683268</v>
       </c>
       <c r="AF214">
         <v>440.94391817366</v>
@@ -40429,7 +40429,7 @@
         <v>1635.979867839348</v>
       </c>
       <c r="AH214">
-        <v>2150.900510137718</v>
+        <v>2153.361350381115</v>
       </c>
       <c r="AI214">
         <v>783.6072882880035</v>
@@ -40447,10 +40447,10 @@
         <v>22.99788869856192</v>
       </c>
       <c r="AN214">
-        <v>1685.107587566309</v>
+        <v>1681.711564753664</v>
       </c>
       <c r="AP214">
-        <v>577.8119761112209</v>
+        <v>578.5621278643801</v>
       </c>
       <c r="AQ214">
         <v>526.9187326035294</v>
@@ -40618,10 +40618,10 @@
         <v>256.6885556844741</v>
       </c>
       <c r="CX214">
-        <v>1158.188854962779</v>
+        <v>1154.792832150134</v>
       </c>
       <c r="CY214">
-        <v>2677.819242741247</v>
+        <v>2680.280082984644</v>
       </c>
       <c r="CZ214">
         <v>2382.146636200653</v>
@@ -40635,7 +40635,7 @@
         <v>24319.48250009958</v>
       </c>
       <c r="C215">
-        <v>20500.63962039797</v>
+        <v>20500.08805346888</v>
       </c>
       <c r="D215">
         <v>118.5874028268551</v>
@@ -40644,7 +40644,7 @@
         <v>16277.62285400278</v>
       </c>
       <c r="G215">
-        <v>116.0619152110894</v>
+        <v>116.0702468573421</v>
       </c>
       <c r="H215">
         <v>117.4755405283336</v>
@@ -40665,7 +40665,7 @@
         <v>749.7990263681678</v>
       </c>
       <c r="R215">
-        <v>3861.284202004012</v>
+        <v>3860.33174296864</v>
       </c>
       <c r="T215">
         <v>2450.837983881064</v>
@@ -40692,7 +40692,7 @@
         <v>1869.908839954043</v>
       </c>
       <c r="AE215">
-        <v>171.1567419285857</v>
+        <v>171.1567419285858</v>
       </c>
       <c r="AF215">
         <v>464.1979654314882</v>
@@ -40701,7 +40701,7 @@
         <v>1659.005961714072</v>
       </c>
       <c r="AH215">
-        <v>2161.555290467496</v>
+        <v>2164.02832082015</v>
       </c>
       <c r="AI215">
         <v>790.4603835208204</v>
@@ -40719,13 +40719,13 @@
         <v>23.21877464844839</v>
       </c>
       <c r="AN215">
-        <v>1699.728911536516</v>
+        <v>1696.30342214849</v>
       </c>
       <c r="AP215">
-        <v>571.7566195060956</v>
+        <v>572.4989098154614</v>
       </c>
       <c r="AQ215">
-        <v>521.3967272458196</v>
+        <v>521.3967272458197</v>
       </c>
       <c r="AR215">
         <v>80.23580346542266</v>
@@ -40734,7 +40734,7 @@
         <v>1267.160601421031</v>
       </c>
       <c r="AT215">
-        <v>0.6274625409363856</v>
+        <v>0.6274625409363857</v>
       </c>
       <c r="AU215">
         <v>1267.788063961968</v>
@@ -40785,7 +40785,7 @@
         <v>0.008745573625009717</v>
       </c>
       <c r="BO215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="BP215">
         <v>0.005565862708719838</v>
@@ -40851,10 +40851,10 @@
         <v>0.004953636990441712</v>
       </c>
       <c r="CK215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="CL215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="CM215">
         <v>0.004486629843067691</v>
@@ -40881,7 +40881,7 @@
         <v>0.007524245191184997</v>
       </c>
       <c r="CU215">
-        <v>521.3967272458196</v>
+        <v>521.3967272458197</v>
       </c>
       <c r="CV215">
         <v>228.4022991223482</v>
@@ -40890,10 +40890,10 @@
         <v>269.0636562750008</v>
       </c>
       <c r="CX215">
-        <v>1178.332184290696</v>
+        <v>1174.90669490267</v>
       </c>
       <c r="CY215">
-        <v>2682.952017713315</v>
+        <v>2685.42504806597</v>
       </c>
       <c r="CZ215">
         <v>2409.880118927021</v>
@@ -40907,7 +40907,7 @@
         <v>24567.38032506074</v>
       </c>
       <c r="C216">
-        <v>20608.19597743577</v>
+        <v>20607.64151671748</v>
       </c>
       <c r="D216">
         <v>119.1909010600707</v>
@@ -40916,7 +40916,7 @@
         <v>16457.78683190653</v>
       </c>
       <c r="G216">
-        <v>116.5962878034699</v>
+        <v>116.6046578103114</v>
       </c>
       <c r="H216">
         <v>118.0978015326258</v>
@@ -40937,7 +40937,7 @@
         <v>741.8580592994227</v>
       </c>
       <c r="R216">
-        <v>3888.062711827341</v>
+        <v>3887.095122954102</v>
       </c>
       <c r="T216">
         <v>2479.463884501403</v>
@@ -40973,7 +40973,7 @@
         <v>1682.032055588796</v>
       </c>
       <c r="AH216">
-        <v>2173.847858949973</v>
+        <v>2176.33495320148</v>
       </c>
       <c r="AI216">
         <v>798.0647435013789</v>
@@ -40991,10 +40991,10 @@
         <v>23.45545253555352</v>
       </c>
       <c r="AN216">
-        <v>1714.214852877369</v>
+        <v>1710.760169752623</v>
       </c>
       <c r="AP216">
-        <v>565.7012629009704</v>
+        <v>566.4356917665429</v>
       </c>
       <c r="AQ216">
         <v>515.87472188811</v>
@@ -41162,10 +41162,10 @@
         <v>282.1900216132689</v>
       </c>
       <c r="CX216">
-        <v>1198.340130989259</v>
+        <v>1194.885447864513</v>
       </c>
       <c r="CY216">
-        <v>2689.722580838083</v>
+        <v>2692.209675089589</v>
       </c>
       <c r="CZ216">
         <v>2438.008712795483</v>
@@ -41179,7 +41179,7 @@
         <v>24829.39557821773</v>
       </c>
       <c r="C217">
-        <v>20726.01574536909</v>
+        <v>20725.45811472592</v>
       </c>
       <c r="D217">
         <v>119.7943992932862</v>
@@ -41188,7 +41188,7 @@
         <v>16645.75687471078</v>
       </c>
       <c r="G217">
-        <v>117.1302950886003</v>
+        <v>117.1387034298066</v>
       </c>
       <c r="H217">
         <v>118.7238434783608</v>
@@ -41209,7 +41209,7 @@
         <v>750.2176821578402</v>
       </c>
       <c r="R217">
-        <v>3921.213685425904</v>
+        <v>3920.237829706089</v>
       </c>
       <c r="T217">
         <v>2502.846122237667</v>
@@ -41245,7 +41245,7 @@
         <v>1697.18027667992</v>
       </c>
       <c r="AH217">
-        <v>2192.377508578329</v>
+        <v>2194.885802558641</v>
       </c>
       <c r="AI217">
         <v>805.7566403577345</v>
@@ -41263,10 +41263,10 @@
         <v>23.70560889136756</v>
       </c>
       <c r="AN217">
-        <v>1728.836176847575</v>
+        <v>1725.352027147448</v>
       </c>
       <c r="AP217">
-        <v>572.0758640111187</v>
+        <v>572.818568783727</v>
       </c>
       <c r="AQ217">
         <v>521.6878529353728</v>
@@ -41320,7 +41320,7 @@
         <v>0.0006773538044704264</v>
       </c>
       <c r="BL217">
-        <v>0.0008437980840820813</v>
+        <v>0.0008437980840820814</v>
       </c>
       <c r="BM217">
         <v>0.007547627715083216</v>
@@ -41434,10 +41434,10 @@
         <v>284.0687874223617</v>
       </c>
       <c r="CX217">
-        <v>1207.148323912202</v>
+        <v>1203.664174212075</v>
       </c>
       <c r="CY217">
-        <v>2714.065361513702</v>
+        <v>2716.573655494013</v>
       </c>
       <c r="CZ217">
         <v>2461.015885782038</v>
@@ -41451,7 +41451,7 @@
         <v>25104.79078197824</v>
       </c>
       <c r="C218">
-        <v>20849.70031952842</v>
+        <v>20849.13936116856</v>
       </c>
       <c r="D218">
         <v>120.3978975265018</v>
@@ -41460,7 +41460,7 @@
         <v>16845.38397443313</v>
       </c>
       <c r="G218">
-        <v>117.6893416762308</v>
+        <v>117.6977901492788</v>
       </c>
       <c r="H218">
         <v>119.3564648281164</v>
@@ -41481,7 +41481,7 @@
         <v>758.5773050162576</v>
       </c>
       <c r="R218">
-        <v>3954.627102422658</v>
+        <v>3953.640713739482</v>
       </c>
       <c r="T218">
         <v>2526.547972171677</v>
@@ -41517,7 +41517,7 @@
         <v>1712.328497771043</v>
       </c>
       <c r="AH218">
-        <v>2210.357305828753</v>
+        <v>2212.886170453051</v>
       </c>
       <c r="AI218">
         <v>813.5249597333811</v>
@@ -41535,10 +41535,10 @@
         <v>23.96853961677886</v>
       </c>
       <c r="AN218">
-        <v>1744.269796593905</v>
+        <v>1740.754543286431</v>
       </c>
       <c r="AP218">
-        <v>578.450465121267</v>
+        <v>579.2014458009111</v>
       </c>
       <c r="AQ218">
         <v>527.5009839826356</v>
@@ -41706,10 +41706,10 @@
         <v>286.0239757507455</v>
       </c>
       <c r="CX218">
-        <v>1216.768812611269</v>
+        <v>1213.253559303796</v>
       </c>
       <c r="CY218">
-        <v>2737.858289811389</v>
+        <v>2740.387154435686</v>
       </c>
       <c r="CZ218">
         <v>2484.342670966339</v>
@@ -41723,7 +41723,7 @@
         <v>25375.33970441778</v>
       </c>
       <c r="C219">
-        <v>20966.57752931828</v>
+        <v>20966.01342639294</v>
       </c>
       <c r="D219">
         <v>121.0013957597173</v>
@@ -41732,7 +41732,7 @@
         <v>17033.97850242943</v>
       </c>
       <c r="G219">
-        <v>118.2588028104473</v>
+        <v>118.2672921629579</v>
       </c>
       <c r="H219">
         <v>119.970209236099</v>
@@ -41753,7 +41753,7 @@
         <v>766.9369278746751</v>
       </c>
       <c r="R219">
-        <v>3986.221375041122</v>
+        <v>3985.220019602897</v>
       </c>
       <c r="T219">
         <v>2550.134057057684</v>
@@ -41765,7 +41765,7 @@
         <v>600.0089708072613</v>
       </c>
       <c r="W219">
-        <v>4354.235166288739</v>
+        <v>4354.23516628874</v>
       </c>
       <c r="X219">
         <v>1751.703562267338</v>
@@ -41789,7 +41789,7 @@
         <v>1727.476718862167</v>
       </c>
       <c r="AH219">
-        <v>2225.773354239442</v>
+        <v>2228.319856328673</v>
       </c>
       <c r="AI219">
         <v>821.3384361841157</v>
@@ -41807,10 +41807,10 @@
         <v>24.22684340517069</v>
       </c>
       <c r="AN219">
-        <v>1760.448020801679</v>
+        <v>1756.900163274224</v>
       </c>
       <c r="AP219">
-        <v>584.8250662314153</v>
+        <v>585.5843228180952</v>
       </c>
       <c r="AQ219">
         <v>533.3141150298984</v>
@@ -41909,10 +41909,10 @@
         <v>0.006974459907471253</v>
       </c>
       <c r="CA219">
-        <v>0.00888667392476794</v>
+        <v>0.008886673924767941</v>
       </c>
       <c r="CB219">
-        <v>0.01729749752234166</v>
+        <v>0.01729749752234167</v>
       </c>
       <c r="CC219">
         <v>0.0243540099260422</v>
@@ -41927,7 +41927,7 @@
         <v>0.01102013308747529</v>
       </c>
       <c r="CG219">
-        <v>0.00888667392476794</v>
+        <v>0.008886673924767941</v>
       </c>
       <c r="CH219">
         <v>1901.4028665</v>
@@ -41978,13 +41978,13 @@
         <v>288.0243211542173</v>
       </c>
       <c r="CX219">
-        <v>1227.133905771781</v>
+        <v>1223.586048244326</v>
       </c>
       <c r="CY219">
-        <v>2759.087469269341</v>
+        <v>2761.633971358571</v>
       </c>
       <c r="CZ219">
-        <v>2507.553691102637</v>
+        <v>2507.553691102638</v>
       </c>
     </row>
     <row r="220">
@@ -41995,7 +41995,7 @@
         <v>25643.57084013862</v>
       </c>
       <c r="C220">
-        <v>21080.52233599513</v>
+        <v>21079.95516740021</v>
       </c>
       <c r="D220">
         <v>121.6048939929329</v>
@@ -42004,7 +42004,7 @@
         <v>17213.72615687182</v>
       </c>
       <c r="G220">
-        <v>118.8286771331079</v>
+        <v>118.8372073947424</v>
       </c>
       <c r="H220">
         <v>120.5977686867814</v>
@@ -42025,7 +42025,7 @@
         <v>775.2965507330927</v>
       </c>
       <c r="R220">
-        <v>4017.327209293312</v>
+        <v>4016.306906441962</v>
       </c>
       <c r="T220">
         <v>2573.664776051168</v>
@@ -42034,7 +42034,7 @@
         <v>1778.439056748718</v>
       </c>
       <c r="V220">
-        <v>613.28227239983</v>
+        <v>613.2822723998301</v>
       </c>
       <c r="W220">
         <v>4390.679624230646</v>
@@ -42061,7 +42061,7 @@
         <v>1742.624939953291</v>
       </c>
       <c r="AH220">
-        <v>2239.617903249027</v>
+        <v>2242.180244854402</v>
       </c>
       <c r="AI220">
         <v>829.2091960899469</v>
@@ -42079,10 +42079,10 @@
         <v>24.48293431064016</v>
       </c>
       <c r="AN220">
-        <v>1777.709306044285</v>
+        <v>1774.12666158756</v>
       </c>
       <c r="AP220">
-        <v>591.1996673415637</v>
+        <v>591.9671998352793</v>
       </c>
       <c r="AQ220">
         <v>539.1272460771612</v>
@@ -42124,7 +42124,7 @@
         <v>0.004987531172069959</v>
       </c>
       <c r="BH220">
-        <v>0.01055230018147268</v>
+        <v>0.01055230018147269</v>
       </c>
       <c r="BI220">
         <v>0.005705929579080227</v>
@@ -42250,10 +42250,10 @@
         <v>290.0819500127857</v>
       </c>
       <c r="CX220">
-        <v>1238.582059967123</v>
+        <v>1234.999415510399</v>
       </c>
       <c r="CY220">
-        <v>2778.745149326188</v>
+        <v>2781.307490931563</v>
       </c>
       <c r="CZ220">
         <v>2530.709345346413</v>
@@ -42267,7 +42267,7 @@
         <v>25916.75361112217</v>
       </c>
       <c r="C221">
-        <v>21196.56171632412</v>
+        <v>21195.99142570541</v>
       </c>
       <c r="D221">
         <v>122.2083922261484</v>
@@ -42276,7 +42276,7 @@
         <v>17395.45134775567</v>
       </c>
       <c r="G221">
-        <v>119.4048494284857</v>
+        <v>119.4134210513517</v>
       </c>
       <c r="H221">
         <v>121.2226124983205</v>
@@ -42288,7 +42288,7 @@
         <v>130.931283432402</v>
       </c>
       <c r="K221">
-        <v>131.9130609557027</v>
+        <v>131.9130609557028</v>
       </c>
       <c r="O221">
         <v>1042.670768228261</v>
@@ -42297,7 +42297,7 @@
         <v>785.8862559089233</v>
       </c>
       <c r="R221">
-        <v>4091.484623122842</v>
+        <v>4090.493986475462</v>
       </c>
       <c r="T221">
         <v>2606.70192410011</v>
@@ -42333,7 +42333,7 @@
         <v>1755.882090143718</v>
       </c>
       <c r="AH221">
-        <v>2296.310957891922</v>
+        <v>2298.938161888527</v>
       </c>
       <c r="AI221">
         <v>837.1375370285762</v>
@@ -42342,7 +42342,7 @@
         <v>619.083793769669</v>
       </c>
       <c r="AK221">
-        <v>1610.916298350794</v>
+        <v>1610.916298350795</v>
       </c>
       <c r="AL221">
         <v>76.72196600007965</v>
@@ -42351,10 +42351,10 @@
         <v>24.74375273871648</v>
       </c>
       <c r="AN221">
-        <v>1795.17366523092</v>
+        <v>1791.555824586935</v>
       </c>
       <c r="AP221">
-        <v>599.2748099064009</v>
+        <v>600.0528260567428</v>
       </c>
       <c r="AQ221">
         <v>546.4911361690445</v>
@@ -42423,16 +42423,16 @@
         <v>0.005743000717874924</v>
       </c>
       <c r="BQ221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BR221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BS221">
         <v>0.01065307061510912</v>
       </c>
       <c r="BT221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BU221">
         <v>0.005181221993932006</v>
@@ -42459,7 +42459,7 @@
         <v>-0.001714762889994725</v>
       </c>
       <c r="CC221">
-        <v>0.02228762084328006</v>
+        <v>0.02228762084328007</v>
       </c>
       <c r="CD221">
         <v>0.007607575150842427</v>
@@ -42522,10 +42522,10 @@
         <v>290.6464008595317</v>
       </c>
       <c r="CX221">
-        <v>1248.682529061876</v>
+        <v>1245.064688417891</v>
       </c>
       <c r="CY221">
-        <v>2842.802094060967</v>
+        <v>2845.429298057572</v>
       </c>
       <c r="CZ221">
         <v>2563.165793769669</v>
@@ -42536,10 +42536,10 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>26203.1056248257</v>
+        <v>26203.10562482571</v>
       </c>
       <c r="C222">
-        <v>21322.75977886603</v>
+        <v>21322.18609290556</v>
       </c>
       <c r="D222">
         <v>122.9124734982332</v>
@@ -42548,7 +42548,7 @@
         <v>17594.766204882</v>
       </c>
       <c r="G222">
-        <v>119.9779235871222</v>
+        <v>119.9865363488162</v>
       </c>
       <c r="H222">
         <v>121.8589135069239</v>
@@ -42569,7 +42569,7 @@
         <v>796.475961084754</v>
       </c>
       <c r="R222">
-        <v>4160.333910843165</v>
+        <v>4159.367295114698</v>
       </c>
       <c r="T222">
         <v>2640.053651083842</v>
@@ -42605,7 +42605,7 @@
         <v>1769.139240334145</v>
       </c>
       <c r="AH222">
-        <v>2347.831269054963</v>
+        <v>2350.517417319081</v>
       </c>
       <c r="AI222">
         <v>845.800632090287</v>
@@ -42623,10 +42623,10 @@
         <v>25.0171443652153</v>
       </c>
       <c r="AN222">
-        <v>1812.502641788202</v>
+        <v>1808.849877795618</v>
       </c>
       <c r="AP222">
-        <v>607.3499524712382</v>
+        <v>608.1384522782062</v>
       </c>
       <c r="AQ222">
         <v>553.8550262609276</v>
@@ -42731,7 +42731,7 @@
         <v>-0.001717708352533487</v>
       </c>
       <c r="CC222">
-        <v>0.02180171254044438</v>
+        <v>0.02180171254044439</v>
       </c>
       <c r="CD222">
         <v>0.007550136916848471</v>
@@ -42794,10 +42794,10 @@
         <v>291.9456058293594</v>
       </c>
       <c r="CX222">
-        <v>1258.647615527274</v>
+        <v>1254.99485153469</v>
       </c>
       <c r="CY222">
-        <v>2901.686295315891</v>
+        <v>2904.372443580009</v>
       </c>
       <c r="CZ222">
         <v>2595.936821127714</v>
@@ -42808,10 +42808,10 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>26492.82896466556</v>
+        <v>26492.82896466557</v>
       </c>
       <c r="C223">
-        <v>21448.64365536012</v>
+        <v>21448.06658251103</v>
       </c>
       <c r="D223">
         <v>123.5159717314488</v>
@@ -42820,7 +42820,7 @@
         <v>17797.20348796854</v>
       </c>
       <c r="G223">
-        <v>120.56043803228</v>
+        <v>120.5690926104845</v>
       </c>
       <c r="H223">
         <v>122.5017544801424</v>
@@ -42829,7 +42829,7 @@
         <v>133.1870028992337</v>
       </c>
       <c r="J223">
-        <v>133.0005078899657</v>
+        <v>133.0005078899658</v>
       </c>
       <c r="K223">
         <v>133.9978013236727</v>
@@ -42838,10 +42838,10 @@
         <v>1102.078875767341</v>
       </c>
       <c r="P223">
-        <v>807.0656662605847</v>
+        <v>807.0656662605848</v>
       </c>
       <c r="R223">
-        <v>4225.142376062315</v>
+        <v>4224.193447238746</v>
       </c>
       <c r="T223">
         <v>2673.485910274879</v>
@@ -42877,7 +42877,7 @@
         <v>1782.396390524572</v>
       </c>
       <c r="AH223">
-        <v>2394.769227199416</v>
+        <v>2397.509077071675</v>
       </c>
       <c r="AI223">
         <v>853.7952758341381</v>
@@ -42895,10 +42895,10 @@
         <v>25.29375473051029</v>
       </c>
       <c r="AN223">
-        <v>1830.373148862899</v>
+        <v>1826.684370167071</v>
       </c>
       <c r="AP223">
-        <v>615.4250950360756</v>
+        <v>616.2240784996698</v>
       </c>
       <c r="AQ223">
         <v>561.2189163528109</v>
@@ -42955,7 +42955,7 @@
         <v>0.001967438886429695</v>
       </c>
       <c r="BM223">
-        <v>0.008372265137147838</v>
+        <v>0.008372265137147839</v>
       </c>
       <c r="BN223">
         <v>0.009452160994599224</v>
@@ -43066,10 +43066,10 @@
         <v>292.5763594813272</v>
       </c>
       <c r="CX223">
-        <v>1269.154232510088</v>
+        <v>1265.46545381426</v>
       </c>
       <c r="CY223">
-        <v>2955.988143552227</v>
+        <v>2958.727993424486</v>
       </c>
       <c r="CZ223">
         <v>2628.788380693065</v>
@@ -43083,7 +43083,7 @@
         <v>26785.39686093295</v>
       </c>
       <c r="C224">
-        <v>21574.84171790204</v>
+        <v>21574.26124971118</v>
       </c>
       <c r="D224">
         <v>124.1194699646643</v>
@@ -43092,7 +43092,7 @@
         <v>17999.01628586303</v>
       </c>
       <c r="G224">
-        <v>121.1479764664759</v>
+        <v>121.156673221844</v>
       </c>
       <c r="H224">
         <v>123.1529436357728</v>
@@ -43113,7 +43113,7 @@
         <v>817.6553714364155</v>
       </c>
       <c r="R224">
-        <v>4285.484582635133</v>
+        <v>4284.546306097142</v>
       </c>
       <c r="T224">
         <v>2706.986118515831</v>
@@ -43122,7 +43122,7 @@
         <v>1848.146401485134</v>
       </c>
       <c r="V224">
-        <v>664.569153914197</v>
+        <v>664.5691539141971</v>
       </c>
       <c r="W224">
         <v>4539.657960803371</v>
@@ -43149,7 +43149,7 @@
         <v>1795.653540714999</v>
       </c>
       <c r="AH224">
-        <v>2436.631704865445</v>
+        <v>2439.419449500499</v>
       </c>
       <c r="AI224">
         <v>861.8315534831559</v>
@@ -43167,10 +43167,10 @@
         <v>25.57308090666453</v>
       </c>
       <c r="AN224">
-        <v>1848.852877769688</v>
+        <v>1845.126856596643</v>
       </c>
       <c r="AP224">
-        <v>623.5002376009129</v>
+        <v>624.3097047211332</v>
       </c>
       <c r="AQ224">
         <v>568.5828064446941</v>
@@ -43179,7 +43179,7 @@
         <v>87.48034510922837</v>
       </c>
       <c r="AS224">
-        <v>1320.269205457839</v>
+        <v>1320.26920545784</v>
       </c>
       <c r="AT224">
         <v>0.6537604384539929</v>
@@ -43338,10 +43338,10 @@
         <v>293.2487470384617</v>
       </c>
       <c r="CX224">
-        <v>1280.270071324994</v>
+        <v>1276.544050151949</v>
       </c>
       <c r="CY224">
-        <v>3005.214511310139</v>
+        <v>3008.002255945193</v>
       </c>
       <c r="CZ224">
         <v>2661.70788930833</v>
@@ -43355,7 +43355,7 @@
         <v>27080.49325180256</v>
       </c>
       <c r="C225">
-        <v>21701.45869517438</v>
+        <v>21700.87482037092</v>
       </c>
       <c r="D225">
         <v>124.7229681978799</v>
@@ -43364,7 +43364,7 @@
         <v>18206.34536962055</v>
       </c>
       <c r="G225">
-        <v>121.7363606194946</v>
+        <v>121.7450996127374</v>
       </c>
       <c r="H225">
         <v>123.8032658608462</v>
@@ -43385,7 +43385,7 @@
         <v>828.6749765144433</v>
       </c>
       <c r="R225">
-        <v>4330.239241729271</v>
+        <v>4329.292072881799</v>
       </c>
       <c r="T225">
         <v>2740.891157280375</v>
@@ -43421,13 +43421,13 @@
         <v>1813.433774789065</v>
       </c>
       <c r="AH225">
-        <v>2462.36510453538</v>
+        <v>2465.182290692814</v>
       </c>
       <c r="AI225">
         <v>869.9054194417273</v>
       </c>
       <c r="AJ225">
-        <v>646.8825050790743</v>
+        <v>646.8825050790744</v>
       </c>
       <c r="AK225">
         <v>1683.25125134446</v>
@@ -43436,13 +43436,13 @@
         <v>80.16701141297851</v>
       </c>
       <c r="AM225">
-        <v>25.85482113691589</v>
+        <v>25.8548211369159</v>
       </c>
       <c r="AN225">
-        <v>1867.874137193892</v>
+        <v>1864.109782188986</v>
       </c>
       <c r="AP225">
-        <v>631.9031988293684</v>
+        <v>632.7235752009678</v>
       </c>
       <c r="AQ225">
         <v>576.2456411792966</v>
@@ -43610,10 +43610,10 @@
         <v>293.6597782624307</v>
       </c>
       <c r="CX225">
-        <v>1291.628496014595</v>
+        <v>1287.864141009689</v>
       </c>
       <c r="CY225">
-        <v>3038.610745714676</v>
+        <v>3041.42793187211</v>
       </c>
       <c r="CZ225">
         <v>2727.977792079074</v>
@@ -43627,7 +43627,7 @@
         <v>27378.01278333266</v>
       </c>
       <c r="C226">
-        <v>21828.18040112933</v>
+        <v>21827.59311689555</v>
       </c>
       <c r="D226">
         <v>125.4270494699647</v>
@@ -43636,7 +43636,7 @@
         <v>18423.24989298936</v>
       </c>
       <c r="G226">
-        <v>122.3277942897479</v>
+        <v>122.3365757397786</v>
       </c>
       <c r="H226">
         <v>124.4655511503017</v>
@@ -43657,7 +43657,7 @@
         <v>839.6945815924713</v>
       </c>
       <c r="R226">
-        <v>4376.073236843053</v>
+        <v>4375.119052146331</v>
       </c>
       <c r="T226">
         <v>2809.3317568969</v>
@@ -43678,7 +43678,7 @@
         <v>1795.596778848115</v>
       </c>
       <c r="AA226">
-        <v>2795.392901641655</v>
+        <v>2795.392901641656</v>
       </c>
       <c r="AD226">
         <v>2155.342284523079</v>
@@ -43693,13 +43693,13 @@
         <v>1831.214008863131</v>
       </c>
       <c r="AH226">
-        <v>2489.380914168988</v>
+        <v>2492.229009051042</v>
       </c>
       <c r="AI226">
         <v>878.7142853571934</v>
       </c>
       <c r="AJ226">
-        <v>653.9894723738201</v>
+        <v>653.9894723738202</v>
       </c>
       <c r="AK226">
         <v>1701.744272098952</v>
@@ -43711,10 +43711,10 @@
         <v>26.138874835677</v>
       </c>
       <c r="AN226">
-        <v>1886.692322674065</v>
+        <v>1882.890043095289</v>
       </c>
       <c r="AP226">
-        <v>640.3061600578241</v>
+        <v>641.1374456808026</v>
       </c>
       <c r="AQ226">
         <v>583.9084759138992</v>
@@ -43759,13 +43759,13 @@
         <v>0.01191367729026727</v>
       </c>
       <c r="BI226">
-        <v>0.007021250155337277</v>
+        <v>0.007021250155337278</v>
       </c>
       <c r="BJ226">
         <v>0.001595791837820215</v>
       </c>
       <c r="BK226">
-        <v>0.0006727965911639266</v>
+        <v>0.0006727965911639267</v>
       </c>
       <c r="BL226">
         <v>0.002150117279124286</v>
@@ -43828,7 +43828,7 @@
         <v>0.01738426017278605</v>
       </c>
       <c r="CF226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CG226">
         <v>0.02845656245052064</v>
@@ -43855,10 +43855,10 @@
         <v>0.004481072802021924</v>
       </c>
       <c r="CO226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CP226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CQ226">
         <v>0.01012623409234448</v>
@@ -43882,10 +43882,10 @@
         <v>294.8058094432942</v>
       </c>
       <c r="CX226">
-        <v>1302.783846760165</v>
+        <v>1298.981567181389</v>
       </c>
       <c r="CY226">
-        <v>3073.289390082887</v>
+        <v>3076.137484964942</v>
       </c>
       <c r="CZ226">
         <v>2794.30557737382</v>
@@ -43899,7 +43899,7 @@
         <v>27677.42868581444</v>
       </c>
       <c r="C227">
-        <v>21954.58792103646</v>
+        <v>21953.9972358255</v>
       </c>
       <c r="D227">
         <v>126.0305477031802</v>
@@ -43908,7 +43908,7 @@
         <v>18629.22592549746</v>
       </c>
       <c r="G227">
-        <v>122.9209908271793</v>
+        <v>122.9298148605475</v>
       </c>
       <c r="H227">
         <v>125.1249817632768</v>
@@ -43929,7 +43929,7 @@
         <v>850.7141866704991</v>
       </c>
       <c r="R227">
-        <v>4425.238208004308</v>
+        <v>4424.277610448164</v>
       </c>
       <c r="T227">
         <v>2877.817655880033</v>
@@ -43965,10 +43965,10 @@
         <v>1848.994242937197</v>
       </c>
       <c r="AH227">
-        <v>2518.712330129917</v>
+        <v>2521.593983016375</v>
       </c>
       <c r="AI227">
-        <v>886.8456852090713</v>
+        <v>886.8456852090714</v>
       </c>
       <c r="AJ227">
         <v>661.1417390351753</v>
@@ -43983,10 +43983,10 @@
         <v>26.42473907501095</v>
       </c>
       <c r="AN227">
-        <v>1906.525877874391</v>
+        <v>1902.683627431788</v>
       </c>
       <c r="AP227">
-        <v>648.7091212862796</v>
+        <v>649.5513161606372</v>
       </c>
       <c r="AQ227">
         <v>591.5713106485017</v>
@@ -44067,7 +44067,7 @@
         <v>0.01093636360138062</v>
       </c>
       <c r="BU227">
-        <v>0.00529809740029008</v>
+        <v>0.005298097400290081</v>
       </c>
       <c r="BV227">
         <v>0.00785853090722477</v>
@@ -44076,10 +44076,10 @@
         <v>0.004849237582313926</v>
       </c>
       <c r="BX227">
-        <v>0.02240025161078329</v>
+        <v>0.0224002516107833</v>
       </c>
       <c r="BY227">
-        <v>0.02240025161078329</v>
+        <v>0.0224002516107833</v>
       </c>
       <c r="BZ227">
         <v>0.01178261462276864</v>
@@ -44154,10 +44154,10 @@
         <v>295.2743745605696</v>
       </c>
       <c r="CX227">
-        <v>1314.95456722589</v>
+        <v>1311.112316783287</v>
       </c>
       <c r="CY227">
-        <v>3110.283640778418</v>
+        <v>3113.165293664877</v>
       </c>
       <c r="CZ227">
         <v>2860.678662035175</v>
@@ -44171,7 +44171,7 @@
         <v>27979.16237501493</v>
       </c>
       <c r="C228">
-        <v>22081.2048983088</v>
+        <v>22080.61080648524</v>
       </c>
       <c r="D228">
         <v>126.734628975265</v>
@@ -44180,7 +44180,7 @@
         <v>18836.867251851</v>
       </c>
       <c r="G228">
-        <v>123.5160527965118</v>
+        <v>123.5249195471299</v>
       </c>
       <c r="H228">
         <v>125.7887863917961</v>
@@ -44201,7 +44201,7 @@
         <v>861.7337917485269</v>
       </c>
       <c r="R228">
-        <v>4476.541531316632</v>
+        <v>4475.575898060734</v>
       </c>
       <c r="T228">
         <v>2946.358920755691</v>
@@ -44225,7 +44225,7 @@
         <v>2854.666624548882</v>
       </c>
       <c r="AD228">
-        <v>2278.009549166637</v>
+        <v>2278.009549166638</v>
       </c>
       <c r="AE228">
         <v>187.9081823328797</v>
@@ -44237,16 +44237,16 @@
         <v>1866.774477011263</v>
       </c>
       <c r="AH228">
-        <v>2549.84364166853</v>
+        <v>2552.760911815714</v>
       </c>
       <c r="AI228">
         <v>895.7097488572781</v>
       </c>
       <c r="AJ228">
-        <v>668.3493715890532</v>
+        <v>668.3493715890533</v>
       </c>
       <c r="AK228">
-        <v>1739.110127773572</v>
+        <v>1739.110127773573</v>
       </c>
       <c r="AL228">
         <v>82.82736243344088</v>
@@ -44255,10 +44255,10 @@
         <v>26.71281619726725</v>
       </c>
       <c r="AN228">
-        <v>1926.697889648102</v>
+        <v>1922.81498624502</v>
       </c>
       <c r="AP228">
-        <v>657.112082514735</v>
+        <v>657.9651866404718</v>
       </c>
       <c r="AQ228">
         <v>599.2341453831042</v>
@@ -44312,7 +44312,7 @@
         <v>0.0008211406389968534</v>
       </c>
       <c r="BL228">
-        <v>0.00262620367668509</v>
+        <v>0.002626203676685091</v>
       </c>
       <c r="BM228">
         <v>0.008885442056281834</v>
@@ -44354,7 +44354,7 @@
         <v>0.02227551209814171</v>
       </c>
       <c r="BZ228">
-        <v>0.01236001077463555</v>
+        <v>0.01236001077463556</v>
       </c>
       <c r="CA228">
         <v>0.02766919235044507</v>
@@ -44384,7 +44384,7 @@
         <v>0.629670798</v>
       </c>
       <c r="CJ228">
-        <v>0.01236001077463555</v>
+        <v>0.01236001077463556</v>
       </c>
       <c r="CK228">
         <v>0.01058050772235042</v>
@@ -44426,10 +44426,10 @@
         <v>296.4756034741739</v>
       </c>
       <c r="CX228">
-        <v>1327.463744264998</v>
+        <v>1323.580840861916</v>
       </c>
       <c r="CY228">
-        <v>3149.077787051634</v>
+        <v>3151.995057198818</v>
       </c>
       <c r="CZ228">
         <v>2927.107112589053</v>
@@ -44443,7 +44443,7 @@
         <v>28283.74062064295</v>
       </c>
       <c r="C229">
-        <v>22208.24079031157</v>
+        <v>22207.64328060456</v>
       </c>
       <c r="D229">
         <v>127.3381272084806</v>
@@ -44452,7 +44452,7 @@
         <v>19048.46365108746</v>
       </c>
       <c r="G229">
-        <v>124.1128114412323</v>
+        <v>124.1217210308981</v>
       </c>
       <c r="H229">
         <v>126.458866472968</v>
@@ -44473,7 +44473,7 @@
         <v>873.1799234949942</v>
       </c>
       <c r="R229">
-        <v>4527.356248723543</v>
+        <v>4526.384165295796</v>
       </c>
       <c r="T229">
         <v>3014.968134681262</v>
@@ -44482,7 +44482,7 @@
         <v>1944.477135089979</v>
       </c>
       <c r="V229">
-        <v>678.7377340069557</v>
+        <v>678.7377340069558</v>
       </c>
       <c r="W229">
         <v>4742.735152791277</v>
@@ -44509,10 +44509,10 @@
         <v>1884.731310035816</v>
       </c>
       <c r="AH229">
-        <v>2580.215582043023</v>
+        <v>2583.167600656159</v>
       </c>
       <c r="AI229">
-        <v>903.9189710937547</v>
+        <v>903.9189710937548</v>
       </c>
       <c r="AJ229">
         <v>675.6249531928456</v>
@@ -44527,10 +44527,10 @@
         <v>27.00360913038282</v>
       </c>
       <c r="AN229">
-        <v>1947.140666680521</v>
+        <v>1943.216564639638</v>
       </c>
       <c r="AP229">
-        <v>665.84029015923</v>
+        <v>666.7047257916457</v>
       </c>
       <c r="AQ229">
         <v>607.193579074476</v>
@@ -44698,10 +44698,10 @@
         <v>296.7253920192787</v>
       </c>
       <c r="CX229">
-        <v>1339.947087606045</v>
+        <v>1336.022985565161</v>
       </c>
       <c r="CY229">
-        <v>3187.409161117499</v>
+        <v>3190.361179730635</v>
       </c>
       <c r="CZ229">
         <v>2991.262397442846</v>
@@ -44715,16 +44715,16 @@
         <v>28591.26877664023</v>
       </c>
       <c r="C230">
-        <v>22336.1145117752</v>
+        <v>22335.51356164305</v>
       </c>
       <c r="D230">
-        <v>127.9416254416961</v>
+        <v>127.9416254416962</v>
       </c>
       <c r="E230">
         <v>19268.8028430125</v>
       </c>
       <c r="G230">
-        <v>124.712813568602</v>
+        <v>124.7217662301529</v>
       </c>
       <c r="H230">
         <v>127.1352065856934</v>
@@ -44745,7 +44745,7 @@
         <v>884.6260552414618</v>
       </c>
       <c r="R230">
-        <v>4578.210625450036</v>
+        <v>4577.232778818991</v>
       </c>
       <c r="T230">
         <v>3081.223175856188</v>
@@ -44781,7 +44781,7 @@
         <v>1902.688143060369</v>
       </c>
       <c r="AH230">
-        <v>2610.830255681128</v>
+        <v>2613.817300470776</v>
       </c>
       <c r="AI230">
         <v>912.1908498448448</v>
@@ -44799,16 +44799,16 @@
         <v>27.29721845994502</v>
       </c>
       <c r="AN230">
-        <v>1967.380369768908</v>
+        <v>1963.415478348216</v>
       </c>
       <c r="AP230">
-        <v>674.5684978037251</v>
+        <v>675.4442649428198</v>
       </c>
       <c r="AQ230">
         <v>615.153012765848</v>
       </c>
       <c r="AR230">
-        <v>92.59207327394166</v>
+        <v>92.59207327394167</v>
       </c>
       <c r="AS230">
         <v>1355.851026848042</v>
@@ -44847,7 +44847,7 @@
         <v>0.01156729466276185</v>
       </c>
       <c r="BI230">
-        <v>0.006700573181561253</v>
+        <v>0.006700573181561254</v>
       </c>
       <c r="BJ230">
         <v>0.001877328327124506</v>
@@ -44907,7 +44907,7 @@
         <v>-0.007900580659151446</v>
       </c>
       <c r="CC230">
-        <v>0.002344911577722097</v>
+        <v>0.002344911577722098</v>
       </c>
       <c r="CD230">
         <v>0.009527529430288784</v>
@@ -44970,10 +44970,10 @@
         <v>297.0378370789969</v>
       </c>
       <c r="CX230">
-        <v>1352.22735700306</v>
+        <v>1348.262465582368</v>
       </c>
       <c r="CY230">
-        <v>3225.983268446976</v>
+        <v>3228.970313236624</v>
       </c>
       <c r="CZ230">
         <v>3055.488147978031</v>
@@ -44987,7 +44987,7 @@
         <v>28901.53613512329</v>
       </c>
       <c r="C231">
-        <v>22464.61660533448</v>
+        <v>22464.01219787093</v>
       </c>
       <c r="D231">
         <v>128.645706713781</v>
@@ -44996,7 +44996,7 @@
         <v>19494.03383560852</v>
       </c>
       <c r="G231">
-        <v>125.3147034958573</v>
+        <v>125.3236993648113</v>
       </c>
       <c r="H231">
         <v>127.8156330329073</v>
@@ -45017,7 +45017,7 @@
         <v>896.0721869879295</v>
       </c>
       <c r="R231">
-        <v>4628.027507212337</v>
+        <v>4627.041641058406</v>
       </c>
       <c r="T231">
         <v>3147.543649449548</v>
@@ -45035,7 +45035,7 @@
         <v>1948.238419099701</v>
       </c>
       <c r="Z231">
-        <v>1882.47530768309</v>
+        <v>1882.475307683091</v>
       </c>
       <c r="AA231">
         <v>2945.432646936428</v>
@@ -45053,7 +45053,7 @@
         <v>1920.644976084922</v>
       </c>
       <c r="AH231">
-        <v>2640.068977781656</v>
+        <v>2643.08947452488</v>
       </c>
       <c r="AI231">
         <v>921.2301805054811</v>
@@ -45071,10 +45071,10 @@
         <v>27.59344301477911</v>
       </c>
       <c r="AN231">
-        <v>1987.958529430681</v>
+        <v>1983.952166533526</v>
       </c>
       <c r="AP231">
-        <v>683.2967054482203</v>
+        <v>684.183804093994</v>
       </c>
       <c r="AQ231">
         <v>623.1124464572199</v>
@@ -45242,10 +45242,10 @@
         <v>298.1177340482612</v>
       </c>
       <c r="CX231">
-        <v>1364.846082973461</v>
+        <v>1360.839720076306</v>
       </c>
       <c r="CY231">
-        <v>3263.181424238876</v>
+        <v>3266.2019209821</v>
       </c>
       <c r="CZ231">
         <v>3119.779330931652</v>
@@ -45259,7 +45259,7 @@
         <v>29215.49088156793</v>
       </c>
       <c r="C232">
-        <v>22594.27071440243</v>
+        <v>22593.66281861266</v>
       </c>
       <c r="D232">
         <v>129.2492049469965</v>
@@ -45268,7 +45268,7 @@
         <v>19723.42806281814</v>
       </c>
       <c r="G232">
-        <v>125.9184624500779</v>
+        <v>125.9275016606054</v>
       </c>
       <c r="H232">
         <v>128.4948456070271</v>
@@ -45283,13 +45283,13 @@
         <v>143.8234338118874</v>
       </c>
       <c r="O232">
-        <v>1298.129736285304</v>
+        <v>1298.129736285305</v>
       </c>
       <c r="P232">
         <v>907.518318734397</v>
       </c>
       <c r="R232">
-        <v>4677.41655724468</v>
+        <v>4676.422395951386</v>
       </c>
       <c r="T232">
         <v>3213.952205144651</v>
@@ -45325,7 +45325,7 @@
         <v>1938.601809109475</v>
       </c>
       <c r="AH232">
-        <v>2668.947559466904</v>
+        <v>2672.001096127896</v>
       </c>
       <c r="AI232">
         <v>929.6230370857128</v>
@@ -45337,16 +45337,16 @@
         <v>1815.957011114209</v>
       </c>
       <c r="AL232">
-        <v>86.48729434728916</v>
+        <v>86.48729434728917</v>
       </c>
       <c r="AM232">
         <v>27.89318806517149</v>
       </c>
       <c r="AN232">
-        <v>2008.468997777776</v>
+        <v>2004.42129982349</v>
       </c>
       <c r="AP232">
-        <v>692.0249130927155</v>
+        <v>692.9233432451681</v>
       </c>
       <c r="AQ232">
         <v>631.0718801485918</v>
@@ -45403,7 +45403,7 @@
         <v>0.002406623026569132</v>
       </c>
       <c r="BM232">
-        <v>0.0088118917762805</v>
+        <v>0.008811891776280501</v>
       </c>
       <c r="BN232">
         <v>0.009110488081954138</v>
@@ -45514,10 +45514,10 @@
         <v>298.5511569371209</v>
       </c>
       <c r="CX232">
-        <v>1377.397117629184</v>
+        <v>1373.349419674898</v>
       </c>
       <c r="CY232">
-        <v>3300.019439615496</v>
+        <v>3303.072976276488</v>
       </c>
       <c r="CZ232">
         <v>3184.158595987014</v>
@@ -45531,7 +45531,7 @@
         <v>29529.97239772138</v>
       </c>
       <c r="C233">
-        <v>22722.45862191389</v>
+        <v>22721.84727724585</v>
       </c>
       <c r="D233">
         <v>129.9532862190813</v>
@@ -45540,7 +45540,7 @@
         <v>19957.19368637205</v>
       </c>
       <c r="G233">
-        <v>126.5267912426635</v>
+        <v>126.5358741228159</v>
       </c>
       <c r="H233">
         <v>129.1751028358472</v>
@@ -45561,7 +45561,7 @@
         <v>919.3969740093174</v>
       </c>
       <c r="R233">
-        <v>4761.366066632658</v>
+        <v>4760.402509146308</v>
       </c>
       <c r="T233">
         <v>3280.373343997145</v>
@@ -45597,7 +45597,7 @@
         <v>1956.995822371119</v>
       </c>
       <c r="AH233">
-        <v>2732.183526563756</v>
+        <v>2735.309411346816</v>
       </c>
       <c r="AI233">
         <v>938.8201000904709</v>
@@ -45612,13 +45612,13 @@
         <v>87.41826126359399</v>
       </c>
       <c r="AM233">
-        <v>28.19343604350077</v>
+        <v>28.19343604350078</v>
       </c>
       <c r="AN233">
-        <v>2029.182540068902</v>
+        <v>2025.093097799493</v>
       </c>
       <c r="AP233">
-        <v>701.0829400378343</v>
+        <v>701.9931298890713</v>
       </c>
       <c r="AQ233">
         <v>639.3320829050884</v>
@@ -45654,7 +45654,7 @@
         <v>0.009507179584432146</v>
       </c>
       <c r="BF233">
-        <v>0.004803843074459468</v>
+        <v>0.004803843074459469</v>
       </c>
       <c r="BG233">
         <v>0.005447470817120603</v>
@@ -45786,10 +45786,10 @@
         <v>299.4880171853824</v>
       </c>
       <c r="CX233">
-        <v>1389.850457163813</v>
+        <v>1385.761014894405</v>
       </c>
       <c r="CY233">
-        <v>3371.515609468845</v>
+        <v>3374.641494251904</v>
       </c>
       <c r="CZ233">
         <v>3217.704392949767</v>
@@ -45803,7 +45803,7 @@
         <v>29838.13267736923</v>
       </c>
       <c r="C234">
-        <v>22844.3628084689</v>
+        <v>22843.74818398525</v>
       </c>
       <c r="D234">
         <v>130.5567844522969</v>
@@ -45812,7 +45812,7 @@
         <v>20184.50629627487</v>
       </c>
       <c r="G234">
-        <v>127.1356965216484</v>
+        <v>127.1448231128095</v>
       </c>
       <c r="H234">
         <v>129.8712200488257</v>
@@ -45833,7 +45833,7 @@
         <v>931.275629284238</v>
       </c>
       <c r="R234">
-        <v>4841.72895042334</v>
+        <v>4840.791037834757</v>
       </c>
       <c r="T234">
         <v>3314.696942683421</v>
@@ -45869,10 +45869,10 @@
         <v>1975.389835632764</v>
       </c>
       <c r="AH234">
-        <v>2791.562102804605</v>
+        <v>2794.755922477875</v>
       </c>
       <c r="AI234">
-        <v>947.3568149224546</v>
+        <v>947.3568149224547</v>
       </c>
       <c r="AJ234">
         <v>712.755334023822</v>
@@ -45887,10 +45887,10 @@
         <v>28.48764888658726</v>
       </c>
       <c r="AN234">
-        <v>2050.166847618735</v>
+        <v>2046.035115356882</v>
       </c>
       <c r="AP234">
-        <v>710.1409669829533</v>
+        <v>711.0629165329746</v>
       </c>
       <c r="AQ234">
         <v>647.5922856615852</v>
@@ -45959,7 +45959,7 @@
         <v>0.005342237061769728</v>
       </c>
       <c r="BQ234">
-        <v>0.01043550855711683</v>
+        <v>0.01043550855711684</v>
       </c>
       <c r="BR234">
         <v>0.01043550855711706</v>
@@ -46058,10 +46058,10 @@
         <v>299.7645292608695</v>
       </c>
       <c r="CX234">
-        <v>1402.57456195715</v>
+        <v>1398.442829695297</v>
       </c>
       <c r="CY234">
-        <v>3439.154388466191</v>
+        <v>3442.34820813946</v>
       </c>
       <c r="CZ234">
         <v>3251.099192023822</v>
@@ -46075,7 +46075,7 @@
         <v>30137.96999561805</v>
       </c>
       <c r="C235">
-        <v>22958.20288646314</v>
+        <v>22957.58519912763</v>
       </c>
       <c r="D235">
         <v>131.2608657243817</v>
@@ -46084,13 +46084,13 @@
         <v>20401.7230622397</v>
       </c>
       <c r="G235">
-        <v>127.7470167653462</v>
+        <v>127.7561872408772</v>
       </c>
       <c r="H235">
         <v>130.5639496491974</v>
       </c>
       <c r="I235">
-        <v>146.3464773150214</v>
+        <v>146.3464773150215</v>
       </c>
       <c r="J235">
         <v>146.1415557607476</v>
@@ -46105,7 +46105,7 @@
         <v>943.1542845591583</v>
       </c>
       <c r="R235">
-        <v>4918.923348089217</v>
+        <v>4918.007455340834</v>
       </c>
       <c r="T235">
         <v>3348.821727482911</v>
@@ -46141,7 +46141,7 @@
         <v>1993.783848894408</v>
       </c>
       <c r="AH235">
-        <v>2847.772192920649</v>
+        <v>2851.030322426564</v>
       </c>
       <c r="AI235">
         <v>956.7138121925733</v>
@@ -46159,10 +46159,10 @@
         <v>28.77391546827073</v>
       </c>
       <c r="AN235">
-        <v>2071.151155168568</v>
+        <v>2066.97713291427</v>
       </c>
       <c r="AP235">
-        <v>719.198993928072</v>
+        <v>720.1327031768777</v>
       </c>
       <c r="AQ235">
         <v>655.8524884180816</v>
@@ -46330,10 +46330,10 @@
         <v>300.8613237744917</v>
       </c>
       <c r="CX235">
-        <v>1415.298666750487</v>
+        <v>1411.124644496189</v>
       </c>
       <c r="CY235">
-        <v>3503.62468133873</v>
+        <v>3506.882810844645</v>
       </c>
       <c r="CZ235">
         <v>3284.295177211091</v>
@@ -46347,7 +46347,7 @@
         <v>30435.17346532286</v>
       </c>
       <c r="C236">
-        <v>23068.58691793133</v>
+        <v>23067.96626072843</v>
       </c>
       <c r="D236">
         <v>131.9649469964665</v>
@@ -46356,7 +46356,7 @@
         <v>20617.58677695512</v>
       </c>
       <c r="G236">
-        <v>128.3617309574736</v>
+        <v>128.3709455610132</v>
       </c>
       <c r="H236">
         <v>131.2652762579455</v>
@@ -46377,7 +46377,7 @@
         <v>955.0329398340788</v>
       </c>
       <c r="R236">
-        <v>4992.324390081167</v>
+        <v>4991.426391068435</v>
       </c>
       <c r="T236">
         <v>3382.883596495442</v>
@@ -46410,10 +46410,10 @@
         <v>620.2528434138978</v>
       </c>
       <c r="AG236">
-        <v>2012.177862156052</v>
+        <v>2012.177862156053</v>
       </c>
       <c r="AH236">
-        <v>2900.256618677442</v>
+        <v>2903.574795492122</v>
       </c>
       <c r="AI236">
         <v>966.1511242201401</v>
@@ -46431,10 +46431,10 @@
         <v>29.05766741026969</v>
       </c>
       <c r="AN236">
-        <v>2092.067771403725</v>
+        <v>2087.851595576313</v>
       </c>
       <c r="AP236">
-        <v>728.2570208731909</v>
+        <v>729.2024898207809</v>
       </c>
       <c r="AQ236">
         <v>664.1126911745782</v>
@@ -46467,10 +46467,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="BE236">
-        <v>0.009536595205965392</v>
+        <v>0.009536595205965393</v>
       </c>
       <c r="BF236">
-        <v>0.004735595895816846</v>
+        <v>0.004735595895816847</v>
       </c>
       <c r="BG236">
         <v>0.005363984674329414</v>
@@ -46548,7 +46548,7 @@
         <v>0.02807149659709118</v>
       </c>
       <c r="CF236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CG236">
         <v>0.01015203568838041</v>
@@ -46575,10 +46575,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="CO236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CP236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CQ236">
         <v>0.00986429996859628</v>
@@ -46602,10 +46602,10 @@
         <v>302.0384330455619</v>
       </c>
       <c r="CX236">
-        <v>1427.955080229147</v>
+        <v>1423.738904401735</v>
       </c>
       <c r="CY236">
-        <v>3564.36930985202</v>
+        <v>3567.6874866667</v>
       </c>
       <c r="CZ236">
         <v>3317.428246611401</v>
@@ -46619,7 +46619,7 @@
         <v>30732.37693502768</v>
       </c>
       <c r="C237">
-        <v>23177.40001916042</v>
+        <v>23176.77643435578</v>
       </c>
       <c r="D237">
         <v>132.5684452296821</v>
@@ -46628,7 +46628,7 @@
         <v>20833.1382490745</v>
       </c>
       <c r="G237">
-        <v>128.9799002637758</v>
+        <v>128.9891592433536</v>
       </c>
       <c r="H237">
         <v>131.9557933646175</v>
@@ -46649,7 +46649,7 @@
         <v>967.6098544967875</v>
       </c>
       <c r="R237">
-        <v>4983.728981936902</v>
+        <v>4982.754850848176</v>
       </c>
       <c r="T237">
         <v>3416.945465507974</v>
@@ -46658,7 +46658,7 @@
         <v>2076.106145806107</v>
       </c>
       <c r="V237">
-        <v>715.2238192728882</v>
+        <v>715.2238192728883</v>
       </c>
       <c r="W237">
         <v>5084.982682755646</v>
@@ -46667,7 +46667,7 @@
         <v>2059.703043219065</v>
       </c>
       <c r="Z237">
-        <v>1992.213422552453</v>
+        <v>1992.213422552454</v>
       </c>
       <c r="AA237">
         <v>3130.775861712324</v>
@@ -46685,7 +46685,7 @@
         <v>2030.361623866796</v>
       </c>
       <c r="AH237">
-        <v>2870.676902983344</v>
+        <v>2873.961237714475</v>
       </c>
       <c r="AI237">
         <v>974.9329106060203</v>
@@ -46703,10 +46703,10 @@
         <v>29.34141935226866</v>
       </c>
       <c r="AN237">
-        <v>2113.052078953559</v>
+        <v>2108.793613133702</v>
       </c>
       <c r="AP237">
-        <v>737.8475030670636</v>
+        <v>738.8054229802424</v>
       </c>
       <c r="AQ237">
         <v>672.8584509226929</v>
@@ -46730,7 +46730,7 @@
         <v>29303.7</v>
       </c>
       <c r="BB237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BC237">
         <v>0.004716938302991913</v>
@@ -46775,16 +46775,16 @@
         <v>0.005584756898817433</v>
       </c>
       <c r="BQ237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BR237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BS237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BT237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BU237">
         <v>0.005260470448521737</v>
@@ -46874,10 +46874,10 @@
         <v>302.0744596833274</v>
       </c>
       <c r="CX237">
-        <v>1440.193628030866</v>
+        <v>1435.935162211008</v>
       </c>
       <c r="CY237">
-        <v>3543.535353906037</v>
+        <v>3546.819688637168</v>
       </c>
       <c r="CZ237">
         <v>3352.427481761712</v>
@@ -46891,16 +46891,16 @@
         <v>31026.31443253794</v>
       </c>
       <c r="C238">
-        <v>23282.33815913303</v>
+        <v>23281.71175098197</v>
       </c>
       <c r="D238">
         <v>133.2725265017669</v>
       </c>
       <c r="E238">
-        <v>21044.21424398426</v>
+        <v>21044.21424398427</v>
       </c>
       <c r="G238">
-        <v>129.6007278119154</v>
+        <v>129.6100313583566</v>
       </c>
       <c r="H238">
         <v>132.6623109640124</v>
@@ -46921,7 +46921,7 @@
         <v>980.1867691594963</v>
       </c>
       <c r="R238">
-        <v>4984.28150190479</v>
+        <v>4983.241704863231</v>
       </c>
       <c r="T238">
         <v>3452.862063675796</v>
@@ -46957,7 +46957,7 @@
         <v>2048.54538557754</v>
       </c>
       <c r="AH238">
-        <v>2850.245115401398</v>
+        <v>2853.50607417214</v>
       </c>
       <c r="AI238">
         <v>984.5248149413069</v>
@@ -46975,10 +46975,10 @@
         <v>29.62205314105884</v>
       </c>
       <c r="AN238">
-        <v>2134.036386503392</v>
+        <v>2129.73563069109</v>
       </c>
       <c r="AP238">
-        <v>747.4379852609363</v>
+        <v>748.4083561397039</v>
       </c>
       <c r="AQ238">
         <v>681.6042106708076</v>
@@ -47146,10 +47146,10 @@
         <v>302.9206042704993</v>
       </c>
       <c r="CX238">
-        <v>1452.432175832584</v>
+        <v>1448.131420020283</v>
       </c>
       <c r="CY238">
-        <v>3531.849326072205</v>
+        <v>3535.110284842947</v>
       </c>
       <c r="CZ238">
         <v>3387.348701336195</v>
@@ -47160,10 +47160,10 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>31322.78042465043</v>
+        <v>31322.78042465044</v>
       </c>
       <c r="C239">
-        <v>23387.69521383607</v>
+        <v>23387.06597106774</v>
       </c>
       <c r="D239">
         <v>133.8760247349824</v>
@@ -47172,7 +47172,7 @@
         <v>21264.24119331328</v>
       </c>
       <c r="G239">
-        <v>130.2237595614054</v>
+        <v>130.2331078329412</v>
       </c>
       <c r="H239">
         <v>133.369978413159</v>
@@ -47184,7 +47184,7 @@
         <v>150.7538986066654</v>
       </c>
       <c r="K239">
-        <v>151.8843143890662</v>
+        <v>151.8843143890663</v>
       </c>
       <c r="O239">
         <v>1427.33101857974</v>
@@ -47193,7 +47193,7 @@
         <v>992.7636838222052</v>
       </c>
       <c r="R239">
-        <v>4995.230903785727</v>
+        <v>4994.136908110004</v>
       </c>
       <c r="T239">
         <v>3488.839060999098</v>
@@ -47202,7 +47202,7 @@
         <v>2112.195691764972</v>
       </c>
       <c r="V239">
-        <v>724.9580215850877</v>
+        <v>724.9580215850878</v>
       </c>
       <c r="W239">
         <v>5172.222249217151</v>
@@ -47217,7 +47217,7 @@
         <v>3193.158696988626</v>
       </c>
       <c r="AD239">
-        <v>2740.61935618294</v>
+        <v>2740.619356182941</v>
       </c>
       <c r="AE239">
         <v>165.2551816665779</v>
@@ -47229,7 +47229,7 @@
         <v>2066.729147288284</v>
       </c>
       <c r="AH239">
-        <v>2840.074827103148</v>
+        <v>2843.324150070833</v>
       </c>
       <c r="AI239">
         <v>993.4423702027748</v>
@@ -47247,10 +47247,10 @@
         <v>29.90510098394615</v>
       </c>
       <c r="AN239">
-        <v>2155.156076682579</v>
+        <v>2150.812758039172</v>
       </c>
       <c r="AP239">
-        <v>757.0284674548091</v>
+        <v>758.0112892991655</v>
       </c>
       <c r="AQ239">
         <v>690.3499704189223</v>
@@ -47265,7 +47265,7 @@
         <v>0.6989106120605989</v>
       </c>
       <c r="AU239">
-        <v>1412.14889166844</v>
+        <v>1412.148891668441</v>
       </c>
       <c r="AY239">
         <v>22444</v>
@@ -47352,7 +47352,7 @@
         <v>0.01065565472007601</v>
       </c>
       <c r="CB239">
-        <v>-0.001837288627154376</v>
+        <v>-0.001837288627154377</v>
       </c>
       <c r="CC239">
         <v>0.006356190776168447</v>
@@ -47361,7 +47361,7 @@
         <v>0.008876426091783962</v>
       </c>
       <c r="CE239">
-        <v>-0.006949179227988433</v>
+        <v>-0.006949179227988434</v>
       </c>
       <c r="CF239">
         <v>0.01283114102171923</v>
@@ -47418,10 +47418,10 @@
         <v>303.0923997838524</v>
       </c>
       <c r="CX239">
-        <v>1464.806106263657</v>
+        <v>1460.462787620249</v>
       </c>
       <c r="CY239">
-        <v>3530.424797522071</v>
+        <v>3533.674120489755</v>
       </c>
       <c r="CZ239">
         <v>3422.330320066158</v>
@@ -47435,7 +47435,7 @@
         <v>31621.14278771461</v>
       </c>
       <c r="C240">
-        <v>23492.9475398565</v>
+        <v>23492.31546528861</v>
       </c>
       <c r="D240">
         <v>134.5801060070673</v>
@@ -47444,7 +47444,7 @@
         <v>21479.79266543267</v>
       </c>
       <c r="G240">
-        <v>130.8496345729128</v>
+        <v>130.8590277736504</v>
       </c>
       <c r="H240">
         <v>134.0836889721092</v>
@@ -47465,7 +47465,7 @@
         <v>1005.340598484914</v>
       </c>
       <c r="R240">
-        <v>5015.616889511954</v>
+        <v>5014.480347034798</v>
       </c>
       <c r="T240">
         <v>3524.861357689009</v>
@@ -47492,7 +47492,7 @@
         <v>2769.514552526279</v>
       </c>
       <c r="AE240">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF240">
         <v>636.2256777877288</v>
@@ -47501,7 +47501,7 @@
         <v>2084.912908999028</v>
       </c>
       <c r="AH240">
-        <v>2839.611887908895</v>
+        <v>2842.86068122893</v>
       </c>
       <c r="AI240">
         <v>1003.133238775009</v>
@@ -47519,10 +47519,10 @@
         <v>30.18995936740629</v>
       </c>
       <c r="AN240">
-        <v>2176.005001603059</v>
+        <v>2171.619665805868</v>
       </c>
       <c r="AP240">
-        <v>766.6189496486819</v>
+        <v>767.6142224586271</v>
       </c>
       <c r="AQ240">
         <v>699.0957301670371</v>
@@ -47546,7 +47546,7 @@
         <v>30149.59999999999</v>
       </c>
       <c r="BB240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BC240">
         <v>0.004500329128548142</v>
@@ -47555,7 +47555,7 @@
         <v>0.004495633576902636</v>
       </c>
       <c r="BE240">
-        <v>0.009505888025393538</v>
+        <v>0.009505888025393539</v>
       </c>
       <c r="BF240">
         <v>0.004643962848297489</v>
@@ -47591,16 +47591,16 @@
         <v>0.005815831987076026</v>
       </c>
       <c r="BQ240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BR240">
         <v>0.009525411186976696</v>
       </c>
       <c r="BS240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BT240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BU240">
         <v>0.005351358434948494</v>
@@ -47690,10 +47690,10 @@
         <v>304.0375086079719</v>
       </c>
       <c r="CX240">
-        <v>1476.909271436022</v>
+        <v>1472.52393563883</v>
       </c>
       <c r="CY240">
-        <v>3538.707618075932</v>
+        <v>3541.956411395968</v>
       </c>
       <c r="CZ240">
         <v>3457.35723816273</v>
@@ -47707,7 +47707,7 @@
         <v>31921.50687567222</v>
       </c>
       <c r="C241">
-        <v>23598.09513719433</v>
+        <v>23597.46023364459</v>
       </c>
       <c r="D241">
         <v>135.284187279152</v>
@@ -47716,7 +47716,7 @@
         <v>21696.28086534012</v>
       </c>
       <c r="G241">
-        <v>131.478728118728</v>
+        <v>131.4881664797136</v>
       </c>
       <c r="H241">
         <v>134.8060829010037</v>
@@ -47737,7 +47737,7 @@
         <v>1019.070409485163</v>
       </c>
       <c r="R241">
-        <v>5121.306540306176</v>
+        <v>5120.225046751294</v>
       </c>
       <c r="T241">
         <v>3560.931470377008</v>
@@ -47764,7 +47764,7 @@
         <v>2798.409748869618</v>
       </c>
       <c r="AE241">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF241">
         <v>640.0242600969408</v>
@@ -47773,7 +47773,7 @@
         <v>2102.706544080602</v>
       </c>
       <c r="AH241">
-        <v>2924.452613782637</v>
+        <v>2927.79847317873</v>
       </c>
       <c r="AI241">
         <v>1012.870856155145</v>
@@ -47791,10 +47791,10 @@
         <v>30.47672887702665</v>
       </c>
       <c r="AN241">
-        <v>2196.853926523539</v>
+        <v>2192.426573572564</v>
       </c>
       <c r="AP241">
-        <v>777.0885689038358</v>
+        <v>778.0974340302505</v>
       </c>
       <c r="AQ241">
         <v>708.6431932464548</v>
@@ -47830,7 +47830,7 @@
         <v>0.009482712871812682</v>
       </c>
       <c r="BF241">
-        <v>0.004622496147919763</v>
+        <v>0.004622496147919764</v>
       </c>
       <c r="BG241">
         <v>0.00523168908819116</v>
@@ -47899,7 +47899,7 @@
         <v>0</v>
       </c>
       <c r="CC241">
-        <v>0.005970495127484154</v>
+        <v>0.005970495127484155</v>
       </c>
       <c r="CD241">
         <v>0.008534474032354744</v>
@@ -47962,10 +47962,10 @@
         <v>304.2276629086898</v>
       </c>
       <c r="CX241">
-        <v>1488.210733277084</v>
+        <v>1483.783380326109</v>
       </c>
       <c r="CY241">
-        <v>3633.095807029092</v>
+        <v>3636.441666425185</v>
       </c>
       <c r="CZ241">
         <v>3492.24421850739</v>
@@ -47979,7 +47979,7 @@
         <v>32224.50481217384</v>
       </c>
       <c r="C242">
-        <v>23703.13800584955</v>
+        <v>23702.50027613567</v>
       </c>
       <c r="D242">
         <v>135.8876855123676</v>
@@ -47988,7 +47988,7 @@
         <v>21913.6017121703</v>
       </c>
       <c r="G242">
-        <v>132.1112436942157</v>
+        <v>132.120727461104</v>
       </c>
       <c r="H242">
         <v>135.5191841708219</v>
@@ -47997,7 +47997,7 @@
         <v>154.5039973292824</v>
       </c>
       <c r="J242">
-        <v>154.2876532132153</v>
+        <v>154.2876532132154</v>
       </c>
       <c r="K242">
         <v>155.4445665655982</v>
@@ -48009,7 +48009,7 @@
         <v>1032.800220485412</v>
       </c>
       <c r="R242">
-        <v>5219.005228051823</v>
+        <v>5217.968785517857</v>
       </c>
       <c r="T242">
         <v>3596.870046632992</v>
@@ -48036,7 +48036,7 @@
         <v>2827.110492993984</v>
       </c>
       <c r="AE242">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF242">
         <v>643.8228424061529</v>
@@ -48045,7 +48045,7 @@
         <v>2120.500179162175</v>
       </c>
       <c r="AH242">
-        <v>3001.031611349097</v>
+        <v>3004.465084597212</v>
       </c>
       <c r="AI242">
         <v>1021.902158522911</v>
@@ -48063,10 +48063,10 @@
         <v>30.76601302633152</v>
       </c>
       <c r="AN242">
-        <v>2217.973616702726</v>
+        <v>2213.503700920645</v>
       </c>
       <c r="AP242">
-        <v>787.5581881589899</v>
+        <v>788.580645601874</v>
       </c>
       <c r="AQ242">
         <v>718.1906563258725</v>
@@ -48234,10 +48234,10 @@
         <v>303.7115021970385</v>
       </c>
       <c r="CX242">
-        <v>1499.782960376853</v>
+        <v>1495.313044594773</v>
       </c>
       <c r="CY242">
-        <v>3719.222267674969</v>
+        <v>3722.655740923085</v>
       </c>
       <c r="CZ242">
         <v>3527.194114639008</v>
@@ -48251,7 +48251,7 @@
         <v>32529.18841174361</v>
       </c>
       <c r="C243">
-        <v>23807.97141713955</v>
+        <v>23807.33086689696</v>
       </c>
       <c r="D243">
         <v>136.5917667844524</v>
@@ -48260,7 +48260,7 @@
         <v>22140.6020794771</v>
       </c>
       <c r="G243">
-        <v>132.746825975396</v>
+        <v>132.7563553683342</v>
       </c>
       <c r="H243">
         <v>136.2481252679642</v>
@@ -48281,7 +48281,7 @@
         <v>1046.530031485661</v>
       </c>
       <c r="R243">
-        <v>5303.795938851033</v>
+        <v>5302.790848675774</v>
       </c>
       <c r="T243">
         <v>3632.848888992628</v>
@@ -48308,7 +48308,7 @@
         <v>2855.81123711835</v>
       </c>
       <c r="AE243">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF243">
         <v>647.6214247153649</v>
@@ -48317,7 +48317,7 @@
         <v>2138.293814243749</v>
       </c>
       <c r="AH243">
-        <v>3065.041088542504</v>
+        <v>3068.547794883779</v>
       </c>
       <c r="AI243">
         <v>1031.716472818987</v>
@@ -48335,13 +48335,13 @@
         <v>31.05690654503447</v>
       </c>
       <c r="AN243">
-        <v>2238.754850308529</v>
+        <v>2234.243053791995</v>
       </c>
       <c r="AP243">
-        <v>798.0278074141438</v>
+        <v>799.0638571734975</v>
       </c>
       <c r="AQ243">
-        <v>727.7381194052901</v>
+        <v>727.7381194052902</v>
       </c>
       <c r="AR243">
         <v>104.7245401172757</v>
@@ -48497,7 +48497,7 @@
         <v>0.007759251022763536</v>
       </c>
       <c r="CU243">
-        <v>727.7381194052901</v>
+        <v>727.7381194052902</v>
       </c>
       <c r="CV243">
         <v>318.7919120803705</v>
@@ -48506,10 +48506,10 @@
         <v>303.9783534136972</v>
       </c>
       <c r="CX243">
-        <v>1511.016730903239</v>
+        <v>1506.504934386705</v>
       </c>
       <c r="CY243">
-        <v>3792.779207947794</v>
+        <v>3796.285914289069</v>
       </c>
       <c r="CZ243">
         <v>3562.184276874279</v>
@@ -48520,10 +48520,10 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>32835.45232043978</v>
+        <v>32835.45232043979</v>
       </c>
       <c r="C244">
-        <v>23912.38591369913</v>
+        <v>23911.74255419866</v>
       </c>
       <c r="D244">
         <v>137.2958480565372</v>
@@ -48532,7 +48532,7 @@
         <v>22366.97796159186</v>
       </c>
       <c r="G244">
-        <v>133.3857034421703</v>
+        <v>133.3952786977072</v>
       </c>
       <c r="H244">
         <v>136.9655942098025</v>
@@ -48541,7 +48541,7 @@
         <v>156.9146004596369</v>
       </c>
       <c r="J244">
-        <v>156.6948808981934</v>
+        <v>156.6948808981935</v>
       </c>
       <c r="K244">
         <v>157.8698446505466</v>
@@ -48553,7 +48553,7 @@
         <v>1060.25984248591</v>
       </c>
       <c r="R244">
-        <v>5378.698739469653</v>
+        <v>5377.713261188577</v>
       </c>
       <c r="T244">
         <v>3668.865480824439</v>
@@ -48580,7 +48580,7 @@
         <v>2884.511981242715</v>
       </c>
       <c r="AE244">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF244">
         <v>651.4200070245769</v>
@@ -48589,7 +48589,7 @@
         <v>2156.087449325322</v>
       </c>
       <c r="AH244">
-        <v>3119.027272925967</v>
+        <v>3122.59574473454</v>
       </c>
       <c r="AI244">
         <v>1041.554818815363</v>
@@ -48598,7 +48598,7 @@
         <v>784.3534995817238</v>
       </c>
       <c r="AK244">
-        <v>2040.964161653985</v>
+        <v>2040.964161653986</v>
       </c>
       <c r="AL244">
         <v>97.20355004049986</v>
@@ -48607,10 +48607,10 @@
         <v>31.34930884754811</v>
       </c>
       <c r="AN244">
-        <v>2259.671466543686</v>
+        <v>2255.117516454037</v>
       </c>
       <c r="AP244">
-        <v>808.4974266692979</v>
+        <v>809.547068745121</v>
       </c>
       <c r="AQ244">
         <v>737.2855824847078</v>
@@ -48619,7 +48619,7 @@
         <v>105.7231829490315</v>
       </c>
       <c r="AS244">
-        <v>1443.107614297503</v>
+        <v>1443.107614297504</v>
       </c>
       <c r="AT244">
         <v>0.7145865879165652</v>
@@ -48778,10 +48778,10 @@
         <v>304.2692363306547</v>
       </c>
       <c r="CX244">
-        <v>1522.385884058978</v>
+        <v>1517.831933969329</v>
       </c>
       <c r="CY244">
-        <v>3856.312855410675</v>
+        <v>3859.881327219248</v>
       </c>
       <c r="CZ244">
         <v>3597.212188581724</v>
@@ -48795,7 +48795,7 @@
         <v>33143.50724614588</v>
       </c>
       <c r="C245">
-        <v>24016.38149552827</v>
+        <v>24015.73533804078</v>
       </c>
       <c r="D245">
         <v>137.999929328622</v>
@@ -48804,7 +48804,7 @@
         <v>22593.45792457196</v>
       </c>
       <c r="G245">
-        <v>134.0274194042832</v>
+        <v>134.0370407261838</v>
       </c>
       <c r="H245">
         <v>137.7106349414177</v>
@@ -48831,7 +48831,7 @@
         <v>1051.425927251813</v>
       </c>
       <c r="AJ245">
-        <v>791.7121300243004</v>
+        <v>791.7121300243005</v>
       </c>
       <c r="AK245">
         <v>2060.112034418197</v>
@@ -48843,7 +48843,7 @@
         <v>31.64342110504722</v>
       </c>
       <c r="AN245">
-        <v>2280.588082778842</v>
+        <v>2275.99197911608</v>
       </c>
       <c r="AR245">
         <v>106.7251513373335</v>
@@ -48855,7 +48855,7 @@
         <v>0.7176943797131988</v>
       </c>
       <c r="AU245">
-        <v>1450.101494210518</v>
+        <v>1450.101494210519</v>
       </c>
       <c r="AY245">
         <v>23047.19999999999</v>
@@ -48888,13 +48888,13 @@
         <v>0.005289213452704944</v>
       </c>
       <c r="BJ245">
-        <v>0.001344547431056275</v>
+        <v>0.001344547431056276</v>
       </c>
       <c r="BK245">
         <v>0.00103001765744537</v>
       </c>
       <c r="BL245">
-        <v>0.001499109903494888</v>
+        <v>0.001499109903494889</v>
       </c>
       <c r="BM245">
         <v>0.008253068571319133</v>

--- a/results/11-2020/xx.xlsx
+++ b/results/11-2020/xx.xlsx
@@ -900,7 +900,7 @@
         <v>21.286</v>
       </c>
       <c r="E2">
-        <v>631.7000000000001</v>
+        <v>631.7</v>
       </c>
       <c r="F2">
         <v>3065.1</v>
@@ -1139,7 +1139,7 @@
         <v>117.4</v>
       </c>
       <c r="AB3">
-        <v>695.2000000000001</v>
+        <v>695.2</v>
       </c>
       <c r="AC3">
         <v>838.9</v>
@@ -1309,7 +1309,7 @@
         <v>122.2</v>
       </c>
       <c r="AB4">
-        <v>686.7000000000001</v>
+        <v>686.7</v>
       </c>
       <c r="AC4">
         <v>858.1</v>
@@ -1410,7 +1410,7 @@
         <v>22.055</v>
       </c>
       <c r="E5">
-        <v>660.2000000000001</v>
+        <v>660.2</v>
       </c>
       <c r="F5">
         <v>3097.5</v>
@@ -1580,7 +1580,7 @@
         <v>22.389</v>
       </c>
       <c r="E6">
-        <v>679.2000000000001</v>
+        <v>679.2</v>
       </c>
       <c r="F6">
         <v>3157</v>
@@ -1750,7 +1750,7 @@
         <v>22.689</v>
       </c>
       <c r="E7">
-        <v>693.2000000000001</v>
+        <v>693.2</v>
       </c>
       <c r="F7">
         <v>3186</v>
@@ -2090,7 +2090,7 @@
         <v>23.107</v>
       </c>
       <c r="E9">
-        <v>721.7000000000001</v>
+        <v>721.7</v>
       </c>
       <c r="F9">
         <v>3264.7</v>
@@ -2231,7 +2231,7 @@
         <v>0.569081404</v>
       </c>
       <c r="CU9">
-        <v>4.1542942492</v>
+        <v>4.154294249199999</v>
       </c>
       <c r="CV9">
         <v>3.1457057508</v>
@@ -2329,7 +2329,7 @@
         <v>140.8</v>
       </c>
       <c r="AB10">
-        <v>639.7000000000001</v>
+        <v>639.7</v>
       </c>
       <c r="AC10">
         <v>888.8</v>
@@ -2413,7 +2413,7 @@
         <v>22.8661111416</v>
       </c>
       <c r="CY10">
-        <v>68.53388885840001</v>
+        <v>68.5338888584</v>
       </c>
     </row>
     <row r="11">
@@ -2741,7 +2741,7 @@
         <v>0.546908828</v>
       </c>
       <c r="CU12">
-        <v>4.7034159208</v>
+        <v>4.703415920799999</v>
       </c>
       <c r="CV12">
         <v>3.8965840792</v>
@@ -2842,7 +2842,7 @@
         <v>617.9</v>
       </c>
       <c r="AC13">
-        <v>906.7000000000001</v>
+        <v>906.7</v>
       </c>
       <c r="AD13">
         <v>105.3</v>
@@ -3689,7 +3689,7 @@
         <v>171.9</v>
       </c>
       <c r="AB18">
-        <v>609.7000000000001</v>
+        <v>609.7</v>
       </c>
       <c r="AC18">
         <v>944.9</v>
@@ -4202,7 +4202,7 @@
         <v>617.6</v>
       </c>
       <c r="AC21">
-        <v>955.2000000000001</v>
+        <v>955.2</v>
       </c>
       <c r="AD21">
         <v>132</v>
@@ -4300,7 +4300,7 @@
         <v>29.142</v>
       </c>
       <c r="E22">
-        <v>985.2000000000001</v>
+        <v>985.2</v>
       </c>
       <c r="F22">
         <v>3540.6</v>
@@ -4879,7 +4879,7 @@
         <v>214.8</v>
       </c>
       <c r="AB25">
-        <v>622.7000000000001</v>
+        <v>622.7</v>
       </c>
       <c r="AC25">
         <v>1002.1</v>
@@ -5559,7 +5559,7 @@
         <v>220.6</v>
       </c>
       <c r="AB29">
-        <v>616.7000000000001</v>
+        <v>616.7</v>
       </c>
       <c r="AC29">
         <v>986</v>
@@ -5977,7 +5977,7 @@
         <v>7.5836005525</v>
       </c>
       <c r="CW31">
-        <v>43.78360055250001</v>
+        <v>43.7836005525</v>
       </c>
       <c r="CX31">
         <v>39.3596005525</v>
@@ -6239,7 +6239,7 @@
         <v>240.5</v>
       </c>
       <c r="AB33">
-        <v>630.7000000000001</v>
+        <v>630.7</v>
       </c>
       <c r="AC33">
         <v>1002.4</v>
@@ -6785,7 +6785,7 @@
         <v>3.5</v>
       </c>
       <c r="AN36">
-        <v>49.676</v>
+        <v>49.67599999999999</v>
       </c>
       <c r="AO36">
         <v>313.5</v>
@@ -7429,7 +7429,7 @@
         <v>289.4</v>
       </c>
       <c r="AB40">
-        <v>660.2000000000001</v>
+        <v>660.2</v>
       </c>
       <c r="AC40">
         <v>1049.6</v>
@@ -7850,7 +7850,7 @@
         <v>53.647165036</v>
       </c>
       <c r="CX42">
-        <v>47.35116503600001</v>
+        <v>47.351165036</v>
       </c>
       <c r="CY42">
         <v>203.848834964</v>
@@ -8094,7 +8094,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="W44">
-        <v>592.2000000000001</v>
+        <v>592.2</v>
       </c>
       <c r="X44">
         <v>168</v>
@@ -8530,7 +8530,7 @@
         <v>56.721137037</v>
       </c>
       <c r="CX46">
-        <v>56.381137037</v>
+        <v>56.38113703699999</v>
       </c>
       <c r="CY46">
         <v>239.718862963</v>
@@ -8604,7 +8604,7 @@
         <v>65.90000000000001</v>
       </c>
       <c r="W47">
-        <v>648.7000000000001</v>
+        <v>648.7</v>
       </c>
       <c r="X47">
         <v>194.8</v>
@@ -8944,7 +8944,7 @@
         <v>58.9</v>
       </c>
       <c r="W49">
-        <v>677.7000000000001</v>
+        <v>677.7</v>
       </c>
       <c r="X49">
         <v>202.2</v>
@@ -9421,13 +9421,13 @@
         <v>45.84</v>
       </c>
       <c r="L52">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="O52">
         <v>51.8</v>
@@ -9547,7 +9547,7 @@
         <v>13.6320139956</v>
       </c>
       <c r="CW52">
-        <v>48.4320139956</v>
+        <v>48.43201399559999</v>
       </c>
       <c r="CX52">
         <v>70.05201399559999</v>
@@ -10134,7 +10134,7 @@
         <v>70.7</v>
       </c>
       <c r="W56">
-        <v>782.2000000000001</v>
+        <v>782.2</v>
       </c>
       <c r="X56">
         <v>228.9</v>
@@ -10149,7 +10149,7 @@
         <v>387.8</v>
       </c>
       <c r="AB56">
-        <v>808.7000000000001</v>
+        <v>808.7</v>
       </c>
       <c r="AC56">
         <v>1043.2</v>
@@ -10489,7 +10489,7 @@
         <v>401.6</v>
       </c>
       <c r="AB58">
-        <v>789.2000000000001</v>
+        <v>789.2</v>
       </c>
       <c r="AC58">
         <v>1057.1</v>
@@ -10781,7 +10781,7 @@
         <v>46.312</v>
       </c>
       <c r="L60">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M60">
         <v>0.71</v>
@@ -10814,7 +10814,7 @@
         <v>71.3</v>
       </c>
       <c r="W60">
-        <v>835.7000000000001</v>
+        <v>835.7</v>
       </c>
       <c r="X60">
         <v>261.8</v>
@@ -11208,7 +11208,7 @@
         <v>89.304</v>
       </c>
       <c r="AO62">
-        <v>542.7000000000001</v>
+        <v>542.7</v>
       </c>
       <c r="AR62">
         <v>17.044</v>
@@ -11238,7 +11238,7 @@
         <v>-1</v>
       </c>
       <c r="CI62">
-        <v>0.551921245</v>
+        <v>0.5519212449999999</v>
       </c>
       <c r="CU62">
         <v>21.193775808</v>
@@ -11375,10 +11375,10 @@
         <v>4.8</v>
       </c>
       <c r="AN63">
-        <v>90.74</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="AO63">
-        <v>557.7000000000001</v>
+        <v>557.7</v>
       </c>
       <c r="AR63">
         <v>19.408</v>
@@ -11408,13 +11408,13 @@
         <v>-1</v>
       </c>
       <c r="CI63">
-        <v>0.551921245</v>
+        <v>0.5519212449999999</v>
       </c>
       <c r="CU63">
         <v>21.635312804</v>
       </c>
       <c r="CV63">
-        <v>17.56468719600001</v>
+        <v>17.564687196</v>
       </c>
       <c r="CW63">
         <v>53.664687196</v>
@@ -11464,7 +11464,7 @@
         <v>1.93</v>
       </c>
       <c r="M64">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="N64">
         <v>1.26</v>
@@ -11509,7 +11509,7 @@
         <v>464.3</v>
       </c>
       <c r="AB64">
-        <v>894.2000000000001</v>
+        <v>894.2</v>
       </c>
       <c r="AC64">
         <v>1152.7</v>
@@ -11578,7 +11578,7 @@
         <v>-1</v>
       </c>
       <c r="CI64">
-        <v>0.551921245</v>
+        <v>0.5519212449999999</v>
       </c>
       <c r="CU64">
         <v>22.1320419245</v>
@@ -11587,7 +11587,7 @@
         <v>17.9679580755</v>
       </c>
       <c r="CW64">
-        <v>54.26795807550001</v>
+        <v>54.2679580755</v>
       </c>
       <c r="CX64">
         <v>70.4839580755</v>
@@ -11679,7 +11679,7 @@
         <v>472.1</v>
       </c>
       <c r="AB65">
-        <v>894.7000000000001</v>
+        <v>894.7</v>
       </c>
       <c r="AC65">
         <v>1161.5</v>
@@ -11718,7 +11718,7 @@
         <v>94.88799999999999</v>
       </c>
       <c r="AO65">
-        <v>582.2000000000001</v>
+        <v>582.2</v>
       </c>
       <c r="AR65">
         <v>21.184</v>
@@ -11748,7 +11748,7 @@
         <v>-1</v>
       </c>
       <c r="CI65">
-        <v>0.551921245</v>
+        <v>0.5519212449999999</v>
       </c>
       <c r="CU65">
         <v>22.6839631695</v>
@@ -11849,7 +11849,7 @@
         <v>482.8</v>
       </c>
       <c r="AB66">
-        <v>892.2000000000001</v>
+        <v>892.2</v>
       </c>
       <c r="AC66">
         <v>1182.9</v>
@@ -12947,13 +12947,13 @@
         <v>21.6054430768</v>
       </c>
       <c r="CW72">
-        <v>51.40544307680001</v>
+        <v>51.4054430768</v>
       </c>
       <c r="CX72">
         <v>78.79744307679999</v>
       </c>
       <c r="CY72">
-        <v>370.7025569232</v>
+        <v>370.7025569231999</v>
       </c>
     </row>
     <row r="73">
@@ -13033,13 +13033,13 @@
         <v>56.718</v>
       </c>
       <c r="Z73">
-        <v>513.7000000000001</v>
+        <v>513.7</v>
       </c>
       <c r="AA73">
         <v>542.3</v>
       </c>
       <c r="AB73">
-        <v>975.7000000000001</v>
+        <v>975.7</v>
       </c>
       <c r="AC73">
         <v>1238.9</v>
@@ -13209,7 +13209,7 @@
         <v>551.1</v>
       </c>
       <c r="AB74">
-        <v>947.7000000000001</v>
+        <v>947.7</v>
       </c>
       <c r="AC74">
         <v>1252.6</v>
@@ -13588,7 +13588,7 @@
         <v>112.276</v>
       </c>
       <c r="AO76">
-        <v>703.2000000000001</v>
+        <v>703.2</v>
       </c>
       <c r="AR76">
         <v>20.388</v>
@@ -13695,7 +13695,7 @@
         <v>15.4</v>
       </c>
       <c r="T77">
-        <v>517.2000000000001</v>
+        <v>517.2</v>
       </c>
       <c r="U77">
         <v>382.6</v>
@@ -13847,7 +13847,7 @@
         <v>0.35</v>
       </c>
       <c r="N78">
-        <v>-0.69</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="O78">
         <v>93.8</v>
@@ -13886,7 +13886,7 @@
         <v>519.9</v>
       </c>
       <c r="AA78">
-        <v>596.7000000000001</v>
+        <v>596.7</v>
       </c>
       <c r="AB78">
         <v>944.5</v>
@@ -14029,13 +14029,13 @@
         <v>13.7</v>
       </c>
       <c r="R79">
-        <v>515.7000000000001</v>
+        <v>515.7</v>
       </c>
       <c r="S79">
         <v>16.3</v>
       </c>
       <c r="T79">
-        <v>566.7000000000001</v>
+        <v>566.7</v>
       </c>
       <c r="U79">
         <v>397.5</v>
@@ -14059,7 +14059,7 @@
         <v>611.5</v>
       </c>
       <c r="AB79">
-        <v>963.7000000000001</v>
+        <v>963.7</v>
       </c>
       <c r="AC79">
         <v>1314.2</v>
@@ -14199,7 +14199,7 @@
         <v>14.6</v>
       </c>
       <c r="R80">
-        <v>524.7000000000001</v>
+        <v>524.7</v>
       </c>
       <c r="S80">
         <v>16.7</v>
@@ -14226,7 +14226,7 @@
         <v>541.4</v>
       </c>
       <c r="AA80">
-        <v>623.2000000000001</v>
+        <v>623.2</v>
       </c>
       <c r="AB80">
         <v>971.6</v>
@@ -14313,7 +14313,7 @@
         <v>90.172442221</v>
       </c>
       <c r="CY80">
-        <v>434.527557779</v>
+        <v>434.5275577789999</v>
       </c>
     </row>
     <row r="81">
@@ -14396,7 +14396,7 @@
         <v>540.8</v>
       </c>
       <c r="AA81">
-        <v>639.7000000000001</v>
+        <v>639.7</v>
       </c>
       <c r="AB81">
         <v>967.1</v>
@@ -14524,7 +14524,7 @@
         <v>1.33</v>
       </c>
       <c r="M82">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N82">
         <v>0.63</v>
@@ -14539,7 +14539,7 @@
         <v>16.4</v>
       </c>
       <c r="R82">
-        <v>556.2000000000001</v>
+        <v>556.2</v>
       </c>
       <c r="S82">
         <v>17.3</v>
@@ -14563,13 +14563,13 @@
         <v>62.319</v>
       </c>
       <c r="Z82">
-        <v>553.7000000000001</v>
+        <v>553.7</v>
       </c>
       <c r="AA82">
         <v>658.8</v>
       </c>
       <c r="AB82">
-        <v>983.2000000000001</v>
+        <v>983.2</v>
       </c>
       <c r="AC82">
         <v>1365.4</v>
@@ -14837,7 +14837,7 @@
         <v>9398.5</v>
       </c>
       <c r="D84">
-        <v>64.00400000000001</v>
+        <v>64.004</v>
       </c>
       <c r="E84">
         <v>3846.7</v>
@@ -14885,7 +14885,7 @@
         <v>18.7</v>
       </c>
       <c r="T84">
-        <v>600.7000000000001</v>
+        <v>600.7</v>
       </c>
       <c r="U84">
         <v>426.8</v>
@@ -14903,7 +14903,7 @@
         <v>63.685</v>
       </c>
       <c r="Z84">
-        <v>562.2000000000001</v>
+        <v>562.2</v>
       </c>
       <c r="AA84">
         <v>680.3</v>
@@ -15007,7 +15007,7 @@
         <v>9312.9</v>
       </c>
       <c r="D85">
-        <v>64.493</v>
+        <v>64.49299999999999</v>
       </c>
       <c r="E85">
         <v>3867.9</v>
@@ -15073,7 +15073,7 @@
         <v>64.527</v>
       </c>
       <c r="Z85">
-        <v>569.7000000000001</v>
+        <v>569.7</v>
       </c>
       <c r="AA85">
         <v>698.8</v>
@@ -15177,7 +15177,7 @@
         <v>9269.4</v>
       </c>
       <c r="D86">
-        <v>65.12000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="E86">
         <v>3873.6</v>
@@ -15565,7 +15565,7 @@
         <v>23.1</v>
       </c>
       <c r="T88">
-        <v>590.2000000000001</v>
+        <v>590.2</v>
       </c>
       <c r="U88">
         <v>461.3</v>
@@ -15607,7 +15607,7 @@
         <v>423.7</v>
       </c>
       <c r="AH88">
-        <v>469.7360000000001</v>
+        <v>469.736</v>
       </c>
       <c r="AI88">
         <v>127</v>
@@ -15628,7 +15628,7 @@
         <v>183.964</v>
       </c>
       <c r="AO88">
-        <v>919.2000000000001</v>
+        <v>919.2</v>
       </c>
       <c r="AR88">
         <v>21.056</v>
@@ -15717,7 +15717,7 @@
         <v>0.33</v>
       </c>
       <c r="N89">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="O89">
         <v>122.5</v>
@@ -15735,7 +15735,7 @@
         <v>24.2</v>
       </c>
       <c r="T89">
-        <v>598.7000000000001</v>
+        <v>598.7</v>
       </c>
       <c r="U89">
         <v>471.5</v>
@@ -15857,7 +15857,7 @@
         <v>9534.299999999999</v>
       </c>
       <c r="D90">
-        <v>66.743</v>
+        <v>66.74299999999999</v>
       </c>
       <c r="E90">
         <v>4100.4</v>
@@ -16036,7 +16036,7 @@
         <v>6203.2</v>
       </c>
       <c r="G91">
-        <v>66.99800000000001</v>
+        <v>66.998</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -16075,7 +16075,7 @@
         <v>25.8</v>
       </c>
       <c r="T91">
-        <v>607.2000000000001</v>
+        <v>607.2</v>
       </c>
       <c r="U91">
         <v>481.2</v>
@@ -16117,7 +16117,7 @@
         <v>445.1</v>
       </c>
       <c r="AH91">
-        <v>525.084</v>
+        <v>525.0839999999999</v>
       </c>
       <c r="AI91">
         <v>139</v>
@@ -16138,7 +16138,7 @@
         <v>204.016</v>
       </c>
       <c r="AO91">
-        <v>975.2000000000001</v>
+        <v>975.2</v>
       </c>
       <c r="AR91">
         <v>22.8</v>
@@ -16245,7 +16245,7 @@
         <v>26.4</v>
       </c>
       <c r="T92">
-        <v>616.2000000000001</v>
+        <v>616.2</v>
       </c>
       <c r="U92">
         <v>486</v>
@@ -16263,7 +16263,7 @@
         <v>67.419</v>
       </c>
       <c r="Z92">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="AA92">
         <v>759.8</v>
@@ -16308,7 +16308,7 @@
         <v>211.16</v>
       </c>
       <c r="AO92">
-        <v>988.2000000000001</v>
+        <v>988.2</v>
       </c>
       <c r="AR92">
         <v>22.288</v>
@@ -16609,7 +16609,7 @@
         <v>771.5</v>
       </c>
       <c r="AB94">
-        <v>942.2000000000001</v>
+        <v>942.2</v>
       </c>
       <c r="AC94">
         <v>1438.9</v>
@@ -16755,7 +16755,7 @@
         <v>35.5</v>
       </c>
       <c r="R95">
-        <v>771.7000000000001</v>
+        <v>771.7</v>
       </c>
       <c r="S95">
         <v>28.3</v>
@@ -16779,7 +16779,7 @@
         <v>68.753</v>
       </c>
       <c r="Z95">
-        <v>576.7000000000001</v>
+        <v>576.7</v>
       </c>
       <c r="AA95">
         <v>782.3</v>
@@ -16937,7 +16937,7 @@
         <v>28.7</v>
       </c>
       <c r="T96">
-        <v>659.2000000000001</v>
+        <v>659.2</v>
       </c>
       <c r="U96">
         <v>504.9</v>
@@ -16955,10 +16955,10 @@
         <v>69.05200000000001</v>
       </c>
       <c r="Z96">
-        <v>578.7000000000001</v>
+        <v>578.7</v>
       </c>
       <c r="AA96">
-        <v>788.7000000000001</v>
+        <v>788.7</v>
       </c>
       <c r="AB96">
         <v>928.8</v>
@@ -17003,7 +17003,7 @@
         <v>1028.1</v>
       </c>
       <c r="AP96">
-        <v>85.25100000000001</v>
+        <v>85.251</v>
       </c>
       <c r="AQ96">
         <v>80.604</v>
@@ -17065,7 +17065,7 @@
         <v>10091</v>
       </c>
       <c r="D97">
-        <v>69.49500000000001</v>
+        <v>69.495</v>
       </c>
       <c r="E97">
         <v>4552.7</v>
@@ -17289,7 +17289,7 @@
         <v>30.1</v>
       </c>
       <c r="T98">
-        <v>673.7000000000001</v>
+        <v>673.7</v>
       </c>
       <c r="U98">
         <v>531.5</v>
@@ -17319,7 +17319,7 @@
         <v>1471.3</v>
       </c>
       <c r="AD98">
-        <v>526.7000000000001</v>
+        <v>526.7</v>
       </c>
       <c r="AE98">
         <v>75.5</v>
@@ -17388,7 +17388,7 @@
         <v>-1</v>
       </c>
       <c r="CI98">
-        <v>0.6030026630000001</v>
+        <v>0.603002663</v>
       </c>
       <c r="CU98">
         <v>78.94799999999999</v>
@@ -17564,7 +17564,7 @@
         <v>-1</v>
       </c>
       <c r="CI99">
-        <v>0.6030026630000001</v>
+        <v>0.603002663</v>
       </c>
       <c r="CU99">
         <v>81.77200000000001</v>
@@ -17671,7 +17671,7 @@
         <v>1505.6</v>
       </c>
       <c r="AD100">
-        <v>544.2000000000001</v>
+        <v>544.2</v>
       </c>
       <c r="AE100">
         <v>80.5</v>
@@ -17740,7 +17740,7 @@
         <v>-1</v>
       </c>
       <c r="CI100">
-        <v>0.6030026630000001</v>
+        <v>0.603002663</v>
       </c>
       <c r="CU100">
         <v>82.892</v>
@@ -17841,7 +17841,7 @@
         <v>847.1</v>
       </c>
       <c r="AB101">
-        <v>891.7000000000001</v>
+        <v>891.7</v>
       </c>
       <c r="AC101">
         <v>1511.1</v>
@@ -17916,7 +17916,7 @@
         <v>-1</v>
       </c>
       <c r="CI101">
-        <v>0.6030026630000001</v>
+        <v>0.603002663</v>
       </c>
       <c r="CU101">
         <v>85.54000000000001</v>
@@ -17945,7 +17945,7 @@
         <v>10543.6</v>
       </c>
       <c r="D102">
-        <v>71.356</v>
+        <v>71.35599999999999</v>
       </c>
       <c r="E102">
         <v>4862.4</v>
@@ -17957,7 +17957,7 @@
         <v>71.274</v>
       </c>
       <c r="H102">
-        <v>65.115</v>
+        <v>65.11499999999999</v>
       </c>
       <c r="I102">
         <v>56.378</v>
@@ -18005,7 +18005,7 @@
         <v>1437.6</v>
       </c>
       <c r="X102">
-        <v>528.2000000000001</v>
+        <v>528.2</v>
       </c>
       <c r="Y102">
         <v>71.27</v>
@@ -18017,13 +18017,13 @@
         <v>858.5</v>
       </c>
       <c r="AB102">
-        <v>889.2000000000001</v>
+        <v>889.2</v>
       </c>
       <c r="AC102">
         <v>1522.9</v>
       </c>
       <c r="AD102">
-        <v>567.7000000000001</v>
+        <v>567.7</v>
       </c>
       <c r="AE102">
         <v>76.59999999999999</v>
@@ -18032,7 +18032,7 @@
         <v>155.3</v>
       </c>
       <c r="AG102">
-        <v>514.2000000000001</v>
+        <v>514.2</v>
       </c>
       <c r="AH102">
         <v>617.456</v>
@@ -18181,7 +18181,7 @@
         <v>1452.9</v>
       </c>
       <c r="X103">
-        <v>532.7000000000001</v>
+        <v>532.7</v>
       </c>
       <c r="Y103">
         <v>71.685</v>
@@ -18193,7 +18193,7 @@
         <v>871.9</v>
       </c>
       <c r="AB103">
-        <v>886.2000000000001</v>
+        <v>886.2</v>
       </c>
       <c r="AC103">
         <v>1534.9</v>
@@ -18235,7 +18235,7 @@
         <v>1132.8</v>
       </c>
       <c r="AP103">
-        <v>94.484</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="AQ103">
         <v>90.54000000000001</v>
@@ -18283,7 +18283,7 @@
         <v>151.016</v>
       </c>
       <c r="CY103">
-        <v>714.584</v>
+        <v>714.5839999999999</v>
       </c>
     </row>
     <row r="104">
@@ -18306,7 +18306,7 @@
         <v>6944.7</v>
       </c>
       <c r="G104">
-        <v>71.981</v>
+        <v>71.98099999999999</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -18339,13 +18339,13 @@
         <v>22</v>
       </c>
       <c r="R104">
-        <v>870.7000000000001</v>
+        <v>870.7</v>
       </c>
       <c r="S104">
         <v>32.9</v>
       </c>
       <c r="T104">
-        <v>752.2000000000001</v>
+        <v>752.2</v>
       </c>
       <c r="U104">
         <v>558.9</v>
@@ -18691,13 +18691,13 @@
         <v>23</v>
       </c>
       <c r="R106">
-        <v>893.2000000000001</v>
+        <v>893.2</v>
       </c>
       <c r="S106">
         <v>34</v>
       </c>
       <c r="T106">
-        <v>801.7000000000001</v>
+        <v>801.7</v>
       </c>
       <c r="U106">
         <v>570.4</v>
@@ -18739,7 +18739,7 @@
         <v>532.9</v>
       </c>
       <c r="AH106">
-        <v>652.7240000000001</v>
+        <v>652.724</v>
       </c>
       <c r="AI106">
         <v>177.1</v>
@@ -18876,7 +18876,7 @@
         <v>839.6</v>
       </c>
       <c r="U107">
-        <v>577.7000000000001</v>
+        <v>577.7</v>
       </c>
       <c r="V107">
         <v>205.5</v>
@@ -18912,7 +18912,7 @@
         <v>171.9</v>
       </c>
       <c r="AG107">
-        <v>541.7000000000001</v>
+        <v>541.7</v>
       </c>
       <c r="AH107">
         <v>658.652</v>
@@ -18942,7 +18942,7 @@
         <v>102.461</v>
       </c>
       <c r="AQ107">
-        <v>96.37600000000001</v>
+        <v>96.376</v>
       </c>
       <c r="AR107">
         <v>27.904</v>
@@ -18975,7 +18975,7 @@
         <v>0.598665966</v>
       </c>
       <c r="CU107">
-        <v>96.37600000000001</v>
+        <v>96.376</v>
       </c>
       <c r="CV107">
         <v>69.42400000000001</v>
@@ -19079,7 +19079,7 @@
         <v>1577.1</v>
       </c>
       <c r="AD108">
-        <v>674.2000000000001</v>
+        <v>674.2</v>
       </c>
       <c r="AE108">
         <v>71.7</v>
@@ -19219,7 +19219,7 @@
         <v>21.7</v>
       </c>
       <c r="R109">
-        <v>910.7000000000001</v>
+        <v>910.7</v>
       </c>
       <c r="S109">
         <v>35.8</v>
@@ -19228,7 +19228,7 @@
         <v>863.5</v>
       </c>
       <c r="U109">
-        <v>593.2000000000001</v>
+        <v>593.2</v>
       </c>
       <c r="V109">
         <v>208.6</v>
@@ -19240,7 +19240,7 @@
         <v>569.4</v>
       </c>
       <c r="Y109">
-        <v>73.99500000000001</v>
+        <v>73.995</v>
       </c>
       <c r="Z109">
         <v>576.9</v>
@@ -19291,7 +19291,7 @@
         <v>1192</v>
       </c>
       <c r="AP109">
-        <v>97.609</v>
+        <v>97.60899999999999</v>
       </c>
       <c r="AQ109">
         <v>93.892</v>
@@ -19404,7 +19404,7 @@
         <v>902.1</v>
       </c>
       <c r="U110">
-        <v>595.7000000000001</v>
+        <v>595.7</v>
       </c>
       <c r="V110">
         <v>210</v>
@@ -19419,13 +19419,13 @@
         <v>74.32299999999999</v>
       </c>
       <c r="Z110">
-        <v>570.7000000000001</v>
+        <v>570.7</v>
       </c>
       <c r="AA110">
         <v>945.3</v>
       </c>
       <c r="AB110">
-        <v>846.2000000000001</v>
+        <v>846.2</v>
       </c>
       <c r="AC110">
         <v>1600.1</v>
@@ -19577,7 +19577,7 @@
         <v>38</v>
       </c>
       <c r="T111">
-        <v>916.2000000000001</v>
+        <v>916.2</v>
       </c>
       <c r="U111">
         <v>610.4</v>
@@ -19595,7 +19595,7 @@
         <v>74.509</v>
       </c>
       <c r="Z111">
-        <v>587.2000000000001</v>
+        <v>587.2</v>
       </c>
       <c r="AA111">
         <v>955.4</v>
@@ -19628,7 +19628,7 @@
         <v>176.9</v>
       </c>
       <c r="AK111">
-        <v>530.7000000000001</v>
+        <v>530.7</v>
       </c>
       <c r="AL111">
         <v>33.6</v>
@@ -19691,7 +19691,7 @@
         <v>148.568</v>
       </c>
       <c r="CY111">
-        <v>782.632</v>
+        <v>782.6319999999999</v>
       </c>
     </row>
     <row r="112">
@@ -19747,7 +19747,7 @@
         <v>19.6</v>
       </c>
       <c r="R112">
-        <v>937.2000000000001</v>
+        <v>937.2</v>
       </c>
       <c r="S112">
         <v>38.6</v>
@@ -19774,7 +19774,7 @@
         <v>586</v>
       </c>
       <c r="AA112">
-        <v>969.2000000000001</v>
+        <v>969.2</v>
       </c>
       <c r="AB112">
         <v>861.3</v>
@@ -19858,7 +19858,7 @@
         <v>97.108</v>
       </c>
       <c r="CV112">
-        <v>66.59199999999999</v>
+        <v>66.59199999999998</v>
       </c>
       <c r="CW112">
         <v>90.392</v>
@@ -19923,7 +19923,7 @@
         <v>19.4</v>
       </c>
       <c r="R113">
-        <v>942.7000000000001</v>
+        <v>942.7</v>
       </c>
       <c r="S113">
         <v>39</v>
@@ -19947,7 +19947,7 @@
         <v>74.941</v>
       </c>
       <c r="Z113">
-        <v>589.2000000000001</v>
+        <v>589.2</v>
       </c>
       <c r="AA113">
         <v>985.6</v>
@@ -20123,7 +20123,7 @@
         <v>74.947</v>
       </c>
       <c r="Z114">
-        <v>572.2000000000001</v>
+        <v>572.2</v>
       </c>
       <c r="AA114">
         <v>995.9</v>
@@ -20496,7 +20496,7 @@
         <v>180.1</v>
       </c>
       <c r="AG116">
-        <v>622.2000000000001</v>
+        <v>622.2</v>
       </c>
       <c r="AH116">
         <v>703.72</v>
@@ -20651,7 +20651,7 @@
         <v>75.51000000000001</v>
       </c>
       <c r="Z117">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="AA117">
         <v>1053.2</v>
@@ -20663,7 +20663,7 @@
         <v>1718.3</v>
       </c>
       <c r="AD117">
-        <v>861.7000000000001</v>
+        <v>861.7</v>
       </c>
       <c r="AE117">
         <v>81.7</v>
@@ -20672,7 +20672,7 @@
         <v>176.4</v>
       </c>
       <c r="AG117">
-        <v>632.2000000000001</v>
+        <v>632.2</v>
       </c>
       <c r="AH117">
         <v>705.388</v>
@@ -20761,7 +20761,7 @@
         <v>12403.3</v>
       </c>
       <c r="D118">
-        <v>75.859</v>
+        <v>75.85899999999999</v>
       </c>
       <c r="E118">
         <v>6102.5</v>
@@ -20860,7 +20860,7 @@
         <v>208.2</v>
       </c>
       <c r="AK118">
-        <v>576.2000000000001</v>
+        <v>576.2</v>
       </c>
       <c r="AL118">
         <v>36.3</v>
@@ -20923,7 +20923,7 @@
         <v>161.004</v>
       </c>
       <c r="CY118">
-        <v>822.2960000000001</v>
+        <v>822.296</v>
       </c>
     </row>
     <row r="119">
@@ -21000,7 +21000,7 @@
         <v>659</v>
       </c>
       <c r="Y119">
-        <v>76.12000000000001</v>
+        <v>76.12</v>
       </c>
       <c r="Z119">
         <v>599.8</v>
@@ -21191,7 +21191,7 @@
         <v>1766</v>
       </c>
       <c r="AD120">
-        <v>904.2000000000001</v>
+        <v>904.2</v>
       </c>
       <c r="AE120">
         <v>83.8</v>
@@ -21200,10 +21200,10 @@
         <v>187.7</v>
       </c>
       <c r="AG120">
-        <v>656.7000000000001</v>
+        <v>656.7</v>
       </c>
       <c r="AH120">
-        <v>721.2480000000001</v>
+        <v>721.248</v>
       </c>
       <c r="AI120">
         <v>223.1</v>
@@ -21212,7 +21212,7 @@
         <v>216.4</v>
       </c>
       <c r="AK120">
-        <v>595.2000000000001</v>
+        <v>595.2</v>
       </c>
       <c r="AL120">
         <v>35.6</v>
@@ -21340,7 +21340,7 @@
         <v>1154</v>
       </c>
       <c r="U121">
-        <v>690.7000000000001</v>
+        <v>690.7</v>
       </c>
       <c r="V121">
         <v>228</v>
@@ -21355,7 +21355,7 @@
         <v>76.97499999999999</v>
       </c>
       <c r="Z121">
-        <v>635.2000000000001</v>
+        <v>635.2</v>
       </c>
       <c r="AA121">
         <v>1147.1</v>
@@ -21388,7 +21388,7 @@
         <v>224</v>
       </c>
       <c r="AK121">
-        <v>603.7000000000001</v>
+        <v>603.7</v>
       </c>
       <c r="AL121">
         <v>35.9</v>
@@ -21528,7 +21528,7 @@
         <v>699.5</v>
       </c>
       <c r="Y122">
-        <v>77.618</v>
+        <v>77.61799999999999</v>
       </c>
       <c r="Z122">
         <v>620.4</v>
@@ -21618,7 +21618,7 @@
         <v>114.852</v>
       </c>
       <c r="CV122">
-        <v>75.34799999999999</v>
+        <v>75.34799999999998</v>
       </c>
       <c r="CW122">
         <v>109.648</v>
@@ -21877,7 +21877,7 @@
         <v>1832.3</v>
       </c>
       <c r="X124">
-        <v>715.2000000000001</v>
+        <v>715.2</v>
       </c>
       <c r="Y124">
         <v>78.45</v>
@@ -21904,7 +21904,7 @@
         <v>185.6</v>
       </c>
       <c r="AG124">
-        <v>704.2000000000001</v>
+        <v>704.2</v>
       </c>
       <c r="AH124">
         <v>757.408</v>
@@ -21916,7 +21916,7 @@
         <v>236.6</v>
       </c>
       <c r="AK124">
-        <v>623.7000000000001</v>
+        <v>623.7</v>
       </c>
       <c r="AL124">
         <v>33.5</v>
@@ -22080,10 +22080,10 @@
         <v>187.6</v>
       </c>
       <c r="AG125">
-        <v>709.2000000000001</v>
+        <v>709.2</v>
       </c>
       <c r="AH125">
-        <v>765.18</v>
+        <v>765.1799999999999</v>
       </c>
       <c r="AI125">
         <v>241.1</v>
@@ -22220,7 +22220,7 @@
         <v>1301.9</v>
       </c>
       <c r="U126">
-        <v>724.2000000000001</v>
+        <v>724.2</v>
       </c>
       <c r="V126">
         <v>185.1</v>
@@ -22322,13 +22322,13 @@
         <v>129.388</v>
       </c>
       <c r="CV126">
-        <v>85.612</v>
+        <v>85.61199999999999</v>
       </c>
       <c r="CW126">
         <v>124.612</v>
       </c>
       <c r="CX126">
-        <v>185.888</v>
+        <v>185.8879999999999</v>
       </c>
       <c r="CY126">
         <v>921.812</v>
@@ -22435,7 +22435,7 @@
         <v>723.4</v>
       </c>
       <c r="AH127">
-        <v>803.132</v>
+        <v>803.1319999999999</v>
       </c>
       <c r="AI127">
         <v>262.2</v>
@@ -22599,7 +22599,7 @@
         <v>1869</v>
       </c>
       <c r="AD128">
-        <v>881.7000000000001</v>
+        <v>881.7</v>
       </c>
       <c r="AE128">
         <v>83.59999999999999</v>
@@ -22620,7 +22620,7 @@
         <v>231.9</v>
       </c>
       <c r="AK128">
-        <v>641.7000000000001</v>
+        <v>641.7</v>
       </c>
       <c r="AL128">
         <v>28.3</v>
@@ -22718,7 +22718,7 @@
         <v>68.76300000000001</v>
       </c>
       <c r="K129">
-        <v>67.62300000000001</v>
+        <v>67.623</v>
       </c>
       <c r="L129">
         <v>1.21</v>
@@ -22757,7 +22757,7 @@
         <v>1992</v>
       </c>
       <c r="X129">
-        <v>738.7000000000001</v>
+        <v>738.7</v>
       </c>
       <c r="Y129">
         <v>79.89100000000001</v>
@@ -22784,7 +22784,7 @@
         <v>115.8</v>
       </c>
       <c r="AG129">
-        <v>724.2000000000001</v>
+        <v>724.2</v>
       </c>
       <c r="AH129">
         <v>825.0920000000001</v>
@@ -23115,7 +23115,7 @@
         <v>80.648</v>
       </c>
       <c r="Z131">
-        <v>734.7000000000001</v>
+        <v>734.7</v>
       </c>
       <c r="AA131">
         <v>1338.8</v>
@@ -23127,7 +23127,7 @@
         <v>1924.2</v>
       </c>
       <c r="AD131">
-        <v>836.7000000000001</v>
+        <v>836.7</v>
       </c>
       <c r="AE131">
         <v>87.3</v>
@@ -23139,7 +23139,7 @@
         <v>739.9</v>
       </c>
       <c r="AH131">
-        <v>877.858</v>
+        <v>877.8579999999999</v>
       </c>
       <c r="AI131">
         <v>285.7</v>
@@ -23291,7 +23291,7 @@
         <v>81.041</v>
       </c>
       <c r="Z132">
-        <v>748.2000000000001</v>
+        <v>748.2</v>
       </c>
       <c r="AA132">
         <v>1352.2</v>
@@ -23422,7 +23422,7 @@
         <v>71.151</v>
       </c>
       <c r="K133">
-        <v>68.618</v>
+        <v>68.61799999999999</v>
       </c>
       <c r="L133">
         <v>0.59</v>
@@ -23491,7 +23491,7 @@
         <v>743.8</v>
       </c>
       <c r="AH133">
-        <v>888.858</v>
+        <v>888.8579999999999</v>
       </c>
       <c r="AI133">
         <v>297.4</v>
@@ -23640,7 +23640,7 @@
         <v>767.1</v>
       </c>
       <c r="Y134">
-        <v>81.99</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="Z134">
         <v>792.3</v>
@@ -23941,7 +23941,7 @@
         <v>82.52200000000001</v>
       </c>
       <c r="H136">
-        <v>80.359</v>
+        <v>80.35899999999999</v>
       </c>
       <c r="I136">
         <v>72.15600000000001</v>
@@ -23977,7 +23977,7 @@
         <v>61.1</v>
       </c>
       <c r="T136">
-        <v>950.7000000000001</v>
+        <v>950.7</v>
       </c>
       <c r="U136">
         <v>813</v>
@@ -23989,13 +23989,13 @@
         <v>2221.2</v>
       </c>
       <c r="X136">
-        <v>787.7000000000001</v>
+        <v>787.7</v>
       </c>
       <c r="Y136">
         <v>82.517</v>
       </c>
       <c r="Z136">
-        <v>832.7000000000001</v>
+        <v>832.7</v>
       </c>
       <c r="AA136">
         <v>1388.5</v>
@@ -24016,7 +24016,7 @@
         <v>180.3</v>
       </c>
       <c r="AG136">
-        <v>767.2000000000001</v>
+        <v>767.2</v>
       </c>
       <c r="AH136">
         <v>931.726</v>
@@ -24192,7 +24192,7 @@
         <v>200.4</v>
       </c>
       <c r="AG137">
-        <v>778.2000000000001</v>
+        <v>778.2</v>
       </c>
       <c r="AH137">
         <v>944.915</v>
@@ -24359,7 +24359,7 @@
         <v>1922.7</v>
       </c>
       <c r="AD138">
-        <v>773.2000000000001</v>
+        <v>773.2</v>
       </c>
       <c r="AE138">
         <v>94.09999999999999</v>
@@ -24380,7 +24380,7 @@
         <v>239</v>
       </c>
       <c r="AK138">
-        <v>753.2000000000001</v>
+        <v>753.2</v>
       </c>
       <c r="AL138">
         <v>37.8</v>
@@ -24523,7 +24523,7 @@
         <v>84.155</v>
       </c>
       <c r="Z139">
-        <v>884.2000000000001</v>
+        <v>884.2</v>
       </c>
       <c r="AA139">
         <v>1437.2</v>
@@ -24645,7 +24645,7 @@
         <v>84.586</v>
       </c>
       <c r="H140">
-        <v>83.112</v>
+        <v>83.11199999999999</v>
       </c>
       <c r="I140">
         <v>75.913</v>
@@ -24693,13 +24693,13 @@
         <v>2357.2</v>
       </c>
       <c r="X140">
-        <v>843.7000000000001</v>
+        <v>843.7</v>
       </c>
       <c r="Y140">
         <v>84.57899999999999</v>
       </c>
       <c r="Z140">
-        <v>902.2000000000001</v>
+        <v>902.2</v>
       </c>
       <c r="AA140">
         <v>1455</v>
@@ -24711,7 +24711,7 @@
         <v>1916.6</v>
       </c>
       <c r="AD140">
-        <v>816.7000000000001</v>
+        <v>816.7</v>
       </c>
       <c r="AE140">
         <v>95.90000000000001</v>
@@ -24985,7 +24985,7 @@
         <v>14771.6</v>
       </c>
       <c r="D142">
-        <v>86.368</v>
+        <v>86.36799999999999</v>
       </c>
       <c r="E142">
         <v>8523</v>
@@ -25045,7 +25045,7 @@
         <v>2426.9</v>
       </c>
       <c r="X142">
-        <v>862.7000000000001</v>
+        <v>862.7</v>
       </c>
       <c r="Y142">
         <v>85.78700000000001</v>
@@ -25397,7 +25397,7 @@
         <v>2495.1</v>
       </c>
       <c r="X144">
-        <v>884.2000000000001</v>
+        <v>884.2</v>
       </c>
       <c r="Y144">
         <v>87.22499999999999</v>
@@ -25531,7 +25531,7 @@
         <v>81.467</v>
       </c>
       <c r="J145">
-        <v>81.87300000000001</v>
+        <v>81.873</v>
       </c>
       <c r="K145">
         <v>79.82299999999999</v>
@@ -25698,7 +25698,7 @@
         <v>10288.9</v>
       </c>
       <c r="G146">
-        <v>88.359</v>
+        <v>88.35899999999999</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -25788,7 +25788,7 @@
         <v>294.9</v>
       </c>
       <c r="AK146">
-        <v>882.7000000000001</v>
+        <v>882.7</v>
       </c>
       <c r="AL146">
         <v>59.6</v>
@@ -25916,7 +25916,7 @@
         <v>1351.3</v>
       </c>
       <c r="U147">
-        <v>991.7000000000001</v>
+        <v>991.7</v>
       </c>
       <c r="V147">
         <v>427.6</v>
@@ -25925,7 +25925,7 @@
         <v>2610.9</v>
       </c>
       <c r="X147">
-        <v>922.7000000000001</v>
+        <v>922.7</v>
       </c>
       <c r="Y147">
         <v>89.065</v>
@@ -25964,7 +25964,7 @@
         <v>310.1</v>
       </c>
       <c r="AK147">
-        <v>892.2000000000001</v>
+        <v>892.2</v>
       </c>
       <c r="AL147">
         <v>60.3</v>
@@ -26101,7 +26101,7 @@
         <v>2630.7</v>
       </c>
       <c r="X148">
-        <v>927.2000000000001</v>
+        <v>927.2</v>
       </c>
       <c r="Y148">
         <v>89.708</v>
@@ -26128,7 +26128,7 @@
         <v>384.8</v>
       </c>
       <c r="AG148">
-        <v>906.2000000000001</v>
+        <v>906.2</v>
       </c>
       <c r="AH148">
         <v>1164.285</v>
@@ -26832,7 +26832,7 @@
         <v>314.6</v>
       </c>
       <c r="AG152">
-        <v>946.7000000000001</v>
+        <v>946.7</v>
       </c>
       <c r="AH152">
         <v>1238.056</v>
@@ -27080,7 +27080,7 @@
         <v>162.872</v>
       </c>
       <c r="CX153">
-        <v>279.5750000000001</v>
+        <v>279.575</v>
       </c>
       <c r="CY153">
         <v>1449.025</v>
@@ -27184,7 +27184,7 @@
         <v>241.7</v>
       </c>
       <c r="AG154">
-        <v>970.2000000000001</v>
+        <v>970.2</v>
       </c>
       <c r="AH154">
         <v>1286.323</v>
@@ -27285,19 +27285,19 @@
         <v>94.289</v>
       </c>
       <c r="H155">
-        <v>94.37300000000001</v>
+        <v>94.373</v>
       </c>
       <c r="I155">
         <v>92.54000000000001</v>
       </c>
       <c r="J155">
-        <v>92.74800000000001</v>
+        <v>92.748</v>
       </c>
       <c r="K155">
         <v>91.699</v>
       </c>
       <c r="L155">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="M155">
         <v>0.04</v>
@@ -27813,7 +27813,7 @@
         <v>93.274</v>
       </c>
       <c r="H158">
-        <v>93.87600000000001</v>
+        <v>93.876</v>
       </c>
       <c r="I158">
         <v>91.482</v>
@@ -27861,7 +27861,7 @@
         <v>3019.7</v>
       </c>
       <c r="X158">
-        <v>964.7000000000001</v>
+        <v>964.7</v>
       </c>
       <c r="Y158">
         <v>93.273</v>
@@ -27879,7 +27879,7 @@
         <v>2007.7</v>
       </c>
       <c r="AD158">
-        <v>921.2000000000001</v>
+        <v>921.2</v>
       </c>
       <c r="AE158">
         <v>86.7</v>
@@ -27900,7 +27900,7 @@
         <v>281.1</v>
       </c>
       <c r="AK158">
-        <v>929.2000000000001</v>
+        <v>929.2</v>
       </c>
       <c r="AL158">
         <v>43.7</v>
@@ -27977,7 +27977,7 @@
         <v>15134.1</v>
       </c>
       <c r="D159">
-        <v>94.856</v>
+        <v>94.85599999999999</v>
       </c>
       <c r="E159">
         <v>9760.200000000001</v>
@@ -28037,7 +28037,7 @@
         <v>3067.6</v>
       </c>
       <c r="X159">
-        <v>971.2000000000001</v>
+        <v>971.2</v>
       </c>
       <c r="Y159">
         <v>93.69199999999999</v>
@@ -28171,10 +28171,10 @@
         <v>92.166</v>
       </c>
       <c r="J160">
-        <v>91.856</v>
+        <v>91.85599999999999</v>
       </c>
       <c r="K160">
-        <v>93.49</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="L160">
         <v>0.23</v>
@@ -28273,7 +28273,7 @@
         <v>263.924</v>
       </c>
       <c r="AR160">
-        <v>67.12600000000001</v>
+        <v>67.126</v>
       </c>
       <c r="AS160">
         <v>65.90000000000001</v>
@@ -28312,7 +28312,7 @@
         <v>201.476</v>
       </c>
       <c r="CX160">
-        <v>334.2000000000001</v>
+        <v>334.2</v>
       </c>
       <c r="CY160">
         <v>1802.7</v>
@@ -28389,7 +28389,7 @@
         <v>3117.8</v>
       </c>
       <c r="X161">
-        <v>972.2000000000001</v>
+        <v>972.2</v>
       </c>
       <c r="Y161">
         <v>95.068</v>
@@ -28437,7 +28437,7 @@
         <v>18.3</v>
       </c>
       <c r="AN161">
-        <v>580.31</v>
+        <v>580.3099999999999</v>
       </c>
       <c r="AO161">
         <v>2444.1</v>
@@ -28517,7 +28517,7 @@
         <v>95.395</v>
       </c>
       <c r="H162">
-        <v>95.484</v>
+        <v>95.48399999999999</v>
       </c>
       <c r="I162">
         <v>93.76600000000001</v>
@@ -28613,7 +28613,7 @@
         <v>18</v>
       </c>
       <c r="AN162">
-        <v>575.632</v>
+        <v>575.6319999999999</v>
       </c>
       <c r="AO162">
         <v>2439.7</v>
@@ -28759,7 +28759,7 @@
         <v>1972.8</v>
       </c>
       <c r="AD163">
-        <v>935.2000000000001</v>
+        <v>935.2</v>
       </c>
       <c r="AE163">
         <v>96.40000000000001</v>
@@ -28768,7 +28768,7 @@
         <v>212.2</v>
       </c>
       <c r="AG163">
-        <v>971.7000000000001</v>
+        <v>971.7</v>
       </c>
       <c r="AH163">
         <v>1690.733</v>
@@ -28780,7 +28780,7 @@
         <v>278</v>
       </c>
       <c r="AK163">
-        <v>965.7000000000001</v>
+        <v>965.7</v>
       </c>
       <c r="AL163">
         <v>43.4</v>
@@ -28801,7 +28801,7 @@
         <v>272.456</v>
       </c>
       <c r="AR163">
-        <v>73.737</v>
+        <v>73.73699999999999</v>
       </c>
       <c r="AS163">
         <v>53.4</v>
@@ -28857,7 +28857,7 @@
         <v>15672</v>
       </c>
       <c r="D164">
-        <v>96.25100000000001</v>
+        <v>96.251</v>
       </c>
       <c r="E164">
         <v>10220.6</v>
@@ -28890,7 +28890,7 @@
         <v>-0.15</v>
       </c>
       <c r="O164">
-        <v>515.7000000000001</v>
+        <v>515.7</v>
       </c>
       <c r="P164">
         <v>405.6</v>
@@ -29010,7 +29010,7 @@
         <v>283.691</v>
       </c>
       <c r="CV164">
-        <v>121.9090000000001</v>
+        <v>121.909</v>
       </c>
       <c r="CW164">
         <v>234.109</v>
@@ -29096,7 +29096,7 @@
         <v>994.3</v>
       </c>
       <c r="Y165">
-        <v>96.24800000000001</v>
+        <v>96.248</v>
       </c>
       <c r="Z165">
         <v>1311.1</v>
@@ -29111,7 +29111,7 @@
         <v>1937</v>
       </c>
       <c r="AD165">
-        <v>977.2000000000001</v>
+        <v>977.2</v>
       </c>
       <c r="AE165">
         <v>98.7</v>
@@ -29132,7 +29132,7 @@
         <v>311.9</v>
       </c>
       <c r="AK165">
-        <v>977.7000000000001</v>
+        <v>977.7</v>
       </c>
       <c r="AL165">
         <v>50.4</v>
@@ -29269,7 +29269,7 @@
         <v>3156</v>
       </c>
       <c r="X166">
-        <v>916.2000000000001</v>
+        <v>916.2</v>
       </c>
       <c r="Y166">
         <v>97.089</v>
@@ -29403,7 +29403,7 @@
         <v>97.801</v>
       </c>
       <c r="J167">
-        <v>98.12900000000001</v>
+        <v>98.129</v>
       </c>
       <c r="K167">
         <v>96.34699999999999</v>
@@ -29573,7 +29573,7 @@
         <v>98.523</v>
       </c>
       <c r="H168">
-        <v>99.49800000000001</v>
+        <v>99.498</v>
       </c>
       <c r="I168">
         <v>98.31399999999999</v>
@@ -29824,7 +29824,7 @@
         <v>238</v>
       </c>
       <c r="AG169">
-        <v>904.2000000000001</v>
+        <v>904.2</v>
       </c>
       <c r="AH169">
         <v>1735.099</v>
@@ -30110,7 +30110,7 @@
         <v>99.294</v>
       </c>
       <c r="K171">
-        <v>99.87900000000001</v>
+        <v>99.879</v>
       </c>
       <c r="L171">
         <v>-0.41</v>
@@ -30176,7 +30176,7 @@
         <v>275.5</v>
       </c>
       <c r="AG171">
-        <v>932.2000000000001</v>
+        <v>932.2</v>
       </c>
       <c r="AH171">
         <v>1731.81</v>
@@ -30352,7 +30352,7 @@
         <v>280.8</v>
       </c>
       <c r="AG172">
-        <v>935.2000000000001</v>
+        <v>935.2</v>
       </c>
       <c r="AH172">
         <v>1740.904</v>
@@ -30641,7 +30641,7 @@
         <v>101.023</v>
       </c>
       <c r="L174">
-        <v>-0.6800000000000001</v>
+        <v>-0.68</v>
       </c>
       <c r="M174">
         <v>0.03</v>
@@ -31002,7 +31002,7 @@
         <v>-0.43</v>
       </c>
       <c r="O176">
-        <v>573.7000000000001</v>
+        <v>573.7</v>
       </c>
       <c r="P176">
         <v>448.2</v>
@@ -31077,7 +31077,7 @@
         <v>17.8</v>
       </c>
       <c r="AN176">
-        <v>611.305</v>
+        <v>611.3049999999999</v>
       </c>
       <c r="AO176">
         <v>2528.2</v>
@@ -31178,7 +31178,7 @@
         <v>-0.5</v>
       </c>
       <c r="O177">
-        <v>580.2000000000001</v>
+        <v>580.2</v>
       </c>
       <c r="P177">
         <v>448.6</v>
@@ -31829,7 +31829,7 @@
         <v>174.8</v>
       </c>
       <c r="CW180">
-        <v>178.7000000000001</v>
+        <v>178.7</v>
       </c>
       <c r="CX180">
         <v>334.9010000000001</v>
@@ -32646,7 +32646,7 @@
         <v>1957.938</v>
       </c>
       <c r="AI185">
-        <v>548.2000000000001</v>
+        <v>548.2</v>
       </c>
       <c r="AJ185">
         <v>412.3</v>
@@ -32876,7 +32876,7 @@
         <v>-1</v>
       </c>
       <c r="CI186">
-        <v>0.6414376080000001</v>
+        <v>0.641437608</v>
       </c>
       <c r="CU186">
         <v>359.556</v>
@@ -32938,7 +32938,7 @@
         <v>-0.2</v>
       </c>
       <c r="O187">
-        <v>658.7000000000001</v>
+        <v>658.7</v>
       </c>
       <c r="P187">
         <v>558.8</v>
@@ -33052,7 +33052,7 @@
         <v>-1</v>
       </c>
       <c r="CI187">
-        <v>0.6414376080000001</v>
+        <v>0.641437608</v>
       </c>
       <c r="CU187">
         <v>364.761</v>
@@ -33114,7 +33114,7 @@
         <v>0.12</v>
       </c>
       <c r="O188">
-        <v>665.2000000000001</v>
+        <v>665.2</v>
       </c>
       <c r="P188">
         <v>566.4</v>
@@ -33174,7 +33174,7 @@
         <v>1997.784</v>
       </c>
       <c r="AI188">
-        <v>562.7000000000001</v>
+        <v>562.7</v>
       </c>
       <c r="AJ188">
         <v>417.2</v>
@@ -33228,7 +33228,7 @@
         <v>-1</v>
       </c>
       <c r="CI188">
-        <v>0.6414376080000001</v>
+        <v>0.641437608</v>
       </c>
       <c r="CU188">
         <v>377.98</v>
@@ -33404,7 +33404,7 @@
         <v>-1</v>
       </c>
       <c r="CI189">
-        <v>0.6414376080000001</v>
+        <v>0.641437608</v>
       </c>
       <c r="CU189">
         <v>387.911</v>
@@ -33613,7 +33613,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM190">
-        <v>0.007183780093211079</v>
+        <v>0.007183780093211078</v>
       </c>
       <c r="BN190">
         <v>0.01217558474847791</v>
@@ -33879,7 +33879,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM191">
-        <v>0.007183780093211079</v>
+        <v>0.007183780093211078</v>
       </c>
       <c r="BN191">
         <v>0.01217558474847791</v>
@@ -34118,7 +34118,7 @@
         <v>-1</v>
       </c>
       <c r="BB192">
-        <v>0.01317896738063507</v>
+        <v>0.01317896738063506</v>
       </c>
       <c r="BC192">
         <v>0.007912990400088749</v>
@@ -34133,7 +34133,7 @@
         <v>0.004138414333876295</v>
       </c>
       <c r="BG192">
-        <v>0.005940741568430275</v>
+        <v>0.005940741568430274</v>
       </c>
       <c r="BH192">
         <v>0.01003595080416275</v>
@@ -34163,19 +34163,19 @@
         <v>0.005338741728637908</v>
       </c>
       <c r="BQ192">
-        <v>0.01317896738063507</v>
+        <v>0.01317896738063506</v>
       </c>
       <c r="BR192">
-        <v>0.01317896738063507</v>
+        <v>0.01317896738063506</v>
       </c>
       <c r="BS192">
         <v>0.01317896738063529</v>
       </c>
       <c r="BT192">
-        <v>0.01317896738063507</v>
+        <v>0.01317896738063506</v>
       </c>
       <c r="BU192">
-        <v>0.005055088423257415</v>
+        <v>0.005055088423257414</v>
       </c>
       <c r="BV192">
         <v>0.00803007361770991</v>
@@ -34396,7 +34396,7 @@
         <v>0.01566411886781882</v>
       </c>
       <c r="BC193">
-        <v>0.008748265762293928</v>
+        <v>0.008748265762293927</v>
       </c>
       <c r="BD193">
         <v>0.004449942254746819</v>
@@ -34429,13 +34429,13 @@
         <v>0.0162792059495227</v>
       </c>
       <c r="BN193">
-        <v>0.01960321209258376</v>
+        <v>0.01960321209258375</v>
       </c>
       <c r="BO193">
         <v>0.01431101995151973</v>
       </c>
       <c r="BP193">
-        <v>0.007763848586612721</v>
+        <v>0.00776384858661272</v>
       </c>
       <c r="BQ193">
         <v>0.0156641188678186</v>
@@ -34510,10 +34510,10 @@
         <v>0.00955482011316322</v>
       </c>
       <c r="CQ193">
-        <v>0.01960321209258376</v>
+        <v>0.01960321209258375</v>
       </c>
       <c r="CR193">
-        <v>0.01960321209258376</v>
+        <v>0.01960321209258375</v>
       </c>
       <c r="CS193">
         <v>0.01148564106586103</v>
@@ -34710,7 +34710,7 @@
         <v>0.006258607928194548</v>
       </c>
       <c r="BG194">
-        <v>0.005758175044841885</v>
+        <v>0.005758175044841884</v>
       </c>
       <c r="BH194">
         <v>0.01045906538203933</v>
@@ -34776,13 +34776,13 @@
         <v>-0.1587188612099644</v>
       </c>
       <c r="CD194">
-        <v>0.01168224299065424</v>
+        <v>0.01168224299065423</v>
       </c>
       <c r="CE194">
         <v>0.0006119167224032385</v>
       </c>
       <c r="CF194">
-        <v>0.009464389573309529</v>
+        <v>0.009464389573309528</v>
       </c>
       <c r="CG194">
         <v>0.004405286343612369</v>
@@ -34806,10 +34806,10 @@
         <v>0.004626400453376256</v>
       </c>
       <c r="CO194">
-        <v>0.009464389573309529</v>
+        <v>0.009464389573309528</v>
       </c>
       <c r="CP194">
-        <v>0.009464389573309529</v>
+        <v>0.009464389573309528</v>
       </c>
       <c r="CQ194">
         <v>0.01783646050498033</v>
@@ -35021,7 +35021,7 @@
         <v>0.00988038707961425</v>
       </c>
       <c r="BJ195">
-        <v>0.006341570085283133</v>
+        <v>0.006341570085283132</v>
       </c>
       <c r="BK195">
         <v>0.009687217798210579</v>
@@ -35039,7 +35039,7 @@
         <v>0.01520515613652873</v>
       </c>
       <c r="BP195">
-        <v>0.005327983951855631</v>
+        <v>0.00532798395185563</v>
       </c>
       <c r="BQ195">
         <v>0.01720956990953826</v>
@@ -35628,7 +35628,7 @@
         <v>-0.000957381099444099</v>
       </c>
       <c r="BK197">
-        <v>0.002744813110518996</v>
+        <v>0.002744813110518995</v>
       </c>
       <c r="BL197">
         <v>-0.003153626670671206</v>
@@ -35849,7 +35849,7 @@
         <v>2271.243</v>
       </c>
       <c r="AI198">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="AJ198">
         <v>475.2</v>
@@ -36044,7 +36044,7 @@
         <v>194.871</v>
       </c>
       <c r="CW198">
-        <v>189.6710000000001</v>
+        <v>189.671</v>
       </c>
       <c r="CX198">
         <v>361.7280000000001</v>
@@ -36097,7 +36097,7 @@
         <v>0.58</v>
       </c>
       <c r="O199">
-        <v>779.7000000000001</v>
+        <v>779.7</v>
       </c>
       <c r="P199">
         <v>615</v>
@@ -36355,7 +36355,7 @@
         <v>192.828</v>
       </c>
       <c r="CX199">
-        <v>362.6230000000001</v>
+        <v>362.623</v>
       </c>
       <c r="CY199">
         <v>2708.377</v>
@@ -36522,7 +36522,7 @@
         <v>0.009475030810251139</v>
       </c>
       <c r="BC200">
-        <v>0.005215041609933691</v>
+        <v>0.00521504160993369</v>
       </c>
       <c r="BD200">
         <v>0.004581925787650931</v>
@@ -36594,7 +36594,7 @@
         <v>0.01467473406806219</v>
       </c>
       <c r="CA200">
-        <v>0.006529816813175327</v>
+        <v>0.006529816813175326</v>
       </c>
       <c r="CB200">
         <v>0.03644214981858163</v>
@@ -36612,7 +36612,7 @@
         <v>0.01262688876206286</v>
       </c>
       <c r="CG200">
-        <v>0.006529816813175327</v>
+        <v>0.006529816813175326</v>
       </c>
       <c r="CH200">
         <v>1652.892256</v>
@@ -36884,7 +36884,7 @@
         <v>0.008661947313450158</v>
       </c>
       <c r="BU201">
-        <v>0.003925347353803677</v>
+        <v>0.003925347353803676</v>
       </c>
       <c r="BV201">
         <v>0.004985097894305568</v>
@@ -37021,7 +37021,7 @@
         <v>0.1</v>
       </c>
       <c r="O202">
-        <v>804.7000000000001</v>
+        <v>804.7</v>
       </c>
       <c r="P202">
         <v>624.1</v>
@@ -37108,7 +37108,7 @@
         <v>423.429</v>
       </c>
       <c r="AR202">
-        <v>72.24</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="AS202">
         <v>74.5</v>
@@ -37273,7 +37273,7 @@
         <v>423.429</v>
       </c>
       <c r="CV202">
-        <v>200.6710000000001</v>
+        <v>200.671</v>
       </c>
       <c r="CW202">
         <v>204.371</v>
@@ -37446,7 +37446,7 @@
         <v>1</v>
       </c>
       <c r="BB203">
-        <v>-0.1064963764583538</v>
+        <v>-0.1064963764583537</v>
       </c>
       <c r="BC203">
         <v>-0.100893694605162</v>
@@ -37491,16 +37491,16 @@
         <v>-0.007733952049497339</v>
       </c>
       <c r="BQ203">
-        <v>-0.1064963764583538</v>
+        <v>-0.1064963764583537</v>
       </c>
       <c r="BR203">
-        <v>-0.1064963764583538</v>
+        <v>-0.1064963764583537</v>
       </c>
       <c r="BS203">
         <v>-0.1064963764583536</v>
       </c>
       <c r="BT203">
-        <v>-0.1064963764583538</v>
+        <v>-0.1064963764583537</v>
       </c>
       <c r="BU203">
         <v>-0.001268877009791836</v>
@@ -37631,7 +37631,7 @@
         <v>117.835</v>
       </c>
       <c r="L204">
-        <v>-0.6800000000000001</v>
+        <v>-0.68</v>
       </c>
       <c r="M204">
         <v>-0.3</v>
@@ -37640,7 +37640,7 @@
         <v>-0.39</v>
       </c>
       <c r="O204">
-        <v>842.7000000000001</v>
+        <v>842.7</v>
       </c>
       <c r="P204">
         <v>699</v>
@@ -37697,7 +37697,7 @@
         <v>1419.3</v>
       </c>
       <c r="AH204">
-        <v>2782.663000000001</v>
+        <v>2782.663</v>
       </c>
       <c r="AI204">
         <v>727.5</v>
@@ -37772,7 +37772,7 @@
         <v>0.004541326067211582</v>
       </c>
       <c r="BG204">
-        <v>0.003546099290780092</v>
+        <v>0.003546099290780091</v>
       </c>
       <c r="BH204">
         <v>0.06620617348669389</v>
@@ -37936,7 +37936,7 @@
         <v>117.3625371307344</v>
       </c>
       <c r="K205">
-        <v>118.2425705193325</v>
+        <v>118.2425705193324</v>
       </c>
       <c r="O205">
         <v>829.9102013704255</v>
@@ -38235,16 +38235,16 @@
         <v>1479.519091108499</v>
       </c>
       <c r="Z206">
-        <v>1503.946787774316</v>
+        <v>1503.946787774315</v>
       </c>
       <c r="AA206">
-        <v>2349.604111875</v>
+        <v>2349.604111874999</v>
       </c>
       <c r="AD206">
         <v>1701.072552232697</v>
       </c>
       <c r="AE206">
-        <v>148.9000330528643</v>
+        <v>148.9000330528642</v>
       </c>
       <c r="AF206">
         <v>213.038119309442</v>
@@ -38325,7 +38325,7 @@
         <v>0.007546475243879858</v>
       </c>
       <c r="BK206">
-        <v>7.441029838517466e-005</v>
+        <v>7.441029838517466e-05</v>
       </c>
       <c r="BL206">
         <v>0.01261599416119275</v>
@@ -38388,7 +38388,7 @@
         <v>-0.01541106327944253</v>
       </c>
       <c r="CF206">
-        <v>0.03675908905677106</v>
+        <v>0.03675908905677105</v>
       </c>
       <c r="CG206">
         <v>0.004331415828897622</v>
@@ -38415,10 +38415,10 @@
         <v>0.003388375028452018</v>
       </c>
       <c r="CO206">
-        <v>0.03675908905677106</v>
+        <v>0.03675908905677105</v>
       </c>
       <c r="CP206">
-        <v>0.03675908905677106</v>
+        <v>0.03675908905677105</v>
       </c>
       <c r="CQ206">
         <v>0.004013686011317352</v>
@@ -38474,7 +38474,7 @@
         <v>112.7875213699921</v>
       </c>
       <c r="I207">
-        <v>118.5860180877231</v>
+        <v>118.586018087723</v>
       </c>
       <c r="J207">
         <v>118.4199680974019</v>
@@ -38495,7 +38495,7 @@
         <v>2240.915466001915</v>
       </c>
       <c r="U207">
-        <v>1536.634159546233</v>
+        <v>1536.634159546232</v>
       </c>
       <c r="V207">
         <v>288.5997902390438</v>
@@ -38561,7 +38561,7 @@
         <v>0.6061875574147406</v>
       </c>
       <c r="AU207">
-        <v>1224.801959756484</v>
+        <v>1224.801959756483</v>
       </c>
       <c r="AY207">
         <v>19466.4</v>
@@ -38585,7 +38585,7 @@
         <v>0.003603603603603567</v>
       </c>
       <c r="BG207">
-        <v>0.003524229074890029</v>
+        <v>0.003524229074890028</v>
       </c>
       <c r="BH207">
         <v>0.007432437179045959</v>
@@ -38714,10 +38714,10 @@
         <v>197.6450735116695</v>
       </c>
       <c r="CX207">
-        <v>1044.856806845186</v>
+        <v>1044.856806845185</v>
       </c>
       <c r="CY207">
-        <v>2647.502519662759</v>
+        <v>2647.502519662758</v>
       </c>
       <c r="CZ207">
         <v>2203.49504390287</v>
@@ -38764,7 +38764,7 @@
         <v>3571.960712378625</v>
       </c>
       <c r="T208">
-        <v>2257.160617551479</v>
+        <v>2257.160617551478</v>
       </c>
       <c r="U208">
         <v>1561.915937216751</v>
@@ -38815,7 +38815,7 @@
         <v>21.6394803409951</v>
       </c>
       <c r="AN208">
-        <v>1594.509963816136</v>
+        <v>1594.509963816135</v>
       </c>
       <c r="AP208">
         <v>615.1818242808486</v>
@@ -39171,7 +39171,7 @@
         <v>0.01102098682222774</v>
       </c>
       <c r="BU209">
-        <v>0.004663517061526346</v>
+        <v>0.004663517061526345</v>
       </c>
       <c r="BV209">
         <v>0.005492326385298174</v>
@@ -39258,7 +39258,7 @@
         <v>194.3326083491319</v>
       </c>
       <c r="CX209">
-        <v>1051.77583113619</v>
+        <v>1051.775831136189</v>
       </c>
       <c r="CY209">
         <v>2600.602103151935</v>
@@ -39350,7 +39350,7 @@
         <v>552.8435366290881</v>
       </c>
       <c r="AK210">
-        <v>1438.552700872406</v>
+        <v>1438.552700872405</v>
       </c>
       <c r="AL210">
         <v>68.51292740575495</v>
@@ -39401,7 +39401,7 @@
         <v>0.003565062388591667</v>
       </c>
       <c r="BG210">
-        <v>0.004359197907584989</v>
+        <v>0.004359197907584988</v>
       </c>
       <c r="BH210">
         <v>0.01063480780797188</v>
@@ -39816,7 +39816,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>23606.65773015177</v>
+        <v>23606.65773015176</v>
       </c>
       <c r="C212">
         <v>20182.76868283282</v>
@@ -39948,7 +39948,7 @@
         <v>0.005185825410544354</v>
       </c>
       <c r="BH212">
-        <v>0.01183582309122278</v>
+        <v>0.01183582309122277</v>
       </c>
       <c r="BI212">
         <v>0.007260626229012246</v>
@@ -40005,7 +40005,7 @@
         <v>0.005265913175032333</v>
       </c>
       <c r="CA212">
-        <v>0.01208388223215851</v>
+        <v>0.0120838822321585</v>
       </c>
       <c r="CB212">
         <v>0.02286587698255294</v>
@@ -40023,7 +40023,7 @@
         <v>-0.0102600422255138</v>
       </c>
       <c r="CG212">
-        <v>0.01208388223215851</v>
+        <v>0.0120838822321585</v>
       </c>
       <c r="CH212">
         <v>1762.330095</v>
@@ -40071,7 +40071,7 @@
         <v>235.6591842554544</v>
       </c>
       <c r="CW212">
-        <v>231.4501627672318</v>
+        <v>231.4501627672317</v>
       </c>
       <c r="CX212">
         <v>1117.064637772881</v>
@@ -40080,7 +40080,7 @@
         <v>2671.971458918873</v>
       </c>
       <c r="CZ212">
-        <v>2326.23171034478</v>
+        <v>2326.231710344779</v>
       </c>
     </row>
     <row r="213">
@@ -40091,7 +40091,7 @@
         <v>23846.75936342269</v>
       </c>
       <c r="C213">
-        <v>20292.94029270383</v>
+        <v>20292.94029270382</v>
       </c>
       <c r="D213">
         <v>117.4809893992933</v>
@@ -40157,13 +40157,13 @@
         <v>1612.953773964624</v>
       </c>
       <c r="AH213">
-        <v>2143.266647240615</v>
+        <v>2143.266647240614</v>
       </c>
       <c r="AI213">
         <v>776.1379567080762</v>
       </c>
       <c r="AJ213">
-        <v>569.6370184838467</v>
+        <v>569.6370184838466</v>
       </c>
       <c r="AK213">
         <v>1482.250975481018</v>
@@ -40229,7 +40229,7 @@
         <v>0</v>
       </c>
       <c r="BK213">
-        <v>-0.001355217587712621</v>
+        <v>-0.00135521758771262</v>
       </c>
       <c r="BL213">
         <v>0.0007967333930882781</v>
@@ -40381,7 +40381,7 @@
         <v>124.2328689441611</v>
       </c>
       <c r="J214">
-        <v>124.0589119548095</v>
+        <v>124.0589119548094</v>
       </c>
       <c r="K214">
         <v>124.9891575625008</v>
@@ -40420,7 +40420,7 @@
         <v>1847.204573202166</v>
       </c>
       <c r="AE214">
-        <v>170.1493142683268</v>
+        <v>170.1493142683267</v>
       </c>
       <c r="AF214">
         <v>440.94391817366</v>
@@ -40450,7 +40450,7 @@
         <v>1681.711564753664</v>
       </c>
       <c r="AP214">
-        <v>578.5621278643801</v>
+        <v>578.56212786438</v>
       </c>
       <c r="AQ214">
         <v>526.9187326035294</v>
@@ -40692,7 +40692,7 @@
         <v>1869.908839954043</v>
       </c>
       <c r="AE215">
-        <v>171.1567419285858</v>
+        <v>171.1567419285857</v>
       </c>
       <c r="AF215">
         <v>464.1979654314882</v>
@@ -40725,7 +40725,7 @@
         <v>572.4989098154614</v>
       </c>
       <c r="AQ215">
-        <v>521.3967272458197</v>
+        <v>521.3967272458196</v>
       </c>
       <c r="AR215">
         <v>80.23580346542266</v>
@@ -40734,7 +40734,7 @@
         <v>1267.160601421031</v>
       </c>
       <c r="AT215">
-        <v>0.6274625409363857</v>
+        <v>0.6274625409363856</v>
       </c>
       <c r="AU215">
         <v>1267.788063961968</v>
@@ -40785,7 +40785,7 @@
         <v>0.008745573625009717</v>
       </c>
       <c r="BO215">
-        <v>0.008676789587852563</v>
+        <v>0.008676789587852562</v>
       </c>
       <c r="BP215">
         <v>0.005565862708719838</v>
@@ -40851,10 +40851,10 @@
         <v>0.004953636990441712</v>
       </c>
       <c r="CK215">
-        <v>0.008676789587852563</v>
+        <v>0.008676789587852562</v>
       </c>
       <c r="CL215">
-        <v>0.008676789587852563</v>
+        <v>0.008676789587852562</v>
       </c>
       <c r="CM215">
         <v>0.004486629843067691</v>
@@ -40881,7 +40881,7 @@
         <v>0.007524245191184997</v>
       </c>
       <c r="CU215">
-        <v>521.3967272458197</v>
+        <v>521.3967272458196</v>
       </c>
       <c r="CV215">
         <v>228.4022991223482</v>
@@ -40973,7 +40973,7 @@
         <v>1682.032055588796</v>
       </c>
       <c r="AH216">
-        <v>2176.33495320148</v>
+        <v>2176.334953201479</v>
       </c>
       <c r="AI216">
         <v>798.0647435013789</v>
@@ -40991,10 +40991,10 @@
         <v>23.45545253555352</v>
       </c>
       <c r="AN216">
-        <v>1710.760169752623</v>
+        <v>1710.760169752622</v>
       </c>
       <c r="AP216">
-        <v>566.4356917665429</v>
+        <v>566.4356917665428</v>
       </c>
       <c r="AQ216">
         <v>515.87472188811</v>
@@ -41320,7 +41320,7 @@
         <v>0.0006773538044704264</v>
       </c>
       <c r="BL217">
-        <v>0.0008437980840820814</v>
+        <v>0.0008437980840820813</v>
       </c>
       <c r="BM217">
         <v>0.007547627715083216</v>
@@ -41517,7 +41517,7 @@
         <v>1712.328497771043</v>
       </c>
       <c r="AH218">
-        <v>2212.886170453051</v>
+        <v>2212.88617045305</v>
       </c>
       <c r="AI218">
         <v>813.5249597333811</v>
@@ -41765,7 +41765,7 @@
         <v>600.0089708072613</v>
       </c>
       <c r="W219">
-        <v>4354.23516628874</v>
+        <v>4354.235166288739</v>
       </c>
       <c r="X219">
         <v>1751.703562267338</v>
@@ -41909,10 +41909,10 @@
         <v>0.006974459907471253</v>
       </c>
       <c r="CA219">
-        <v>0.008886673924767941</v>
+        <v>0.00888667392476794</v>
       </c>
       <c r="CB219">
-        <v>0.01729749752234167</v>
+        <v>0.01729749752234166</v>
       </c>
       <c r="CC219">
         <v>0.0243540099260422</v>
@@ -41927,7 +41927,7 @@
         <v>0.01102013308747529</v>
       </c>
       <c r="CG219">
-        <v>0.008886673924767941</v>
+        <v>0.00888667392476794</v>
       </c>
       <c r="CH219">
         <v>1901.4028665</v>
@@ -41984,7 +41984,7 @@
         <v>2761.633971358571</v>
       </c>
       <c r="CZ219">
-        <v>2507.553691102638</v>
+        <v>2507.553691102637</v>
       </c>
     </row>
     <row r="220">
@@ -42034,7 +42034,7 @@
         <v>1778.439056748718</v>
       </c>
       <c r="V220">
-        <v>613.2822723998301</v>
+        <v>613.28227239983</v>
       </c>
       <c r="W220">
         <v>4390.679624230646</v>
@@ -42124,7 +42124,7 @@
         <v>0.004987531172069959</v>
       </c>
       <c r="BH220">
-        <v>0.01055230018147269</v>
+        <v>0.01055230018147268</v>
       </c>
       <c r="BI220">
         <v>0.005705929579080227</v>
@@ -42288,7 +42288,7 @@
         <v>130.931283432402</v>
       </c>
       <c r="K221">
-        <v>131.9130609557028</v>
+        <v>131.9130609557027</v>
       </c>
       <c r="O221">
         <v>1042.670768228261</v>
@@ -42342,7 +42342,7 @@
         <v>619.083793769669</v>
       </c>
       <c r="AK221">
-        <v>1610.916298350795</v>
+        <v>1610.916298350794</v>
       </c>
       <c r="AL221">
         <v>76.72196600007965</v>
@@ -42423,16 +42423,16 @@
         <v>0.005743000717874924</v>
       </c>
       <c r="BQ221">
-        <v>0.0106530706151089</v>
+        <v>0.01065307061510889</v>
       </c>
       <c r="BR221">
-        <v>0.0106530706151089</v>
+        <v>0.01065307061510889</v>
       </c>
       <c r="BS221">
         <v>0.01065307061510912</v>
       </c>
       <c r="BT221">
-        <v>0.0106530706151089</v>
+        <v>0.01065307061510889</v>
       </c>
       <c r="BU221">
         <v>0.005181221993932006</v>
@@ -42459,7 +42459,7 @@
         <v>-0.001714762889994725</v>
       </c>
       <c r="CC221">
-        <v>0.02228762084328007</v>
+        <v>0.02228762084328006</v>
       </c>
       <c r="CD221">
         <v>0.007607575150842427</v>
@@ -42536,7 +42536,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>26203.10562482571</v>
+        <v>26203.1056248257</v>
       </c>
       <c r="C222">
         <v>21322.18609290556</v>
@@ -42731,7 +42731,7 @@
         <v>-0.001717708352533487</v>
       </c>
       <c r="CC222">
-        <v>0.02180171254044439</v>
+        <v>0.02180171254044438</v>
       </c>
       <c r="CD222">
         <v>0.007550136916848471</v>
@@ -42808,7 +42808,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>26492.82896466557</v>
+        <v>26492.82896466556</v>
       </c>
       <c r="C223">
         <v>21448.06658251103</v>
@@ -42829,7 +42829,7 @@
         <v>133.1870028992337</v>
       </c>
       <c r="J223">
-        <v>133.0005078899658</v>
+        <v>133.0005078899657</v>
       </c>
       <c r="K223">
         <v>133.9978013236727</v>
@@ -42838,7 +42838,7 @@
         <v>1102.078875767341</v>
       </c>
       <c r="P223">
-        <v>807.0656662605848</v>
+        <v>807.0656662605847</v>
       </c>
       <c r="R223">
         <v>4224.193447238746</v>
@@ -42955,7 +42955,7 @@
         <v>0.001967438886429695</v>
       </c>
       <c r="BM223">
-        <v>0.008372265137147839</v>
+        <v>0.008372265137147838</v>
       </c>
       <c r="BN223">
         <v>0.009452160994599224</v>
@@ -43113,7 +43113,7 @@
         <v>817.6553714364155</v>
       </c>
       <c r="R224">
-        <v>4284.546306097142</v>
+        <v>4284.546306097141</v>
       </c>
       <c r="T224">
         <v>2706.986118515831</v>
@@ -43122,7 +43122,7 @@
         <v>1848.146401485134</v>
       </c>
       <c r="V224">
-        <v>664.5691539141971</v>
+        <v>664.569153914197</v>
       </c>
       <c r="W224">
         <v>4539.657960803371</v>
@@ -43179,7 +43179,7 @@
         <v>87.48034510922837</v>
       </c>
       <c r="AS224">
-        <v>1320.26920545784</v>
+        <v>1320.269205457839</v>
       </c>
       <c r="AT224">
         <v>0.6537604384539929</v>
@@ -43427,7 +43427,7 @@
         <v>869.9054194417273</v>
       </c>
       <c r="AJ225">
-        <v>646.8825050790744</v>
+        <v>646.8825050790743</v>
       </c>
       <c r="AK225">
         <v>1683.25125134446</v>
@@ -43436,10 +43436,10 @@
         <v>80.16701141297851</v>
       </c>
       <c r="AM225">
-        <v>25.8548211369159</v>
+        <v>25.85482113691589</v>
       </c>
       <c r="AN225">
-        <v>1864.109782188986</v>
+        <v>1864.109782188985</v>
       </c>
       <c r="AP225">
         <v>632.7235752009678</v>
@@ -43678,7 +43678,7 @@
         <v>1795.596778848115</v>
       </c>
       <c r="AA226">
-        <v>2795.392901641656</v>
+        <v>2795.392901641655</v>
       </c>
       <c r="AD226">
         <v>2155.342284523079</v>
@@ -43699,7 +43699,7 @@
         <v>878.7142853571934</v>
       </c>
       <c r="AJ226">
-        <v>653.9894723738202</v>
+        <v>653.9894723738201</v>
       </c>
       <c r="AK226">
         <v>1701.744272098952</v>
@@ -43759,13 +43759,13 @@
         <v>0.01191367729026727</v>
       </c>
       <c r="BI226">
-        <v>0.007021250155337278</v>
+        <v>0.007021250155337277</v>
       </c>
       <c r="BJ226">
         <v>0.001595791837820215</v>
       </c>
       <c r="BK226">
-        <v>0.0006727965911639267</v>
+        <v>0.0006727965911639266</v>
       </c>
       <c r="BL226">
         <v>0.002150117279124286</v>
@@ -43828,7 +43828,7 @@
         <v>0.01738426017278605</v>
       </c>
       <c r="CF226">
-        <v>0.0132978615142676</v>
+        <v>0.01329786151426759</v>
       </c>
       <c r="CG226">
         <v>0.02845656245052064</v>
@@ -43855,10 +43855,10 @@
         <v>0.004481072802021924</v>
       </c>
       <c r="CO226">
-        <v>0.0132978615142676</v>
+        <v>0.01329786151426759</v>
       </c>
       <c r="CP226">
-        <v>0.0132978615142676</v>
+        <v>0.01329786151426759</v>
       </c>
       <c r="CQ226">
         <v>0.01012623409234448</v>
@@ -43885,7 +43885,7 @@
         <v>1298.981567181389</v>
       </c>
       <c r="CY226">
-        <v>3076.137484964942</v>
+        <v>3076.137484964941</v>
       </c>
       <c r="CZ226">
         <v>2794.30557737382</v>
@@ -43968,7 +43968,7 @@
         <v>2521.593983016375</v>
       </c>
       <c r="AI227">
-        <v>886.8456852090714</v>
+        <v>886.8456852090713</v>
       </c>
       <c r="AJ227">
         <v>661.1417390351753</v>
@@ -44067,7 +44067,7 @@
         <v>0.01093636360138062</v>
       </c>
       <c r="BU227">
-        <v>0.005298097400290081</v>
+        <v>0.00529809740029008</v>
       </c>
       <c r="BV227">
         <v>0.00785853090722477</v>
@@ -44076,10 +44076,10 @@
         <v>0.004849237582313926</v>
       </c>
       <c r="BX227">
-        <v>0.0224002516107833</v>
+        <v>0.02240025161078329</v>
       </c>
       <c r="BY227">
-        <v>0.0224002516107833</v>
+        <v>0.02240025161078329</v>
       </c>
       <c r="BZ227">
         <v>0.01178261462276864</v>
@@ -44225,7 +44225,7 @@
         <v>2854.666624548882</v>
       </c>
       <c r="AD228">
-        <v>2278.009549166638</v>
+        <v>2278.009549166637</v>
       </c>
       <c r="AE228">
         <v>187.9081823328797</v>
@@ -44243,10 +44243,10 @@
         <v>895.7097488572781</v>
       </c>
       <c r="AJ228">
-        <v>668.3493715890533</v>
+        <v>668.3493715890532</v>
       </c>
       <c r="AK228">
-        <v>1739.110127773573</v>
+        <v>1739.110127773572</v>
       </c>
       <c r="AL228">
         <v>82.82736243344088</v>
@@ -44312,7 +44312,7 @@
         <v>0.0008211406389968534</v>
       </c>
       <c r="BL228">
-        <v>0.002626203676685091</v>
+        <v>0.00262620367668509</v>
       </c>
       <c r="BM228">
         <v>0.008885442056281834</v>
@@ -44354,7 +44354,7 @@
         <v>0.02227551209814171</v>
       </c>
       <c r="BZ228">
-        <v>0.01236001077463556</v>
+        <v>0.01236001077463555</v>
       </c>
       <c r="CA228">
         <v>0.02766919235044507</v>
@@ -44384,7 +44384,7 @@
         <v>0.629670798</v>
       </c>
       <c r="CJ228">
-        <v>0.01236001077463556</v>
+        <v>0.01236001077463555</v>
       </c>
       <c r="CK228">
         <v>0.01058050772235042</v>
@@ -44482,7 +44482,7 @@
         <v>1944.477135089979</v>
       </c>
       <c r="V229">
-        <v>678.7377340069558</v>
+        <v>678.7377340069557</v>
       </c>
       <c r="W229">
         <v>4742.735152791277</v>
@@ -44512,7 +44512,7 @@
         <v>2583.167600656159</v>
       </c>
       <c r="AI229">
-        <v>903.9189710937548</v>
+        <v>903.9189710937547</v>
       </c>
       <c r="AJ229">
         <v>675.6249531928456</v>
@@ -44527,7 +44527,7 @@
         <v>27.00360913038282</v>
       </c>
       <c r="AN229">
-        <v>1943.216564639638</v>
+        <v>1943.216564639637</v>
       </c>
       <c r="AP229">
         <v>666.7047257916457</v>
@@ -44718,7 +44718,7 @@
         <v>22335.51356164305</v>
       </c>
       <c r="D230">
-        <v>127.9416254416962</v>
+        <v>127.9416254416961</v>
       </c>
       <c r="E230">
         <v>19268.8028430125</v>
@@ -44808,7 +44808,7 @@
         <v>615.153012765848</v>
       </c>
       <c r="AR230">
-        <v>92.59207327394167</v>
+        <v>92.59207327394166</v>
       </c>
       <c r="AS230">
         <v>1355.851026848042</v>
@@ -44847,7 +44847,7 @@
         <v>0.01156729466276185</v>
       </c>
       <c r="BI230">
-        <v>0.006700573181561254</v>
+        <v>0.006700573181561253</v>
       </c>
       <c r="BJ230">
         <v>0.001877328327124506</v>
@@ -44907,7 +44907,7 @@
         <v>-0.007900580659151446</v>
       </c>
       <c r="CC230">
-        <v>0.002344911577722098</v>
+        <v>0.002344911577722097</v>
       </c>
       <c r="CD230">
         <v>0.009527529430288784</v>
@@ -44973,7 +44973,7 @@
         <v>1348.262465582368</v>
       </c>
       <c r="CY230">
-        <v>3228.970313236624</v>
+        <v>3228.970313236623</v>
       </c>
       <c r="CZ230">
         <v>3055.488147978031</v>
@@ -45035,7 +45035,7 @@
         <v>1948.238419099701</v>
       </c>
       <c r="Z231">
-        <v>1882.475307683091</v>
+        <v>1882.47530768309</v>
       </c>
       <c r="AA231">
         <v>2945.432646936428</v>
@@ -45283,7 +45283,7 @@
         <v>143.8234338118874</v>
       </c>
       <c r="O232">
-        <v>1298.129736285305</v>
+        <v>1298.129736285304</v>
       </c>
       <c r="P232">
         <v>907.518318734397</v>
@@ -45337,7 +45337,7 @@
         <v>1815.957011114209</v>
       </c>
       <c r="AL232">
-        <v>86.48729434728917</v>
+        <v>86.48729434728916</v>
       </c>
       <c r="AM232">
         <v>27.89318806517149</v>
@@ -45403,7 +45403,7 @@
         <v>0.002406623026569132</v>
       </c>
       <c r="BM232">
-        <v>0.008811891776280501</v>
+        <v>0.0088118917762805</v>
       </c>
       <c r="BN232">
         <v>0.009110488081954138</v>
@@ -45612,7 +45612,7 @@
         <v>87.41826126359399</v>
       </c>
       <c r="AM233">
-        <v>28.19343604350078</v>
+        <v>28.19343604350077</v>
       </c>
       <c r="AN233">
         <v>2025.093097799493</v>
@@ -45654,7 +45654,7 @@
         <v>0.009507179584432146</v>
       </c>
       <c r="BF233">
-        <v>0.004803843074459469</v>
+        <v>0.004803843074459468</v>
       </c>
       <c r="BG233">
         <v>0.005447470817120603</v>
@@ -45872,7 +45872,7 @@
         <v>2794.755922477875</v>
       </c>
       <c r="AI234">
-        <v>947.3568149224547</v>
+        <v>947.3568149224546</v>
       </c>
       <c r="AJ234">
         <v>712.755334023822</v>
@@ -45959,7 +45959,7 @@
         <v>0.005342237061769728</v>
       </c>
       <c r="BQ234">
-        <v>0.01043550855711684</v>
+        <v>0.01043550855711683</v>
       </c>
       <c r="BR234">
         <v>0.01043550855711706</v>
@@ -46058,7 +46058,7 @@
         <v>299.7645292608695</v>
       </c>
       <c r="CX234">
-        <v>1398.442829695297</v>
+        <v>1398.442829695296</v>
       </c>
       <c r="CY234">
         <v>3442.34820813946</v>
@@ -46090,7 +46090,7 @@
         <v>130.5639496491974</v>
       </c>
       <c r="I235">
-        <v>146.3464773150215</v>
+        <v>146.3464773150214</v>
       </c>
       <c r="J235">
         <v>146.1415557607476</v>
@@ -46410,7 +46410,7 @@
         <v>620.2528434138978</v>
       </c>
       <c r="AG236">
-        <v>2012.177862156053</v>
+        <v>2012.177862156052</v>
       </c>
       <c r="AH236">
         <v>2903.574795492122</v>
@@ -46467,10 +46467,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="BE236">
-        <v>0.009536595205965393</v>
+        <v>0.009536595205965392</v>
       </c>
       <c r="BF236">
-        <v>0.004735595895816847</v>
+        <v>0.004735595895816846</v>
       </c>
       <c r="BG236">
         <v>0.005363984674329414</v>
@@ -46548,7 +46548,7 @@
         <v>0.02807149659709118</v>
       </c>
       <c r="CF236">
-        <v>0.01259460458314377</v>
+        <v>0.01259460458314376</v>
       </c>
       <c r="CG236">
         <v>0.01015203568838041</v>
@@ -46575,10 +46575,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="CO236">
-        <v>0.01259460458314377</v>
+        <v>0.01259460458314376</v>
       </c>
       <c r="CP236">
-        <v>0.01259460458314377</v>
+        <v>0.01259460458314376</v>
       </c>
       <c r="CQ236">
         <v>0.00986429996859628</v>
@@ -46658,7 +46658,7 @@
         <v>2076.106145806107</v>
       </c>
       <c r="V237">
-        <v>715.2238192728883</v>
+        <v>715.2238192728882</v>
       </c>
       <c r="W237">
         <v>5084.982682755646</v>
@@ -46667,7 +46667,7 @@
         <v>2059.703043219065</v>
       </c>
       <c r="Z237">
-        <v>1992.213422552454</v>
+        <v>1992.213422552453</v>
       </c>
       <c r="AA237">
         <v>3130.775861712324</v>
@@ -46703,7 +46703,7 @@
         <v>29.34141935226866</v>
       </c>
       <c r="AN237">
-        <v>2108.793613133702</v>
+        <v>2108.793613133701</v>
       </c>
       <c r="AP237">
         <v>738.8054229802424</v>
@@ -46730,7 +46730,7 @@
         <v>29303.7</v>
       </c>
       <c r="BB237">
-        <v>0.009765131453692622</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BC237">
         <v>0.004716938302991913</v>
@@ -46775,16 +46775,16 @@
         <v>0.005584756898817433</v>
       </c>
       <c r="BQ237">
-        <v>0.009765131453692622</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BR237">
-        <v>0.009765131453692622</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BS237">
-        <v>0.009765131453692622</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BT237">
-        <v>0.009765131453692622</v>
+        <v>0.009765131453692621</v>
       </c>
       <c r="BU237">
         <v>0.005260470448521737</v>
@@ -46897,7 +46897,7 @@
         <v>133.2725265017669</v>
       </c>
       <c r="E238">
-        <v>21044.21424398427</v>
+        <v>21044.21424398426</v>
       </c>
       <c r="G238">
         <v>129.6100313583566</v>
@@ -47160,7 +47160,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>31322.78042465044</v>
+        <v>31322.78042465043</v>
       </c>
       <c r="C239">
         <v>23387.06597106774</v>
@@ -47184,7 +47184,7 @@
         <v>150.7538986066654</v>
       </c>
       <c r="K239">
-        <v>151.8843143890663</v>
+        <v>151.8843143890662</v>
       </c>
       <c r="O239">
         <v>1427.33101857974</v>
@@ -47202,7 +47202,7 @@
         <v>2112.195691764972</v>
       </c>
       <c r="V239">
-        <v>724.9580215850878</v>
+        <v>724.9580215850877</v>
       </c>
       <c r="W239">
         <v>5172.222249217151</v>
@@ -47217,7 +47217,7 @@
         <v>3193.158696988626</v>
       </c>
       <c r="AD239">
-        <v>2740.619356182941</v>
+        <v>2740.61935618294</v>
       </c>
       <c r="AE239">
         <v>165.2551816665779</v>
@@ -47265,7 +47265,7 @@
         <v>0.6989106120605989</v>
       </c>
       <c r="AU239">
-        <v>1412.148891668441</v>
+        <v>1412.14889166844</v>
       </c>
       <c r="AY239">
         <v>22444</v>
@@ -47352,7 +47352,7 @@
         <v>0.01065565472007601</v>
       </c>
       <c r="CB239">
-        <v>-0.001837288627154377</v>
+        <v>-0.001837288627154376</v>
       </c>
       <c r="CC239">
         <v>0.006356190776168447</v>
@@ -47361,7 +47361,7 @@
         <v>0.008876426091783962</v>
       </c>
       <c r="CE239">
-        <v>-0.006949179227988434</v>
+        <v>-0.006949179227988433</v>
       </c>
       <c r="CF239">
         <v>0.01283114102171923</v>
@@ -47492,7 +47492,7 @@
         <v>2769.514552526279</v>
       </c>
       <c r="AE240">
-        <v>164.9510013336573</v>
+        <v>164.9510013336572</v>
       </c>
       <c r="AF240">
         <v>636.2256777877288</v>
@@ -47519,7 +47519,7 @@
         <v>30.18995936740629</v>
       </c>
       <c r="AN240">
-        <v>2171.619665805868</v>
+        <v>2171.619665805867</v>
       </c>
       <c r="AP240">
         <v>767.6142224586271</v>
@@ -47546,7 +47546,7 @@
         <v>30149.59999999999</v>
       </c>
       <c r="BB240">
-        <v>0.009525411186976474</v>
+        <v>0.009525411186976473</v>
       </c>
       <c r="BC240">
         <v>0.004500329128548142</v>
@@ -47555,7 +47555,7 @@
         <v>0.004495633576902636</v>
       </c>
       <c r="BE240">
-        <v>0.009505888025393539</v>
+        <v>0.009505888025393538</v>
       </c>
       <c r="BF240">
         <v>0.004643962848297489</v>
@@ -47591,16 +47591,16 @@
         <v>0.005815831987076026</v>
       </c>
       <c r="BQ240">
-        <v>0.009525411186976474</v>
+        <v>0.009525411186976473</v>
       </c>
       <c r="BR240">
         <v>0.009525411186976696</v>
       </c>
       <c r="BS240">
-        <v>0.009525411186976474</v>
+        <v>0.009525411186976473</v>
       </c>
       <c r="BT240">
-        <v>0.009525411186976474</v>
+        <v>0.009525411186976473</v>
       </c>
       <c r="BU240">
         <v>0.005351358434948494</v>
@@ -47764,7 +47764,7 @@
         <v>2798.409748869618</v>
       </c>
       <c r="AE241">
-        <v>164.9510013336573</v>
+        <v>164.9510013336572</v>
       </c>
       <c r="AF241">
         <v>640.0242600969408</v>
@@ -47830,7 +47830,7 @@
         <v>0.009482712871812682</v>
       </c>
       <c r="BF241">
-        <v>0.004622496147919764</v>
+        <v>0.004622496147919763</v>
       </c>
       <c r="BG241">
         <v>0.00523168908819116</v>
@@ -47899,7 +47899,7 @@
         <v>0</v>
       </c>
       <c r="CC241">
-        <v>0.005970495127484155</v>
+        <v>0.005970495127484154</v>
       </c>
       <c r="CD241">
         <v>0.008534474032354744</v>
@@ -47997,7 +47997,7 @@
         <v>154.5039973292824</v>
       </c>
       <c r="J242">
-        <v>154.2876532132154</v>
+        <v>154.2876532132153</v>
       </c>
       <c r="K242">
         <v>155.4445665655982</v>
@@ -48036,7 +48036,7 @@
         <v>2827.110492993984</v>
       </c>
       <c r="AE242">
-        <v>164.9510013336573</v>
+        <v>164.9510013336572</v>
       </c>
       <c r="AF242">
         <v>643.8228424061529</v>
@@ -48308,7 +48308,7 @@
         <v>2855.81123711835</v>
       </c>
       <c r="AE243">
-        <v>164.9510013336573</v>
+        <v>164.9510013336572</v>
       </c>
       <c r="AF243">
         <v>647.6214247153649</v>
@@ -48341,7 +48341,7 @@
         <v>799.0638571734975</v>
       </c>
       <c r="AQ243">
-        <v>727.7381194052902</v>
+        <v>727.7381194052901</v>
       </c>
       <c r="AR243">
         <v>104.7245401172757</v>
@@ -48497,7 +48497,7 @@
         <v>0.007759251022763536</v>
       </c>
       <c r="CU243">
-        <v>727.7381194052902</v>
+        <v>727.7381194052901</v>
       </c>
       <c r="CV243">
         <v>318.7919120803705</v>
@@ -48520,7 +48520,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>32835.45232043979</v>
+        <v>32835.45232043978</v>
       </c>
       <c r="C244">
         <v>23911.74255419866</v>
@@ -48541,7 +48541,7 @@
         <v>156.9146004596369</v>
       </c>
       <c r="J244">
-        <v>156.6948808981935</v>
+        <v>156.6948808981934</v>
       </c>
       <c r="K244">
         <v>157.8698446505466</v>
@@ -48580,7 +48580,7 @@
         <v>2884.511981242715</v>
       </c>
       <c r="AE244">
-        <v>164.9510013336573</v>
+        <v>164.9510013336572</v>
       </c>
       <c r="AF244">
         <v>651.4200070245769</v>
@@ -48598,7 +48598,7 @@
         <v>784.3534995817238</v>
       </c>
       <c r="AK244">
-        <v>2040.964161653986</v>
+        <v>2040.964161653985</v>
       </c>
       <c r="AL244">
         <v>97.20355004049986</v>
@@ -48619,7 +48619,7 @@
         <v>105.7231829490315</v>
       </c>
       <c r="AS244">
-        <v>1443.107614297504</v>
+        <v>1443.107614297503</v>
       </c>
       <c r="AT244">
         <v>0.7145865879165652</v>
@@ -48831,7 +48831,7 @@
         <v>1051.425927251813</v>
       </c>
       <c r="AJ245">
-        <v>791.7121300243005</v>
+        <v>791.7121300243004</v>
       </c>
       <c r="AK245">
         <v>2060.112034418197</v>
@@ -48855,7 +48855,7 @@
         <v>0.7176943797131988</v>
       </c>
       <c r="AU245">
-        <v>1450.101494210519</v>
+        <v>1450.101494210518</v>
       </c>
       <c r="AY245">
         <v>23047.19999999999</v>
@@ -48888,13 +48888,13 @@
         <v>0.005289213452704944</v>
       </c>
       <c r="BJ245">
-        <v>0.001344547431056276</v>
+        <v>0.001344547431056275</v>
       </c>
       <c r="BK245">
         <v>0.00103001765744537</v>
       </c>
       <c r="BL245">
-        <v>0.001499109903494889</v>
+        <v>0.001499109903494888</v>
       </c>
       <c r="BM245">
         <v>0.008253068571319133</v>

--- a/results/11-2020/xx.xlsx
+++ b/results/11-2020/xx.xlsx
@@ -900,7 +900,7 @@
         <v>21.286</v>
       </c>
       <c r="E2">
-        <v>631.7</v>
+        <v>631.7000000000001</v>
       </c>
       <c r="F2">
         <v>3065.1</v>
@@ -1139,7 +1139,7 @@
         <v>117.4</v>
       </c>
       <c r="AB3">
-        <v>695.2</v>
+        <v>695.2000000000001</v>
       </c>
       <c r="AC3">
         <v>838.9</v>
@@ -1309,7 +1309,7 @@
         <v>122.2</v>
       </c>
       <c r="AB4">
-        <v>686.7</v>
+        <v>686.7000000000001</v>
       </c>
       <c r="AC4">
         <v>858.1</v>
@@ -1410,7 +1410,7 @@
         <v>22.055</v>
       </c>
       <c r="E5">
-        <v>660.2</v>
+        <v>660.2000000000001</v>
       </c>
       <c r="F5">
         <v>3097.5</v>
@@ -1580,7 +1580,7 @@
         <v>22.389</v>
       </c>
       <c r="E6">
-        <v>679.2</v>
+        <v>679.2000000000001</v>
       </c>
       <c r="F6">
         <v>3157</v>
@@ -1750,7 +1750,7 @@
         <v>22.689</v>
       </c>
       <c r="E7">
-        <v>693.2</v>
+        <v>693.2000000000001</v>
       </c>
       <c r="F7">
         <v>3186</v>
@@ -2090,7 +2090,7 @@
         <v>23.107</v>
       </c>
       <c r="E9">
-        <v>721.7</v>
+        <v>721.7000000000001</v>
       </c>
       <c r="F9">
         <v>3264.7</v>
@@ -2231,7 +2231,7 @@
         <v>0.569081404</v>
       </c>
       <c r="CU9">
-        <v>4.154294249199999</v>
+        <v>4.1542942492</v>
       </c>
       <c r="CV9">
         <v>3.1457057508</v>
@@ -2329,7 +2329,7 @@
         <v>140.8</v>
       </c>
       <c r="AB10">
-        <v>639.7</v>
+        <v>639.7000000000001</v>
       </c>
       <c r="AC10">
         <v>888.8</v>
@@ -2413,7 +2413,7 @@
         <v>22.8661111416</v>
       </c>
       <c r="CY10">
-        <v>68.5338888584</v>
+        <v>68.53388885840001</v>
       </c>
     </row>
     <row r="11">
@@ -2741,7 +2741,7 @@
         <v>0.546908828</v>
       </c>
       <c r="CU12">
-        <v>4.703415920799999</v>
+        <v>4.7034159208</v>
       </c>
       <c r="CV12">
         <v>3.8965840792</v>
@@ -2842,7 +2842,7 @@
         <v>617.9</v>
       </c>
       <c r="AC13">
-        <v>906.7</v>
+        <v>906.7000000000001</v>
       </c>
       <c r="AD13">
         <v>105.3</v>
@@ -3689,7 +3689,7 @@
         <v>171.9</v>
       </c>
       <c r="AB18">
-        <v>609.7</v>
+        <v>609.7000000000001</v>
       </c>
       <c r="AC18">
         <v>944.9</v>
@@ -4202,7 +4202,7 @@
         <v>617.6</v>
       </c>
       <c r="AC21">
-        <v>955.2</v>
+        <v>955.2000000000001</v>
       </c>
       <c r="AD21">
         <v>132</v>
@@ -4300,7 +4300,7 @@
         <v>29.142</v>
       </c>
       <c r="E22">
-        <v>985.2</v>
+        <v>985.2000000000001</v>
       </c>
       <c r="F22">
         <v>3540.6</v>
@@ -4879,7 +4879,7 @@
         <v>214.8</v>
       </c>
       <c r="AB25">
-        <v>622.7</v>
+        <v>622.7000000000001</v>
       </c>
       <c r="AC25">
         <v>1002.1</v>
@@ -5559,7 +5559,7 @@
         <v>220.6</v>
       </c>
       <c r="AB29">
-        <v>616.7</v>
+        <v>616.7000000000001</v>
       </c>
       <c r="AC29">
         <v>986</v>
@@ -5977,7 +5977,7 @@
         <v>7.5836005525</v>
       </c>
       <c r="CW31">
-        <v>43.7836005525</v>
+        <v>43.78360055250001</v>
       </c>
       <c r="CX31">
         <v>39.3596005525</v>
@@ -6239,7 +6239,7 @@
         <v>240.5</v>
       </c>
       <c r="AB33">
-        <v>630.7</v>
+        <v>630.7000000000001</v>
       </c>
       <c r="AC33">
         <v>1002.4</v>
@@ -6785,7 +6785,7 @@
         <v>3.5</v>
       </c>
       <c r="AN36">
-        <v>49.67599999999999</v>
+        <v>49.676</v>
       </c>
       <c r="AO36">
         <v>313.5</v>
@@ -7429,7 +7429,7 @@
         <v>289.4</v>
       </c>
       <c r="AB40">
-        <v>660.2</v>
+        <v>660.2000000000001</v>
       </c>
       <c r="AC40">
         <v>1049.6</v>
@@ -7850,7 +7850,7 @@
         <v>53.647165036</v>
       </c>
       <c r="CX42">
-        <v>47.351165036</v>
+        <v>47.35116503600001</v>
       </c>
       <c r="CY42">
         <v>203.848834964</v>
@@ -8094,7 +8094,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="W44">
-        <v>592.2</v>
+        <v>592.2000000000001</v>
       </c>
       <c r="X44">
         <v>168</v>
@@ -8530,7 +8530,7 @@
         <v>56.721137037</v>
       </c>
       <c r="CX46">
-        <v>56.38113703699999</v>
+        <v>56.381137037</v>
       </c>
       <c r="CY46">
         <v>239.718862963</v>
@@ -8604,7 +8604,7 @@
         <v>65.90000000000001</v>
       </c>
       <c r="W47">
-        <v>648.7</v>
+        <v>648.7000000000001</v>
       </c>
       <c r="X47">
         <v>194.8</v>
@@ -8944,7 +8944,7 @@
         <v>58.9</v>
       </c>
       <c r="W49">
-        <v>677.7</v>
+        <v>677.7000000000001</v>
       </c>
       <c r="X49">
         <v>202.2</v>
@@ -9421,13 +9421,13 @@
         <v>45.84</v>
       </c>
       <c r="L52">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="O52">
         <v>51.8</v>
@@ -9547,7 +9547,7 @@
         <v>13.6320139956</v>
       </c>
       <c r="CW52">
-        <v>48.43201399559999</v>
+        <v>48.4320139956</v>
       </c>
       <c r="CX52">
         <v>70.05201399559999</v>
@@ -10134,7 +10134,7 @@
         <v>70.7</v>
       </c>
       <c r="W56">
-        <v>782.2</v>
+        <v>782.2000000000001</v>
       </c>
       <c r="X56">
         <v>228.9</v>
@@ -10149,7 +10149,7 @@
         <v>387.8</v>
       </c>
       <c r="AB56">
-        <v>808.7</v>
+        <v>808.7000000000001</v>
       </c>
       <c r="AC56">
         <v>1043.2</v>
@@ -10489,7 +10489,7 @@
         <v>401.6</v>
       </c>
       <c r="AB58">
-        <v>789.2</v>
+        <v>789.2000000000001</v>
       </c>
       <c r="AC58">
         <v>1057.1</v>
@@ -10781,7 +10781,7 @@
         <v>46.312</v>
       </c>
       <c r="L60">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="M60">
         <v>0.71</v>
@@ -10814,7 +10814,7 @@
         <v>71.3</v>
       </c>
       <c r="W60">
-        <v>835.7</v>
+        <v>835.7000000000001</v>
       </c>
       <c r="X60">
         <v>261.8</v>
@@ -11208,7 +11208,7 @@
         <v>89.304</v>
       </c>
       <c r="AO62">
-        <v>542.7</v>
+        <v>542.7000000000001</v>
       </c>
       <c r="AR62">
         <v>17.044</v>
@@ -11238,7 +11238,7 @@
         <v>-1</v>
       </c>
       <c r="CI62">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU62">
         <v>21.193775808</v>
@@ -11375,10 +11375,10 @@
         <v>4.8</v>
       </c>
       <c r="AN63">
-        <v>90.73999999999999</v>
+        <v>90.74</v>
       </c>
       <c r="AO63">
-        <v>557.7</v>
+        <v>557.7000000000001</v>
       </c>
       <c r="AR63">
         <v>19.408</v>
@@ -11408,13 +11408,13 @@
         <v>-1</v>
       </c>
       <c r="CI63">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU63">
         <v>21.635312804</v>
       </c>
       <c r="CV63">
-        <v>17.564687196</v>
+        <v>17.56468719600001</v>
       </c>
       <c r="CW63">
         <v>53.664687196</v>
@@ -11464,7 +11464,7 @@
         <v>1.93</v>
       </c>
       <c r="M64">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="N64">
         <v>1.26</v>
@@ -11509,7 +11509,7 @@
         <v>464.3</v>
       </c>
       <c r="AB64">
-        <v>894.2</v>
+        <v>894.2000000000001</v>
       </c>
       <c r="AC64">
         <v>1152.7</v>
@@ -11578,7 +11578,7 @@
         <v>-1</v>
       </c>
       <c r="CI64">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU64">
         <v>22.1320419245</v>
@@ -11587,7 +11587,7 @@
         <v>17.9679580755</v>
       </c>
       <c r="CW64">
-        <v>54.2679580755</v>
+        <v>54.26795807550001</v>
       </c>
       <c r="CX64">
         <v>70.4839580755</v>
@@ -11679,7 +11679,7 @@
         <v>472.1</v>
       </c>
       <c r="AB65">
-        <v>894.7</v>
+        <v>894.7000000000001</v>
       </c>
       <c r="AC65">
         <v>1161.5</v>
@@ -11718,7 +11718,7 @@
         <v>94.88799999999999</v>
       </c>
       <c r="AO65">
-        <v>582.2</v>
+        <v>582.2000000000001</v>
       </c>
       <c r="AR65">
         <v>21.184</v>
@@ -11748,7 +11748,7 @@
         <v>-1</v>
       </c>
       <c r="CI65">
-        <v>0.5519212449999999</v>
+        <v>0.551921245</v>
       </c>
       <c r="CU65">
         <v>22.6839631695</v>
@@ -11849,7 +11849,7 @@
         <v>482.8</v>
       </c>
       <c r="AB66">
-        <v>892.2</v>
+        <v>892.2000000000001</v>
       </c>
       <c r="AC66">
         <v>1182.9</v>
@@ -12947,13 +12947,13 @@
         <v>21.6054430768</v>
       </c>
       <c r="CW72">
-        <v>51.4054430768</v>
+        <v>51.40544307680001</v>
       </c>
       <c r="CX72">
         <v>78.79744307679999</v>
       </c>
       <c r="CY72">
-        <v>370.7025569231999</v>
+        <v>370.7025569232</v>
       </c>
     </row>
     <row r="73">
@@ -13033,13 +13033,13 @@
         <v>56.718</v>
       </c>
       <c r="Z73">
-        <v>513.7</v>
+        <v>513.7000000000001</v>
       </c>
       <c r="AA73">
         <v>542.3</v>
       </c>
       <c r="AB73">
-        <v>975.7</v>
+        <v>975.7000000000001</v>
       </c>
       <c r="AC73">
         <v>1238.9</v>
@@ -13209,7 +13209,7 @@
         <v>551.1</v>
       </c>
       <c r="AB74">
-        <v>947.7</v>
+        <v>947.7000000000001</v>
       </c>
       <c r="AC74">
         <v>1252.6</v>
@@ -13588,7 +13588,7 @@
         <v>112.276</v>
       </c>
       <c r="AO76">
-        <v>703.2</v>
+        <v>703.2000000000001</v>
       </c>
       <c r="AR76">
         <v>20.388</v>
@@ -13695,7 +13695,7 @@
         <v>15.4</v>
       </c>
       <c r="T77">
-        <v>517.2</v>
+        <v>517.2000000000001</v>
       </c>
       <c r="U77">
         <v>382.6</v>
@@ -13847,7 +13847,7 @@
         <v>0.35</v>
       </c>
       <c r="N78">
-        <v>-0.6899999999999999</v>
+        <v>-0.69</v>
       </c>
       <c r="O78">
         <v>93.8</v>
@@ -13886,7 +13886,7 @@
         <v>519.9</v>
       </c>
       <c r="AA78">
-        <v>596.7</v>
+        <v>596.7000000000001</v>
       </c>
       <c r="AB78">
         <v>944.5</v>
@@ -14029,13 +14029,13 @@
         <v>13.7</v>
       </c>
       <c r="R79">
-        <v>515.7</v>
+        <v>515.7000000000001</v>
       </c>
       <c r="S79">
         <v>16.3</v>
       </c>
       <c r="T79">
-        <v>566.7</v>
+        <v>566.7000000000001</v>
       </c>
       <c r="U79">
         <v>397.5</v>
@@ -14059,7 +14059,7 @@
         <v>611.5</v>
       </c>
       <c r="AB79">
-        <v>963.7</v>
+        <v>963.7000000000001</v>
       </c>
       <c r="AC79">
         <v>1314.2</v>
@@ -14199,7 +14199,7 @@
         <v>14.6</v>
       </c>
       <c r="R80">
-        <v>524.7</v>
+        <v>524.7000000000001</v>
       </c>
       <c r="S80">
         <v>16.7</v>
@@ -14226,7 +14226,7 @@
         <v>541.4</v>
       </c>
       <c r="AA80">
-        <v>623.2</v>
+        <v>623.2000000000001</v>
       </c>
       <c r="AB80">
         <v>971.6</v>
@@ -14313,7 +14313,7 @@
         <v>90.172442221</v>
       </c>
       <c r="CY80">
-        <v>434.5275577789999</v>
+        <v>434.527557779</v>
       </c>
     </row>
     <row r="81">
@@ -14396,7 +14396,7 @@
         <v>540.8</v>
       </c>
       <c r="AA81">
-        <v>639.7</v>
+        <v>639.7000000000001</v>
       </c>
       <c r="AB81">
         <v>967.1</v>
@@ -14524,7 +14524,7 @@
         <v>1.33</v>
       </c>
       <c r="M82">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="N82">
         <v>0.63</v>
@@ -14539,7 +14539,7 @@
         <v>16.4</v>
       </c>
       <c r="R82">
-        <v>556.2</v>
+        <v>556.2000000000001</v>
       </c>
       <c r="S82">
         <v>17.3</v>
@@ -14563,13 +14563,13 @@
         <v>62.319</v>
       </c>
       <c r="Z82">
-        <v>553.7</v>
+        <v>553.7000000000001</v>
       </c>
       <c r="AA82">
         <v>658.8</v>
       </c>
       <c r="AB82">
-        <v>983.2</v>
+        <v>983.2000000000001</v>
       </c>
       <c r="AC82">
         <v>1365.4</v>
@@ -14837,7 +14837,7 @@
         <v>9398.5</v>
       </c>
       <c r="D84">
-        <v>64.004</v>
+        <v>64.00400000000001</v>
       </c>
       <c r="E84">
         <v>3846.7</v>
@@ -14885,7 +14885,7 @@
         <v>18.7</v>
       </c>
       <c r="T84">
-        <v>600.7</v>
+        <v>600.7000000000001</v>
       </c>
       <c r="U84">
         <v>426.8</v>
@@ -14903,7 +14903,7 @@
         <v>63.685</v>
       </c>
       <c r="Z84">
-        <v>562.2</v>
+        <v>562.2000000000001</v>
       </c>
       <c r="AA84">
         <v>680.3</v>
@@ -15007,7 +15007,7 @@
         <v>9312.9</v>
       </c>
       <c r="D85">
-        <v>64.49299999999999</v>
+        <v>64.493</v>
       </c>
       <c r="E85">
         <v>3867.9</v>
@@ -15073,7 +15073,7 @@
         <v>64.527</v>
       </c>
       <c r="Z85">
-        <v>569.7</v>
+        <v>569.7000000000001</v>
       </c>
       <c r="AA85">
         <v>698.8</v>
@@ -15177,7 +15177,7 @@
         <v>9269.4</v>
       </c>
       <c r="D86">
-        <v>65.12</v>
+        <v>65.12000000000001</v>
       </c>
       <c r="E86">
         <v>3873.6</v>
@@ -15565,7 +15565,7 @@
         <v>23.1</v>
       </c>
       <c r="T88">
-        <v>590.2</v>
+        <v>590.2000000000001</v>
       </c>
       <c r="U88">
         <v>461.3</v>
@@ -15607,7 +15607,7 @@
         <v>423.7</v>
       </c>
       <c r="AH88">
-        <v>469.736</v>
+        <v>469.7360000000001</v>
       </c>
       <c r="AI88">
         <v>127</v>
@@ -15628,7 +15628,7 @@
         <v>183.964</v>
       </c>
       <c r="AO88">
-        <v>919.2</v>
+        <v>919.2000000000001</v>
       </c>
       <c r="AR88">
         <v>21.056</v>
@@ -15717,7 +15717,7 @@
         <v>0.33</v>
       </c>
       <c r="N89">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="O89">
         <v>122.5</v>
@@ -15735,7 +15735,7 @@
         <v>24.2</v>
       </c>
       <c r="T89">
-        <v>598.7</v>
+        <v>598.7000000000001</v>
       </c>
       <c r="U89">
         <v>471.5</v>
@@ -15857,7 +15857,7 @@
         <v>9534.299999999999</v>
       </c>
       <c r="D90">
-        <v>66.74299999999999</v>
+        <v>66.743</v>
       </c>
       <c r="E90">
         <v>4100.4</v>
@@ -16036,7 +16036,7 @@
         <v>6203.2</v>
       </c>
       <c r="G91">
-        <v>66.998</v>
+        <v>66.99800000000001</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -16075,7 +16075,7 @@
         <v>25.8</v>
       </c>
       <c r="T91">
-        <v>607.2</v>
+        <v>607.2000000000001</v>
       </c>
       <c r="U91">
         <v>481.2</v>
@@ -16117,7 +16117,7 @@
         <v>445.1</v>
       </c>
       <c r="AH91">
-        <v>525.0839999999999</v>
+        <v>525.084</v>
       </c>
       <c r="AI91">
         <v>139</v>
@@ -16138,7 +16138,7 @@
         <v>204.016</v>
       </c>
       <c r="AO91">
-        <v>975.2</v>
+        <v>975.2000000000001</v>
       </c>
       <c r="AR91">
         <v>22.8</v>
@@ -16245,7 +16245,7 @@
         <v>26.4</v>
       </c>
       <c r="T92">
-        <v>616.2</v>
+        <v>616.2000000000001</v>
       </c>
       <c r="U92">
         <v>486</v>
@@ -16263,7 +16263,7 @@
         <v>67.419</v>
       </c>
       <c r="Z92">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AA92">
         <v>759.8</v>
@@ -16308,7 +16308,7 @@
         <v>211.16</v>
       </c>
       <c r="AO92">
-        <v>988.2</v>
+        <v>988.2000000000001</v>
       </c>
       <c r="AR92">
         <v>22.288</v>
@@ -16609,7 +16609,7 @@
         <v>771.5</v>
       </c>
       <c r="AB94">
-        <v>942.2</v>
+        <v>942.2000000000001</v>
       </c>
       <c r="AC94">
         <v>1438.9</v>
@@ -16755,7 +16755,7 @@
         <v>35.5</v>
       </c>
       <c r="R95">
-        <v>771.7</v>
+        <v>771.7000000000001</v>
       </c>
       <c r="S95">
         <v>28.3</v>
@@ -16779,7 +16779,7 @@
         <v>68.753</v>
       </c>
       <c r="Z95">
-        <v>576.7</v>
+        <v>576.7000000000001</v>
       </c>
       <c r="AA95">
         <v>782.3</v>
@@ -16937,7 +16937,7 @@
         <v>28.7</v>
       </c>
       <c r="T96">
-        <v>659.2</v>
+        <v>659.2000000000001</v>
       </c>
       <c r="U96">
         <v>504.9</v>
@@ -16955,10 +16955,10 @@
         <v>69.05200000000001</v>
       </c>
       <c r="Z96">
-        <v>578.7</v>
+        <v>578.7000000000001</v>
       </c>
       <c r="AA96">
-        <v>788.7</v>
+        <v>788.7000000000001</v>
       </c>
       <c r="AB96">
         <v>928.8</v>
@@ -17003,7 +17003,7 @@
         <v>1028.1</v>
       </c>
       <c r="AP96">
-        <v>85.251</v>
+        <v>85.25100000000001</v>
       </c>
       <c r="AQ96">
         <v>80.604</v>
@@ -17065,7 +17065,7 @@
         <v>10091</v>
       </c>
       <c r="D97">
-        <v>69.495</v>
+        <v>69.49500000000001</v>
       </c>
       <c r="E97">
         <v>4552.7</v>
@@ -17289,7 +17289,7 @@
         <v>30.1</v>
       </c>
       <c r="T98">
-        <v>673.7</v>
+        <v>673.7000000000001</v>
       </c>
       <c r="U98">
         <v>531.5</v>
@@ -17319,7 +17319,7 @@
         <v>1471.3</v>
       </c>
       <c r="AD98">
-        <v>526.7</v>
+        <v>526.7000000000001</v>
       </c>
       <c r="AE98">
         <v>75.5</v>
@@ -17388,7 +17388,7 @@
         <v>-1</v>
       </c>
       <c r="CI98">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU98">
         <v>78.94799999999999</v>
@@ -17564,7 +17564,7 @@
         <v>-1</v>
       </c>
       <c r="CI99">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU99">
         <v>81.77200000000001</v>
@@ -17671,7 +17671,7 @@
         <v>1505.6</v>
       </c>
       <c r="AD100">
-        <v>544.2</v>
+        <v>544.2000000000001</v>
       </c>
       <c r="AE100">
         <v>80.5</v>
@@ -17740,7 +17740,7 @@
         <v>-1</v>
       </c>
       <c r="CI100">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU100">
         <v>82.892</v>
@@ -17841,7 +17841,7 @@
         <v>847.1</v>
       </c>
       <c r="AB101">
-        <v>891.7</v>
+        <v>891.7000000000001</v>
       </c>
       <c r="AC101">
         <v>1511.1</v>
@@ -17916,7 +17916,7 @@
         <v>-1</v>
       </c>
       <c r="CI101">
-        <v>0.603002663</v>
+        <v>0.6030026630000001</v>
       </c>
       <c r="CU101">
         <v>85.54000000000001</v>
@@ -17945,7 +17945,7 @@
         <v>10543.6</v>
       </c>
       <c r="D102">
-        <v>71.35599999999999</v>
+        <v>71.356</v>
       </c>
       <c r="E102">
         <v>4862.4</v>
@@ -17957,7 +17957,7 @@
         <v>71.274</v>
       </c>
       <c r="H102">
-        <v>65.11499999999999</v>
+        <v>65.115</v>
       </c>
       <c r="I102">
         <v>56.378</v>
@@ -18005,7 +18005,7 @@
         <v>1437.6</v>
       </c>
       <c r="X102">
-        <v>528.2</v>
+        <v>528.2000000000001</v>
       </c>
       <c r="Y102">
         <v>71.27</v>
@@ -18017,13 +18017,13 @@
         <v>858.5</v>
       </c>
       <c r="AB102">
-        <v>889.2</v>
+        <v>889.2000000000001</v>
       </c>
       <c r="AC102">
         <v>1522.9</v>
       </c>
       <c r="AD102">
-        <v>567.7</v>
+        <v>567.7000000000001</v>
       </c>
       <c r="AE102">
         <v>76.59999999999999</v>
@@ -18032,7 +18032,7 @@
         <v>155.3</v>
       </c>
       <c r="AG102">
-        <v>514.2</v>
+        <v>514.2000000000001</v>
       </c>
       <c r="AH102">
         <v>617.456</v>
@@ -18181,7 +18181,7 @@
         <v>1452.9</v>
       </c>
       <c r="X103">
-        <v>532.7</v>
+        <v>532.7000000000001</v>
       </c>
       <c r="Y103">
         <v>71.685</v>
@@ -18193,7 +18193,7 @@
         <v>871.9</v>
       </c>
       <c r="AB103">
-        <v>886.2</v>
+        <v>886.2000000000001</v>
       </c>
       <c r="AC103">
         <v>1534.9</v>
@@ -18235,7 +18235,7 @@
         <v>1132.8</v>
       </c>
       <c r="AP103">
-        <v>94.48399999999999</v>
+        <v>94.484</v>
       </c>
       <c r="AQ103">
         <v>90.54000000000001</v>
@@ -18283,7 +18283,7 @@
         <v>151.016</v>
       </c>
       <c r="CY103">
-        <v>714.5839999999999</v>
+        <v>714.584</v>
       </c>
     </row>
     <row r="104">
@@ -18306,7 +18306,7 @@
         <v>6944.7</v>
       </c>
       <c r="G104">
-        <v>71.98099999999999</v>
+        <v>71.981</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -18339,13 +18339,13 @@
         <v>22</v>
       </c>
       <c r="R104">
-        <v>870.7</v>
+        <v>870.7000000000001</v>
       </c>
       <c r="S104">
         <v>32.9</v>
       </c>
       <c r="T104">
-        <v>752.2</v>
+        <v>752.2000000000001</v>
       </c>
       <c r="U104">
         <v>558.9</v>
@@ -18691,13 +18691,13 @@
         <v>23</v>
       </c>
       <c r="R106">
-        <v>893.2</v>
+        <v>893.2000000000001</v>
       </c>
       <c r="S106">
         <v>34</v>
       </c>
       <c r="T106">
-        <v>801.7</v>
+        <v>801.7000000000001</v>
       </c>
       <c r="U106">
         <v>570.4</v>
@@ -18739,7 +18739,7 @@
         <v>532.9</v>
       </c>
       <c r="AH106">
-        <v>652.724</v>
+        <v>652.7240000000001</v>
       </c>
       <c r="AI106">
         <v>177.1</v>
@@ -18876,7 +18876,7 @@
         <v>839.6</v>
       </c>
       <c r="U107">
-        <v>577.7</v>
+        <v>577.7000000000001</v>
       </c>
       <c r="V107">
         <v>205.5</v>
@@ -18912,7 +18912,7 @@
         <v>171.9</v>
       </c>
       <c r="AG107">
-        <v>541.7</v>
+        <v>541.7000000000001</v>
       </c>
       <c r="AH107">
         <v>658.652</v>
@@ -18942,7 +18942,7 @@
         <v>102.461</v>
       </c>
       <c r="AQ107">
-        <v>96.376</v>
+        <v>96.37600000000001</v>
       </c>
       <c r="AR107">
         <v>27.904</v>
@@ -18975,7 +18975,7 @@
         <v>0.598665966</v>
       </c>
       <c r="CU107">
-        <v>96.376</v>
+        <v>96.37600000000001</v>
       </c>
       <c r="CV107">
         <v>69.42400000000001</v>
@@ -19079,7 +19079,7 @@
         <v>1577.1</v>
       </c>
       <c r="AD108">
-        <v>674.2</v>
+        <v>674.2000000000001</v>
       </c>
       <c r="AE108">
         <v>71.7</v>
@@ -19219,7 +19219,7 @@
         <v>21.7</v>
       </c>
       <c r="R109">
-        <v>910.7</v>
+        <v>910.7000000000001</v>
       </c>
       <c r="S109">
         <v>35.8</v>
@@ -19228,7 +19228,7 @@
         <v>863.5</v>
       </c>
       <c r="U109">
-        <v>593.2</v>
+        <v>593.2000000000001</v>
       </c>
       <c r="V109">
         <v>208.6</v>
@@ -19240,7 +19240,7 @@
         <v>569.4</v>
       </c>
       <c r="Y109">
-        <v>73.995</v>
+        <v>73.99500000000001</v>
       </c>
       <c r="Z109">
         <v>576.9</v>
@@ -19291,7 +19291,7 @@
         <v>1192</v>
       </c>
       <c r="AP109">
-        <v>97.60899999999999</v>
+        <v>97.609</v>
       </c>
       <c r="AQ109">
         <v>93.892</v>
@@ -19404,7 +19404,7 @@
         <v>902.1</v>
       </c>
       <c r="U110">
-        <v>595.7</v>
+        <v>595.7000000000001</v>
       </c>
       <c r="V110">
         <v>210</v>
@@ -19419,13 +19419,13 @@
         <v>74.32299999999999</v>
       </c>
       <c r="Z110">
-        <v>570.7</v>
+        <v>570.7000000000001</v>
       </c>
       <c r="AA110">
         <v>945.3</v>
       </c>
       <c r="AB110">
-        <v>846.2</v>
+        <v>846.2000000000001</v>
       </c>
       <c r="AC110">
         <v>1600.1</v>
@@ -19577,7 +19577,7 @@
         <v>38</v>
       </c>
       <c r="T111">
-        <v>916.2</v>
+        <v>916.2000000000001</v>
       </c>
       <c r="U111">
         <v>610.4</v>
@@ -19595,7 +19595,7 @@
         <v>74.509</v>
       </c>
       <c r="Z111">
-        <v>587.2</v>
+        <v>587.2000000000001</v>
       </c>
       <c r="AA111">
         <v>955.4</v>
@@ -19628,7 +19628,7 @@
         <v>176.9</v>
       </c>
       <c r="AK111">
-        <v>530.7</v>
+        <v>530.7000000000001</v>
       </c>
       <c r="AL111">
         <v>33.6</v>
@@ -19691,7 +19691,7 @@
         <v>148.568</v>
       </c>
       <c r="CY111">
-        <v>782.6319999999999</v>
+        <v>782.632</v>
       </c>
     </row>
     <row r="112">
@@ -19747,7 +19747,7 @@
         <v>19.6</v>
       </c>
       <c r="R112">
-        <v>937.2</v>
+        <v>937.2000000000001</v>
       </c>
       <c r="S112">
         <v>38.6</v>
@@ -19774,7 +19774,7 @@
         <v>586</v>
       </c>
       <c r="AA112">
-        <v>969.2</v>
+        <v>969.2000000000001</v>
       </c>
       <c r="AB112">
         <v>861.3</v>
@@ -19858,7 +19858,7 @@
         <v>97.108</v>
       </c>
       <c r="CV112">
-        <v>66.59199999999998</v>
+        <v>66.59199999999999</v>
       </c>
       <c r="CW112">
         <v>90.392</v>
@@ -19923,7 +19923,7 @@
         <v>19.4</v>
       </c>
       <c r="R113">
-        <v>942.7</v>
+        <v>942.7000000000001</v>
       </c>
       <c r="S113">
         <v>39</v>
@@ -19947,7 +19947,7 @@
         <v>74.941</v>
       </c>
       <c r="Z113">
-        <v>589.2</v>
+        <v>589.2000000000001</v>
       </c>
       <c r="AA113">
         <v>985.6</v>
@@ -20123,7 +20123,7 @@
         <v>74.947</v>
       </c>
       <c r="Z114">
-        <v>572.2</v>
+        <v>572.2000000000001</v>
       </c>
       <c r="AA114">
         <v>995.9</v>
@@ -20496,7 +20496,7 @@
         <v>180.1</v>
       </c>
       <c r="AG116">
-        <v>622.2</v>
+        <v>622.2000000000001</v>
       </c>
       <c r="AH116">
         <v>703.72</v>
@@ -20651,7 +20651,7 @@
         <v>75.51000000000001</v>
       </c>
       <c r="Z117">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AA117">
         <v>1053.2</v>
@@ -20663,7 +20663,7 @@
         <v>1718.3</v>
       </c>
       <c r="AD117">
-        <v>861.7</v>
+        <v>861.7000000000001</v>
       </c>
       <c r="AE117">
         <v>81.7</v>
@@ -20672,7 +20672,7 @@
         <v>176.4</v>
       </c>
       <c r="AG117">
-        <v>632.2</v>
+        <v>632.2000000000001</v>
       </c>
       <c r="AH117">
         <v>705.388</v>
@@ -20761,7 +20761,7 @@
         <v>12403.3</v>
       </c>
       <c r="D118">
-        <v>75.85899999999999</v>
+        <v>75.859</v>
       </c>
       <c r="E118">
         <v>6102.5</v>
@@ -20860,7 +20860,7 @@
         <v>208.2</v>
       </c>
       <c r="AK118">
-        <v>576.2</v>
+        <v>576.2000000000001</v>
       </c>
       <c r="AL118">
         <v>36.3</v>
@@ -20923,7 +20923,7 @@
         <v>161.004</v>
       </c>
       <c r="CY118">
-        <v>822.296</v>
+        <v>822.2960000000001</v>
       </c>
     </row>
     <row r="119">
@@ -21000,7 +21000,7 @@
         <v>659</v>
       </c>
       <c r="Y119">
-        <v>76.12</v>
+        <v>76.12000000000001</v>
       </c>
       <c r="Z119">
         <v>599.8</v>
@@ -21191,7 +21191,7 @@
         <v>1766</v>
       </c>
       <c r="AD120">
-        <v>904.2</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AE120">
         <v>83.8</v>
@@ -21200,10 +21200,10 @@
         <v>187.7</v>
       </c>
       <c r="AG120">
-        <v>656.7</v>
+        <v>656.7000000000001</v>
       </c>
       <c r="AH120">
-        <v>721.248</v>
+        <v>721.2480000000001</v>
       </c>
       <c r="AI120">
         <v>223.1</v>
@@ -21212,7 +21212,7 @@
         <v>216.4</v>
       </c>
       <c r="AK120">
-        <v>595.2</v>
+        <v>595.2000000000001</v>
       </c>
       <c r="AL120">
         <v>35.6</v>
@@ -21340,7 +21340,7 @@
         <v>1154</v>
       </c>
       <c r="U121">
-        <v>690.7</v>
+        <v>690.7000000000001</v>
       </c>
       <c r="V121">
         <v>228</v>
@@ -21355,7 +21355,7 @@
         <v>76.97499999999999</v>
       </c>
       <c r="Z121">
-        <v>635.2</v>
+        <v>635.2000000000001</v>
       </c>
       <c r="AA121">
         <v>1147.1</v>
@@ -21388,7 +21388,7 @@
         <v>224</v>
       </c>
       <c r="AK121">
-        <v>603.7</v>
+        <v>603.7000000000001</v>
       </c>
       <c r="AL121">
         <v>35.9</v>
@@ -21528,7 +21528,7 @@
         <v>699.5</v>
       </c>
       <c r="Y122">
-        <v>77.61799999999999</v>
+        <v>77.618</v>
       </c>
       <c r="Z122">
         <v>620.4</v>
@@ -21618,7 +21618,7 @@
         <v>114.852</v>
       </c>
       <c r="CV122">
-        <v>75.34799999999998</v>
+        <v>75.34799999999999</v>
       </c>
       <c r="CW122">
         <v>109.648</v>
@@ -21877,7 +21877,7 @@
         <v>1832.3</v>
       </c>
       <c r="X124">
-        <v>715.2</v>
+        <v>715.2000000000001</v>
       </c>
       <c r="Y124">
         <v>78.45</v>
@@ -21904,7 +21904,7 @@
         <v>185.6</v>
       </c>
       <c r="AG124">
-        <v>704.2</v>
+        <v>704.2000000000001</v>
       </c>
       <c r="AH124">
         <v>757.408</v>
@@ -21916,7 +21916,7 @@
         <v>236.6</v>
       </c>
       <c r="AK124">
-        <v>623.7</v>
+        <v>623.7000000000001</v>
       </c>
       <c r="AL124">
         <v>33.5</v>
@@ -22080,10 +22080,10 @@
         <v>187.6</v>
       </c>
       <c r="AG125">
-        <v>709.2</v>
+        <v>709.2000000000001</v>
       </c>
       <c r="AH125">
-        <v>765.1799999999999</v>
+        <v>765.18</v>
       </c>
       <c r="AI125">
         <v>241.1</v>
@@ -22220,7 +22220,7 @@
         <v>1301.9</v>
       </c>
       <c r="U126">
-        <v>724.2</v>
+        <v>724.2000000000001</v>
       </c>
       <c r="V126">
         <v>185.1</v>
@@ -22322,13 +22322,13 @@
         <v>129.388</v>
       </c>
       <c r="CV126">
-        <v>85.61199999999999</v>
+        <v>85.612</v>
       </c>
       <c r="CW126">
         <v>124.612</v>
       </c>
       <c r="CX126">
-        <v>185.8879999999999</v>
+        <v>185.888</v>
       </c>
       <c r="CY126">
         <v>921.812</v>
@@ -22435,7 +22435,7 @@
         <v>723.4</v>
       </c>
       <c r="AH127">
-        <v>803.1319999999999</v>
+        <v>803.132</v>
       </c>
       <c r="AI127">
         <v>262.2</v>
@@ -22599,7 +22599,7 @@
         <v>1869</v>
       </c>
       <c r="AD128">
-        <v>881.7</v>
+        <v>881.7000000000001</v>
       </c>
       <c r="AE128">
         <v>83.59999999999999</v>
@@ -22620,7 +22620,7 @@
         <v>231.9</v>
       </c>
       <c r="AK128">
-        <v>641.7</v>
+        <v>641.7000000000001</v>
       </c>
       <c r="AL128">
         <v>28.3</v>
@@ -22718,7 +22718,7 @@
         <v>68.76300000000001</v>
       </c>
       <c r="K129">
-        <v>67.623</v>
+        <v>67.62300000000001</v>
       </c>
       <c r="L129">
         <v>1.21</v>
@@ -22757,7 +22757,7 @@
         <v>1992</v>
       </c>
       <c r="X129">
-        <v>738.7</v>
+        <v>738.7000000000001</v>
       </c>
       <c r="Y129">
         <v>79.89100000000001</v>
@@ -22784,7 +22784,7 @@
         <v>115.8</v>
       </c>
       <c r="AG129">
-        <v>724.2</v>
+        <v>724.2000000000001</v>
       </c>
       <c r="AH129">
         <v>825.0920000000001</v>
@@ -23115,7 +23115,7 @@
         <v>80.648</v>
       </c>
       <c r="Z131">
-        <v>734.7</v>
+        <v>734.7000000000001</v>
       </c>
       <c r="AA131">
         <v>1338.8</v>
@@ -23127,7 +23127,7 @@
         <v>1924.2</v>
       </c>
       <c r="AD131">
-        <v>836.7</v>
+        <v>836.7000000000001</v>
       </c>
       <c r="AE131">
         <v>87.3</v>
@@ -23139,7 +23139,7 @@
         <v>739.9</v>
       </c>
       <c r="AH131">
-        <v>877.8579999999999</v>
+        <v>877.858</v>
       </c>
       <c r="AI131">
         <v>285.7</v>
@@ -23291,7 +23291,7 @@
         <v>81.041</v>
       </c>
       <c r="Z132">
-        <v>748.2</v>
+        <v>748.2000000000001</v>
       </c>
       <c r="AA132">
         <v>1352.2</v>
@@ -23422,7 +23422,7 @@
         <v>71.151</v>
       </c>
       <c r="K133">
-        <v>68.61799999999999</v>
+        <v>68.618</v>
       </c>
       <c r="L133">
         <v>0.59</v>
@@ -23491,7 +23491,7 @@
         <v>743.8</v>
       </c>
       <c r="AH133">
-        <v>888.8579999999999</v>
+        <v>888.858</v>
       </c>
       <c r="AI133">
         <v>297.4</v>
@@ -23640,7 +23640,7 @@
         <v>767.1</v>
       </c>
       <c r="Y134">
-        <v>81.98999999999999</v>
+        <v>81.99</v>
       </c>
       <c r="Z134">
         <v>792.3</v>
@@ -23941,7 +23941,7 @@
         <v>82.52200000000001</v>
       </c>
       <c r="H136">
-        <v>80.35899999999999</v>
+        <v>80.359</v>
       </c>
       <c r="I136">
         <v>72.15600000000001</v>
@@ -23977,7 +23977,7 @@
         <v>61.1</v>
       </c>
       <c r="T136">
-        <v>950.7</v>
+        <v>950.7000000000001</v>
       </c>
       <c r="U136">
         <v>813</v>
@@ -23989,13 +23989,13 @@
         <v>2221.2</v>
       </c>
       <c r="X136">
-        <v>787.7</v>
+        <v>787.7000000000001</v>
       </c>
       <c r="Y136">
         <v>82.517</v>
       </c>
       <c r="Z136">
-        <v>832.7</v>
+        <v>832.7000000000001</v>
       </c>
       <c r="AA136">
         <v>1388.5</v>
@@ -24016,7 +24016,7 @@
         <v>180.3</v>
       </c>
       <c r="AG136">
-        <v>767.2</v>
+        <v>767.2000000000001</v>
       </c>
       <c r="AH136">
         <v>931.726</v>
@@ -24192,7 +24192,7 @@
         <v>200.4</v>
       </c>
       <c r="AG137">
-        <v>778.2</v>
+        <v>778.2000000000001</v>
       </c>
       <c r="AH137">
         <v>944.915</v>
@@ -24359,7 +24359,7 @@
         <v>1922.7</v>
       </c>
       <c r="AD138">
-        <v>773.2</v>
+        <v>773.2000000000001</v>
       </c>
       <c r="AE138">
         <v>94.09999999999999</v>
@@ -24380,7 +24380,7 @@
         <v>239</v>
       </c>
       <c r="AK138">
-        <v>753.2</v>
+        <v>753.2000000000001</v>
       </c>
       <c r="AL138">
         <v>37.8</v>
@@ -24523,7 +24523,7 @@
         <v>84.155</v>
       </c>
       <c r="Z139">
-        <v>884.2</v>
+        <v>884.2000000000001</v>
       </c>
       <c r="AA139">
         <v>1437.2</v>
@@ -24645,7 +24645,7 @@
         <v>84.586</v>
       </c>
       <c r="H140">
-        <v>83.11199999999999</v>
+        <v>83.112</v>
       </c>
       <c r="I140">
         <v>75.913</v>
@@ -24693,13 +24693,13 @@
         <v>2357.2</v>
       </c>
       <c r="X140">
-        <v>843.7</v>
+        <v>843.7000000000001</v>
       </c>
       <c r="Y140">
         <v>84.57899999999999</v>
       </c>
       <c r="Z140">
-        <v>902.2</v>
+        <v>902.2000000000001</v>
       </c>
       <c r="AA140">
         <v>1455</v>
@@ -24711,7 +24711,7 @@
         <v>1916.6</v>
       </c>
       <c r="AD140">
-        <v>816.7</v>
+        <v>816.7000000000001</v>
       </c>
       <c r="AE140">
         <v>95.90000000000001</v>
@@ -24985,7 +24985,7 @@
         <v>14771.6</v>
       </c>
       <c r="D142">
-        <v>86.36799999999999</v>
+        <v>86.368</v>
       </c>
       <c r="E142">
         <v>8523</v>
@@ -25045,7 +25045,7 @@
         <v>2426.9</v>
       </c>
       <c r="X142">
-        <v>862.7</v>
+        <v>862.7000000000001</v>
       </c>
       <c r="Y142">
         <v>85.78700000000001</v>
@@ -25397,7 +25397,7 @@
         <v>2495.1</v>
       </c>
       <c r="X144">
-        <v>884.2</v>
+        <v>884.2000000000001</v>
       </c>
       <c r="Y144">
         <v>87.22499999999999</v>
@@ -25531,7 +25531,7 @@
         <v>81.467</v>
       </c>
       <c r="J145">
-        <v>81.873</v>
+        <v>81.87300000000001</v>
       </c>
       <c r="K145">
         <v>79.82299999999999</v>
@@ -25698,7 +25698,7 @@
         <v>10288.9</v>
       </c>
       <c r="G146">
-        <v>88.35899999999999</v>
+        <v>88.359</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -25788,7 +25788,7 @@
         <v>294.9</v>
       </c>
       <c r="AK146">
-        <v>882.7</v>
+        <v>882.7000000000001</v>
       </c>
       <c r="AL146">
         <v>59.6</v>
@@ -25916,7 +25916,7 @@
         <v>1351.3</v>
       </c>
       <c r="U147">
-        <v>991.7</v>
+        <v>991.7000000000001</v>
       </c>
       <c r="V147">
         <v>427.6</v>
@@ -25925,7 +25925,7 @@
         <v>2610.9</v>
       </c>
       <c r="X147">
-        <v>922.7</v>
+        <v>922.7000000000001</v>
       </c>
       <c r="Y147">
         <v>89.065</v>
@@ -25964,7 +25964,7 @@
         <v>310.1</v>
       </c>
       <c r="AK147">
-        <v>892.2</v>
+        <v>892.2000000000001</v>
       </c>
       <c r="AL147">
         <v>60.3</v>
@@ -26101,7 +26101,7 @@
         <v>2630.7</v>
       </c>
       <c r="X148">
-        <v>927.2</v>
+        <v>927.2000000000001</v>
       </c>
       <c r="Y148">
         <v>89.708</v>
@@ -26128,7 +26128,7 @@
         <v>384.8</v>
       </c>
       <c r="AG148">
-        <v>906.2</v>
+        <v>906.2000000000001</v>
       </c>
       <c r="AH148">
         <v>1164.285</v>
@@ -26832,7 +26832,7 @@
         <v>314.6</v>
       </c>
       <c r="AG152">
-        <v>946.7</v>
+        <v>946.7000000000001</v>
       </c>
       <c r="AH152">
         <v>1238.056</v>
@@ -27080,7 +27080,7 @@
         <v>162.872</v>
       </c>
       <c r="CX153">
-        <v>279.575</v>
+        <v>279.5750000000001</v>
       </c>
       <c r="CY153">
         <v>1449.025</v>
@@ -27184,7 +27184,7 @@
         <v>241.7</v>
       </c>
       <c r="AG154">
-        <v>970.2</v>
+        <v>970.2000000000001</v>
       </c>
       <c r="AH154">
         <v>1286.323</v>
@@ -27285,19 +27285,19 @@
         <v>94.289</v>
       </c>
       <c r="H155">
-        <v>94.373</v>
+        <v>94.37300000000001</v>
       </c>
       <c r="I155">
         <v>92.54000000000001</v>
       </c>
       <c r="J155">
-        <v>92.748</v>
+        <v>92.74800000000001</v>
       </c>
       <c r="K155">
         <v>91.699</v>
       </c>
       <c r="L155">
-        <v>0.68</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="M155">
         <v>0.04</v>
@@ -27813,7 +27813,7 @@
         <v>93.274</v>
       </c>
       <c r="H158">
-        <v>93.876</v>
+        <v>93.87600000000001</v>
       </c>
       <c r="I158">
         <v>91.482</v>
@@ -27861,7 +27861,7 @@
         <v>3019.7</v>
       </c>
       <c r="X158">
-        <v>964.7</v>
+        <v>964.7000000000001</v>
       </c>
       <c r="Y158">
         <v>93.273</v>
@@ -27879,7 +27879,7 @@
         <v>2007.7</v>
       </c>
       <c r="AD158">
-        <v>921.2</v>
+        <v>921.2000000000001</v>
       </c>
       <c r="AE158">
         <v>86.7</v>
@@ -27900,7 +27900,7 @@
         <v>281.1</v>
       </c>
       <c r="AK158">
-        <v>929.2</v>
+        <v>929.2000000000001</v>
       </c>
       <c r="AL158">
         <v>43.7</v>
@@ -27977,7 +27977,7 @@
         <v>15134.1</v>
       </c>
       <c r="D159">
-        <v>94.85599999999999</v>
+        <v>94.856</v>
       </c>
       <c r="E159">
         <v>9760.200000000001</v>
@@ -28037,7 +28037,7 @@
         <v>3067.6</v>
       </c>
       <c r="X159">
-        <v>971.2</v>
+        <v>971.2000000000001</v>
       </c>
       <c r="Y159">
         <v>93.69199999999999</v>
@@ -28171,10 +28171,10 @@
         <v>92.166</v>
       </c>
       <c r="J160">
-        <v>91.85599999999999</v>
+        <v>91.856</v>
       </c>
       <c r="K160">
-        <v>93.48999999999999</v>
+        <v>93.49</v>
       </c>
       <c r="L160">
         <v>0.23</v>
@@ -28273,7 +28273,7 @@
         <v>263.924</v>
       </c>
       <c r="AR160">
-        <v>67.126</v>
+        <v>67.12600000000001</v>
       </c>
       <c r="AS160">
         <v>65.90000000000001</v>
@@ -28312,7 +28312,7 @@
         <v>201.476</v>
       </c>
       <c r="CX160">
-        <v>334.2</v>
+        <v>334.2000000000001</v>
       </c>
       <c r="CY160">
         <v>1802.7</v>
@@ -28389,7 +28389,7 @@
         <v>3117.8</v>
       </c>
       <c r="X161">
-        <v>972.2</v>
+        <v>972.2000000000001</v>
       </c>
       <c r="Y161">
         <v>95.068</v>
@@ -28437,7 +28437,7 @@
         <v>18.3</v>
       </c>
       <c r="AN161">
-        <v>580.3099999999999</v>
+        <v>580.31</v>
       </c>
       <c r="AO161">
         <v>2444.1</v>
@@ -28517,7 +28517,7 @@
         <v>95.395</v>
       </c>
       <c r="H162">
-        <v>95.48399999999999</v>
+        <v>95.484</v>
       </c>
       <c r="I162">
         <v>93.76600000000001</v>
@@ -28613,7 +28613,7 @@
         <v>18</v>
       </c>
       <c r="AN162">
-        <v>575.6319999999999</v>
+        <v>575.632</v>
       </c>
       <c r="AO162">
         <v>2439.7</v>
@@ -28759,7 +28759,7 @@
         <v>1972.8</v>
       </c>
       <c r="AD163">
-        <v>935.2</v>
+        <v>935.2000000000001</v>
       </c>
       <c r="AE163">
         <v>96.40000000000001</v>
@@ -28768,7 +28768,7 @@
         <v>212.2</v>
       </c>
       <c r="AG163">
-        <v>971.7</v>
+        <v>971.7000000000001</v>
       </c>
       <c r="AH163">
         <v>1690.733</v>
@@ -28780,7 +28780,7 @@
         <v>278</v>
       </c>
       <c r="AK163">
-        <v>965.7</v>
+        <v>965.7000000000001</v>
       </c>
       <c r="AL163">
         <v>43.4</v>
@@ -28801,7 +28801,7 @@
         <v>272.456</v>
       </c>
       <c r="AR163">
-        <v>73.73699999999999</v>
+        <v>73.737</v>
       </c>
       <c r="AS163">
         <v>53.4</v>
@@ -28857,7 +28857,7 @@
         <v>15672</v>
       </c>
       <c r="D164">
-        <v>96.251</v>
+        <v>96.25100000000001</v>
       </c>
       <c r="E164">
         <v>10220.6</v>
@@ -28890,7 +28890,7 @@
         <v>-0.15</v>
       </c>
       <c r="O164">
-        <v>515.7</v>
+        <v>515.7000000000001</v>
       </c>
       <c r="P164">
         <v>405.6</v>
@@ -29010,7 +29010,7 @@
         <v>283.691</v>
       </c>
       <c r="CV164">
-        <v>121.909</v>
+        <v>121.9090000000001</v>
       </c>
       <c r="CW164">
         <v>234.109</v>
@@ -29096,7 +29096,7 @@
         <v>994.3</v>
       </c>
       <c r="Y165">
-        <v>96.248</v>
+        <v>96.24800000000001</v>
       </c>
       <c r="Z165">
         <v>1311.1</v>
@@ -29111,7 +29111,7 @@
         <v>1937</v>
       </c>
       <c r="AD165">
-        <v>977.2</v>
+        <v>977.2000000000001</v>
       </c>
       <c r="AE165">
         <v>98.7</v>
@@ -29132,7 +29132,7 @@
         <v>311.9</v>
       </c>
       <c r="AK165">
-        <v>977.7</v>
+        <v>977.7000000000001</v>
       </c>
       <c r="AL165">
         <v>50.4</v>
@@ -29269,7 +29269,7 @@
         <v>3156</v>
       </c>
       <c r="X166">
-        <v>916.2</v>
+        <v>916.2000000000001</v>
       </c>
       <c r="Y166">
         <v>97.089</v>
@@ -29403,7 +29403,7 @@
         <v>97.801</v>
       </c>
       <c r="J167">
-        <v>98.129</v>
+        <v>98.12900000000001</v>
       </c>
       <c r="K167">
         <v>96.34699999999999</v>
@@ -29573,7 +29573,7 @@
         <v>98.523</v>
       </c>
       <c r="H168">
-        <v>99.498</v>
+        <v>99.49800000000001</v>
       </c>
       <c r="I168">
         <v>98.31399999999999</v>
@@ -29824,7 +29824,7 @@
         <v>238</v>
       </c>
       <c r="AG169">
-        <v>904.2</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AH169">
         <v>1735.099</v>
@@ -30110,7 +30110,7 @@
         <v>99.294</v>
       </c>
       <c r="K171">
-        <v>99.879</v>
+        <v>99.87900000000001</v>
       </c>
       <c r="L171">
         <v>-0.41</v>
@@ -30176,7 +30176,7 @@
         <v>275.5</v>
       </c>
       <c r="AG171">
-        <v>932.2</v>
+        <v>932.2000000000001</v>
       </c>
       <c r="AH171">
         <v>1731.81</v>
@@ -30352,7 +30352,7 @@
         <v>280.8</v>
       </c>
       <c r="AG172">
-        <v>935.2</v>
+        <v>935.2000000000001</v>
       </c>
       <c r="AH172">
         <v>1740.904</v>
@@ -30641,7 +30641,7 @@
         <v>101.023</v>
       </c>
       <c r="L174">
-        <v>-0.68</v>
+        <v>-0.6800000000000001</v>
       </c>
       <c r="M174">
         <v>0.03</v>
@@ -31002,7 +31002,7 @@
         <v>-0.43</v>
       </c>
       <c r="O176">
-        <v>573.7</v>
+        <v>573.7000000000001</v>
       </c>
       <c r="P176">
         <v>448.2</v>
@@ -31077,7 +31077,7 @@
         <v>17.8</v>
       </c>
       <c r="AN176">
-        <v>611.3049999999999</v>
+        <v>611.305</v>
       </c>
       <c r="AO176">
         <v>2528.2</v>
@@ -31178,7 +31178,7 @@
         <v>-0.5</v>
       </c>
       <c r="O177">
-        <v>580.2</v>
+        <v>580.2000000000001</v>
       </c>
       <c r="P177">
         <v>448.6</v>
@@ -31829,7 +31829,7 @@
         <v>174.8</v>
       </c>
       <c r="CW180">
-        <v>178.7</v>
+        <v>178.7000000000001</v>
       </c>
       <c r="CX180">
         <v>334.9010000000001</v>
@@ -32646,7 +32646,7 @@
         <v>1957.938</v>
       </c>
       <c r="AI185">
-        <v>548.2</v>
+        <v>548.2000000000001</v>
       </c>
       <c r="AJ185">
         <v>412.3</v>
@@ -32876,7 +32876,7 @@
         <v>-1</v>
       </c>
       <c r="CI186">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU186">
         <v>359.556</v>
@@ -32938,7 +32938,7 @@
         <v>-0.2</v>
       </c>
       <c r="O187">
-        <v>658.7</v>
+        <v>658.7000000000001</v>
       </c>
       <c r="P187">
         <v>558.8</v>
@@ -33052,7 +33052,7 @@
         <v>-1</v>
       </c>
       <c r="CI187">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU187">
         <v>364.761</v>
@@ -33114,7 +33114,7 @@
         <v>0.12</v>
       </c>
       <c r="O188">
-        <v>665.2</v>
+        <v>665.2000000000001</v>
       </c>
       <c r="P188">
         <v>566.4</v>
@@ -33174,7 +33174,7 @@
         <v>1997.784</v>
       </c>
       <c r="AI188">
-        <v>562.7</v>
+        <v>562.7000000000001</v>
       </c>
       <c r="AJ188">
         <v>417.2</v>
@@ -33228,7 +33228,7 @@
         <v>-1</v>
       </c>
       <c r="CI188">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU188">
         <v>377.98</v>
@@ -33404,7 +33404,7 @@
         <v>-1</v>
       </c>
       <c r="CI189">
-        <v>0.641437608</v>
+        <v>0.6414376080000001</v>
       </c>
       <c r="CU189">
         <v>387.911</v>
@@ -33613,7 +33613,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM190">
-        <v>0.007183780093211078</v>
+        <v>0.007183780093211079</v>
       </c>
       <c r="BN190">
         <v>0.01217558474847791</v>
@@ -33879,7 +33879,7 @@
         <v>0.0006094773731524228</v>
       </c>
       <c r="BM191">
-        <v>0.007183780093211078</v>
+        <v>0.007183780093211079</v>
       </c>
       <c r="BN191">
         <v>0.01217558474847791</v>
@@ -34118,7 +34118,7 @@
         <v>-1</v>
       </c>
       <c r="BB192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BC192">
         <v>0.007912990400088749</v>
@@ -34133,7 +34133,7 @@
         <v>0.004138414333876295</v>
       </c>
       <c r="BG192">
-        <v>0.005940741568430274</v>
+        <v>0.005940741568430275</v>
       </c>
       <c r="BH192">
         <v>0.01003595080416275</v>
@@ -34163,19 +34163,19 @@
         <v>0.005338741728637908</v>
       </c>
       <c r="BQ192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BR192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BS192">
         <v>0.01317896738063529</v>
       </c>
       <c r="BT192">
-        <v>0.01317896738063506</v>
+        <v>0.01317896738063507</v>
       </c>
       <c r="BU192">
-        <v>0.005055088423257414</v>
+        <v>0.005055088423257415</v>
       </c>
       <c r="BV192">
         <v>0.00803007361770991</v>
@@ -34396,7 +34396,7 @@
         <v>0.01566411886781882</v>
       </c>
       <c r="BC193">
-        <v>0.008748265762293927</v>
+        <v>0.008748265762293928</v>
       </c>
       <c r="BD193">
         <v>0.004449942254746819</v>
@@ -34429,13 +34429,13 @@
         <v>0.0162792059495227</v>
       </c>
       <c r="BN193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="BO193">
         <v>0.01431101995151973</v>
       </c>
       <c r="BP193">
-        <v>0.00776384858661272</v>
+        <v>0.007763848586612721</v>
       </c>
       <c r="BQ193">
         <v>0.0156641188678186</v>
@@ -34510,10 +34510,10 @@
         <v>0.00955482011316322</v>
       </c>
       <c r="CQ193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="CR193">
-        <v>0.01960321209258375</v>
+        <v>0.01960321209258376</v>
       </c>
       <c r="CS193">
         <v>0.01148564106586103</v>
@@ -34710,7 +34710,7 @@
         <v>0.006258607928194548</v>
       </c>
       <c r="BG194">
-        <v>0.005758175044841884</v>
+        <v>0.005758175044841885</v>
       </c>
       <c r="BH194">
         <v>0.01045906538203933</v>
@@ -34776,13 +34776,13 @@
         <v>-0.1587188612099644</v>
       </c>
       <c r="CD194">
-        <v>0.01168224299065423</v>
+        <v>0.01168224299065424</v>
       </c>
       <c r="CE194">
         <v>0.0006119167224032385</v>
       </c>
       <c r="CF194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CG194">
         <v>0.004405286343612369</v>
@@ -34806,10 +34806,10 @@
         <v>0.004626400453376256</v>
       </c>
       <c r="CO194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CP194">
-        <v>0.009464389573309528</v>
+        <v>0.009464389573309529</v>
       </c>
       <c r="CQ194">
         <v>0.01783646050498033</v>
@@ -35021,7 +35021,7 @@
         <v>0.00988038707961425</v>
       </c>
       <c r="BJ195">
-        <v>0.006341570085283132</v>
+        <v>0.006341570085283133</v>
       </c>
       <c r="BK195">
         <v>0.009687217798210579</v>
@@ -35039,7 +35039,7 @@
         <v>0.01520515613652873</v>
       </c>
       <c r="BP195">
-        <v>0.00532798395185563</v>
+        <v>0.005327983951855631</v>
       </c>
       <c r="BQ195">
         <v>0.01720956990953826</v>
@@ -35628,7 +35628,7 @@
         <v>-0.000957381099444099</v>
       </c>
       <c r="BK197">
-        <v>0.002744813110518995</v>
+        <v>0.002744813110518996</v>
       </c>
       <c r="BL197">
         <v>-0.003153626670671206</v>
@@ -35849,7 +35849,7 @@
         <v>2271.243</v>
       </c>
       <c r="AI198">
-        <v>594.2</v>
+        <v>594.2000000000001</v>
       </c>
       <c r="AJ198">
         <v>475.2</v>
@@ -36044,7 +36044,7 @@
         <v>194.871</v>
       </c>
       <c r="CW198">
-        <v>189.671</v>
+        <v>189.6710000000001</v>
       </c>
       <c r="CX198">
         <v>361.7280000000001</v>
@@ -36097,7 +36097,7 @@
         <v>0.58</v>
       </c>
       <c r="O199">
-        <v>779.7</v>
+        <v>779.7000000000001</v>
       </c>
       <c r="P199">
         <v>615</v>
@@ -36355,7 +36355,7 @@
         <v>192.828</v>
       </c>
       <c r="CX199">
-        <v>362.623</v>
+        <v>362.6230000000001</v>
       </c>
       <c r="CY199">
         <v>2708.377</v>
@@ -36522,7 +36522,7 @@
         <v>0.009475030810251139</v>
       </c>
       <c r="BC200">
-        <v>0.00521504160993369</v>
+        <v>0.005215041609933691</v>
       </c>
       <c r="BD200">
         <v>0.004581925787650931</v>
@@ -36594,7 +36594,7 @@
         <v>0.01467473406806219</v>
       </c>
       <c r="CA200">
-        <v>0.006529816813175326</v>
+        <v>0.006529816813175327</v>
       </c>
       <c r="CB200">
         <v>0.03644214981858163</v>
@@ -36612,7 +36612,7 @@
         <v>0.01262688876206286</v>
       </c>
       <c r="CG200">
-        <v>0.006529816813175326</v>
+        <v>0.006529816813175327</v>
       </c>
       <c r="CH200">
         <v>1652.892256</v>
@@ -36884,7 +36884,7 @@
         <v>0.008661947313450158</v>
       </c>
       <c r="BU201">
-        <v>0.003925347353803676</v>
+        <v>0.003925347353803677</v>
       </c>
       <c r="BV201">
         <v>0.004985097894305568</v>
@@ -37021,7 +37021,7 @@
         <v>0.1</v>
       </c>
       <c r="O202">
-        <v>804.7</v>
+        <v>804.7000000000001</v>
       </c>
       <c r="P202">
         <v>624.1</v>
@@ -37108,7 +37108,7 @@
         <v>423.429</v>
       </c>
       <c r="AR202">
-        <v>72.23999999999999</v>
+        <v>72.24</v>
       </c>
       <c r="AS202">
         <v>74.5</v>
@@ -37273,7 +37273,7 @@
         <v>423.429</v>
       </c>
       <c r="CV202">
-        <v>200.671</v>
+        <v>200.6710000000001</v>
       </c>
       <c r="CW202">
         <v>204.371</v>
@@ -37344,7 +37344,7 @@
         <v>112.5</v>
       </c>
       <c r="T203">
-        <v>2095.7</v>
+        <v>2096.5</v>
       </c>
       <c r="U203">
         <v>1395.8</v>
@@ -37356,7 +37356,7 @@
         <v>3839.3</v>
       </c>
       <c r="X203">
-        <v>1384.9</v>
+        <v>1393.3</v>
       </c>
       <c r="Y203">
         <v>110.431</v>
@@ -37374,7 +37374,7 @@
         <v>2013.1</v>
       </c>
       <c r="AD203">
-        <v>1599.3</v>
+        <v>1600.1</v>
       </c>
       <c r="AE203">
         <v>131.4</v>
@@ -37383,7 +37383,7 @@
         <v>171.5</v>
       </c>
       <c r="AG203">
-        <v>1365.7</v>
+        <v>1374.2</v>
       </c>
       <c r="AH203">
         <v>4521.756</v>
@@ -37446,7 +37446,7 @@
         <v>1</v>
       </c>
       <c r="BB203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BC203">
         <v>-0.100893694605162</v>
@@ -37491,16 +37491,16 @@
         <v>-0.007733952049497339</v>
       </c>
       <c r="BQ203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BR203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BS203">
         <v>-0.1064963764583536</v>
       </c>
       <c r="BT203">
-        <v>-0.1064963764583537</v>
+        <v>-0.1064963764583538</v>
       </c>
       <c r="BU203">
         <v>-0.001268877009791836</v>
@@ -37601,124 +37601,124 @@
         <v>44104</v>
       </c>
       <c r="B204">
-        <v>21157.6</v>
+        <v>21157.1</v>
       </c>
       <c r="C204">
         <v>18583.5</v>
       </c>
       <c r="D204">
-        <v>113.86</v>
+        <v>113.85</v>
       </c>
       <c r="E204">
-        <v>14394.8</v>
+        <v>14394.2</v>
       </c>
       <c r="F204">
-        <v>12917.3</v>
+        <v>12915.9</v>
       </c>
       <c r="G204">
         <v>111.45</v>
       </c>
       <c r="H204">
-        <v>111.334</v>
+        <v>111.34</v>
       </c>
       <c r="I204">
-        <v>117.122</v>
+        <v>116.915</v>
       </c>
       <c r="J204">
-        <v>116.958</v>
+        <v>116.714</v>
       </c>
       <c r="K204">
-        <v>117.835</v>
+        <v>117.784</v>
       </c>
       <c r="L204">
-        <v>-0.68</v>
+        <v>-0.76</v>
       </c>
       <c r="M204">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="N204">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="O204">
-        <v>842.7</v>
+        <v>842.7000000000001</v>
       </c>
       <c r="P204">
-        <v>699</v>
+        <v>691.3</v>
       </c>
       <c r="Q204">
-        <v>771.5</v>
+        <v>768.7000000000001</v>
       </c>
       <c r="R204">
-        <v>4357.4</v>
+        <v>4324.1</v>
       </c>
       <c r="S204">
         <v>113</v>
       </c>
       <c r="T204">
-        <v>2191.8</v>
+        <v>2186.6</v>
       </c>
       <c r="U204">
-        <v>1459.8</v>
+        <v>1462</v>
       </c>
       <c r="V204">
-        <v>256.6</v>
+        <v>284.4</v>
       </c>
       <c r="W204">
-        <v>3824.5</v>
+        <v>3816.5</v>
       </c>
       <c r="X204">
-        <v>1439.5</v>
+        <v>1455</v>
       </c>
       <c r="Y204">
-        <v>111.438</v>
+        <v>111.446</v>
       </c>
       <c r="Z204">
-        <v>1486.6</v>
+        <v>1486.8</v>
       </c>
       <c r="AA204">
-        <v>2337.9</v>
+        <v>2329.7</v>
       </c>
       <c r="AB204">
-        <v>1335.2</v>
+        <v>1335.3</v>
       </c>
       <c r="AC204">
-        <v>1996.2</v>
+        <v>1992.7</v>
       </c>
       <c r="AD204">
-        <v>1686.4</v>
+        <v>1687.2</v>
       </c>
       <c r="AE204">
         <v>144.7</v>
       </c>
       <c r="AF204">
-        <v>193.9</v>
+        <v>205.3</v>
       </c>
       <c r="AG204">
-        <v>1419.3</v>
+        <v>1434.8</v>
       </c>
       <c r="AH204">
-        <v>2782.663</v>
+        <v>2756.963</v>
       </c>
       <c r="AI204">
-        <v>727.5</v>
+        <v>728.2000000000001</v>
       </c>
       <c r="AJ204">
-        <v>505.4</v>
+        <v>499.4</v>
       </c>
       <c r="AK204">
-        <v>1315.1</v>
+        <v>1317.3</v>
       </c>
       <c r="AL204">
-        <v>62.63333333333333</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="AM204">
         <v>20.2</v>
       </c>
       <c r="AN204">
-        <v>1574.737</v>
+        <v>1567.137</v>
       </c>
       <c r="AO204">
-        <v>3183.5</v>
+        <v>3167.8</v>
       </c>
       <c r="AP204">
         <v>533.712</v>
@@ -37730,13 +37730,13 @@
         <v>73.845</v>
       </c>
       <c r="AS204">
-        <v>1211.7</v>
+        <v>1212.7</v>
       </c>
       <c r="AT204">
         <v>0.6</v>
       </c>
       <c r="AU204">
-        <v>1212.3</v>
+        <v>1213.3</v>
       </c>
       <c r="AV204">
         <v>731.1369999999999</v>
@@ -37772,7 +37772,7 @@
         <v>0.004541326067211582</v>
       </c>
       <c r="BG204">
-        <v>0.003546099290780091</v>
+        <v>0.003546099290780092</v>
       </c>
       <c r="BH204">
         <v>0.06620617348669389</v>
@@ -37895,16 +37895,16 @@
         <v>486.072</v>
       </c>
       <c r="CV204">
-        <v>212.928</v>
+        <v>205.228</v>
       </c>
       <c r="CW204">
-        <v>241.428</v>
+        <v>242.128</v>
       </c>
       <c r="CX204">
-        <v>1088.665</v>
+        <v>1081.065</v>
       </c>
       <c r="CY204">
-        <v>3268.735000000001</v>
+        <v>3243.035</v>
       </c>
     </row>
     <row r="205">
@@ -37912,94 +37912,94 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21585.44235748715</v>
+        <v>21584.93224664382</v>
       </c>
       <c r="C205">
         <v>18941.87190967545</v>
       </c>
       <c r="D205">
-        <v>113.9605830388693</v>
+        <v>113.950574204947</v>
       </c>
       <c r="E205">
-        <v>14673.73671911152</v>
+        <v>14673.12509254975</v>
       </c>
       <c r="G205">
         <v>111.6357230155407</v>
       </c>
       <c r="H205">
-        <v>111.7404429224393</v>
+        <v>111.7464648264177</v>
       </c>
       <c r="I205">
-        <v>117.5271043778611</v>
+        <v>117.3193884013048</v>
       </c>
       <c r="J205">
-        <v>117.3625371307344</v>
+        <v>117.1176931776923</v>
       </c>
       <c r="K205">
-        <v>118.2425705193324</v>
+        <v>118.1913941193114</v>
       </c>
       <c r="O205">
         <v>829.9102013704255</v>
       </c>
       <c r="P205">
-        <v>725.6751577500193</v>
+        <v>717.6813112340319</v>
       </c>
       <c r="R205">
-        <v>4084.244006383561</v>
+        <v>4053.48416855598</v>
       </c>
       <c r="T205">
-        <v>2209.356316549763</v>
+        <v>2204.038466636743</v>
       </c>
       <c r="U205">
-        <v>1488.493556641159</v>
+        <v>1490.738044351792</v>
       </c>
       <c r="V205">
-        <v>267.3689446286285</v>
+        <v>296.1311906338681</v>
       </c>
       <c r="W205">
-        <v>3888.716580282906</v>
+        <v>3880.582253536335</v>
       </c>
       <c r="X205">
-        <v>1459.542889676466</v>
+        <v>1475.257314660539</v>
       </c>
       <c r="Z205">
-        <v>1497.934548829808</v>
+        <v>1498.136073725386</v>
       </c>
       <c r="AA205">
-        <v>2343.74475</v>
+        <v>2335.52425</v>
       </c>
       <c r="AD205">
-        <v>1693.736276116348</v>
+        <v>1694.539756323234</v>
       </c>
       <c r="AE205">
         <v>146.8000165264321</v>
       </c>
       <c r="AF205">
-        <v>203.469059654721</v>
+        <v>215.4316552197742</v>
       </c>
       <c r="AG205">
-        <v>1438.934411606116</v>
+        <v>1454.648836590189</v>
       </c>
       <c r="AH205">
-        <v>2505.570163883561</v>
+        <v>2482.42932605598</v>
       </c>
       <c r="AI205">
-        <v>733.0468076642578</v>
+        <v>733.7521447987803</v>
       </c>
       <c r="AJ205">
-        <v>515.6200404334143</v>
+        <v>509.4987103135083</v>
       </c>
       <c r="AK205">
-        <v>1341.693540114727</v>
+        <v>1343.93802782536</v>
       </c>
       <c r="AL205">
-        <v>63.8998849739075</v>
+        <v>80.69953541409393</v>
       </c>
       <c r="AM205">
         <v>20.60847807035016</v>
       </c>
       <c r="AN205">
-        <v>1578.6738425</v>
+        <v>1571.0548425</v>
       </c>
       <c r="AP205">
         <v>554.0794560702121</v>
@@ -38011,13 +38011,13 @@
         <v>74.40802956971426</v>
       </c>
       <c r="AS205">
-        <v>1215.668209490494</v>
+        <v>1216.671484401355</v>
       </c>
       <c r="AT205">
         <v>0.6019649465167092</v>
       </c>
       <c r="AU205">
-        <v>1216.270174437011</v>
+        <v>1217.273449347872</v>
       </c>
       <c r="AY205">
         <v>19330.8</v>
@@ -38164,19 +38164,19 @@
         <v>504.62142385961</v>
       </c>
       <c r="CV205">
-        <v>221.0537338904093</v>
+        <v>213.0598873744219</v>
       </c>
       <c r="CW205">
-        <v>228.4253838046478</v>
+        <v>229.1307209391703</v>
       </c>
       <c r="CX205">
-        <v>1074.05241864039</v>
+        <v>1066.43341864039</v>
       </c>
       <c r="CY205">
-        <v>3010.191587743171</v>
+        <v>2987.05074991559</v>
       </c>
       <c r="CZ205">
-        <v>2172.257277183414</v>
+        <v>2166.135947063508</v>
       </c>
     </row>
     <row r="206">
@@ -38184,94 +38184,94 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>21943.43505158746</v>
+        <v>21942.91648059992</v>
       </c>
       <c r="C206">
         <v>19219.3954516509</v>
       </c>
       <c r="D206">
-        <v>114.1617491166078</v>
+        <v>114.151722614841</v>
       </c>
       <c r="E206">
-        <v>14815.80710030079</v>
+        <v>14815.18955200139</v>
       </c>
       <c r="G206">
         <v>111.8782324831419</v>
       </c>
       <c r="H206">
-        <v>112.1805865841747</v>
+        <v>112.1866322083282</v>
       </c>
       <c r="I206">
-        <v>117.9018438130588</v>
+        <v>117.6934655265771</v>
       </c>
       <c r="J206">
-        <v>117.7367518372955</v>
+        <v>117.4911271904283</v>
       </c>
       <c r="K206">
-        <v>118.6195912442733</v>
+        <v>118.5682516664445</v>
       </c>
       <c r="O206">
         <v>817.120402740851</v>
       </c>
       <c r="P206">
-        <v>752.3503155000386</v>
+        <v>744.0626224680639</v>
       </c>
       <c r="R206">
-        <v>3867.862916187507</v>
+        <v>3839.11892470529</v>
       </c>
       <c r="T206">
-        <v>2225.244106429406</v>
+        <v>2219.828214992802</v>
       </c>
       <c r="U206">
-        <v>1512.845444457876</v>
+        <v>1515.127156803014</v>
       </c>
       <c r="V206">
-        <v>277.9977783475384</v>
+        <v>307.6012406670113</v>
       </c>
       <c r="W206">
-        <v>3931.768532015981</v>
+        <v>3923.544150199763</v>
       </c>
       <c r="X206">
-        <v>1479.519091108499</v>
+        <v>1495.447941076645</v>
       </c>
       <c r="Z206">
-        <v>1503.946787774315</v>
+        <v>1504.149121527548</v>
       </c>
       <c r="AA206">
-        <v>2349.604111874999</v>
+        <v>2341.363060624999</v>
       </c>
       <c r="AD206">
-        <v>1701.072552232697</v>
+        <v>1701.879512646469</v>
       </c>
       <c r="AE206">
-        <v>148.9000330528642</v>
+        <v>148.9000330528643</v>
       </c>
       <c r="AF206">
-        <v>213.038119309442</v>
+        <v>225.5633104395485</v>
       </c>
       <c r="AG206">
-        <v>1458.568823212232</v>
+        <v>1474.497673180378</v>
       </c>
       <c r="AH206">
-        <v>2285.242389081257</v>
+        <v>2264.13644509904</v>
       </c>
       <c r="AI206">
-        <v>735.9890273818207</v>
+        <v>736.6971955181332</v>
       </c>
       <c r="AJ206">
-        <v>524.1715541967095</v>
+        <v>517.948702346333</v>
       </c>
       <c r="AK206">
-        <v>1363.945411405011</v>
+        <v>1366.227123750149</v>
       </c>
       <c r="AL206">
-        <v>64.95965903809638</v>
+        <v>82.03793022746285</v>
       </c>
       <c r="AM206">
         <v>20.95026789626738</v>
       </c>
       <c r="AN206">
-        <v>1582.62052710625</v>
+        <v>1574.98247960625</v>
       </c>
       <c r="AP206">
         <v>574.4469121404243</v>
@@ -38283,13 +38283,13 @@
         <v>74.70668003712791</v>
       </c>
       <c r="AS206">
-        <v>1219.787349294415</v>
+        <v>1220.794023676931</v>
       </c>
       <c r="AT206">
         <v>0.6040046295094899</v>
       </c>
       <c r="AU206">
-        <v>1220.391353923924</v>
+        <v>1221.39802830644</v>
       </c>
       <c r="AY206">
         <v>19396.3</v>
@@ -38325,7 +38325,7 @@
         <v>0.007546475243879858</v>
       </c>
       <c r="BK206">
-        <v>7.441029838517466e-05</v>
+        <v>7.441029838517466e-005</v>
       </c>
       <c r="BL206">
         <v>0.01261599416119275</v>
@@ -38388,7 +38388,7 @@
         <v>-0.01541106327944253</v>
       </c>
       <c r="CF206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CG206">
         <v>0.004331415828897622</v>
@@ -38415,10 +38415,10 @@
         <v>0.003388375028452018</v>
       </c>
       <c r="CO206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CP206">
-        <v>0.03675908905677105</v>
+        <v>0.03675908905677106</v>
       </c>
       <c r="CQ206">
         <v>0.004013686011317352</v>
@@ -38436,19 +38436,19 @@
         <v>523.17084771922</v>
       </c>
       <c r="CV206">
-        <v>229.1794677808186</v>
+        <v>220.8917747488439</v>
       </c>
       <c r="CW206">
-        <v>212.8181796626008</v>
+        <v>213.5263477989132</v>
       </c>
       <c r="CX206">
-        <v>1059.44967938703</v>
+        <v>1051.81163188703</v>
       </c>
       <c r="CY206">
-        <v>2808.413236800478</v>
+        <v>2787.30729281826</v>
       </c>
       <c r="CZ206">
-        <v>2187.984375696709</v>
+        <v>2181.761523846333</v>
       </c>
     </row>
     <row r="207">
@@ -38456,94 +38456,94 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>22292.36730669641</v>
+        <v>22291.84048968251</v>
       </c>
       <c r="C207">
         <v>19460.68384437219</v>
       </c>
       <c r="D207">
-        <v>114.5640812720848</v>
+        <v>114.554019434629</v>
       </c>
       <c r="E207">
-        <v>14925.92465583064</v>
+        <v>14925.3025176423</v>
       </c>
       <c r="G207">
         <v>112.2625203024337</v>
       </c>
       <c r="H207">
-        <v>112.7875213699921</v>
+        <v>112.79359970301</v>
       </c>
       <c r="I207">
-        <v>118.586018087723</v>
+        <v>118.3764305999397</v>
       </c>
       <c r="J207">
-        <v>118.4199680974019</v>
+        <v>118.1729181118023</v>
       </c>
       <c r="K207">
-        <v>119.3079305456434</v>
+        <v>119.2562930486533</v>
       </c>
       <c r="O207">
         <v>804.3306041112766</v>
       </c>
       <c r="P207">
-        <v>779.025473250058</v>
+        <v>770.4439337020959</v>
       </c>
       <c r="R207">
-        <v>3692.359326507944</v>
+        <v>3665.253690206791</v>
       </c>
       <c r="T207">
-        <v>2240.915466001915</v>
+        <v>2235.404102455741</v>
       </c>
       <c r="U207">
-        <v>1536.634159546232</v>
+        <v>1538.952154407404</v>
       </c>
       <c r="V207">
-        <v>288.5997902390438</v>
+        <v>319.0374172587331</v>
       </c>
       <c r="W207">
-        <v>3978.537199006586</v>
+        <v>3970.214987582334</v>
       </c>
       <c r="X207">
-        <v>1499.486642180018</v>
+        <v>1515.629917132237</v>
       </c>
       <c r="Z207">
-        <v>1510.846078366373</v>
+        <v>1511.049340316913</v>
       </c>
       <c r="AA207">
-        <v>2355.478122154687</v>
+        <v>2347.216468276562</v>
       </c>
       <c r="AD207">
-        <v>1708.408828349045</v>
+        <v>1709.219268969704</v>
       </c>
       <c r="AE207">
         <v>151.0000495792963</v>
       </c>
       <c r="AF207">
-        <v>222.607178964163</v>
+        <v>235.6949656593226</v>
       </c>
       <c r="AG207">
-        <v>1478.203234818348</v>
+        <v>1494.346509770567</v>
       </c>
       <c r="AH207">
-        <v>2105.782248083929</v>
+        <v>2086.333754401525</v>
       </c>
       <c r="AI207">
-        <v>739.3653450904994</v>
+        <v>740.0767619173906</v>
       </c>
       <c r="AJ207">
-        <v>532.5066376528702</v>
+        <v>526.1848334860374</v>
       </c>
       <c r="AK207">
-        <v>1385.634109966936</v>
+        <v>1387.952104828108</v>
       </c>
       <c r="AL207">
-        <v>65.99261127488083</v>
+        <v>83.34245159941042</v>
       </c>
       <c r="AM207">
         <v>21.28340736166992</v>
       </c>
       <c r="AN207">
-        <v>1586.577078424016</v>
+        <v>1578.919935805265</v>
       </c>
       <c r="AP207">
         <v>594.8143682106365</v>
@@ -38555,13 +38555,13 @@
         <v>75.04939368825832</v>
       </c>
       <c r="AS207">
-        <v>1224.195772199069</v>
+        <v>1225.20608479476</v>
       </c>
       <c r="AT207">
         <v>0.6061875574147406</v>
       </c>
       <c r="AU207">
-        <v>1224.801959756483</v>
+        <v>1225.812272352175</v>
       </c>
       <c r="AY207">
         <v>19466.4</v>
@@ -38585,7 +38585,7 @@
         <v>0.003603603603603567</v>
       </c>
       <c r="BG207">
-        <v>0.003524229074890028</v>
+        <v>0.003524229074890029</v>
       </c>
       <c r="BH207">
         <v>0.007432437179045959</v>
@@ -38708,19 +38708,19 @@
         <v>541.72027157883</v>
       </c>
       <c r="CV207">
-        <v>237.305201671228</v>
+        <v>228.723662123266</v>
       </c>
       <c r="CW207">
-        <v>197.6450735116695</v>
+        <v>198.3564903385607</v>
       </c>
       <c r="CX207">
-        <v>1044.856806845185</v>
+        <v>1037.199664226435</v>
       </c>
       <c r="CY207">
-        <v>2647.502519662758</v>
+        <v>2628.054025980355</v>
       </c>
       <c r="CZ207">
-        <v>2203.49504390287</v>
+        <v>2197.173239736037</v>
       </c>
     </row>
     <row r="208">
@@ -38728,94 +38728,94 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>22665.32026052663</v>
+        <v>22664.78462982512</v>
       </c>
       <c r="C208">
         <v>19712.23537185332</v>
       </c>
       <c r="D208">
-        <v>114.9664134275619</v>
+        <v>114.956316254417</v>
       </c>
       <c r="E208">
-        <v>15063.8318024063</v>
+        <v>15063.20391601111</v>
       </c>
       <c r="G208">
         <v>112.6915793867931</v>
       </c>
       <c r="H208">
-        <v>113.3149172473705</v>
+        <v>113.3210240027506</v>
       </c>
       <c r="I208">
-        <v>119.2483434748865</v>
+        <v>119.0375854012599</v>
       </c>
       <c r="J208">
-        <v>119.0813660638973</v>
+        <v>118.8329362573035</v>
       </c>
       <c r="K208">
-        <v>119.9742879507117</v>
+        <v>119.9223620485138</v>
       </c>
       <c r="O208">
         <v>791.540805481702</v>
       </c>
       <c r="P208">
-        <v>805.7006310000771</v>
+        <v>796.8252449361278</v>
       </c>
       <c r="R208">
-        <v>3571.960712378625</v>
+        <v>3546.002028942567</v>
       </c>
       <c r="T208">
-        <v>2257.160617551478</v>
+        <v>2251.546969960907</v>
       </c>
       <c r="U208">
-        <v>1561.915937216751</v>
+        <v>1564.272712303394</v>
       </c>
       <c r="V208">
-        <v>299.2729111613424</v>
+        <v>330.563397857944</v>
       </c>
       <c r="W208">
-        <v>4017.665951301155</v>
+        <v>4009.261891264442</v>
       </c>
       <c r="X208">
-        <v>1519.477126765459</v>
+        <v>1535.834826701751</v>
       </c>
       <c r="Z208">
-        <v>1518.928104488497</v>
+        <v>1519.132453755884</v>
       </c>
       <c r="AA208">
-        <v>2367.25551276546</v>
+        <v>2358.952550617944</v>
       </c>
       <c r="AD208">
-        <v>1715.745104465393</v>
+        <v>1716.559025292939</v>
       </c>
       <c r="AE208">
         <v>153.1000661057284</v>
       </c>
       <c r="AF208">
-        <v>232.176238618884</v>
+        <v>245.8266208790969</v>
       </c>
       <c r="AG208">
-        <v>1497.837646424464</v>
+        <v>1514.195346360756</v>
       </c>
       <c r="AH208">
-        <v>1977.450748562489</v>
+        <v>1959.187493458275</v>
       </c>
       <c r="AI208">
-        <v>743.3204601206656</v>
+        <v>744.0356825565207</v>
       </c>
       <c r="AJ208">
-        <v>541.4155130860853</v>
+        <v>534.9879446679679</v>
       </c>
       <c r="AK208">
-        <v>1408.815871111022</v>
+        <v>1411.172646197665</v>
       </c>
       <c r="AL208">
-        <v>67.09667254245839</v>
+        <v>84.73677697884713</v>
       </c>
       <c r="AM208">
         <v>21.6394803409951</v>
       </c>
       <c r="AN208">
-        <v>1594.509963816135</v>
+        <v>1586.814535484292</v>
       </c>
       <c r="AP208">
         <v>615.1818242808486</v>
@@ -38827,13 +38827,13 @@
         <v>75.45085825101107</v>
       </c>
       <c r="AS208">
-        <v>1228.95636583505</v>
+        <v>1229.970607285768</v>
       </c>
       <c r="AT208">
         <v>0.6085448704308245</v>
       </c>
       <c r="AU208">
-        <v>1229.564910705481</v>
+        <v>1230.579152156199</v>
       </c>
       <c r="AY208">
         <v>19542.1</v>
@@ -38980,19 +38980,19 @@
         <v>560.2696954384398</v>
       </c>
       <c r="CV208">
-        <v>245.4309355616373</v>
+        <v>236.5555494976879</v>
       </c>
       <c r="CW208">
-        <v>183.0507646822258</v>
+        <v>183.7659871180808</v>
       </c>
       <c r="CX208">
-        <v>1034.240268377696</v>
+        <v>1026.544840045852</v>
       </c>
       <c r="CY208">
-        <v>2537.720444000929</v>
+        <v>2519.457188896715</v>
       </c>
       <c r="CZ208">
-        <v>2219.579504086085</v>
+        <v>2213.151935667968</v>
       </c>
     </row>
     <row r="209">
@@ -39000,94 +39000,94 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>22915.11445643946</v>
+        <v>22914.57292255905</v>
       </c>
       <c r="C209">
         <v>19856.02398435607</v>
       </c>
       <c r="D209">
-        <v>115.3687455830389</v>
+        <v>115.358613074205</v>
       </c>
       <c r="E209">
-        <v>15228.27956964369</v>
+        <v>15227.64482878298</v>
       </c>
       <c r="G209">
         <v>113.0772583124353</v>
       </c>
       <c r="H209">
-        <v>113.8433632972791</v>
+        <v>113.849498531617</v>
       </c>
       <c r="I209">
-        <v>119.9032942981567</v>
+        <v>119.6913786724014</v>
       </c>
       <c r="J209">
-        <v>119.7353997927274</v>
+        <v>119.485605528552</v>
       </c>
       <c r="K209">
-        <v>120.6332258979807</v>
+        <v>120.5810148017801</v>
       </c>
       <c r="O209">
         <v>831.5070016808419</v>
       </c>
       <c r="P209">
-        <v>797.6809551436586</v>
+        <v>788.8939117178987</v>
       </c>
       <c r="R209">
-        <v>3652.377934288124</v>
+        <v>3625.729270000914</v>
       </c>
       <c r="T209">
-        <v>2284.640284594805</v>
+        <v>2278.96600413909</v>
       </c>
       <c r="U209">
-        <v>1581.201076577731</v>
+        <v>1583.583825651547</v>
       </c>
       <c r="V209">
-        <v>340.5772789650281</v>
+        <v>374.4471167693226</v>
       </c>
       <c r="W209">
-        <v>4046.470494547024</v>
+        <v>4038.006181837814</v>
       </c>
       <c r="X209">
-        <v>1542.738123609496</v>
+        <v>1559.347249516656</v>
       </c>
       <c r="Z209">
-        <v>1530.586125162055</v>
+        <v>1530.792042843363</v>
       </c>
       <c r="AA209">
-        <v>2385.009929111201</v>
+        <v>2376.644694747579</v>
       </c>
       <c r="AD209">
-        <v>1737.257838273648</v>
+        <v>1738.081964382886</v>
       </c>
       <c r="AE209">
         <v>156.8586643162485</v>
       </c>
       <c r="AF209">
-        <v>272.741134878664</v>
+        <v>288.7764568880336</v>
       </c>
       <c r="AG209">
-        <v>1520.860154840823</v>
+        <v>1537.469280747983</v>
       </c>
       <c r="AH209">
-        <v>2045.909145743368</v>
+        <v>2027.01362550049</v>
       </c>
       <c r="AI209">
-        <v>749.0255657576989</v>
+        <v>749.7462776422768</v>
       </c>
       <c r="AJ209">
-        <v>547.3824463211569</v>
+        <v>540.8840397562044</v>
       </c>
       <c r="AK209">
-        <v>1424.342412261482</v>
+        <v>1426.725161335298</v>
       </c>
       <c r="AL209">
-        <v>67.83614408636416</v>
+        <v>85.67065988128906</v>
       </c>
       <c r="AM209">
         <v>21.87796876867306</v>
       </c>
       <c r="AN209">
-        <v>1606.468788544757</v>
+        <v>1598.715644500424</v>
       </c>
       <c r="AP209">
         <v>609.0585092011908</v>
@@ -39099,13 +39099,13 @@
         <v>76.02995588093096</v>
       </c>
       <c r="AS209">
-        <v>1234.087996491538</v>
+        <v>1235.106473009233</v>
       </c>
       <c r="AT209">
         <v>0.6110859106172505</v>
       </c>
       <c r="AU209">
-        <v>1234.699082402155</v>
+        <v>1235.71755891985</v>
       </c>
       <c r="AY209">
         <v>19623.7</v>
@@ -39171,7 +39171,7 @@
         <v>0.01102098682222774</v>
       </c>
       <c r="BU209">
-        <v>0.004663517061526345</v>
+        <v>0.004663517061526346</v>
       </c>
       <c r="BV209">
         <v>0.005492326385298174</v>
@@ -39252,19 +39252,19 @@
         <v>554.6929574085671</v>
       </c>
       <c r="CV209">
-        <v>242.9879977350915</v>
+        <v>234.2009543093317</v>
       </c>
       <c r="CW209">
-        <v>194.3326083491319</v>
+        <v>195.0533202337098</v>
       </c>
       <c r="CX209">
-        <v>1051.775831136189</v>
+        <v>1044.022687091857</v>
       </c>
       <c r="CY209">
-        <v>2600.602103151935</v>
+        <v>2581.706582909058</v>
       </c>
       <c r="CZ209">
-        <v>2246.587963321157</v>
+        <v>2240.089556756204</v>
       </c>
     </row>
     <row r="210">
@@ -39272,94 +39272,94 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>23143.73251005855</v>
+        <v>23143.18557343743</v>
       </c>
       <c r="C210">
         <v>19971.11770987721</v>
       </c>
       <c r="D210">
-        <v>115.8716607773852</v>
+        <v>115.8614840989399</v>
       </c>
       <c r="E210">
-        <v>15390.22939611291</v>
+        <v>15389.58790490514</v>
       </c>
       <c r="G210">
         <v>113.5226474501786</v>
       </c>
       <c r="H210">
-        <v>114.4361950166039</v>
+        <v>114.4423621997654</v>
       </c>
       <c r="I210">
-        <v>120.6835373106718</v>
+        <v>120.4702426928946</v>
       </c>
       <c r="J210">
-        <v>120.5145502705005</v>
+        <v>120.2631305278065</v>
       </c>
       <c r="K210">
-        <v>121.4182187719046</v>
+        <v>121.3656679240465</v>
       </c>
       <c r="O210">
         <v>871.4731978799816</v>
       </c>
       <c r="P210">
-        <v>789.6612792872402</v>
+        <v>780.9625784996697</v>
       </c>
       <c r="R210">
-        <v>3714.140878107185</v>
+        <v>3686.992624380596</v>
       </c>
       <c r="T210">
-        <v>2311.614108710991</v>
+        <v>2305.885200648469</v>
       </c>
       <c r="U210">
-        <v>1599.169963399174</v>
+        <v>1601.576484532106</v>
       </c>
       <c r="V210">
-        <v>381.8189585441988</v>
+        <v>418.2516663583094</v>
       </c>
       <c r="W210">
-        <v>4077.13339542166</v>
+        <v>4068.604942770759</v>
       </c>
       <c r="X210">
-        <v>1565.97890275047</v>
+        <v>1582.839454628498</v>
       </c>
       <c r="Z210">
-        <v>1543.864583341752</v>
+        <v>1544.072287442834</v>
       </c>
       <c r="AA210">
-        <v>2408.860028402313</v>
+        <v>2400.411141695055</v>
       </c>
       <c r="AD210">
-        <v>1758.770572081903</v>
+        <v>1759.604903472833</v>
       </c>
       <c r="AE210">
         <v>160.6172625267686</v>
       </c>
       <c r="AF210">
-        <v>313.3060311384438</v>
+        <v>331.7262928969702</v>
       </c>
       <c r="AG210">
-        <v>1543.882663257182</v>
+        <v>1560.743215135211</v>
       </c>
       <c r="AH210">
-        <v>2091.607401676981</v>
+        <v>2072.289823435167</v>
       </c>
       <c r="AI210">
-        <v>755.5236676854063</v>
+        <v>756.250632039193</v>
       </c>
       <c r="AJ210">
-        <v>552.8435366290881</v>
+        <v>546.2802971756363</v>
       </c>
       <c r="AK210">
-        <v>1438.552700872405</v>
+        <v>1440.959222005338</v>
       </c>
       <c r="AL210">
-        <v>68.51292740575495</v>
+        <v>86.52537346133926</v>
       </c>
       <c r="AM210">
         <v>22.09623949328765</v>
       </c>
       <c r="AN210">
-        <v>1622.533476430204</v>
+        <v>1614.702800945428</v>
       </c>
       <c r="AP210">
         <v>602.935194121533</v>
@@ -39371,13 +39371,13 @@
         <v>76.68954672196401</v>
       </c>
       <c r="AS210">
-        <v>1239.414578802867</v>
+        <v>1240.437451278565</v>
       </c>
       <c r="AT210">
         <v>0.613723485418602</v>
       </c>
       <c r="AU210">
-        <v>1240.028302288285</v>
+        <v>1241.051174763983</v>
       </c>
       <c r="AY210">
         <v>19708.4</v>
@@ -39401,7 +39401,7 @@
         <v>0.003565062388591667</v>
       </c>
       <c r="BG210">
-        <v>0.004359197907584988</v>
+        <v>0.004359197907584989</v>
       </c>
       <c r="BH210">
         <v>0.01063480780797188</v>
@@ -39524,19 +39524,19 @@
         <v>549.1162193786943</v>
       </c>
       <c r="CV210">
-        <v>240.5450599085459</v>
+        <v>231.8463591209754</v>
       </c>
       <c r="CW210">
-        <v>206.407448306712</v>
+        <v>207.1344126604987</v>
       </c>
       <c r="CX210">
-        <v>1073.41725705151</v>
+        <v>1065.586581566734</v>
       </c>
       <c r="CY210">
-        <v>2640.723621055675</v>
+        <v>2621.406042813862</v>
       </c>
       <c r="CZ210">
-        <v>2273.090579629088</v>
+        <v>2266.527340175636</v>
       </c>
     </row>
     <row r="211">
@@ -39544,94 +39544,94 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>23370.03277695892</v>
+        <v>23369.48049237143</v>
       </c>
       <c r="C211">
         <v>20075.00576785443</v>
       </c>
       <c r="D211">
-        <v>116.3745759717315</v>
+        <v>116.3643551236749</v>
       </c>
       <c r="E211">
-        <v>15564.87708815364</v>
+        <v>15564.22831732995</v>
       </c>
       <c r="G211">
         <v>114.0207153974155</v>
       </c>
       <c r="H211">
-        <v>115.0295571360764</v>
+        <v>115.0357562966456</v>
       </c>
       <c r="I211">
-        <v>121.5287784523199</v>
+        <v>121.3139899656169</v>
       </c>
       <c r="J211">
-        <v>121.3586078638209</v>
+        <v>121.1054272321516</v>
       </c>
       <c r="K211">
-        <v>122.2686054620747</v>
+        <v>122.2156865595537</v>
       </c>
       <c r="O211">
         <v>911.4393940791213</v>
       </c>
       <c r="P211">
-        <v>781.6416034308218</v>
+        <v>773.0312452814407</v>
       </c>
       <c r="R211">
-        <v>3762.454941683361</v>
+        <v>3734.935836403162</v>
       </c>
       <c r="T211">
-        <v>2338.532566934654</v>
+        <v>2332.749688557284</v>
       </c>
       <c r="U211">
-        <v>1616.994782778479</v>
+        <v>1619.424834963477</v>
       </c>
       <c r="V211">
-        <v>423.0537767256614</v>
+        <v>462.0475506483281</v>
       </c>
       <c r="W211">
-        <v>4106.247664938992</v>
+        <v>4097.658311737394</v>
       </c>
       <c r="X211">
-        <v>1589.217469008521</v>
+        <v>1606.329446857418</v>
       </c>
       <c r="Z211">
-        <v>1557.31005886853</v>
+        <v>1557.519571859096</v>
       </c>
       <c r="AA211">
-        <v>2434.23439709187</v>
+        <v>2425.696511786188</v>
       </c>
       <c r="AD211">
-        <v>1780.283305890158</v>
+        <v>1781.127842562781</v>
       </c>
       <c r="AE211">
         <v>164.3758607372887</v>
       </c>
       <c r="AF211">
-        <v>353.8709273982237</v>
+        <v>374.6761289059069</v>
       </c>
       <c r="AG211">
-        <v>1566.905171673542</v>
+        <v>1584.017149522439</v>
       </c>
       <c r="AH211">
-        <v>2122.830076730514</v>
+        <v>2103.224133440947</v>
       </c>
       <c r="AI211">
-        <v>762.1035031796422</v>
+        <v>762.8367986466193</v>
       </c>
       <c r="AJ211">
-        <v>558.2492610444967</v>
+        <v>551.6218459945027</v>
       </c>
       <c r="AK211">
-        <v>1452.61892204119</v>
+        <v>1455.048974226188</v>
       </c>
       <c r="AL211">
-        <v>69.18284932743762</v>
+        <v>87.37142174242121</v>
       </c>
       <c r="AM211">
         <v>22.31229733497988</v>
       </c>
       <c r="AN211">
-        <v>1639.624864952847</v>
+        <v>1631.711702962215</v>
       </c>
       <c r="AP211">
         <v>596.8118790418752</v>
@@ -39643,13 +39643,13 @@
         <v>77.35743394130677</v>
       </c>
       <c r="AS211">
-        <v>1244.829203797028</v>
+        <v>1245.856544891191</v>
       </c>
       <c r="AT211">
         <v>0.6164046564976617</v>
       </c>
       <c r="AU211">
-        <v>1245.445608453526</v>
+        <v>1246.472949547689</v>
       </c>
       <c r="AY211">
         <v>19794.5</v>
@@ -39796,19 +39796,19 @@
         <v>543.5394813488216</v>
       </c>
       <c r="CV211">
-        <v>238.1021220820002</v>
+        <v>229.4917639326191</v>
       </c>
       <c r="CW211">
-        <v>218.5640218308206</v>
+        <v>219.2973172977977</v>
       </c>
       <c r="CX211">
-        <v>1096.085383604025</v>
+        <v>1088.172221613394</v>
       </c>
       <c r="CY211">
-        <v>2666.369558079336</v>
+        <v>2646.763614789769</v>
       </c>
       <c r="CZ211">
-        <v>2299.537830044497</v>
+        <v>2292.910414994503</v>
       </c>
     </row>
     <row r="212">
@@ -39816,94 +39816,94 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>23606.65773015176</v>
+        <v>23606.09985360315</v>
       </c>
       <c r="C212">
         <v>20182.76868283282</v>
       </c>
       <c r="D212">
-        <v>116.978074204947</v>
+        <v>116.9678003533569</v>
       </c>
       <c r="E212">
-        <v>15749.10021980565</v>
+        <v>15748.44377024526</v>
       </c>
       <c r="G212">
         <v>114.5386222883721</v>
       </c>
       <c r="H212">
-        <v>115.6352420918661</v>
+        <v>115.6414738939441</v>
       </c>
       <c r="I212">
-        <v>122.4077464552159</v>
+        <v>122.1914044911424</v>
       </c>
       <c r="J212">
-        <v>122.236345092375</v>
+        <v>121.9813333086361</v>
       </c>
       <c r="K212">
-        <v>123.1529243314695</v>
+        <v>123.099622688147</v>
       </c>
       <c r="O212">
         <v>951.405590278261</v>
       </c>
       <c r="P212">
-        <v>773.6219275744032</v>
+        <v>765.0999120632116</v>
       </c>
       <c r="R212">
-        <v>3789.036096691753</v>
+        <v>3761.339412551121</v>
       </c>
       <c r="T212">
-        <v>2365.697655043192</v>
+        <v>2359.857878414072</v>
       </c>
       <c r="U212">
-        <v>1635.461357127309</v>
+        <v>1637.916013941236</v>
       </c>
       <c r="V212">
-        <v>464.3191593150964</v>
+        <v>505.882034906478</v>
       </c>
       <c r="W212">
-        <v>4134.226271460966</v>
+        <v>4125.578393262068</v>
       </c>
       <c r="X212">
-        <v>1612.465892654136</v>
+        <v>1629.829296473901</v>
       </c>
       <c r="Z212">
-        <v>1572.246359020915</v>
+        <v>1572.457881469324</v>
       </c>
       <c r="AA212">
-        <v>2457.101417096689</v>
+        <v>2448.483327520491</v>
       </c>
       <c r="AD212">
-        <v>1801.796039698412</v>
+        <v>1802.650781652728</v>
       </c>
       <c r="AE212">
         <v>168.1344589478088</v>
       </c>
       <c r="AF212">
-        <v>394.4358236580037</v>
+        <v>417.6259649148436</v>
       </c>
       <c r="AG212">
-        <v>1589.927680089901</v>
+        <v>1607.291083909666</v>
       </c>
       <c r="AH212">
-        <v>2134.008715599924</v>
+        <v>2114.29952911528</v>
       </c>
       <c r="AI212">
-        <v>769.4129060861806</v>
+        <v>770.1532346556107</v>
       </c>
       <c r="AJ212">
-        <v>563.9016153447795</v>
+        <v>557.2070967613433</v>
       </c>
       <c r="AK212">
-        <v>1467.3268981795</v>
+        <v>1469.781554993427</v>
       </c>
       <c r="AL212">
-        <v>69.88333565709276</v>
+        <v>88.25606999163443</v>
       </c>
       <c r="AM212">
         <v>22.53821256423535</v>
       </c>
       <c r="AN212">
-        <v>1655.02738109183</v>
+        <v>1647.039883435841</v>
       </c>
       <c r="AP212">
         <v>590.6885639622172</v>
@@ -39915,13 +39915,13 @@
         <v>78.09937601365499</v>
       </c>
       <c r="AS212">
-        <v>1250.313005184843</v>
+        <v>1251.344871987835</v>
       </c>
       <c r="AT212">
         <v>0.619120081794921</v>
       </c>
       <c r="AU212">
-        <v>1250.932125266638</v>
+        <v>1251.96399206963</v>
       </c>
       <c r="AY212">
         <v>19881.7</v>
@@ -39948,7 +39948,7 @@
         <v>0.005185825410544354</v>
       </c>
       <c r="BH212">
-        <v>0.01183582309122277</v>
+        <v>0.01183582309122278</v>
       </c>
       <c r="BI212">
         <v>0.007260626229012246</v>
@@ -40005,7 +40005,7 @@
         <v>0.005265913175032333</v>
       </c>
       <c r="CA212">
-        <v>0.0120838822321585</v>
+        <v>0.01208388223215851</v>
       </c>
       <c r="CB212">
         <v>0.02286587698255294</v>
@@ -40023,7 +40023,7 @@
         <v>-0.0102600422255138</v>
       </c>
       <c r="CG212">
-        <v>0.0120838822321585</v>
+        <v>0.01208388223215851</v>
       </c>
       <c r="CH212">
         <v>1762.330095</v>
@@ -40068,19 +40068,19 @@
         <v>537.9627433189488</v>
       </c>
       <c r="CV212">
-        <v>235.6591842554544</v>
+        <v>227.1371687442628</v>
       </c>
       <c r="CW212">
-        <v>231.4501627672317</v>
+        <v>232.1904913366619</v>
       </c>
       <c r="CX212">
-        <v>1117.064637772881</v>
+        <v>1109.077140116893</v>
       </c>
       <c r="CY212">
-        <v>2671.971458918873</v>
+        <v>2652.262272434229</v>
       </c>
       <c r="CZ212">
-        <v>2326.231710344779</v>
+        <v>2319.537191761343</v>
       </c>
     </row>
     <row r="213">
@@ -40088,94 +40088,94 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>23846.75936342269</v>
+        <v>23846.19581275146</v>
       </c>
       <c r="C213">
-        <v>20292.94029270382</v>
+        <v>20292.94029270383</v>
       </c>
       <c r="D213">
-        <v>117.4809893992933</v>
+        <v>117.4706713780919</v>
       </c>
       <c r="E213">
-        <v>15938.31923299399</v>
+        <v>15937.65489645998</v>
       </c>
       <c r="G213">
         <v>115.0388791654047</v>
       </c>
       <c r="H213">
-        <v>116.261472570254</v>
+        <v>116.2677381210779</v>
       </c>
       <c r="I213">
-        <v>123.3137823825407</v>
+        <v>123.0958391015757</v>
       </c>
       <c r="J213">
-        <v>123.1411123435152</v>
+        <v>122.8842130171603</v>
       </c>
       <c r="K213">
-        <v>124.0644759058646</v>
+        <v>124.0107797351921</v>
       </c>
       <c r="O213">
         <v>961.1388873035537</v>
       </c>
       <c r="P213">
-        <v>765.6809605056582</v>
+        <v>757.2464205973698</v>
       </c>
       <c r="R213">
-        <v>3811.872562297073</v>
+        <v>3784.024841389477</v>
       </c>
       <c r="T213">
-        <v>2394.137324934136</v>
+        <v>2388.240229358662</v>
       </c>
       <c r="U213">
-        <v>1651.392862089086</v>
+        <v>1653.872485042518</v>
       </c>
       <c r="V213">
-        <v>488.2839849991419</v>
+        <v>531.4009080357172</v>
       </c>
       <c r="W213">
-        <v>4161.378941259043</v>
+        <v>4152.674265738042</v>
       </c>
       <c r="X213">
-        <v>1635.721221082499</v>
+        <v>1653.336090029481</v>
       </c>
       <c r="Z213">
-        <v>1585.988572429177</v>
+        <v>1586.201943688753</v>
       </c>
       <c r="AA213">
-        <v>2477.260500521989</v>
+        <v>2468.571704549415</v>
       </c>
       <c r="AD213">
-        <v>1824.500306450289</v>
+        <v>1825.36581892963</v>
       </c>
       <c r="AE213">
         <v>169.1418866080678</v>
       </c>
       <c r="AF213">
-        <v>417.6898709158318</v>
+        <v>442.2471918464171</v>
       </c>
       <c r="AG213">
-        <v>1612.953773964624</v>
+        <v>1630.568642911606</v>
       </c>
       <c r="AH213">
-        <v>2143.266647240614</v>
+        <v>2123.471956746622</v>
       </c>
       <c r="AI213">
-        <v>776.1379567080762</v>
+        <v>776.8847561165927</v>
       </c>
       <c r="AJ213">
-        <v>569.6370184838466</v>
+        <v>562.8744104290325</v>
       </c>
       <c r="AK213">
-        <v>1482.250975481018</v>
+        <v>1484.73059843445</v>
       </c>
       <c r="AL213">
-        <v>70.59411408331009</v>
+        <v>89.15371618930007</v>
       </c>
       <c r="AM213">
         <v>22.76744711787436</v>
       </c>
       <c r="AN213">
-        <v>1668.605915056459</v>
+        <v>1660.552884642854</v>
       </c>
       <c r="AP213">
         <v>584.6253459132987</v>
@@ -40187,13 +40187,13 @@
         <v>78.78200331698679</v>
       </c>
       <c r="AS213">
-        <v>1255.865982966312</v>
+        <v>1256.902432568495</v>
       </c>
       <c r="AT213">
         <v>0.6218697613103795</v>
       </c>
       <c r="AU213">
-        <v>1256.487852727622</v>
+        <v>1257.524302329806</v>
       </c>
       <c r="AY213">
         <v>19970</v>
@@ -40229,7 +40229,7 @@
         <v>0</v>
       </c>
       <c r="BK213">
-        <v>-0.00135521758771262</v>
+        <v>-0.001355217587712621</v>
       </c>
       <c r="BL213">
         <v>0.0007967333930882781</v>
@@ -40340,19 +40340,19 @@
         <v>532.4407379612392</v>
       </c>
       <c r="CV213">
-        <v>233.240222544419</v>
+        <v>224.8056826361307</v>
       </c>
       <c r="CW213">
-        <v>243.6972187468371</v>
+        <v>244.4440181553536</v>
       </c>
       <c r="CX213">
-        <v>1136.16517709522</v>
+        <v>1128.112146681615</v>
       </c>
       <c r="CY213">
-        <v>2675.707385201854</v>
+        <v>2655.912694707861</v>
       </c>
       <c r="CZ213">
-        <v>2354.174073483847</v>
+        <v>2347.411465429032</v>
       </c>
     </row>
     <row r="214">
@@ -40360,97 +40360,97 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>24088.12524399473</v>
+        <v>24087.55598932398</v>
       </c>
       <c r="C214">
         <v>20403.32135430462</v>
       </c>
       <c r="D214">
-        <v>118.0844876325088</v>
+        <v>118.0741166077738</v>
       </c>
       <c r="E214">
-        <v>16122.95868810736</v>
+        <v>16122.28665548358</v>
       </c>
       <c r="G214">
         <v>115.5424086030413</v>
       </c>
       <c r="H214">
-        <v>116.8688724528375</v>
+        <v>116.8751707375908</v>
       </c>
       <c r="I214">
-        <v>124.2328689441611</v>
+        <v>124.0133012807722</v>
       </c>
       <c r="J214">
-        <v>124.0589119548094</v>
+        <v>123.8000978974814</v>
       </c>
       <c r="K214">
-        <v>124.9891575625008</v>
+        <v>124.9350611816659</v>
       </c>
       <c r="O214">
         <v>970.8721843288464</v>
       </c>
       <c r="P214">
-        <v>757.739993436913</v>
+        <v>749.3929291315278</v>
       </c>
       <c r="R214">
-        <v>3835.072915134779</v>
+        <v>3807.068711477103</v>
       </c>
       <c r="T214">
-        <v>2422.60719440282</v>
+        <v>2416.652421358107</v>
       </c>
       <c r="U214">
-        <v>1667.402949292029</v>
+        <v>1669.907669843357</v>
       </c>
       <c r="V214">
-        <v>512.2525532637554</v>
+        <v>556.9245076916664</v>
       </c>
       <c r="W214">
-        <v>4190.802937047835</v>
+        <v>4182.036713097938</v>
       </c>
       <c r="X214">
-        <v>1658.97775653791</v>
+        <v>1676.844090612108</v>
       </c>
       <c r="Z214">
-        <v>1601.251676658345</v>
+        <v>1601.46710134241</v>
       </c>
       <c r="AA214">
-        <v>2496.717526315563</v>
+        <v>2487.960486358427</v>
       </c>
       <c r="AD214">
-        <v>1847.204573202166</v>
+        <v>1848.080856206532</v>
       </c>
       <c r="AE214">
-        <v>170.1493142683267</v>
+        <v>170.1493142683268</v>
       </c>
       <c r="AF214">
-        <v>440.94391817366</v>
+        <v>466.8684187779907</v>
       </c>
       <c r="AG214">
-        <v>1635.979867839348</v>
+        <v>1653.846201913546</v>
       </c>
       <c r="AH214">
-        <v>2153.361350381115</v>
+        <v>2133.473427659321</v>
       </c>
       <c r="AI214">
-        <v>783.6072882880035</v>
+        <v>784.3612746822325</v>
       </c>
       <c r="AJ214">
-        <v>575.4026212006534</v>
+        <v>568.5715651515757</v>
       </c>
       <c r="AK214">
-        <v>1497.253635023702</v>
+        <v>1499.758355575031</v>
       </c>
       <c r="AL214">
-        <v>71.30863509009546</v>
+        <v>90.05608891367564</v>
       </c>
       <c r="AM214">
         <v>22.99788869856192</v>
       </c>
       <c r="AN214">
-        <v>1681.711564753664</v>
+        <v>1673.595283817782</v>
       </c>
       <c r="AP214">
-        <v>578.56212786438</v>
+        <v>578.5621278643801</v>
       </c>
       <c r="AQ214">
         <v>526.9187326035294</v>
@@ -40459,13 +40459,13 @@
         <v>79.54017897405858</v>
       </c>
       <c r="AS214">
-        <v>1261.500714667552</v>
+        <v>1262.541814539359</v>
       </c>
       <c r="AT214">
         <v>0.6246599230837099</v>
       </c>
       <c r="AU214">
-        <v>1262.125374590636</v>
+        <v>1263.166474462442</v>
       </c>
       <c r="AY214">
         <v>20059.6</v>
@@ -40612,19 +40612,19 @@
         <v>526.9187326035294</v>
       </c>
       <c r="CV214">
-        <v>230.8212608333836</v>
+        <v>222.4741965279984</v>
       </c>
       <c r="CW214">
-        <v>256.6885556844741</v>
+        <v>257.4425420787031</v>
       </c>
       <c r="CX214">
-        <v>1154.792832150134</v>
+        <v>1146.676551214252</v>
       </c>
       <c r="CY214">
-        <v>2680.280082984644</v>
+        <v>2660.39216026285</v>
       </c>
       <c r="CZ214">
-        <v>2382.146636200653</v>
+        <v>2375.315580151576</v>
       </c>
     </row>
     <row r="215">
@@ -40632,112 +40632,112 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>24319.48250009958</v>
+        <v>24318.90777795482</v>
       </c>
       <c r="C215">
         <v>20500.08805346888</v>
       </c>
       <c r="D215">
-        <v>118.5874028268551</v>
+        <v>118.5769876325088</v>
       </c>
       <c r="E215">
-        <v>16277.62285400278</v>
+        <v>16276.94437471079</v>
       </c>
       <c r="G215">
         <v>116.0702468573421</v>
       </c>
       <c r="H215">
-        <v>117.4755405283336</v>
+        <v>117.4818715075778</v>
       </c>
       <c r="I215">
-        <v>125.1676275109013</v>
+        <v>124.946407766577</v>
       </c>
       <c r="J215">
-        <v>124.9923616265091</v>
+        <v>124.7316001887548</v>
       </c>
       <c r="K215">
-        <v>125.9296066302407</v>
+        <v>125.8751032149724</v>
       </c>
       <c r="O215">
         <v>980.6054813541391</v>
       </c>
       <c r="P215">
-        <v>749.7990263681678</v>
+        <v>741.5394376656858</v>
       </c>
       <c r="R215">
-        <v>3860.33174296864</v>
+        <v>3832.158598499389</v>
       </c>
       <c r="T215">
-        <v>2450.837983881064</v>
+        <v>2444.828371673291</v>
       </c>
       <c r="U215">
-        <v>1682.790927085738</v>
+        <v>1685.319704522698</v>
       </c>
       <c r="V215">
-        <v>536.1914927655386</v>
+        <v>582.4106890111617</v>
       </c>
       <c r="W215">
-        <v>4222.601500917828</v>
+        <v>4213.768761472844</v>
       </c>
       <c r="X215">
-        <v>1682.22473636252</v>
+        <v>1700.342535563935</v>
       </c>
       <c r="Z215">
-        <v>1615.255541088731</v>
+        <v>1615.472849785231</v>
       </c>
       <c r="AA215">
-        <v>2518.381018951707</v>
+        <v>2509.54799600145</v>
       </c>
       <c r="AD215">
-        <v>1869.908839954043</v>
+        <v>1870.795893483433</v>
       </c>
       <c r="AE215">
-        <v>171.1567419285857</v>
+        <v>171.1567419285858</v>
       </c>
       <c r="AF215">
-        <v>464.1979654314882</v>
+        <v>491.4896457095643</v>
       </c>
       <c r="AG215">
-        <v>1659.005961714072</v>
+        <v>1677.123760915487</v>
       </c>
       <c r="AH215">
-        <v>2164.02832082015</v>
+        <v>2144.041880548698</v>
       </c>
       <c r="AI215">
-        <v>790.4603835208204</v>
+        <v>791.2209639585725</v>
       </c>
       <c r="AJ215">
-        <v>580.9291439270207</v>
+        <v>574.0324781898579</v>
       </c>
       <c r="AK215">
-        <v>1511.634185157153</v>
+        <v>1514.162962594112</v>
       </c>
       <c r="AL215">
-        <v>71.99352733405036</v>
+        <v>90.92104330159738</v>
       </c>
       <c r="AM215">
         <v>23.21877464844839</v>
       </c>
       <c r="AN215">
-        <v>1696.30342214849</v>
+        <v>1688.116717950691</v>
       </c>
       <c r="AP215">
         <v>572.4989098154614</v>
       </c>
       <c r="AQ215">
-        <v>521.3967272458196</v>
+        <v>521.3967272458197</v>
       </c>
       <c r="AR215">
         <v>80.23580346542266</v>
       </c>
       <c r="AS215">
-        <v>1267.160601421031</v>
+        <v>1268.206372322592</v>
       </c>
       <c r="AT215">
-        <v>0.6274625409363856</v>
+        <v>0.6274625409363857</v>
       </c>
       <c r="AU215">
-        <v>1267.788063961968</v>
+        <v>1268.833834863528</v>
       </c>
       <c r="AY215">
         <v>20149.6</v>
@@ -40785,7 +40785,7 @@
         <v>0.008745573625009717</v>
       </c>
       <c r="BO215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="BP215">
         <v>0.005565862708719838</v>
@@ -40851,10 +40851,10 @@
         <v>0.004953636990441712</v>
       </c>
       <c r="CK215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="CL215">
-        <v>0.008676789587852562</v>
+        <v>0.008676789587852563</v>
       </c>
       <c r="CM215">
         <v>0.004486629843067691</v>
@@ -40881,22 +40881,22 @@
         <v>0.007524245191184997</v>
       </c>
       <c r="CU215">
-        <v>521.3967272458196</v>
+        <v>521.3967272458197</v>
       </c>
       <c r="CV215">
-        <v>228.4022991223482</v>
+        <v>220.1427104198662</v>
       </c>
       <c r="CW215">
-        <v>269.0636562750008</v>
+        <v>269.8242367127529</v>
       </c>
       <c r="CX215">
-        <v>1174.90669490267</v>
+        <v>1166.719990704871</v>
       </c>
       <c r="CY215">
-        <v>2685.42504806597</v>
+        <v>2665.438607794518</v>
       </c>
       <c r="CZ215">
-        <v>2409.880118927021</v>
+        <v>2402.983453189858</v>
       </c>
     </row>
     <row r="216">
@@ -40904,97 +40904,97 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>24567.38032506074</v>
+        <v>24566.79974455244</v>
       </c>
       <c r="C216">
         <v>20607.64151671748</v>
       </c>
       <c r="D216">
-        <v>119.1909010600707</v>
+        <v>119.1804328621908</v>
       </c>
       <c r="E216">
-        <v>16457.78683190653</v>
+        <v>16457.10084307034</v>
       </c>
       <c r="G216">
         <v>116.6046578103114</v>
       </c>
       <c r="H216">
-        <v>118.0978015326258</v>
+        <v>118.1041660466934</v>
       </c>
       <c r="I216">
-        <v>126.1215867566999</v>
+        <v>125.8986809963932</v>
       </c>
       <c r="J216">
-        <v>125.9449850915294</v>
+        <v>125.6822362726172</v>
       </c>
       <c r="K216">
-        <v>126.8893732644228</v>
+        <v>126.8344544539125</v>
       </c>
       <c r="O216">
         <v>990.3387783794318</v>
       </c>
       <c r="P216">
-        <v>741.8580592994227</v>
+        <v>733.6859461998439</v>
       </c>
       <c r="R216">
-        <v>3887.095122954102</v>
+        <v>3858.738546220832</v>
       </c>
       <c r="T216">
-        <v>2479.463884501403</v>
+        <v>2473.394742456148</v>
       </c>
       <c r="U216">
-        <v>1699.207022534708</v>
+        <v>1701.761576771253</v>
       </c>
       <c r="V216">
-        <v>560.1793976964203</v>
+        <v>607.9587090551122</v>
       </c>
       <c r="W216">
-        <v>4254.09033851636</v>
+        <v>4245.191731454488</v>
       </c>
       <c r="X216">
-        <v>1705.48750812435</v>
+        <v>1723.856772452981</v>
       </c>
       <c r="Z216">
-        <v>1630.794567270309</v>
+        <v>1631.013966512509</v>
       </c>
       <c r="AA216">
-        <v>2539.843923693071</v>
+        <v>2530.935621295927</v>
       </c>
       <c r="AD216">
-        <v>1892.613106705921</v>
+        <v>1893.510930760335</v>
       </c>
       <c r="AE216">
         <v>172.1641695888448</v>
       </c>
       <c r="AF216">
-        <v>487.4520126893163</v>
+        <v>516.1108726411378</v>
       </c>
       <c r="AG216">
-        <v>1682.032055588796</v>
+        <v>1700.401319917427</v>
       </c>
       <c r="AH216">
-        <v>2176.334953201479</v>
+        <v>2156.234851860685</v>
       </c>
       <c r="AI216">
-        <v>798.0647435013789</v>
+        <v>798.8326408490779</v>
       </c>
       <c r="AJ216">
-        <v>586.8507777954828</v>
+        <v>579.8838116958135</v>
       </c>
       <c r="AK216">
-        <v>1527.042852945863</v>
+        <v>1529.597407182409</v>
       </c>
       <c r="AL216">
-        <v>72.72738500710405</v>
+        <v>91.84783641397439</v>
       </c>
       <c r="AM216">
         <v>23.45545253555352</v>
       </c>
       <c r="AN216">
-        <v>1710.760169752622</v>
+        <v>1702.503694360147</v>
       </c>
       <c r="AP216">
-        <v>566.4356917665428</v>
+        <v>566.4356917665429</v>
       </c>
       <c r="AQ216">
         <v>515.87472188811</v>
@@ -41003,13 +41003,13 @@
         <v>81.0076852011812</v>
       </c>
       <c r="AS216">
-        <v>1272.902242094282</v>
+        <v>1273.952751496027</v>
       </c>
       <c r="AT216">
         <v>0.6303056410469334</v>
       </c>
       <c r="AU216">
-        <v>1273.532547735329</v>
+        <v>1274.583057137074</v>
       </c>
       <c r="AY216">
         <v>20240.90000000001</v>
@@ -41156,19 +41156,19 @@
         <v>515.87472188811</v>
       </c>
       <c r="CV216">
-        <v>225.9833374113127</v>
+        <v>217.8112243117339</v>
       </c>
       <c r="CW216">
-        <v>282.1900216132689</v>
+        <v>282.9579189609679</v>
       </c>
       <c r="CX216">
-        <v>1194.885447864513</v>
+        <v>1186.628972472037</v>
       </c>
       <c r="CY216">
-        <v>2692.209675089589</v>
+        <v>2672.109573748795</v>
       </c>
       <c r="CZ216">
-        <v>2438.008712795483</v>
+        <v>2431.041746695813</v>
       </c>
     </row>
     <row r="217">
@@ -41176,94 +41176,94 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>24829.39557821773</v>
+        <v>24828.80880572043</v>
       </c>
       <c r="C217">
         <v>20725.45811472592</v>
       </c>
       <c r="D217">
-        <v>119.7943992932862</v>
+        <v>119.7838780918728</v>
       </c>
       <c r="E217">
-        <v>16645.75687471078</v>
+        <v>16645.06305096021</v>
       </c>
       <c r="G217">
         <v>117.1387034298066</v>
       </c>
       <c r="H217">
-        <v>118.7238434783608</v>
+        <v>118.7302417310138</v>
       </c>
       <c r="I217">
-        <v>127.0900971812568</v>
+        <v>126.8654796873913</v>
       </c>
       <c r="J217">
-        <v>126.91213936003</v>
+        <v>126.6473728455218</v>
       </c>
       <c r="K217">
-        <v>127.8637796601269</v>
+        <v>127.8084391181601</v>
       </c>
       <c r="O217">
         <v>995.9957623992539</v>
       </c>
       <c r="P217">
-        <v>750.2176821578402</v>
+        <v>741.9534816533832</v>
       </c>
       <c r="R217">
-        <v>3920.237829706089</v>
+        <v>3891.639498569302</v>
       </c>
       <c r="T217">
-        <v>2502.846122237667</v>
+        <v>2496.710799367636</v>
       </c>
       <c r="U217">
-        <v>1718.577917371722</v>
+        <v>1721.159716359891</v>
       </c>
       <c r="V217">
-        <v>573.4342982678629</v>
+        <v>622.1512274543302</v>
       </c>
       <c r="W217">
-        <v>4286.198628657814</v>
+        <v>4277.232858222656</v>
       </c>
       <c r="X217">
-        <v>1720.885885571287</v>
+        <v>1739.420581751474</v>
       </c>
       <c r="Z217">
-        <v>1646.51246949252</v>
+        <v>1646.733983345539</v>
       </c>
       <c r="AA217">
-        <v>2561.507416329215</v>
+        <v>2552.52313093895</v>
       </c>
       <c r="AD217">
-        <v>1909.736481955629</v>
+        <v>1910.642429053331</v>
       </c>
       <c r="AE217">
         <v>175.248894944124</v>
       </c>
       <c r="AF217">
-        <v>499.9312634380286</v>
+        <v>529.3238183797176</v>
       </c>
       <c r="AG217">
-        <v>1697.18027667992</v>
+        <v>1715.714972860106</v>
       </c>
       <c r="AH217">
-        <v>2194.885802558641</v>
+        <v>2174.614370076246</v>
       </c>
       <c r="AI217">
-        <v>805.7566403577345</v>
+        <v>806.5319388433021</v>
       </c>
       <c r="AJ217">
-        <v>593.109640282038</v>
+        <v>586.0683703143051</v>
       </c>
       <c r="AK217">
-        <v>1543.329022427598</v>
+        <v>1545.910821415767</v>
       </c>
       <c r="AL217">
-        <v>73.50303482983439</v>
+        <v>92.82740907461255</v>
       </c>
       <c r="AM217">
         <v>23.70560889136756</v>
       </c>
       <c r="AN217">
-        <v>1725.352027147448</v>
+        <v>1717.025128493056</v>
       </c>
       <c r="AP217">
         <v>572.818568783727</v>
@@ -41275,13 +41275,13 @@
         <v>81.78845238105416</v>
       </c>
       <c r="AS217">
-        <v>1278.725636687306</v>
+        <v>1279.780952059664</v>
       </c>
       <c r="AT217">
         <v>0.6331892234153531</v>
       </c>
       <c r="AU217">
-        <v>1279.358825910721</v>
+        <v>1280.41414128308</v>
       </c>
       <c r="AY217">
         <v>20333.5</v>
@@ -41320,7 +41320,7 @@
         <v>0.0006773538044704264</v>
       </c>
       <c r="BL217">
-        <v>0.0008437980840820813</v>
+        <v>0.0008437980840820814</v>
       </c>
       <c r="BM217">
         <v>0.007547627715083216</v>
@@ -41428,19 +41428,19 @@
         <v>521.6878529353728</v>
       </c>
       <c r="CV217">
-        <v>228.5298292224674</v>
+        <v>220.2656287180104</v>
       </c>
       <c r="CW217">
-        <v>284.0687874223617</v>
+        <v>284.8440859079293</v>
       </c>
       <c r="CX217">
-        <v>1203.664174212075</v>
+        <v>1195.337275557684</v>
       </c>
       <c r="CY217">
-        <v>2716.573655494013</v>
+        <v>2696.302223011619</v>
       </c>
       <c r="CZ217">
-        <v>2461.015885782038</v>
+        <v>2453.974615814305</v>
       </c>
     </row>
     <row r="218">
@@ -41448,94 +41448,94 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>25104.79078197824</v>
+        <v>25104.19750129466</v>
       </c>
       <c r="C218">
         <v>20849.13936116856</v>
       </c>
       <c r="D218">
-        <v>120.3978975265018</v>
+        <v>120.3873233215548</v>
       </c>
       <c r="E218">
-        <v>16845.38397443313</v>
+        <v>16844.681829882</v>
       </c>
       <c r="G218">
         <v>117.6977901492788</v>
       </c>
       <c r="H218">
-        <v>119.3564648281164</v>
+        <v>119.3628971739315</v>
       </c>
       <c r="I218">
-        <v>128.0785600867128</v>
+        <v>127.852195595516</v>
       </c>
       <c r="J218">
-        <v>127.899218170982</v>
+        <v>127.6323923939191</v>
       </c>
       <c r="K218">
-        <v>128.858260000835</v>
+        <v>128.8024890392358</v>
       </c>
       <c r="O218">
         <v>1001.652746419076</v>
       </c>
       <c r="P218">
-        <v>758.5773050162576</v>
+        <v>750.2210171069224</v>
       </c>
       <c r="R218">
-        <v>3953.640713739482</v>
+        <v>3924.801799908904</v>
       </c>
       <c r="T218">
-        <v>2526.547972171677</v>
+        <v>2520.342674109662</v>
       </c>
       <c r="U218">
-        <v>1738.780474261081</v>
+        <v>1741.390909268849</v>
       </c>
       <c r="V218">
-        <v>586.7288078169843</v>
+        <v>636.3937682612285</v>
       </c>
       <c r="W218">
-        <v>4319.649065975598</v>
+        <v>4310.613324694959</v>
       </c>
       <c r="X218">
-        <v>1736.297037387822</v>
+        <v>1754.997165419564</v>
       </c>
       <c r="Z218">
-        <v>1662.386536274425</v>
+        <v>1662.610185747891</v>
       </c>
       <c r="AA218">
-        <v>2584.374436334033</v>
+        <v>2575.309946673253</v>
       </c>
       <c r="AD218">
-        <v>1926.859857205338</v>
+        <v>1927.773927346327</v>
       </c>
       <c r="AE218">
         <v>178.3336202994032</v>
       </c>
       <c r="AF218">
-        <v>512.4105141867409</v>
+        <v>542.5367641182975</v>
       </c>
       <c r="AG218">
-        <v>1712.328497771043</v>
+        <v>1731.028625802785</v>
       </c>
       <c r="AH218">
-        <v>2212.88617045305</v>
+        <v>2192.448490942221</v>
       </c>
       <c r="AI218">
-        <v>813.5249597333811</v>
+        <v>814.307732890513</v>
       </c>
       <c r="AJ218">
-        <v>599.6881149663387</v>
+        <v>592.5687467633352</v>
       </c>
       <c r="AK218">
-        <v>1560.446853961678</v>
+        <v>1563.057288969446</v>
       </c>
       <c r="AL218">
-        <v>74.31829363024336</v>
+        <v>93.85700414293106</v>
       </c>
       <c r="AM218">
         <v>23.96853961677886</v>
       </c>
       <c r="AN218">
-        <v>1740.754543286431</v>
+        <v>1732.353308966683</v>
       </c>
       <c r="AP218">
         <v>579.2014458009111</v>
@@ -41547,13 +41547,13 @@
         <v>82.57697684056566</v>
       </c>
       <c r="AS218">
-        <v>1284.611918910924</v>
+        <v>1285.672092154227</v>
       </c>
       <c r="AT218">
         <v>0.6361039459821358</v>
       </c>
       <c r="AU218">
-        <v>1285.248022856906</v>
+        <v>1286.308196100209</v>
       </c>
       <c r="AY218">
         <v>20427.1</v>
@@ -41700,19 +41700,19 @@
         <v>527.5009839826356</v>
       </c>
       <c r="CV218">
-        <v>231.076321033622</v>
+        <v>222.7200331242868</v>
       </c>
       <c r="CW218">
-        <v>286.0239757507455</v>
+        <v>286.8067489078774</v>
       </c>
       <c r="CX218">
-        <v>1213.253559303796</v>
+        <v>1204.852324984047</v>
       </c>
       <c r="CY218">
-        <v>2740.387154435686</v>
+        <v>2719.949474924857</v>
       </c>
       <c r="CZ218">
-        <v>2484.342670966339</v>
+        <v>2477.223302763335</v>
       </c>
     </row>
     <row r="219">
@@ -41720,94 +41720,94 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>25375.33970441778</v>
+        <v>25374.74003007608</v>
       </c>
       <c r="C219">
         <v>20966.01342639294</v>
       </c>
       <c r="D219">
-        <v>121.0013957597173</v>
+        <v>120.9907685512367</v>
       </c>
       <c r="E219">
-        <v>17033.97850242943</v>
+        <v>17033.2684969343</v>
       </c>
       <c r="G219">
         <v>118.2672921629579</v>
       </c>
       <c r="H219">
-        <v>119.970209236099</v>
+        <v>119.9766746577619</v>
       </c>
       <c r="I219">
-        <v>129.0746791627043</v>
+        <v>128.8465541427536</v>
       </c>
       <c r="J219">
-        <v>128.8939424319221</v>
+        <v>128.6250414422216</v>
       </c>
       <c r="K219">
-        <v>129.8604431203127</v>
+        <v>129.8042384052524</v>
       </c>
       <c r="O219">
         <v>1007.309730438898</v>
       </c>
       <c r="P219">
-        <v>766.9369278746751</v>
+        <v>758.4885525604618</v>
       </c>
       <c r="R219">
-        <v>3985.220019602897</v>
+        <v>3956.160641960793</v>
       </c>
       <c r="T219">
-        <v>2550.134057057684</v>
+        <v>2543.860158141414</v>
       </c>
       <c r="U219">
-        <v>1758.681799225968</v>
+        <v>1761.320366329502</v>
       </c>
       <c r="V219">
-        <v>600.0089708072613</v>
+        <v>650.6181907157387</v>
       </c>
       <c r="W219">
-        <v>4354.235166288739</v>
+        <v>4345.127078609224</v>
       </c>
       <c r="X219">
-        <v>1751.703562267338</v>
+        <v>1770.569122150635</v>
       </c>
       <c r="Z219">
-        <v>1678.352878668462</v>
+        <v>1678.578676176692</v>
       </c>
       <c r="AA219">
-        <v>2608.344689760137</v>
+        <v>2599.196126324561</v>
       </c>
       <c r="AD219">
-        <v>1943.983232455047</v>
+        <v>1944.905425639323</v>
       </c>
       <c r="AE219">
         <v>181.4183456546823</v>
       </c>
       <c r="AF219">
-        <v>524.8897649354532</v>
+        <v>555.7497098568773</v>
       </c>
       <c r="AG219">
-        <v>1727.476718862167</v>
+        <v>1746.342278745464</v>
       </c>
       <c r="AH219">
-        <v>2228.319856328673</v>
+        <v>2207.739635041493</v>
       </c>
       <c r="AI219">
-        <v>821.3384361841157</v>
+        <v>822.1287274629184</v>
       </c>
       <c r="AJ219">
-        <v>606.1508246026372</v>
+        <v>598.9547325020915</v>
       </c>
       <c r="AK219">
-        <v>1577.263453571286</v>
+        <v>1579.902020674819</v>
       </c>
       <c r="AL219">
-        <v>75.11920587180812</v>
+        <v>94.86848085886145</v>
       </c>
       <c r="AM219">
         <v>24.22684340517069</v>
       </c>
       <c r="AN219">
-        <v>1756.900163274224</v>
+        <v>1748.4210069193</v>
       </c>
       <c r="AP219">
         <v>585.5843228180952</v>
@@ -41819,13 +41819,13 @@
         <v>83.37008497596703</v>
       </c>
       <c r="AS219">
-        <v>1290.51077866066</v>
+        <v>1291.575820154974</v>
       </c>
       <c r="AT219">
         <v>0.6390248965885913</v>
       </c>
       <c r="AU219">
-        <v>1291.149803557249</v>
+        <v>1292.214845051563</v>
       </c>
       <c r="AY219">
         <v>20520.90000000001</v>
@@ -41909,10 +41909,10 @@
         <v>0.006974459907471253</v>
       </c>
       <c r="CA219">
-        <v>0.00888667392476794</v>
+        <v>0.008886673924767941</v>
       </c>
       <c r="CB219">
-        <v>0.01729749752234166</v>
+        <v>0.01729749752234167</v>
       </c>
       <c r="CC219">
         <v>0.0243540099260422</v>
@@ -41927,7 +41927,7 @@
         <v>0.01102013308747529</v>
       </c>
       <c r="CG219">
-        <v>0.00888667392476794</v>
+        <v>0.008886673924767941</v>
       </c>
       <c r="CH219">
         <v>1901.4028665</v>
@@ -41972,19 +41972,19 @@
         <v>533.3141150298984</v>
       </c>
       <c r="CV219">
-        <v>233.6228128447767</v>
+        <v>225.1744375305634</v>
       </c>
       <c r="CW219">
-        <v>288.0243211542173</v>
+        <v>288.81461243302</v>
       </c>
       <c r="CX219">
-        <v>1223.586048244326</v>
+        <v>1215.106891889401</v>
       </c>
       <c r="CY219">
-        <v>2761.633971358571</v>
+        <v>2741.053750071392</v>
       </c>
       <c r="CZ219">
-        <v>2507.553691102637</v>
+        <v>2500.357599002092</v>
       </c>
     </row>
     <row r="220">
@@ -41992,94 +41992,94 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>25643.57084013862</v>
+        <v>25642.96482691312</v>
       </c>
       <c r="C220">
         <v>21079.95516740021</v>
       </c>
       <c r="D220">
-        <v>121.6048939929329</v>
+        <v>121.5942137809187</v>
       </c>
       <c r="E220">
-        <v>17213.72615687182</v>
+        <v>17213.00865918557</v>
       </c>
       <c r="G220">
         <v>118.8372073947424</v>
       </c>
       <c r="H220">
-        <v>120.5977686867814</v>
+        <v>120.604267928811</v>
       </c>
       <c r="I220">
-        <v>130.0893118304185</v>
+        <v>129.8593935610166</v>
       </c>
       <c r="J220">
-        <v>129.9071543609406</v>
+        <v>129.6361395892784</v>
       </c>
       <c r="K220">
-        <v>130.8812525361363</v>
+        <v>130.8246060059938</v>
       </c>
       <c r="O220">
         <v>1012.96671445872</v>
       </c>
       <c r="P220">
-        <v>775.2965507330927</v>
+        <v>766.7560880140012</v>
       </c>
       <c r="R220">
-        <v>4016.306906441962</v>
+        <v>3987.036379042831</v>
       </c>
       <c r="T220">
-        <v>2573.664776051168</v>
+        <v>2567.322933572601</v>
       </c>
       <c r="U220">
-        <v>1778.439056748718</v>
+        <v>1781.105514940966</v>
       </c>
       <c r="V220">
-        <v>613.28227239983</v>
+        <v>664.8339478712805</v>
       </c>
       <c r="W220">
-        <v>4390.679624230646</v>
+        <v>4381.495302883061</v>
       </c>
       <c r="X220">
-        <v>1767.107874263931</v>
+        <v>1786.138865998783</v>
       </c>
       <c r="Z220">
-        <v>1694.436276161258</v>
+        <v>1694.664237452279</v>
       </c>
       <c r="AA220">
-        <v>2633.919646344473</v>
+        <v>2624.681380764241</v>
       </c>
       <c r="AD220">
-        <v>1961.106607704755</v>
+        <v>1962.036923932319</v>
       </c>
       <c r="AE220">
         <v>184.5030710099615</v>
       </c>
       <c r="AF220">
-        <v>537.3690156841653</v>
+        <v>568.962655595457</v>
       </c>
       <c r="AG220">
-        <v>1742.624939953291</v>
+        <v>1761.655931688143</v>
       </c>
       <c r="AH220">
-        <v>2242.180244854402</v>
+        <v>2221.472012383291</v>
       </c>
       <c r="AI220">
-        <v>829.2091960899469</v>
+        <v>830.0070606085214</v>
       </c>
       <c r="AJ220">
-        <v>612.5581683464129</v>
+        <v>605.2860096402823</v>
       </c>
       <c r="AK220">
-        <v>1593.935985738756</v>
+        <v>1596.602443931004</v>
       </c>
       <c r="AL220">
-        <v>75.91325671566476</v>
+        <v>95.87129227582355</v>
       </c>
       <c r="AM220">
         <v>24.48293431064016</v>
       </c>
       <c r="AN220">
-        <v>1774.12666158756</v>
+        <v>1765.56436665954</v>
       </c>
       <c r="AP220">
         <v>591.9671998352793</v>
@@ -42091,13 +42091,13 @@
         <v>84.16900767733624</v>
       </c>
       <c r="AS220">
-        <v>1296.441082225694</v>
+        <v>1297.511017921184</v>
       </c>
       <c r="AT220">
         <v>0.6419614172942282</v>
       </c>
       <c r="AU220">
-        <v>1297.083043642988</v>
+        <v>1298.152979338478</v>
       </c>
       <c r="AY220">
         <v>20615.2</v>
@@ -42124,7 +42124,7 @@
         <v>0.004987531172069959</v>
       </c>
       <c r="BH220">
-        <v>0.01055230018147268</v>
+        <v>0.01055230018147269</v>
       </c>
       <c r="BI220">
         <v>0.005705929579080227</v>
@@ -42244,19 +42244,19 @@
         <v>539.1272460771612</v>
       </c>
       <c r="CV220">
-        <v>236.1693046559315</v>
+        <v>227.62884193684</v>
       </c>
       <c r="CW220">
-        <v>290.0819500127857</v>
+        <v>290.8798145313602</v>
       </c>
       <c r="CX220">
-        <v>1234.999415510399</v>
+        <v>1226.437120582379</v>
       </c>
       <c r="CY220">
-        <v>2781.307490931563</v>
+        <v>2760.599258460452</v>
       </c>
       <c r="CZ220">
-        <v>2530.709345346413</v>
+        <v>2523.437186640282</v>
       </c>
     </row>
     <row r="221">
@@ -42264,94 +42264,94 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>25916.75361112217</v>
+        <v>25916.14114199498</v>
       </c>
       <c r="C221">
         <v>21195.99142570541</v>
       </c>
       <c r="D221">
-        <v>122.2083922261484</v>
+        <v>122.1976590106007</v>
       </c>
       <c r="E221">
-        <v>17395.45134775567</v>
+        <v>17394.72627545119</v>
       </c>
       <c r="G221">
         <v>119.4134210513517</v>
       </c>
       <c r="H221">
-        <v>121.2226124983205</v>
+        <v>121.2291454143658</v>
       </c>
       <c r="I221">
-        <v>131.1148769487319</v>
+        <v>130.8831461079985</v>
       </c>
       <c r="J221">
-        <v>130.931283432402</v>
+        <v>130.6581321032282</v>
       </c>
       <c r="K221">
-        <v>131.9130609557027</v>
+        <v>131.8559678500149</v>
       </c>
       <c r="O221">
         <v>1042.670768228261</v>
       </c>
       <c r="P221">
-        <v>785.8862559089233</v>
+        <v>777.2291397851768</v>
       </c>
       <c r="R221">
-        <v>4090.493986475462</v>
+        <v>4060.615140058155</v>
       </c>
       <c r="T221">
-        <v>2606.70192410011</v>
+        <v>2600.295187424959</v>
       </c>
       <c r="U221">
-        <v>1795.102990341498</v>
+        <v>1797.79785450116</v>
       </c>
       <c r="V221">
-        <v>626.0676585587403</v>
+        <v>678.5360954597539</v>
       </c>
       <c r="W221">
-        <v>4427.537050534501</v>
+        <v>4418.275631681246</v>
       </c>
       <c r="X221">
-        <v>1780.625842882434</v>
+        <v>1799.801614317104</v>
       </c>
       <c r="Z221">
-        <v>1710.637336833926</v>
+        <v>1710.867477737577</v>
       </c>
       <c r="AA221">
-        <v>2659.795484770978</v>
+        <v>2650.466461726741</v>
       </c>
       <c r="AD221">
-        <v>1987.618130330441</v>
+        <v>1988.561023181642</v>
       </c>
       <c r="AE221">
         <v>184.1866919907035</v>
       </c>
       <c r="AF221">
-        <v>549.3456925586606</v>
+        <v>581.6434795373543</v>
       </c>
       <c r="AG221">
-        <v>1755.882090143718</v>
+        <v>1775.057861578388</v>
       </c>
       <c r="AH221">
-        <v>2298.938161888527</v>
+        <v>2277.705727073196</v>
       </c>
       <c r="AI221">
-        <v>837.1375370285762</v>
+        <v>837.9430301913528</v>
       </c>
       <c r="AJ221">
-        <v>619.083793769669</v>
+        <v>611.7341642433177</v>
       </c>
       <c r="AK221">
-        <v>1610.916298350794</v>
+        <v>1613.611162510457</v>
       </c>
       <c r="AL221">
-        <v>76.72196600007965</v>
+        <v>96.89261592239966</v>
       </c>
       <c r="AM221">
         <v>24.74375273871648</v>
       </c>
       <c r="AN221">
-        <v>1791.555824586935</v>
+        <v>1782.909412984959</v>
       </c>
       <c r="AP221">
         <v>600.0528260567428</v>
@@ -42363,13 +42363,13 @@
         <v>84.97377515034391</v>
       </c>
       <c r="AS221">
-        <v>1302.402829606025</v>
+        <v>1303.477685452856</v>
       </c>
       <c r="AT221">
         <v>0.6449135080990466</v>
       </c>
       <c r="AU221">
-        <v>1303.047743114124</v>
+        <v>1304.122598960955</v>
       </c>
       <c r="AY221">
         <v>20710</v>
@@ -42423,16 +42423,16 @@
         <v>0.005743000717874924</v>
       </c>
       <c r="BQ221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BR221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BS221">
         <v>0.01065307061510912</v>
       </c>
       <c r="BT221">
-        <v>0.01065307061510889</v>
+        <v>0.0106530706151089</v>
       </c>
       <c r="BU221">
         <v>0.005181221993932006</v>
@@ -42459,7 +42459,7 @@
         <v>-0.001714762889994725</v>
       </c>
       <c r="CC221">
-        <v>0.02228762084328006</v>
+        <v>0.02228762084328007</v>
       </c>
       <c r="CD221">
         <v>0.007607575150842427</v>
@@ -42516,19 +42516,19 @@
         <v>546.4911361690445</v>
       </c>
       <c r="CV221">
-        <v>239.3951197398789</v>
+        <v>230.7380036161324</v>
       </c>
       <c r="CW221">
-        <v>290.6464008595317</v>
+        <v>291.4518940223084</v>
       </c>
       <c r="CX221">
-        <v>1245.064688417891</v>
+        <v>1236.418276815915</v>
       </c>
       <c r="CY221">
-        <v>2845.429298057572</v>
+        <v>2824.19686324224</v>
       </c>
       <c r="CZ221">
-        <v>2563.165793769669</v>
+        <v>2555.816164243317</v>
       </c>
     </row>
     <row r="222">
@@ -42536,94 +42536,94 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>26203.1056248257</v>
+        <v>26202.48638857906</v>
       </c>
       <c r="C222">
         <v>21322.18609290556</v>
       </c>
       <c r="D222">
-        <v>122.9124734982332</v>
+        <v>122.9016784452297</v>
       </c>
       <c r="E222">
-        <v>17594.766204882</v>
+        <v>17594.03282479177</v>
       </c>
       <c r="G222">
         <v>119.9865363488162</v>
       </c>
       <c r="H222">
-        <v>121.8589135069239</v>
+        <v>121.865480714435</v>
       </c>
       <c r="I222">
-        <v>132.1461353576677</v>
+        <v>131.91258188335</v>
       </c>
       <c r="J222">
-        <v>131.9610978224595</v>
+        <v>131.6857980749546</v>
       </c>
       <c r="K222">
-        <v>132.9505973247619</v>
+        <v>132.8930551644229</v>
       </c>
       <c r="O222">
         <v>1072.374821997801</v>
       </c>
       <c r="P222">
-        <v>796.475961084754</v>
+        <v>787.7021915563523</v>
       </c>
       <c r="R222">
-        <v>4159.367295114698</v>
+        <v>4128.928610607948</v>
       </c>
       <c r="T222">
-        <v>2640.053651083842</v>
+        <v>2633.578285598714</v>
       </c>
       <c r="U222">
-        <v>1812.585488946428</v>
+        <v>1815.310128431749</v>
       </c>
       <c r="V222">
-        <v>638.8920299319011</v>
+        <v>692.2874777014559</v>
       </c>
       <c r="W222">
-        <v>4463.981508476408</v>
+        <v>4454.643855955083</v>
       </c>
       <c r="X222">
-        <v>1794.15638469936</v>
+        <v>1813.476935833848</v>
       </c>
       <c r="Z222">
-        <v>1728.339820845939</v>
+        <v>1728.572343356479</v>
       </c>
       <c r="AA222">
-        <v>2685.470735302704</v>
+        <v>2676.051658340695</v>
       </c>
       <c r="AD222">
-        <v>2014.129652956128</v>
+        <v>2015.085122430965</v>
       </c>
       <c r="AE222">
         <v>183.8703129714456</v>
       </c>
       <c r="AF222">
-        <v>561.3223694331559</v>
+        <v>594.3243034792515</v>
       </c>
       <c r="AG222">
-        <v>1769.139240334145</v>
+        <v>1788.459791468633</v>
       </c>
       <c r="AH222">
-        <v>2350.517417319081</v>
+        <v>2328.808609021022</v>
       </c>
       <c r="AI222">
-        <v>845.800632090287</v>
+        <v>846.614460877178</v>
       </c>
       <c r="AJ222">
-        <v>625.923998127714</v>
+        <v>618.493163167749</v>
       </c>
       <c r="AK222">
-        <v>1628.715175974983</v>
+        <v>1631.439815460303</v>
       </c>
       <c r="AL222">
-        <v>77.56966049874515</v>
+        <v>97.96317422220447</v>
       </c>
       <c r="AM222">
         <v>25.0171443652153</v>
       </c>
       <c r="AN222">
-        <v>1808.849877795618</v>
+        <v>1800.120001586926</v>
       </c>
       <c r="AP222">
         <v>608.1384522782062</v>
@@ -42635,13 +42635,13 @@
         <v>85.85312395423675</v>
       </c>
       <c r="AS222">
-        <v>1308.377154512475</v>
+        <v>1309.456940890713</v>
       </c>
       <c r="AT222">
         <v>0.6478718269435376</v>
       </c>
       <c r="AU222">
-        <v>1309.025026339418</v>
+        <v>1310.104812717657</v>
       </c>
       <c r="AY222">
         <v>20805</v>
@@ -42731,7 +42731,7 @@
         <v>-0.001717708352533487</v>
       </c>
       <c r="CC222">
-        <v>0.02180171254044438</v>
+        <v>0.02180171254044439</v>
       </c>
       <c r="CD222">
         <v>0.007550136916848471</v>
@@ -42788,19 +42788,19 @@
         <v>553.8550262609276</v>
       </c>
       <c r="CV222">
-        <v>242.6209348238264</v>
+        <v>233.8471652954247</v>
       </c>
       <c r="CW222">
-        <v>291.9456058293594</v>
+        <v>292.7594346162504</v>
       </c>
       <c r="CX222">
-        <v>1254.99485153469</v>
+        <v>1246.264975325998</v>
       </c>
       <c r="CY222">
-        <v>2904.372443580009</v>
+        <v>2882.66363528195</v>
       </c>
       <c r="CZ222">
-        <v>2595.936821127714</v>
+        <v>2588.505986167749</v>
       </c>
     </row>
     <row r="223">
@@ -42808,94 +42808,94 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>26492.82896466556</v>
+        <v>26492.20288162769</v>
       </c>
       <c r="C223">
         <v>21448.06658251103</v>
       </c>
       <c r="D223">
-        <v>123.5159717314488</v>
+        <v>123.5051236749116</v>
       </c>
       <c r="E223">
-        <v>17797.20348796854</v>
+        <v>17796.46166994447</v>
       </c>
       <c r="G223">
         <v>120.5690926104845</v>
       </c>
       <c r="H223">
-        <v>122.5017544801424</v>
+        <v>122.5083563315704</v>
       </c>
       <c r="I223">
-        <v>133.1870028992337</v>
+        <v>132.9516098082675</v>
       </c>
       <c r="J223">
-        <v>133.0005078899657</v>
+        <v>132.7230397054453</v>
       </c>
       <c r="K223">
-        <v>133.9978013236727</v>
+        <v>133.9398059244492</v>
       </c>
       <c r="O223">
         <v>1102.078875767341</v>
       </c>
       <c r="P223">
-        <v>807.0656662605847</v>
+        <v>798.1752433275281</v>
       </c>
       <c r="R223">
-        <v>4224.193447238746</v>
+        <v>4193.234686293674</v>
       </c>
       <c r="T223">
-        <v>2673.485910274879</v>
+        <v>2666.940959918745</v>
       </c>
       <c r="U223">
-        <v>1830.277540194469</v>
+        <v>1833.032305561158</v>
       </c>
       <c r="V223">
-        <v>651.72638151991</v>
+        <v>706.0514640143845</v>
       </c>
       <c r="W223">
-        <v>4501.355145232697</v>
+        <v>4491.939315408705</v>
       </c>
       <c r="X223">
-        <v>1807.690145255082</v>
+        <v>1827.155476089388</v>
       </c>
       <c r="Z223">
-        <v>1744.676367085952</v>
+        <v>1744.911087436696</v>
       </c>
       <c r="AA223">
-        <v>2711.948337413547</v>
+        <v>2702.436392348834</v>
       </c>
       <c r="AD223">
-        <v>2040.641175581814</v>
+        <v>2041.609221680287</v>
       </c>
       <c r="AE223">
         <v>183.5539339521877</v>
       </c>
       <c r="AF223">
-        <v>573.2990463076512</v>
+        <v>607.0051274211487</v>
       </c>
       <c r="AG223">
-        <v>1782.396390524572</v>
+        <v>1801.861721358878</v>
       </c>
       <c r="AH223">
-        <v>2397.509077071675</v>
+        <v>2375.366265210971</v>
       </c>
       <c r="AI223">
-        <v>853.7952758341381</v>
+        <v>854.6167970617449</v>
       </c>
       <c r="AJ223">
-        <v>632.8447346930648</v>
+        <v>625.3317382384578</v>
       </c>
       <c r="AK223">
-        <v>1646.723606242281</v>
+        <v>1649.478371608971</v>
       </c>
       <c r="AL223">
-        <v>78.4273352122588</v>
+        <v>99.04633659323581</v>
       </c>
       <c r="AM223">
         <v>25.29375473051029</v>
       </c>
       <c r="AN223">
-        <v>1826.684370167071</v>
+        <v>1817.868421082703</v>
       </c>
       <c r="AP223">
         <v>616.2240784996698</v>
@@ -42907,13 +42907,13 @@
         <v>86.66462150374147</v>
       </c>
       <c r="AS223">
-        <v>1314.320035603628</v>
+        <v>1315.404726563108</v>
       </c>
       <c r="AT223">
         <v>0.6508145756888472</v>
       </c>
       <c r="AU223">
-        <v>1314.970850179316</v>
+        <v>1316.055541138797</v>
       </c>
       <c r="AY223">
         <v>20899.5</v>
@@ -42955,7 +42955,7 @@
         <v>0.001967438886429695</v>
       </c>
       <c r="BM223">
-        <v>0.008372265137147838</v>
+        <v>0.008372265137147839</v>
       </c>
       <c r="BN223">
         <v>0.009452160994599224</v>
@@ -43060,19 +43060,19 @@
         <v>561.2189163528109</v>
       </c>
       <c r="CV223">
-        <v>245.8467499077739</v>
+        <v>236.9563269747172</v>
       </c>
       <c r="CW223">
-        <v>292.5763594813272</v>
+        <v>293.3978807089341</v>
       </c>
       <c r="CX223">
-        <v>1265.46545381426</v>
+        <v>1256.649504729893</v>
       </c>
       <c r="CY223">
-        <v>2958.727993424486</v>
+        <v>2936.585181563782</v>
       </c>
       <c r="CZ223">
-        <v>2628.788380693065</v>
+        <v>2621.275384238458</v>
       </c>
     </row>
     <row r="224">
@@ -43080,94 +43080,94 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>26785.39686093295</v>
+        <v>26784.76386388081</v>
       </c>
       <c r="C224">
         <v>21574.26124971118</v>
       </c>
       <c r="D224">
-        <v>124.1194699646643</v>
+        <v>124.1085689045936</v>
       </c>
       <c r="E224">
-        <v>17999.01628586303</v>
+        <v>17998.26605593475</v>
       </c>
       <c r="G224">
         <v>121.156673221844</v>
       </c>
       <c r="H224">
-        <v>123.1529436357728</v>
+        <v>123.1595805810171</v>
       </c>
       <c r="I224">
-        <v>134.2351508847385</v>
+        <v>133.9979053097557</v>
       </c>
       <c r="J224">
-        <v>134.0471882069743</v>
+        <v>133.7675364181056</v>
       </c>
       <c r="K224">
-        <v>135.0523300874571</v>
+        <v>134.9938782791281</v>
       </c>
       <c r="O224">
         <v>1131.782929536881</v>
       </c>
       <c r="P224">
-        <v>817.6553714364155</v>
+        <v>808.6482950987037</v>
       </c>
       <c r="R224">
-        <v>4284.546306097141</v>
+        <v>4253.111463947451</v>
       </c>
       <c r="T224">
-        <v>2706.986118515831</v>
+        <v>2700.370776612198</v>
       </c>
       <c r="U224">
-        <v>1848.146401485134</v>
+        <v>1850.931588514573</v>
       </c>
       <c r="V224">
-        <v>664.569153914197</v>
+        <v>719.8260850124104</v>
       </c>
       <c r="W224">
-        <v>4539.657960803371</v>
+        <v>4530.162010042114</v>
       </c>
       <c r="X224">
-        <v>1821.226621621663</v>
+        <v>1840.836732155787</v>
       </c>
       <c r="Z224">
-        <v>1761.097989564343</v>
+        <v>1761.334919201039</v>
       </c>
       <c r="AA224">
-        <v>2739.328585050895</v>
+        <v>2729.720605925433</v>
       </c>
       <c r="AD224">
-        <v>2067.152698207501</v>
+        <v>2068.13332092961</v>
       </c>
       <c r="AE224">
         <v>183.2375549329297</v>
       </c>
       <c r="AF224">
-        <v>585.2757231821464</v>
+        <v>619.6859513630459</v>
       </c>
       <c r="AG224">
-        <v>1795.653540714999</v>
+        <v>1815.263651249122</v>
       </c>
       <c r="AH224">
-        <v>2439.419449500499</v>
+        <v>2416.889563613432</v>
       </c>
       <c r="AI224">
-        <v>861.8315534831559</v>
+        <v>862.6608072115934</v>
       </c>
       <c r="AJ224">
-        <v>639.8334203083299</v>
+        <v>632.237455682588</v>
       </c>
       <c r="AK224">
-        <v>1664.908846552205</v>
+        <v>1667.694033581643</v>
       </c>
       <c r="AL224">
-        <v>79.2934307320506</v>
+        <v>100.1401336493646</v>
       </c>
       <c r="AM224">
         <v>25.57308090666453</v>
       </c>
       <c r="AN224">
-        <v>1845.126856596643</v>
+        <v>1836.221900334019</v>
       </c>
       <c r="AP224">
         <v>624.3097047211332</v>
@@ -43179,13 +43179,13 @@
         <v>87.48034510922837</v>
       </c>
       <c r="AS224">
-        <v>1320.269205457839</v>
+        <v>1321.358806188595</v>
       </c>
       <c r="AT224">
         <v>0.6537604384539929</v>
       </c>
       <c r="AU224">
-        <v>1320.922965896293</v>
+        <v>1322.012566627049</v>
       </c>
       <c r="AY224">
         <v>20994.1</v>
@@ -43332,19 +43332,19 @@
         <v>568.5828064446941</v>
       </c>
       <c r="CV224">
-        <v>249.0725649917214</v>
+        <v>240.0654886540095</v>
       </c>
       <c r="CW224">
-        <v>293.2487470384617</v>
+        <v>294.0780007668992</v>
       </c>
       <c r="CX224">
-        <v>1276.544050151949</v>
+        <v>1267.639093889325</v>
       </c>
       <c r="CY224">
-        <v>3008.002255945193</v>
+        <v>2985.472370058126</v>
       </c>
       <c r="CZ224">
-        <v>2661.70788930833</v>
+        <v>2654.111924682588</v>
       </c>
     </row>
     <row r="225">
@@ -43352,94 +43352,94 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>27080.49325180256</v>
+        <v>27079.85328098236</v>
       </c>
       <c r="C225">
         <v>21700.87482037092</v>
       </c>
       <c r="D225">
-        <v>124.7229681978799</v>
+        <v>124.7120141342756</v>
       </c>
       <c r="E225">
-        <v>18206.34536962055</v>
+        <v>18205.58649785979</v>
       </c>
       <c r="G225">
         <v>121.7450996127374</v>
       </c>
       <c r="H225">
-        <v>123.8032658608462</v>
+        <v>123.8099378531861</v>
       </c>
       <c r="I225">
-        <v>135.2980821289422</v>
+        <v>135.0589579421909</v>
       </c>
       <c r="J225">
-        <v>135.1086310824338</v>
+        <v>134.8267648912873</v>
       </c>
       <c r="K225">
-        <v>136.1217321055301</v>
+        <v>136.0628174508233</v>
       </c>
       <c r="O225">
         <v>1151.806228684976</v>
       </c>
       <c r="P225">
-        <v>828.6749765144433</v>
+        <v>819.5465111079177</v>
       </c>
       <c r="R225">
-        <v>4329.292072881799</v>
+        <v>4297.527675937354</v>
       </c>
       <c r="T225">
-        <v>2740.891157280375</v>
+        <v>2734.204870175961</v>
       </c>
       <c r="U225">
-        <v>1867.656463127378</v>
+        <v>1870.472334736348</v>
       </c>
       <c r="V225">
-        <v>667.5271734741747</v>
+        <v>723.1363248170026</v>
       </c>
       <c r="W225">
-        <v>4579.302923550374</v>
+        <v>4569.724044379658</v>
       </c>
       <c r="X225">
-        <v>1839.288595925981</v>
+        <v>1859.092882200362</v>
       </c>
       <c r="Z225">
-        <v>1777.596421363673</v>
+        <v>1777.835570619877</v>
       </c>
       <c r="AA225">
-        <v>2767.51118426736</v>
+        <v>2757.804356896218</v>
       </c>
       <c r="AD225">
-        <v>2094.0086522013</v>
+        <v>2095.002014939536</v>
       </c>
       <c r="AE225">
         <v>184.4052117829173</v>
       </c>
       <c r="AF225">
-        <v>587.3601620611962</v>
+        <v>621.8929410580894</v>
       </c>
       <c r="AG225">
-        <v>1813.433774789065</v>
+        <v>1833.238061063446</v>
       </c>
       <c r="AH225">
-        <v>2465.182290692814</v>
+        <v>2442.414465458207</v>
       </c>
       <c r="AI225">
-        <v>869.9054194417273</v>
+        <v>870.7424418384411</v>
       </c>
       <c r="AJ225">
-        <v>646.8825050790743</v>
+        <v>639.2028552364261</v>
       </c>
       <c r="AK225">
-        <v>1683.25125134446</v>
+        <v>1686.067122953431</v>
       </c>
       <c r="AL225">
-        <v>80.16701141297851</v>
+        <v>101.2433837589132</v>
       </c>
       <c r="AM225">
-        <v>25.85482113691589</v>
+        <v>25.8548211369159</v>
       </c>
       <c r="AN225">
-        <v>1864.109782188985</v>
+        <v>1855.113210479147</v>
       </c>
       <c r="AP225">
         <v>632.7235752009678</v>
@@ -43451,13 +43451,13 @@
         <v>88.29988412188914</v>
       </c>
       <c r="AS225">
-        <v>1326.218375312052</v>
+        <v>1327.312885814083</v>
       </c>
       <c r="AT225">
         <v>0.6567063012191389</v>
       </c>
       <c r="AU225">
-        <v>1326.875081613271</v>
+        <v>1327.969592115302</v>
       </c>
       <c r="AY225">
         <v>21088.70000000001</v>
@@ -43604,19 +43604,19 @@
         <v>576.2456411792966</v>
       </c>
       <c r="CV225">
-        <v>252.4293353351467</v>
+        <v>243.3008699286211</v>
       </c>
       <c r="CW225">
-        <v>293.6597782624307</v>
+        <v>294.4968006591445</v>
       </c>
       <c r="CX225">
-        <v>1287.864141009689</v>
+        <v>1278.86756929985</v>
       </c>
       <c r="CY225">
-        <v>3041.42793187211</v>
+        <v>3018.660106637504</v>
       </c>
       <c r="CZ225">
-        <v>2727.977792079074</v>
+        <v>2720.298142236426</v>
       </c>
     </row>
     <row r="226">
@@ -43624,94 +43624,94 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>27378.01278333266</v>
+        <v>27377.36578148031</v>
       </c>
       <c r="C226">
         <v>21827.59311689555</v>
       </c>
       <c r="D226">
-        <v>125.4270494699647</v>
+        <v>125.4160335689046</v>
       </c>
       <c r="E226">
-        <v>18423.24989298936</v>
+        <v>18422.48198027534</v>
       </c>
       <c r="G226">
         <v>122.3365757397786</v>
       </c>
       <c r="H226">
-        <v>124.4655511503017</v>
+        <v>124.4722588344495</v>
       </c>
       <c r="I226">
-        <v>136.3679563817792</v>
+        <v>136.1269413122703</v>
       </c>
       <c r="J226">
-        <v>136.1770072445837</v>
+        <v>135.892912186805</v>
       </c>
       <c r="K226">
-        <v>137.1981193989767</v>
+        <v>137.138738874605</v>
       </c>
       <c r="O226">
         <v>1171.829527833071</v>
       </c>
       <c r="P226">
-        <v>839.6945815924713</v>
+        <v>830.444727117132</v>
       </c>
       <c r="R226">
-        <v>4375.119052146331</v>
+        <v>4343.014220930138</v>
       </c>
       <c r="T226">
-        <v>2809.3317568969</v>
+        <v>2802.590193057722</v>
       </c>
       <c r="U226">
-        <v>1887.317140731857</v>
+        <v>1890.163948882277</v>
       </c>
       <c r="V226">
-        <v>670.4923663135746</v>
+        <v>726.4556237977888</v>
       </c>
       <c r="W226">
-        <v>4618.431675844942</v>
+        <v>4608.770948061766</v>
       </c>
       <c r="X226">
-        <v>1857.352883698808</v>
+        <v>1877.351345713447</v>
       </c>
       <c r="Z226">
-        <v>1795.596778848115</v>
+        <v>1795.83834978567</v>
       </c>
       <c r="AA226">
-        <v>2795.392901641655</v>
+        <v>2785.588281344183</v>
       </c>
       <c r="AD226">
-        <v>2155.342284523079</v>
+        <v>2156.364742912321</v>
       </c>
       <c r="AE226">
         <v>185.5728686329047</v>
       </c>
       <c r="AF226">
-        <v>589.4446009402461</v>
+        <v>624.0999307531329</v>
       </c>
       <c r="AG226">
-        <v>1831.214008863131</v>
+        <v>1851.21247087777</v>
       </c>
       <c r="AH226">
-        <v>2492.229009051042</v>
+        <v>2469.211386891043</v>
       </c>
       <c r="AI226">
-        <v>878.7142853571934</v>
+        <v>879.5597836386368</v>
       </c>
       <c r="AJ226">
-        <v>653.9894723738201</v>
+        <v>646.2254501454013</v>
       </c>
       <c r="AK226">
-        <v>1701.744272098952</v>
+        <v>1704.591080249372</v>
       </c>
       <c r="AL226">
-        <v>81.04776537332855</v>
+        <v>102.355693044656</v>
       </c>
       <c r="AM226">
         <v>26.138874835677</v>
       </c>
       <c r="AN226">
-        <v>1882.890043095289</v>
+        <v>1873.802834039095</v>
       </c>
       <c r="AP226">
         <v>641.1374456808026</v>
@@ -43723,13 +43723,13 @@
         <v>89.19402941883428</v>
       </c>
       <c r="AS226">
-        <v>1332.161256403204</v>
+        <v>1333.260671486478</v>
       </c>
       <c r="AT226">
         <v>0.6596490499644484</v>
       </c>
       <c r="AU226">
-        <v>1332.820905453169</v>
+        <v>1333.920320536442</v>
       </c>
       <c r="AY226">
         <v>21183.20000000001</v>
@@ -43759,13 +43759,13 @@
         <v>0.01191367729026727</v>
       </c>
       <c r="BI226">
-        <v>0.007021250155337277</v>
+        <v>0.007021250155337278</v>
       </c>
       <c r="BJ226">
         <v>0.001595791837820215</v>
       </c>
       <c r="BK226">
-        <v>0.0006727965911639266</v>
+        <v>0.0006727965911639267</v>
       </c>
       <c r="BL226">
         <v>0.002150117279124286</v>
@@ -43828,7 +43828,7 @@
         <v>0.01738426017278605</v>
       </c>
       <c r="CF226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CG226">
         <v>0.02845656245052064</v>
@@ -43855,10 +43855,10 @@
         <v>0.004481072802021924</v>
       </c>
       <c r="CO226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CP226">
-        <v>0.01329786151426759</v>
+        <v>0.0132978615142676</v>
       </c>
       <c r="CQ226">
         <v>0.01012623409234448</v>
@@ -43876,19 +43876,19 @@
         <v>583.9084759138992</v>
       </c>
       <c r="CV226">
-        <v>255.7861056785721</v>
+        <v>246.5362512032327</v>
       </c>
       <c r="CW226">
-        <v>294.8058094432942</v>
+        <v>295.6513077247375</v>
       </c>
       <c r="CX226">
-        <v>1298.981567181389</v>
+        <v>1289.894358125195</v>
       </c>
       <c r="CY226">
-        <v>3076.137484964941</v>
+        <v>3053.119862804942</v>
       </c>
       <c r="CZ226">
-        <v>2794.30557737382</v>
+        <v>2786.541555145401</v>
       </c>
     </row>
     <row r="227">
@@ -43896,94 +43896,94 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>27677.42868581444</v>
+        <v>27676.77460811457</v>
       </c>
       <c r="C227">
         <v>21953.9972358255</v>
       </c>
       <c r="D227">
-        <v>126.0305477031802</v>
+        <v>126.0194787985866</v>
       </c>
       <c r="E227">
-        <v>18629.22592549746</v>
+        <v>18628.44942734845</v>
       </c>
       <c r="G227">
         <v>122.9298148605475</v>
       </c>
       <c r="H227">
-        <v>125.1249817632768</v>
+        <v>125.1317249853885</v>
       </c>
       <c r="I227">
-        <v>137.4396081817605</v>
+        <v>137.1966990878788</v>
       </c>
       <c r="J227">
-        <v>137.2471584648686</v>
+        <v>136.9608308372978</v>
       </c>
       <c r="K227">
-        <v>138.2762950606867</v>
+        <v>138.2164478926289</v>
       </c>
       <c r="O227">
         <v>1191.852826981166</v>
       </c>
       <c r="P227">
-        <v>850.7141866704991</v>
+        <v>841.342943126346</v>
       </c>
       <c r="R227">
-        <v>4424.277610448164</v>
+        <v>4391.806043609871</v>
       </c>
       <c r="T227">
-        <v>2877.817655880033</v>
+        <v>2871.020277521764</v>
       </c>
       <c r="U227">
-        <v>1907.095691698085</v>
+        <v>1909.973633577542</v>
       </c>
       <c r="V227">
-        <v>673.4631730238266</v>
+        <v>729.7820125686401</v>
       </c>
       <c r="W227">
-        <v>4659.31554367779</v>
+        <v>4649.569295972358</v>
       </c>
       <c r="X227">
-        <v>1875.418982012208</v>
+        <v>1895.611619767105</v>
       </c>
       <c r="Z227">
-        <v>1812.212777500763</v>
+        <v>1812.456583874704</v>
       </c>
       <c r="AA227">
-        <v>2824.779028226795</v>
+        <v>2814.871338406247</v>
       </c>
       <c r="AD227">
-        <v>2216.675916844858</v>
+        <v>2217.727470885106</v>
       </c>
       <c r="AE227">
         <v>186.7405254828922</v>
       </c>
       <c r="AF227">
-        <v>591.5290398192959</v>
+        <v>626.3069204481764</v>
       </c>
       <c r="AG227">
-        <v>1848.994242937197</v>
+        <v>1869.186880692094</v>
       </c>
       <c r="AH227">
-        <v>2521.593983016375</v>
+        <v>2498.305153084932</v>
       </c>
       <c r="AI227">
-        <v>886.8456852090713</v>
+        <v>887.6990075178636</v>
       </c>
       <c r="AJ227">
-        <v>661.1417390351753</v>
+        <v>653.2928066366573</v>
       </c>
       <c r="AK227">
-        <v>1720.355166215193</v>
+        <v>1723.233108094649</v>
       </c>
       <c r="AL227">
-        <v>81.93413320453067</v>
+        <v>103.4750921204637</v>
       </c>
       <c r="AM227">
         <v>26.42473907501095</v>
       </c>
       <c r="AN227">
-        <v>1902.683627431788</v>
+        <v>1893.500890524939</v>
       </c>
       <c r="AP227">
         <v>649.5513161606372</v>
@@ -43995,13 +43995,13 @@
         <v>90.01940841823212</v>
       </c>
       <c r="AS227">
-        <v>1338.078982442119</v>
+        <v>1339.183281346502</v>
       </c>
       <c r="AT227">
         <v>0.6625793426304126</v>
       </c>
       <c r="AU227">
-        <v>1338.741561784749</v>
+        <v>1339.845860689133</v>
       </c>
       <c r="AY227">
         <v>21277.30000000001</v>
@@ -44067,7 +44067,7 @@
         <v>0.01093636360138062</v>
       </c>
       <c r="BU227">
-        <v>0.00529809740029008</v>
+        <v>0.005298097400290081</v>
       </c>
       <c r="BV227">
         <v>0.00785853090722477</v>
@@ -44076,10 +44076,10 @@
         <v>0.004849237582313926</v>
       </c>
       <c r="BX227">
-        <v>0.02240025161078329</v>
+        <v>0.0224002516107833</v>
       </c>
       <c r="BY227">
-        <v>0.02240025161078329</v>
+        <v>0.0224002516107833</v>
       </c>
       <c r="BZ227">
         <v>0.01178261462276864</v>
@@ -44148,19 +44148,19 @@
         <v>591.5713106485017</v>
       </c>
       <c r="CV227">
-        <v>259.1428760219974</v>
+        <v>249.7716324778443</v>
       </c>
       <c r="CW227">
-        <v>295.2743745605696</v>
+        <v>296.1276968693619</v>
       </c>
       <c r="CX227">
-        <v>1311.112316783287</v>
+        <v>1301.929579876437</v>
       </c>
       <c r="CY227">
-        <v>3113.165293664877</v>
+        <v>3089.876463733434</v>
       </c>
       <c r="CZ227">
-        <v>2860.678662035175</v>
+        <v>2852.829729636657</v>
       </c>
     </row>
     <row r="228">
@@ -44168,94 +44168,94 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>27979.16237501493</v>
+        <v>27978.50116669323</v>
       </c>
       <c r="C228">
         <v>22080.61080648524</v>
       </c>
       <c r="D228">
-        <v>126.734628975265</v>
+        <v>126.7234982332155</v>
       </c>
       <c r="E228">
-        <v>18836.867251851</v>
+        <v>18836.0820988547</v>
       </c>
       <c r="G228">
         <v>123.5249195471299</v>
       </c>
       <c r="H228">
-        <v>125.7887863917961</v>
+        <v>125.7955653875957</v>
       </c>
       <c r="I228">
-        <v>138.5299810718624</v>
+        <v>138.2851448661806</v>
       </c>
       <c r="J228">
-        <v>138.3360045610806</v>
+        <v>138.0474053621126</v>
       </c>
       <c r="K228">
-        <v>139.3733057803222</v>
+        <v>139.3129838166036</v>
       </c>
       <c r="O228">
         <v>1211.876126129261</v>
       </c>
       <c r="P228">
-        <v>861.7337917485269</v>
+        <v>852.24115913556</v>
       </c>
       <c r="R228">
-        <v>4475.575898060734</v>
+        <v>4442.719323014804</v>
       </c>
       <c r="T228">
-        <v>2946.358920755691</v>
+        <v>2939.505070586371</v>
       </c>
       <c r="U228">
-        <v>1927.018310106452</v>
+        <v>1929.927626721996</v>
       </c>
       <c r="V228">
-        <v>676.4408411317866</v>
+        <v>733.1170666384594</v>
       </c>
       <c r="W228">
-        <v>4700.715621963072</v>
+        <v>4690.882774538388</v>
       </c>
       <c r="X228">
-        <v>1893.48729320853</v>
+        <v>1913.874106703686</v>
       </c>
       <c r="Z228">
-        <v>1830.325928042927</v>
+        <v>1830.572171272854</v>
       </c>
       <c r="AA228">
-        <v>2854.666624548882</v>
+        <v>2844.654106339677</v>
       </c>
       <c r="AD228">
-        <v>2278.009549166637</v>
+        <v>2279.090198857893</v>
       </c>
       <c r="AE228">
         <v>187.9081823328797</v>
       </c>
       <c r="AF228">
-        <v>593.6134786983457</v>
+        <v>628.5139101432199</v>
       </c>
       <c r="AG228">
-        <v>1866.774477011263</v>
+        <v>1887.161290506418</v>
       </c>
       <c r="AH228">
-        <v>2552.760911815714</v>
+        <v>2529.184231695389</v>
       </c>
       <c r="AI228">
-        <v>895.7097488572781</v>
+        <v>896.5716001620206</v>
       </c>
       <c r="AJ228">
-        <v>668.3493715890532</v>
+        <v>660.4148717284789</v>
       </c>
       <c r="AK228">
-        <v>1739.110127773572</v>
+        <v>1742.019444389116</v>
       </c>
       <c r="AL228">
-        <v>82.82736243344088</v>
+        <v>104.6031564952396</v>
       </c>
       <c r="AM228">
         <v>26.71281619726725</v>
       </c>
       <c r="AN228">
-        <v>1922.81498624502</v>
+        <v>1913.535091319415</v>
       </c>
       <c r="AP228">
         <v>657.9651866404718</v>
@@ -44267,13 +44267,13 @@
         <v>90.91915656957484</v>
       </c>
       <c r="AS228">
-        <v>1343.977842191855</v>
+        <v>1345.08700934725</v>
       </c>
       <c r="AT228">
         <v>0.665500293236868</v>
       </c>
       <c r="AU228">
-        <v>1344.643342485092</v>
+        <v>1345.752509640487</v>
       </c>
       <c r="AY228">
         <v>21371.10000000001</v>
@@ -44312,7 +44312,7 @@
         <v>0.0008211406389968534</v>
       </c>
       <c r="BL228">
-        <v>0.00262620367668509</v>
+        <v>0.002626203676685091</v>
       </c>
       <c r="BM228">
         <v>0.008885442056281834</v>
@@ -44354,7 +44354,7 @@
         <v>0.02227551209814171</v>
       </c>
       <c r="BZ228">
-        <v>0.01236001077463555</v>
+        <v>0.01236001077463556</v>
       </c>
       <c r="CA228">
         <v>0.02766919235044507</v>
@@ -44384,7 +44384,7 @@
         <v>0.629670798</v>
       </c>
       <c r="CJ228">
-        <v>0.01236001077463555</v>
+        <v>0.01236001077463556</v>
       </c>
       <c r="CK228">
         <v>0.01058050772235042</v>
@@ -44420,19 +44420,19 @@
         <v>599.2341453831042</v>
       </c>
       <c r="CV228">
-        <v>262.4996463654227</v>
+        <v>253.0070137524558</v>
       </c>
       <c r="CW228">
-        <v>296.4756034741739</v>
+        <v>297.3374547789164</v>
       </c>
       <c r="CX228">
-        <v>1323.580840861916</v>
+        <v>1314.300945936311</v>
       </c>
       <c r="CY228">
-        <v>3151.995057198818</v>
+        <v>3128.418377078493</v>
       </c>
       <c r="CZ228">
-        <v>2927.107112589053</v>
+        <v>2919.172612728479</v>
       </c>
     </row>
     <row r="229">
@@ -44440,94 +44440,94 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>28283.74062064295</v>
+        <v>28283.07221447637</v>
       </c>
       <c r="C229">
         <v>22207.64328060456</v>
       </c>
       <c r="D229">
-        <v>127.3381272084806</v>
+        <v>127.3269434628975</v>
       </c>
       <c r="E229">
-        <v>19048.46365108746</v>
+        <v>19047.66967838964</v>
       </c>
       <c r="G229">
         <v>124.1217210308981</v>
       </c>
       <c r="H229">
-        <v>126.458866472968</v>
+        <v>126.4656815806515</v>
       </c>
       <c r="I229">
-        <v>139.6273189508166</v>
+        <v>139.380543323498</v>
       </c>
       <c r="J229">
-        <v>139.431805893424</v>
+        <v>139.1409206129132</v>
       </c>
       <c r="K229">
-        <v>140.4773238893587</v>
+        <v>140.4165240971208</v>
       </c>
       <c r="O229">
         <v>1233.439528668272</v>
       </c>
       <c r="P229">
-        <v>873.1799234949942</v>
+        <v>863.56120330771</v>
       </c>
       <c r="R229">
-        <v>4526.384165295796</v>
+        <v>4493.148299299469</v>
       </c>
       <c r="T229">
-        <v>3014.968134681262</v>
+        <v>3008.0570060244</v>
       </c>
       <c r="U229">
-        <v>1944.477135089979</v>
+        <v>1947.418122222991</v>
       </c>
       <c r="V229">
-        <v>678.7377340069557</v>
+        <v>735.7330393190035</v>
       </c>
       <c r="W229">
-        <v>4742.735152791277</v>
+        <v>4732.814409890942</v>
       </c>
       <c r="X229">
-        <v>1911.734919166199</v>
+        <v>1932.317837016938</v>
       </c>
       <c r="Z229">
-        <v>1847.100951791032</v>
+        <v>1847.349451851814</v>
       </c>
       <c r="AA229">
-        <v>2884.955396660527</v>
+        <v>2874.8366429702</v>
       </c>
       <c r="AD229">
-        <v>2339.343181488417</v>
+        <v>2340.452926830678</v>
       </c>
       <c r="AE229">
         <v>186.4352357154023</v>
       </c>
       <c r="AF229">
-        <v>595.0087215383265</v>
+        <v>629.9911837638906</v>
       </c>
       <c r="AG229">
-        <v>1884.731310035816</v>
+        <v>1905.314227886555</v>
       </c>
       <c r="AH229">
-        <v>2583.167600656159</v>
+        <v>2559.310091738672</v>
       </c>
       <c r="AI229">
-        <v>903.9189710937547</v>
+        <v>904.7887213064911</v>
       </c>
       <c r="AJ229">
-        <v>675.6249531928456</v>
+        <v>667.6040791937221</v>
       </c>
       <c r="AK229">
-        <v>1758.041899374577</v>
+        <v>1760.982886507588</v>
       </c>
       <c r="AL229">
-        <v>83.72901246862925</v>
+        <v>105.7418555551129</v>
       </c>
       <c r="AM229">
         <v>27.00360913038282</v>
       </c>
       <c r="AN229">
-        <v>1943.216564639637</v>
+        <v>1933.838207560797</v>
       </c>
       <c r="AP229">
         <v>666.7047257916457</v>
@@ -44539,13 +44539,13 @@
         <v>91.75243494215576</v>
       </c>
       <c r="AS229">
-        <v>1349.89556823077</v>
+        <v>1351.009619207275</v>
       </c>
       <c r="AT229">
         <v>0.6684305859028324</v>
       </c>
       <c r="AU229">
-        <v>1350.563998816673</v>
+        <v>1351.678049793178</v>
       </c>
       <c r="AY229">
         <v>21465.20000000001</v>
@@ -44692,19 +44692,19 @@
         <v>607.193579074476</v>
       </c>
       <c r="CV229">
-        <v>265.9863444205182</v>
+        <v>256.367624233234</v>
       </c>
       <c r="CW229">
-        <v>296.7253920192787</v>
+        <v>297.5951422320151</v>
       </c>
       <c r="CX229">
-        <v>1336.022985565161</v>
+        <v>1326.644628486321</v>
       </c>
       <c r="CY229">
-        <v>3190.361179730635</v>
+        <v>3166.503670813148</v>
       </c>
       <c r="CZ229">
-        <v>2991.262397442846</v>
+        <v>2983.241523443722</v>
       </c>
     </row>
     <row r="230">
@@ -44712,94 +44712,94 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>28591.26877664023</v>
+        <v>28590.593102916</v>
       </c>
       <c r="C230">
         <v>22335.51356164305</v>
       </c>
       <c r="D230">
-        <v>127.9416254416961</v>
+        <v>127.9303886925795</v>
       </c>
       <c r="E230">
-        <v>19268.8028430125</v>
+        <v>19267.99968619852</v>
       </c>
       <c r="G230">
         <v>124.7217662301529</v>
       </c>
       <c r="H230">
-        <v>127.1352065856934</v>
+        <v>127.1420581426259</v>
       </c>
       <c r="I230">
-        <v>140.7246786109227</v>
+        <v>140.4759635234715</v>
       </c>
       <c r="J230">
-        <v>140.5276289764203</v>
+        <v>140.2344575689899</v>
       </c>
       <c r="K230">
-        <v>141.5813639121435</v>
+        <v>141.5200862819019</v>
       </c>
       <c r="O230">
         <v>1255.002931207283</v>
       </c>
       <c r="P230">
-        <v>884.6260552414618</v>
+        <v>874.8812474798602</v>
       </c>
       <c r="R230">
-        <v>4577.232778818991</v>
+        <v>4543.616355582757</v>
       </c>
       <c r="T230">
-        <v>3081.223175856188</v>
+        <v>3074.252781950399</v>
       </c>
       <c r="U230">
-        <v>1962.119318636227</v>
+        <v>1965.092283022953</v>
       </c>
       <c r="V230">
-        <v>681.0433595701171</v>
+        <v>738.3600405618709</v>
       </c>
       <c r="W230">
-        <v>4784.548199438507</v>
+        <v>4774.53999298132</v>
       </c>
       <c r="X230">
-        <v>1929.985361520314</v>
+        <v>1950.764383726637</v>
       </c>
       <c r="Z230">
-        <v>1864.004010143431</v>
+        <v>1864.254784260228</v>
       </c>
       <c r="AA230">
-        <v>2914.943286930004</v>
+        <v>2904.719353077903</v>
       </c>
       <c r="AD230">
-        <v>2398.252175378157</v>
+        <v>2399.38986616344</v>
       </c>
       <c r="AE230">
         <v>184.9622890979249</v>
       </c>
       <c r="AF230">
-        <v>596.4039643783074</v>
+        <v>631.4684573845614</v>
       </c>
       <c r="AG230">
-        <v>1902.688143060369</v>
+        <v>1923.467165266692</v>
       </c>
       <c r="AH230">
-        <v>2613.817300470776</v>
+        <v>2589.676718365757</v>
       </c>
       <c r="AI230">
-        <v>912.1908498448448</v>
+        <v>913.0685592536303</v>
       </c>
       <c r="AJ230">
-        <v>682.9710004780308</v>
+        <v>674.8629157869581</v>
       </c>
       <c r="AK230">
-        <v>1777.157029538302</v>
+        <v>1780.129993925028</v>
       </c>
       <c r="AL230">
-        <v>84.63939519180974</v>
+        <v>106.8915831773095</v>
       </c>
       <c r="AM230">
         <v>27.29721845994502</v>
       </c>
       <c r="AN230">
-        <v>1963.415478348216</v>
+        <v>1953.939637217</v>
       </c>
       <c r="AP230">
         <v>675.4442649428198</v>
@@ -44808,16 +44808,16 @@
         <v>615.153012765848</v>
       </c>
       <c r="AR230">
-        <v>92.59207327394166</v>
+        <v>92.59207327394167</v>
       </c>
       <c r="AS230">
-        <v>1355.851026848042</v>
+        <v>1356.969992785854</v>
       </c>
       <c r="AT230">
         <v>0.6713795626878146</v>
       </c>
       <c r="AU230">
-        <v>1356.52240641073</v>
+        <v>1357.641372348542</v>
       </c>
       <c r="AY230">
         <v>21559.90000000001</v>
@@ -44847,7 +44847,7 @@
         <v>0.01156729466276185</v>
       </c>
       <c r="BI230">
-        <v>0.006700573181561253</v>
+        <v>0.006700573181561254</v>
       </c>
       <c r="BJ230">
         <v>0.001877328327124506</v>
@@ -44907,7 +44907,7 @@
         <v>-0.007900580659151446</v>
       </c>
       <c r="CC230">
-        <v>0.002344911577722097</v>
+        <v>0.002344911577722098</v>
       </c>
       <c r="CD230">
         <v>0.009527529430288784</v>
@@ -44964,19 +44964,19 @@
         <v>615.153012765848</v>
       </c>
       <c r="CV230">
-        <v>269.4730424756139</v>
+        <v>259.7282347140123</v>
       </c>
       <c r="CW230">
-        <v>297.0378370789969</v>
+        <v>297.9155464877823</v>
       </c>
       <c r="CX230">
-        <v>1348.262465582368</v>
+        <v>1338.786624451152</v>
       </c>
       <c r="CY230">
-        <v>3228.970313236623</v>
+        <v>3204.829731131605</v>
       </c>
       <c r="CZ230">
-        <v>3055.488147978031</v>
+        <v>3047.380063286958</v>
       </c>
     </row>
     <row r="231">
@@ -44984,94 +44984,94 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>28901.53613512329</v>
+        <v>28900.85312910809</v>
       </c>
       <c r="C231">
         <v>22464.01219787093</v>
       </c>
       <c r="D231">
-        <v>128.645706713781</v>
+        <v>128.6344081272085</v>
       </c>
       <c r="E231">
-        <v>19494.03383560852</v>
+        <v>19493.22129077974</v>
       </c>
       <c r="G231">
         <v>125.3236993648113</v>
       </c>
       <c r="H231">
-        <v>127.8156330329073</v>
+        <v>127.8225212593089</v>
       </c>
       <c r="I231">
-        <v>141.8338665799141</v>
+        <v>141.583191127121</v>
       </c>
       <c r="J231">
-        <v>141.6352638057205</v>
+        <v>141.3397816294813</v>
       </c>
       <c r="K231">
-        <v>142.6973042506462</v>
+        <v>142.6355436318421</v>
       </c>
       <c r="O231">
         <v>1276.566333746294</v>
       </c>
       <c r="P231">
-        <v>896.0721869879295</v>
+        <v>886.2012916520106</v>
       </c>
       <c r="R231">
-        <v>4627.041641058406</v>
+        <v>4593.055752907707</v>
       </c>
       <c r="T231">
-        <v>3147.543649449548</v>
+        <v>3140.513213495246</v>
       </c>
       <c r="U231">
-        <v>1979.931763705002</v>
+        <v>1982.936990171958</v>
       </c>
       <c r="V231">
-        <v>683.3570940578425</v>
+        <v>740.9972826126096</v>
       </c>
       <c r="W231">
-        <v>4827.083940719147</v>
+        <v>4816.986758989311</v>
       </c>
       <c r="X231">
-        <v>1948.238419099701</v>
+        <v>1969.213545661609</v>
       </c>
       <c r="Z231">
-        <v>1882.47530768309</v>
+        <v>1882.728566839244</v>
       </c>
       <c r="AA231">
-        <v>2945.432646936428</v>
+        <v>2935.101774056972</v>
       </c>
       <c r="AD231">
-        <v>2457.161169267897</v>
+        <v>2458.326805496201</v>
       </c>
       <c r="AE231">
         <v>183.4893424804474</v>
       </c>
       <c r="AF231">
-        <v>597.7992072182881</v>
+        <v>632.945731005232</v>
       </c>
       <c r="AG231">
-        <v>1920.644976084922</v>
+        <v>1941.62010264683</v>
       </c>
       <c r="AH231">
-        <v>2643.08947452488</v>
+        <v>2618.678541725872</v>
       </c>
       <c r="AI231">
-        <v>921.2301805054811</v>
+        <v>922.1165875520156</v>
       </c>
       <c r="AJ231">
-        <v>690.3824801816518</v>
+        <v>682.1864079990442</v>
       </c>
       <c r="AK231">
-        <v>1796.442421224554</v>
+        <v>1799.44764769151</v>
       </c>
       <c r="AL231">
-        <v>85.55788683955437</v>
+        <v>108.0515516073776</v>
       </c>
       <c r="AM231">
         <v>27.59344301477911</v>
       </c>
       <c r="AN231">
-        <v>1983.952166533526</v>
+        <v>1974.377211181835</v>
       </c>
       <c r="AP231">
         <v>684.183804093994</v>
@@ -45083,13 +45083,13 @@
         <v>93.5096119304842</v>
       </c>
       <c r="AS231">
-        <v>1361.825351754492</v>
+        <v>1362.949248223712</v>
       </c>
       <c r="AT231">
         <v>0.6743378815323057</v>
       </c>
       <c r="AU231">
-        <v>1362.499689636024</v>
+        <v>1363.623586105244</v>
       </c>
       <c r="AY231">
         <v>21654.90000000001</v>
@@ -45236,19 +45236,19 @@
         <v>623.1124464572199</v>
       </c>
       <c r="CV231">
-        <v>272.9597405307096</v>
+        <v>263.0888451947907</v>
       </c>
       <c r="CW231">
-        <v>298.1177340482612</v>
+        <v>299.0041410947957</v>
       </c>
       <c r="CX231">
-        <v>1360.839720076306</v>
+        <v>1351.264764724615</v>
       </c>
       <c r="CY231">
-        <v>3266.2019209821</v>
+        <v>3241.790988183092</v>
       </c>
       <c r="CZ231">
-        <v>3119.779330931652</v>
+        <v>3111.583258749044</v>
       </c>
     </row>
     <row r="232">
@@ -45256,94 +45256,94 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>29215.49088156793</v>
+        <v>29214.8004561208</v>
       </c>
       <c r="C232">
         <v>22593.66281861266</v>
       </c>
       <c r="D232">
-        <v>129.2492049469965</v>
+        <v>129.2378533568905</v>
       </c>
       <c r="E232">
-        <v>19723.42806281814</v>
+        <v>19722.60595644378</v>
       </c>
       <c r="G232">
         <v>125.9275016606054</v>
       </c>
       <c r="H232">
-        <v>128.4948456070271</v>
+        <v>128.5017704374801</v>
       </c>
       <c r="I232">
-        <v>142.9531821183509</v>
+        <v>142.7005284008727</v>
       </c>
       <c r="J232">
-        <v>142.7530120233439</v>
+        <v>142.4551979795531</v>
       </c>
       <c r="K232">
-        <v>143.8234338118874</v>
+        <v>143.7611857945377</v>
       </c>
       <c r="O232">
-        <v>1298.129736285304</v>
+        <v>1298.129736285305</v>
       </c>
       <c r="P232">
-        <v>907.518318734397</v>
+        <v>897.5213358241608</v>
       </c>
       <c r="R232">
-        <v>4676.422395951386</v>
+        <v>4642.070698894759</v>
       </c>
       <c r="T232">
-        <v>3213.952205144651</v>
+        <v>3206.860681450085</v>
       </c>
       <c r="U232">
-        <v>1997.973406977179</v>
+        <v>2001.011278944673</v>
       </c>
       <c r="V232">
-        <v>685.6817444055581</v>
+        <v>743.6483103662525</v>
       </c>
       <c r="W232">
-        <v>4869.619681999786</v>
+        <v>4859.433524997301</v>
       </c>
       <c r="X232">
-        <v>1966.494997174647</v>
+        <v>1987.666228092139</v>
       </c>
       <c r="Z232">
-        <v>1899.62557653831</v>
+        <v>1899.881143008987</v>
       </c>
       <c r="AA232">
-        <v>2975.821712995463</v>
+        <v>2965.384252861768</v>
       </c>
       <c r="AD232">
-        <v>2516.070163157637</v>
+        <v>2517.263744828963</v>
       </c>
       <c r="AE232">
         <v>182.01639586297</v>
       </c>
       <c r="AF232">
-        <v>599.1944500582689</v>
+        <v>634.4230046259028</v>
       </c>
       <c r="AG232">
-        <v>1938.601809109475</v>
+        <v>1959.773040026967</v>
       </c>
       <c r="AH232">
-        <v>2672.001096127896</v>
+        <v>2647.323142609815</v>
       </c>
       <c r="AI232">
-        <v>929.6230370857128</v>
+        <v>930.5175197330805</v>
       </c>
       <c r="AJ232">
-        <v>697.8820419870137</v>
+        <v>689.5969366211212</v>
       </c>
       <c r="AK232">
-        <v>1815.957011114209</v>
+        <v>1818.994883081703</v>
       </c>
       <c r="AL232">
-        <v>86.48729434728916</v>
+        <v>109.2253057403498</v>
       </c>
       <c r="AM232">
         <v>27.89318806517149</v>
       </c>
       <c r="AN232">
-        <v>2004.42129982349</v>
+        <v>1994.747556284944</v>
       </c>
       <c r="AP232">
         <v>692.9233432451681</v>
@@ -45355,13 +45355,13 @@
         <v>94.36153013552503</v>
       </c>
       <c r="AS232">
-        <v>1367.843698002357</v>
+        <v>1368.972561333216</v>
       </c>
       <c r="AT232">
         <v>0.6773179985156508</v>
       </c>
       <c r="AU232">
-        <v>1368.521016000873</v>
+        <v>1369.649879331732</v>
       </c>
       <c r="AY232">
         <v>21750.60000000001</v>
@@ -45403,7 +45403,7 @@
         <v>0.002406623026569132</v>
       </c>
       <c r="BM232">
-        <v>0.0088118917762805</v>
+        <v>0.008811891776280501</v>
       </c>
       <c r="BN232">
         <v>0.009110488081954138</v>
@@ -45508,19 +45508,19 @@
         <v>631.0718801485918</v>
       </c>
       <c r="CV232">
-        <v>276.4464385858051</v>
+        <v>266.449455675569</v>
       </c>
       <c r="CW232">
-        <v>298.5511569371209</v>
+        <v>299.4456395844886</v>
       </c>
       <c r="CX232">
-        <v>1373.349419674898</v>
+        <v>1363.675676136352</v>
       </c>
       <c r="CY232">
-        <v>3303.072976276488</v>
+        <v>3278.395022758406</v>
       </c>
       <c r="CZ232">
-        <v>3184.158595987014</v>
+        <v>3175.873490621121</v>
       </c>
     </row>
     <row r="233">
@@ -45528,94 +45528,94 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>29529.97239772138</v>
+        <v>29529.27454039359</v>
       </c>
       <c r="C233">
         <v>22721.84727724585</v>
       </c>
       <c r="D233">
-        <v>129.9532862190813</v>
+        <v>129.9418727915194</v>
       </c>
       <c r="E233">
-        <v>19957.19368637205</v>
+        <v>19956.3618362448</v>
       </c>
       <c r="G233">
         <v>126.5358741228159</v>
       </c>
       <c r="H233">
-        <v>129.1751028358472</v>
+        <v>129.1820643266499</v>
       </c>
       <c r="I233">
-        <v>144.0815551332751</v>
+        <v>143.8269071430378</v>
       </c>
       <c r="J233">
-        <v>143.8798050347295</v>
+        <v>143.5796402539666</v>
       </c>
       <c r="K233">
-        <v>144.9586759885373</v>
+        <v>144.8959366286238</v>
       </c>
       <c r="O233">
         <v>1337.921198443742</v>
       </c>
       <c r="P233">
-        <v>919.3969740093174</v>
+        <v>909.269138959429</v>
       </c>
       <c r="R233">
-        <v>4760.402509146308</v>
+        <v>4725.366345570164</v>
       </c>
       <c r="T233">
-        <v>3280.373343997145</v>
+        <v>3273.220583177779</v>
       </c>
       <c r="U233">
-        <v>2013.558571167912</v>
+        <v>2016.629143410273</v>
       </c>
       <c r="V233">
-        <v>691.8773096607702</v>
+        <v>750.3981547671365</v>
       </c>
       <c r="W233">
-        <v>4912.155423280426</v>
+        <v>4901.880291005292</v>
       </c>
       <c r="X233">
-        <v>1985.18925841462</v>
+        <v>2006.561368079068</v>
       </c>
       <c r="Z233">
-        <v>1918.419190095525</v>
+        <v>1918.677284968402</v>
       </c>
       <c r="AA233">
-        <v>3006.511660896666</v>
+        <v>2995.966558189385</v>
       </c>
       <c r="AD233">
-        <v>2574.979157047378</v>
+        <v>2576.200684161725</v>
       </c>
       <c r="AE233">
         <v>178.0542275635624</v>
       </c>
       <c r="AF233">
-        <v>604.4590483971762</v>
+        <v>639.9971255076854</v>
       </c>
       <c r="AG233">
-        <v>1956.995822371119</v>
+        <v>1978.367932035568</v>
       </c>
       <c r="AH233">
-        <v>2735.309411346816</v>
+        <v>2710.046757596932</v>
       </c>
       <c r="AI233">
-        <v>938.8201000904709</v>
+        <v>939.7234321455406</v>
       </c>
       <c r="AJ233">
-        <v>705.3941869497672</v>
+        <v>697.0198990160541</v>
       </c>
       <c r="AK233">
-        <v>1835.50434360435</v>
+        <v>1838.574915846711</v>
       </c>
       <c r="AL233">
-        <v>87.41826126359399</v>
+        <v>110.4010292594511</v>
       </c>
       <c r="AM233">
-        <v>28.19343604350077</v>
+        <v>28.19343604350078</v>
       </c>
       <c r="AN233">
-        <v>2025.093097799493</v>
+        <v>2015.319587973232</v>
       </c>
       <c r="AP233">
         <v>701.9931298890713</v>
@@ -45627,13 +45627,13 @@
         <v>95.29507943804923</v>
       </c>
       <c r="AS233">
-        <v>1373.924931880817</v>
+        <v>1375.058813973646</v>
       </c>
       <c r="AT233">
         <v>0.680329255697359</v>
       </c>
       <c r="AU233">
-        <v>1374.605261136514</v>
+        <v>1375.739143229343</v>
       </c>
       <c r="AY233">
         <v>21847.30000000001</v>
@@ -45654,7 +45654,7 @@
         <v>0.009507179584432146</v>
       </c>
       <c r="BF233">
-        <v>0.004803843074459468</v>
+        <v>0.004803843074459469</v>
       </c>
       <c r="BG233">
         <v>0.005447470817120603</v>
@@ -45780,19 +45780,19 @@
         <v>639.3320829050884</v>
       </c>
       <c r="CV233">
-        <v>280.064891104229</v>
+        <v>269.9370560543406</v>
       </c>
       <c r="CW233">
-        <v>299.4880171853824</v>
+        <v>300.3913492404522</v>
       </c>
       <c r="CX233">
-        <v>1385.761014894405</v>
+        <v>1375.987505068144</v>
       </c>
       <c r="CY233">
-        <v>3374.641494251904</v>
+        <v>3349.378840502021</v>
       </c>
       <c r="CZ233">
-        <v>3217.704392949767</v>
+        <v>3209.330105016054</v>
       </c>
     </row>
     <row r="234">
@@ -45800,94 +45800,94 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>29838.13267736923</v>
+        <v>29837.42753754533</v>
       </c>
       <c r="C234">
         <v>22843.74818398525</v>
       </c>
       <c r="D234">
-        <v>130.5567844522969</v>
+        <v>130.5453180212015</v>
       </c>
       <c r="E234">
-        <v>20184.50629627487</v>
+        <v>20183.66497136743</v>
       </c>
       <c r="G234">
         <v>127.1448231128095</v>
       </c>
       <c r="H234">
-        <v>129.8712200488257</v>
+        <v>129.8782190547026</v>
       </c>
       <c r="I234">
-        <v>145.2028989936636</v>
+        <v>144.9462691539096</v>
       </c>
       <c r="J234">
-        <v>144.9995787341482</v>
+        <v>144.6970778602351</v>
       </c>
       <c r="K234">
-        <v>146.0868462194835</v>
+        <v>146.023618577805</v>
       </c>
       <c r="O234">
         <v>1377.71266060218</v>
       </c>
       <c r="P234">
-        <v>931.275629284238</v>
+        <v>921.0169420946974</v>
       </c>
       <c r="R234">
-        <v>4840.791037834757</v>
+        <v>4805.104770289751</v>
       </c>
       <c r="T234">
-        <v>3314.696942683421</v>
+        <v>3307.469582447481</v>
       </c>
       <c r="U234">
-        <v>2028.750824152813</v>
+        <v>2031.853439378085</v>
       </c>
       <c r="V234">
-        <v>698.0541620131419</v>
+        <v>757.1243665344706</v>
       </c>
       <c r="W234">
-        <v>4955.310617103987</v>
+        <v>4944.945213799807</v>
       </c>
       <c r="X234">
-        <v>2003.877484519351</v>
+        <v>2025.450472930756</v>
       </c>
       <c r="Z234">
-        <v>1935.863424142572</v>
+        <v>1936.123865878633</v>
       </c>
       <c r="AA234">
-        <v>3037.602784587428</v>
+        <v>3026.948632214094</v>
       </c>
       <c r="AD234">
-        <v>2601.941608659599</v>
+        <v>2603.175926310764</v>
       </c>
       <c r="AE234">
         <v>174.0920592641549</v>
       </c>
       <c r="AF234">
-        <v>609.7236467360833</v>
+        <v>645.571246389468</v>
       </c>
       <c r="AG234">
-        <v>1975.389835632764</v>
+        <v>1996.962824044168</v>
       </c>
       <c r="AH234">
-        <v>2794.755922477875</v>
+        <v>2768.944235181325</v>
       </c>
       <c r="AI234">
-        <v>947.3568149224546</v>
+        <v>948.2683609986685</v>
       </c>
       <c r="AJ234">
-        <v>712.755334023822</v>
+        <v>704.2936561367168</v>
       </c>
       <c r="AK234">
-        <v>1854.658764888658</v>
+        <v>1857.76138011393</v>
       </c>
       <c r="AL234">
-        <v>88.33051527705852</v>
+        <v>111.5531201450026</v>
       </c>
       <c r="AM234">
         <v>28.48764888658726</v>
       </c>
       <c r="AN234">
-        <v>2046.035115356882</v>
+        <v>2036.160535108426</v>
       </c>
       <c r="AP234">
         <v>711.0629165329746</v>
@@ -45899,13 +45899,13 @@
         <v>96.16159999718028</v>
       </c>
       <c r="AS234">
-        <v>1380.037609574574</v>
+        <v>1381.176536379537</v>
       </c>
       <c r="AT234">
         <v>0.6833560829782488</v>
       </c>
       <c r="AU234">
-        <v>1380.720965657552</v>
+        <v>1381.859892462516</v>
       </c>
       <c r="AY234">
         <v>21944.50000000001</v>
@@ -45959,7 +45959,7 @@
         <v>0.005342237061769728</v>
       </c>
       <c r="BQ234">
-        <v>0.01043550855711683</v>
+        <v>0.01043550855711684</v>
       </c>
       <c r="BR234">
         <v>0.01043550855711706</v>
@@ -46052,19 +46052,19 @@
         <v>647.5922856615852</v>
       </c>
       <c r="CV234">
-        <v>283.6833436226528</v>
+        <v>273.4246564331122</v>
       </c>
       <c r="CW234">
-        <v>299.7645292608695</v>
+        <v>300.6760753370834</v>
       </c>
       <c r="CX234">
-        <v>1398.442829695296</v>
+        <v>1388.568249446841</v>
       </c>
       <c r="CY234">
-        <v>3442.34820813946</v>
+        <v>3416.536520842911</v>
       </c>
       <c r="CZ234">
-        <v>3251.099192023822</v>
+        <v>3242.637514136717</v>
       </c>
     </row>
     <row r="235">
@@ -46072,94 +46072,94 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>30137.96999561805</v>
+        <v>30137.25776998767</v>
       </c>
       <c r="C235">
         <v>22957.58519912763</v>
       </c>
       <c r="D235">
-        <v>131.2608657243817</v>
+        <v>131.2493374558304</v>
       </c>
       <c r="E235">
-        <v>20401.7230622397</v>
+        <v>20400.87268336419</v>
       </c>
       <c r="G235">
         <v>127.7561872408772</v>
       </c>
       <c r="H235">
-        <v>130.5639496491974</v>
+        <v>130.5709859875836</v>
       </c>
       <c r="I235">
-        <v>146.3464773150214</v>
+        <v>146.0878263288344</v>
       </c>
       <c r="J235">
-        <v>146.1415557607476</v>
+        <v>145.8366724726816</v>
       </c>
       <c r="K235">
-        <v>147.2373862674438</v>
+        <v>147.1736606621514</v>
       </c>
       <c r="O235">
         <v>1417.504122760617</v>
       </c>
       <c r="P235">
-        <v>943.1542845591583</v>
+        <v>932.7647452299655</v>
       </c>
       <c r="R235">
-        <v>4918.007455340834</v>
+        <v>4881.700380675844</v>
       </c>
       <c r="T235">
-        <v>3348.821727482911</v>
+        <v>3341.522128106061</v>
       </c>
       <c r="U235">
-        <v>2043.425744050036</v>
+        <v>2046.559536823807</v>
       </c>
       <c r="V235">
-        <v>704.2063757101071</v>
+        <v>763.8194620009641</v>
       </c>
       <c r="W235">
-        <v>4998.465810927549</v>
+        <v>4988.010136594322</v>
       </c>
       <c r="X235">
-        <v>2022.557764362679</v>
+        <v>2044.33163152104</v>
       </c>
       <c r="Z235">
-        <v>1954.983853203408</v>
+        <v>1955.246867309853</v>
       </c>
       <c r="AA235">
-        <v>3068.69390827819</v>
+        <v>3057.930706238803</v>
       </c>
       <c r="AD235">
-        <v>2628.90406027182</v>
+        <v>2630.151168459804</v>
       </c>
       <c r="AE235">
         <v>170.1298909647473</v>
       </c>
       <c r="AF235">
-        <v>614.9882450749905</v>
+        <v>651.1453672712505</v>
       </c>
       <c r="AG235">
-        <v>1993.783848894408</v>
+        <v>2015.557716052769</v>
       </c>
       <c r="AH235">
-        <v>2851.030322426564</v>
+        <v>2824.698898432224</v>
       </c>
       <c r="AI235">
-        <v>956.7138121925733</v>
+        <v>957.6343615651296</v>
       </c>
       <c r="AJ235">
-        <v>719.9176672110906</v>
+        <v>711.3709596462576</v>
       </c>
       <c r="AK235">
-        <v>1873.295853085288</v>
+        <v>1876.42964585906</v>
       </c>
       <c r="AL235">
-        <v>89.21813063511667</v>
+        <v>112.6740947297136</v>
       </c>
       <c r="AM235">
         <v>28.77391546827073</v>
       </c>
       <c r="AN235">
-        <v>2066.97713291427</v>
+        <v>2057.001482243619</v>
       </c>
       <c r="AP235">
         <v>720.1327031768777</v>
@@ -46171,13 +46171,13 @@
         <v>97.11138345204201</v>
       </c>
       <c r="AS235">
-        <v>1386.225752425044</v>
+        <v>1387.369786222539</v>
       </c>
       <c r="AT235">
         <v>0.6864202784971744</v>
       </c>
       <c r="AU235">
-        <v>1386.912172703541</v>
+        <v>1388.056206501036</v>
       </c>
       <c r="AY235">
         <v>22042.90000000001</v>
@@ -46324,19 +46324,19 @@
         <v>655.8524884180816</v>
       </c>
       <c r="CV235">
-        <v>287.3017961410767</v>
+        <v>276.9122568118838</v>
       </c>
       <c r="CW235">
-        <v>300.8613237744917</v>
+        <v>301.7818731470479</v>
       </c>
       <c r="CX235">
-        <v>1411.124644496189</v>
+        <v>1401.148993825538</v>
       </c>
       <c r="CY235">
-        <v>3506.882810844645</v>
+        <v>3480.551386850306</v>
       </c>
       <c r="CZ235">
-        <v>3284.295177211091</v>
+        <v>3275.748469646258</v>
       </c>
     </row>
     <row r="236">
@@ -46344,94 +46344,94 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>30435.17346532286</v>
+        <v>30434.45421612957</v>
       </c>
       <c r="C236">
         <v>23067.96626072843</v>
       </c>
       <c r="D236">
-        <v>131.9649469964665</v>
+        <v>131.9533568904594</v>
       </c>
       <c r="E236">
-        <v>20617.58677695512</v>
+        <v>20616.72740050903</v>
       </c>
       <c r="G236">
         <v>128.3709455610132</v>
       </c>
       <c r="H236">
-        <v>131.2652762579455</v>
+        <v>131.2723503921503</v>
       </c>
       <c r="I236">
-        <v>147.48696807348</v>
+        <v>147.2263013977812</v>
       </c>
       <c r="J236">
-        <v>147.2804495478055</v>
+        <v>146.9731902778995</v>
       </c>
       <c r="K236">
-        <v>148.384819956443</v>
+        <v>148.3205977319955</v>
       </c>
       <c r="O236">
         <v>1457.295584919055</v>
       </c>
       <c r="P236">
-        <v>955.0329398340788</v>
+        <v>944.5125483652337</v>
       </c>
       <c r="R236">
-        <v>4991.426391068435</v>
+        <v>4954.533284016363</v>
       </c>
       <c r="T236">
-        <v>3382.883596495442</v>
+        <v>3375.512504900362</v>
       </c>
       <c r="U236">
-        <v>2057.936950944828</v>
+        <v>2061.101647395451</v>
       </c>
       <c r="V236">
-        <v>710.3507923642226</v>
+        <v>770.5047105368121</v>
       </c>
       <c r="W236">
-        <v>5041.724246841597</v>
+        <v>5031.178085519924</v>
       </c>
       <c r="X236">
-        <v>2041.235529566322</v>
+        <v>2063.21027547164</v>
       </c>
       <c r="Z236">
-        <v>1974.268400365169</v>
+        <v>1974.534008921656</v>
       </c>
       <c r="AA236">
-        <v>3099.684738021562</v>
+        <v>3088.812838089239</v>
       </c>
       <c r="AD236">
-        <v>2655.866511884041</v>
+        <v>2657.126410608842</v>
       </c>
       <c r="AE236">
         <v>166.1677226653398</v>
       </c>
       <c r="AF236">
-        <v>620.2528434138978</v>
+        <v>656.7194881530332</v>
       </c>
       <c r="AG236">
-        <v>2012.177862156052</v>
+        <v>2034.15260806137</v>
       </c>
       <c r="AH236">
-        <v>2903.574795492122</v>
+        <v>2876.758083499277</v>
       </c>
       <c r="AI236">
-        <v>966.1511242201401</v>
+        <v>967.0807541678432</v>
       </c>
       <c r="AJ236">
-        <v>727.0170846114014</v>
+        <v>718.3860942915193</v>
       </c>
       <c r="AK236">
-        <v>1891.769228279488</v>
+        <v>1894.933924730111</v>
       </c>
       <c r="AL236">
-        <v>90.09794895032468</v>
+        <v>113.7852223837788</v>
       </c>
       <c r="AM236">
         <v>29.05766741026969</v>
       </c>
       <c r="AN236">
-        <v>2087.851595576313</v>
+        <v>2077.775200517086</v>
       </c>
       <c r="AP236">
         <v>729.2024898207809</v>
@@ -46443,13 +46443,13 @@
         <v>98.06931926877833</v>
       </c>
       <c r="AS236">
-        <v>1392.464205379989</v>
+        <v>1393.61338769028</v>
       </c>
       <c r="AT236">
         <v>0.6895093861747901</v>
       </c>
       <c r="AU236">
-        <v>1393.153714766163</v>
+        <v>1394.302897076455</v>
       </c>
       <c r="AY236">
         <v>22142.1</v>
@@ -46467,10 +46467,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="BE236">
-        <v>0.009536595205965392</v>
+        <v>0.009536595205965393</v>
       </c>
       <c r="BF236">
-        <v>0.004735595895816846</v>
+        <v>0.004735595895816847</v>
       </c>
       <c r="BG236">
         <v>0.005363984674329414</v>
@@ -46548,7 +46548,7 @@
         <v>0.02807149659709118</v>
       </c>
       <c r="CF236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CG236">
         <v>0.01015203568838041</v>
@@ -46575,10 +46575,10 @@
         <v>0.004500315294266866</v>
       </c>
       <c r="CO236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CP236">
-        <v>0.01259460458314376</v>
+        <v>0.01259460458314377</v>
       </c>
       <c r="CQ236">
         <v>0.00986429996859628</v>
@@ -46596,19 +46596,19 @@
         <v>664.1126911745782</v>
       </c>
       <c r="CV236">
-        <v>290.9202486595005</v>
+        <v>280.3998571906554</v>
       </c>
       <c r="CW236">
-        <v>302.0384330455619</v>
+        <v>302.968062993265</v>
       </c>
       <c r="CX236">
-        <v>1423.738904401735</v>
+        <v>1413.662509342508</v>
       </c>
       <c r="CY236">
-        <v>3567.6874866667</v>
+        <v>3540.870774673855</v>
       </c>
       <c r="CZ236">
-        <v>3317.428246611401</v>
+        <v>3308.797256291519</v>
       </c>
     </row>
     <row r="237">
@@ -46616,94 +46616,94 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>30732.37693502768</v>
+        <v>30731.65066227146</v>
       </c>
       <c r="C237">
         <v>23176.77643435578</v>
       </c>
       <c r="D237">
-        <v>132.5684452296821</v>
+        <v>132.5568021201414</v>
       </c>
       <c r="E237">
-        <v>20833.1382490745</v>
+        <v>20832.26988807266</v>
       </c>
       <c r="G237">
         <v>128.9891592433536</v>
       </c>
       <c r="H237">
-        <v>131.9557933646175</v>
+        <v>131.9629047120962</v>
       </c>
       <c r="I237">
-        <v>148.6411313016859</v>
+        <v>148.3784247719184</v>
       </c>
       <c r="J237">
-        <v>148.4329966597444</v>
+        <v>148.1233329241729</v>
       </c>
       <c r="K237">
-        <v>149.5460093486634</v>
+        <v>149.4812845514744</v>
       </c>
       <c r="O237">
         <v>1447.307396139283</v>
       </c>
       <c r="P237">
-        <v>967.6098544967875</v>
+        <v>956.9509190466794</v>
       </c>
       <c r="R237">
-        <v>4982.754850848176</v>
+        <v>4946.034177005103</v>
       </c>
       <c r="T237">
-        <v>3416.945465507974</v>
+        <v>3409.502881694662</v>
       </c>
       <c r="U237">
-        <v>2076.106145806107</v>
+        <v>2079.301745933582</v>
       </c>
       <c r="V237">
-        <v>715.2238192728882</v>
+        <v>775.8438202653326</v>
       </c>
       <c r="W237">
-        <v>5084.982682755646</v>
+        <v>5074.346034445527</v>
       </c>
       <c r="X237">
-        <v>2059.703043219065</v>
+        <v>2081.87637174012</v>
       </c>
       <c r="Z237">
-        <v>1992.213422552453</v>
+        <v>1992.481445345747</v>
       </c>
       <c r="AA237">
-        <v>3130.775861712324</v>
+        <v>3119.794912113948</v>
       </c>
       <c r="AD237">
-        <v>2682.828963496262</v>
+        <v>2684.101652757882</v>
       </c>
       <c r="AE237">
         <v>165.8635423324191</v>
       </c>
       <c r="AF237">
-        <v>624.2460520073556</v>
+        <v>660.9474702274886</v>
       </c>
       <c r="AG237">
-        <v>2030.361623866796</v>
+        <v>2052.534952387852</v>
       </c>
       <c r="AH237">
-        <v>2873.961237714475</v>
+        <v>2847.418029352823</v>
       </c>
       <c r="AI237">
-        <v>974.9329106060203</v>
+        <v>975.8709903825484</v>
       </c>
       <c r="AJ237">
-        <v>734.1165020117121</v>
+        <v>725.4012289367807</v>
       </c>
       <c r="AK237">
-        <v>1910.242603473688</v>
+        <v>1913.438203601162</v>
       </c>
       <c r="AL237">
-        <v>90.97776726553269</v>
+        <v>114.8963500378441</v>
       </c>
       <c r="AM237">
         <v>29.34141935226866</v>
       </c>
       <c r="AN237">
-        <v>2108.793613133701</v>
+        <v>2098.61614765228</v>
       </c>
       <c r="AP237">
         <v>738.8054229802424</v>
@@ -46715,13 +46715,13 @@
         <v>98.9607158538853</v>
       </c>
       <c r="AS237">
-        <v>1398.752968439409</v>
+        <v>1399.907340782761</v>
       </c>
       <c r="AT237">
         <v>0.6926234060110964</v>
       </c>
       <c r="AU237">
-        <v>1399.44559184542</v>
+        <v>1400.599964188772</v>
       </c>
       <c r="AY237">
         <v>22242.1</v>
@@ -46730,7 +46730,7 @@
         <v>29303.7</v>
       </c>
       <c r="BB237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BC237">
         <v>0.004716938302991913</v>
@@ -46775,16 +46775,16 @@
         <v>0.005584756898817433</v>
       </c>
       <c r="BQ237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BR237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BS237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BT237">
-        <v>0.009765131453692621</v>
+        <v>0.009765131453692622</v>
       </c>
       <c r="BU237">
         <v>0.005260470448521737</v>
@@ -46868,19 +46868,19 @@
         <v>672.8584509226929</v>
       </c>
       <c r="CV237">
-        <v>294.7514035740946</v>
+        <v>284.0924681239865</v>
       </c>
       <c r="CW237">
-        <v>302.0744596833274</v>
+        <v>303.0125394598555</v>
       </c>
       <c r="CX237">
-        <v>1435.935162211008</v>
+        <v>1425.757696729587</v>
       </c>
       <c r="CY237">
-        <v>3546.819688637168</v>
+        <v>3520.276480275516</v>
       </c>
       <c r="CZ237">
-        <v>3352.427481761712</v>
+        <v>3343.712208686781</v>
       </c>
     </row>
     <row r="238">
@@ -46888,94 +46888,94 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>31026.31443253794</v>
+        <v>31025.58121340081</v>
       </c>
       <c r="C238">
         <v>23281.71175098197</v>
       </c>
       <c r="D238">
-        <v>133.2725265017669</v>
+        <v>133.2608215547704</v>
       </c>
       <c r="E238">
-        <v>21044.21424398426</v>
+        <v>21043.33708497224</v>
       </c>
       <c r="G238">
         <v>129.6100313583566</v>
       </c>
       <c r="H238">
-        <v>132.6623109640124</v>
+        <v>132.6694603870619</v>
       </c>
       <c r="I238">
-        <v>149.7973597985159</v>
+        <v>149.532609764549</v>
       </c>
       <c r="J238">
-        <v>149.5876061484164</v>
+        <v>149.2755336446098</v>
       </c>
       <c r="K238">
-        <v>150.7092765821803</v>
+        <v>150.6440483129421</v>
       </c>
       <c r="O238">
         <v>1437.319207359512</v>
       </c>
       <c r="P238">
-        <v>980.1867691594963</v>
+        <v>969.3892897281251</v>
       </c>
       <c r="R238">
-        <v>4983.241704863231</v>
+        <v>4946.608879523119</v>
       </c>
       <c r="T238">
-        <v>3452.862063675796</v>
+        <v>3445.349830690202</v>
       </c>
       <c r="U238">
-        <v>2094.072336544373</v>
+        <v>2097.298500747854</v>
       </c>
       <c r="V238">
-        <v>720.08717784842</v>
+        <v>781.1707197998525</v>
       </c>
       <c r="W238">
-        <v>5128.447602850668</v>
+        <v>5117.720035633303</v>
       </c>
       <c r="X238">
-        <v>2078.167438718599</v>
+        <v>2100.539349855393</v>
       </c>
       <c r="Z238">
-        <v>2011.813869267006</v>
+        <v>2012.084529009946</v>
       </c>
       <c r="AA238">
-        <v>3161.866985403085</v>
+        <v>3150.776986138657</v>
       </c>
       <c r="AD238">
-        <v>2711.724159839601</v>
+        <v>2713.010556499866</v>
       </c>
       <c r="AE238">
         <v>165.5593619994985</v>
       </c>
       <c r="AF238">
-        <v>628.2392606008134</v>
+        <v>665.1754523019439</v>
       </c>
       <c r="AG238">
-        <v>2048.54538557754</v>
+        <v>2070.917296714334</v>
       </c>
       <c r="AH238">
-        <v>2853.50607417214</v>
+        <v>2827.151784735646</v>
       </c>
       <c r="AI238">
-        <v>984.5248149413069</v>
+        <v>985.472124041594</v>
       </c>
       <c r="AJ238">
-        <v>741.1379038361953</v>
+        <v>732.3392741903361</v>
       </c>
       <c r="AK238">
-        <v>1928.512974544875</v>
+        <v>1931.739138748356</v>
       </c>
       <c r="AL238">
-        <v>91.84791724760655</v>
+        <v>115.9952674979086</v>
       </c>
       <c r="AM238">
         <v>29.62205314105884</v>
       </c>
       <c r="AN238">
-        <v>2129.73563069109</v>
+        <v>2119.457094787474</v>
       </c>
       <c r="AP238">
         <v>748.4083561397039</v>
@@ -46987,13 +46987,13 @@
         <v>99.93434358672275</v>
       </c>
       <c r="AS238">
-        <v>1405.085752840246</v>
+        <v>1406.24535154689</v>
       </c>
       <c r="AT238">
         <v>0.6957592239862569</v>
       </c>
       <c r="AU238">
-        <v>1405.781512064232</v>
+        <v>1406.941110770876</v>
       </c>
       <c r="AY238">
         <v>22342.8</v>
@@ -47140,19 +47140,19 @@
         <v>681.6042106708076</v>
       </c>
       <c r="CV238">
-        <v>298.5825584886887</v>
+        <v>287.7850790573175</v>
       </c>
       <c r="CW238">
-        <v>302.9206042704993</v>
+        <v>303.8679133707865</v>
       </c>
       <c r="CX238">
-        <v>1448.131420020283</v>
+        <v>1437.852884116666</v>
       </c>
       <c r="CY238">
-        <v>3535.110284842947</v>
+        <v>3508.755995406454</v>
       </c>
       <c r="CZ238">
-        <v>3387.348701336195</v>
+        <v>3378.550071690336</v>
       </c>
     </row>
     <row r="239">
@@ -47160,94 +47160,94 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>31322.78042465043</v>
+        <v>31322.04019937858</v>
       </c>
       <c r="C239">
         <v>23387.06597106774</v>
       </c>
       <c r="D239">
-        <v>133.8760247349824</v>
+        <v>133.8642667844524</v>
       </c>
       <c r="E239">
-        <v>21264.24119331328</v>
+        <v>21263.35486319992</v>
       </c>
       <c r="G239">
         <v>130.2331078329412</v>
       </c>
       <c r="H239">
-        <v>133.369978413159</v>
+        <v>133.3771659737468</v>
       </c>
       <c r="I239">
-        <v>150.9652876469319</v>
+        <v>150.6984734314736</v>
       </c>
       <c r="J239">
-        <v>150.7538986066654</v>
+        <v>150.4393929613908</v>
       </c>
       <c r="K239">
-        <v>151.8843143890662</v>
+        <v>151.8185775533736</v>
       </c>
       <c r="O239">
         <v>1427.33101857974</v>
       </c>
       <c r="P239">
-        <v>992.7636838222052</v>
+        <v>981.8276604095709</v>
       </c>
       <c r="R239">
-        <v>4994.136908110004</v>
+        <v>4957.496398059882</v>
       </c>
       <c r="T239">
-        <v>3488.839060999098</v>
+        <v>3481.25646179545</v>
       </c>
       <c r="U239">
-        <v>2112.195691764972</v>
+        <v>2115.452682961243</v>
       </c>
       <c r="V239">
-        <v>724.9580215850877</v>
+        <v>786.5070723877923</v>
       </c>
       <c r="W239">
-        <v>5172.222249217151</v>
+        <v>5161.403115214343</v>
       </c>
       <c r="X239">
-        <v>2096.634248272231</v>
+        <v>2119.204742024762</v>
       </c>
       <c r="Z239">
-        <v>2030.0363265202</v>
+        <v>2030.309437824723</v>
       </c>
       <c r="AA239">
-        <v>3193.158696988626</v>
+        <v>3181.958944511913</v>
       </c>
       <c r="AD239">
-        <v>2740.61935618294</v>
+        <v>2741.91946024185</v>
       </c>
       <c r="AE239">
         <v>165.2551816665779</v>
       </c>
       <c r="AF239">
-        <v>632.2324691942712</v>
+        <v>669.4034343763992</v>
       </c>
       <c r="AG239">
-        <v>2066.729147288284</v>
+        <v>2089.299641040816</v>
       </c>
       <c r="AH239">
-        <v>2843.324150070833</v>
+        <v>2817.063898413762</v>
       </c>
       <c r="AI239">
-        <v>993.4423702027748</v>
+        <v>994.3982597686056</v>
       </c>
       <c r="AJ239">
-        <v>748.2197048161579</v>
+        <v>739.3370015535995</v>
       </c>
       <c r="AK239">
-        <v>1946.940510098394</v>
+        <v>1950.197501294665</v>
       </c>
       <c r="AL239">
-        <v>92.72555239081653</v>
+        <v>117.1036380113931</v>
       </c>
       <c r="AM239">
         <v>29.90510098394615</v>
       </c>
       <c r="AN239">
-        <v>2150.812758039172</v>
+        <v>2140.43249964612</v>
       </c>
       <c r="AP239">
         <v>758.0112892991655</v>
@@ -47259,13 +47259,13 @@
         <v>100.8395214125414</v>
       </c>
       <c r="AS239">
-        <v>1411.44998105638</v>
+        <v>1412.614832076481</v>
       </c>
       <c r="AT239">
         <v>0.6989106120605989</v>
       </c>
       <c r="AU239">
-        <v>1412.14889166844</v>
+        <v>1413.313742688541</v>
       </c>
       <c r="AY239">
         <v>22444</v>
@@ -47352,7 +47352,7 @@
         <v>0.01065565472007601</v>
       </c>
       <c r="CB239">
-        <v>-0.001837288627154376</v>
+        <v>-0.001837288627154377</v>
       </c>
       <c r="CC239">
         <v>0.006356190776168447</v>
@@ -47361,7 +47361,7 @@
         <v>0.008876426091783962</v>
       </c>
       <c r="CE239">
-        <v>-0.006949179227988433</v>
+        <v>-0.006949179227988434</v>
       </c>
       <c r="CF239">
         <v>0.01283114102171923</v>
@@ -47412,19 +47412,19 @@
         <v>690.3499704189223</v>
       </c>
       <c r="CV239">
-        <v>302.4137134032828</v>
+        <v>291.4776899906485</v>
       </c>
       <c r="CW239">
-        <v>303.0923997838524</v>
+        <v>304.0482893496833</v>
       </c>
       <c r="CX239">
-        <v>1460.462787620249</v>
+        <v>1450.082529227198</v>
       </c>
       <c r="CY239">
-        <v>3533.674120489755</v>
+        <v>3507.413868832685</v>
       </c>
       <c r="CZ239">
-        <v>3422.330320066158</v>
+        <v>3413.447616803599</v>
       </c>
     </row>
     <row r="240">
@@ -47432,94 +47432,94 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>31621.14278771461</v>
+        <v>31620.39551149267</v>
       </c>
       <c r="C240">
         <v>23492.31546528861</v>
       </c>
       <c r="D240">
-        <v>134.5801060070673</v>
+        <v>134.5682862190814</v>
       </c>
       <c r="E240">
-        <v>21479.79266543267</v>
+        <v>21478.89735076354</v>
       </c>
       <c r="G240">
         <v>130.8590277736504</v>
       </c>
       <c r="H240">
-        <v>134.0836889721092</v>
+        <v>134.09091499591</v>
       </c>
       <c r="I240">
-        <v>152.1381398527207</v>
+        <v>151.8692527525217</v>
       </c>
       <c r="J240">
-        <v>151.9251085269591</v>
+        <v>151.6081594813139</v>
       </c>
       <c r="K240">
-        <v>153.064306531184</v>
+        <v>152.9980589847582</v>
       </c>
       <c r="O240">
         <v>1417.342829799969</v>
       </c>
       <c r="P240">
-        <v>1005.340598484914</v>
+        <v>994.2660310910167</v>
       </c>
       <c r="R240">
-        <v>5014.480347034798</v>
+        <v>4977.743699115441</v>
       </c>
       <c r="T240">
-        <v>3524.861357689009</v>
+        <v>3517.207854482977</v>
       </c>
       <c r="U240">
-        <v>2130.436920347321</v>
+        <v>2133.724935723968</v>
       </c>
       <c r="V240">
-        <v>729.8344791926074</v>
+        <v>791.8505147657969</v>
       </c>
       <c r="W240">
-        <v>5215.687169312172</v>
+        <v>5204.777116402118</v>
       </c>
       <c r="X240">
-        <v>2115.102868366434</v>
+        <v>2137.871944734703</v>
       </c>
       <c r="Z240">
-        <v>2049.839000361414</v>
+        <v>2050.114775822246</v>
       </c>
       <c r="AA240">
-        <v>3224.049232784609</v>
+        <v>3212.741134188076</v>
       </c>
       <c r="AD240">
-        <v>2769.514552526279</v>
+        <v>2770.828363983833</v>
       </c>
       <c r="AE240">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF240">
-        <v>636.2256777877288</v>
+        <v>673.6314164508544</v>
       </c>
       <c r="AG240">
-        <v>2084.912908999028</v>
+        <v>2107.681985367297</v>
       </c>
       <c r="AH240">
-        <v>2842.86068122893</v>
+        <v>2816.604710057581</v>
       </c>
       <c r="AI240">
-        <v>1003.133238775009</v>
+        <v>1004.09845288792</v>
       </c>
       <c r="AJ240">
-        <v>755.34680516273</v>
+        <v>746.3794904991438</v>
       </c>
       <c r="AK240">
-        <v>1965.485919013663</v>
+        <v>1968.773934390311</v>
       </c>
       <c r="AL240">
-        <v>93.60880140487859</v>
+        <v>118.2190983149424</v>
       </c>
       <c r="AM240">
         <v>30.18995936740629</v>
       </c>
       <c r="AN240">
-        <v>2171.619665805867</v>
+        <v>2161.138989057861</v>
       </c>
       <c r="AP240">
         <v>767.6142224586271</v>
@@ -47531,13 +47531,13 @@
         <v>101.823194525554</v>
       </c>
       <c r="AS240">
-        <v>1417.795342983335</v>
+        <v>1418.965430746795</v>
       </c>
       <c r="AT240">
         <v>0.7020526580754322</v>
       </c>
       <c r="AU240">
-        <v>1418.497395641411</v>
+        <v>1419.66748340487</v>
       </c>
       <c r="AY240">
         <v>22544.9</v>
@@ -47546,7 +47546,7 @@
         <v>30149.59999999999</v>
       </c>
       <c r="BB240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BC240">
         <v>0.004500329128548142</v>
@@ -47555,7 +47555,7 @@
         <v>0.004495633576902636</v>
       </c>
       <c r="BE240">
-        <v>0.009505888025393538</v>
+        <v>0.009505888025393539</v>
       </c>
       <c r="BF240">
         <v>0.004643962848297489</v>
@@ -47591,16 +47591,16 @@
         <v>0.005815831987076026</v>
       </c>
       <c r="BQ240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BR240">
         <v>0.009525411186976696</v>
       </c>
       <c r="BS240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BT240">
-        <v>0.009525411186976473</v>
+        <v>0.009525411186976474</v>
       </c>
       <c r="BU240">
         <v>0.005351358434948494</v>
@@ -47684,19 +47684,19 @@
         <v>699.0957301670371</v>
       </c>
       <c r="CV240">
-        <v>306.2448683178769</v>
+        <v>295.1703009239795</v>
       </c>
       <c r="CW240">
-        <v>304.0375086079719</v>
+        <v>305.0027227208825</v>
       </c>
       <c r="CX240">
-        <v>1472.52393563883</v>
+        <v>1462.043258890824</v>
       </c>
       <c r="CY240">
-        <v>3541.956411395968</v>
+        <v>3515.700440224618</v>
       </c>
       <c r="CZ240">
-        <v>3457.35723816273</v>
+        <v>3448.389923499144</v>
       </c>
     </row>
     <row r="241">
@@ -47704,94 +47704,94 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>31921.50687567222</v>
+        <v>31920.75250119509</v>
       </c>
       <c r="C241">
         <v>23597.46023364459</v>
       </c>
       <c r="D241">
-        <v>135.284187279152</v>
+        <v>135.2723056537103</v>
       </c>
       <c r="E241">
-        <v>21696.28086534012</v>
+        <v>21695.37652707081</v>
       </c>
       <c r="G241">
         <v>131.4881664797136</v>
       </c>
       <c r="H241">
-        <v>134.8060829010037</v>
+        <v>134.8133478559807</v>
       </c>
       <c r="I241">
-        <v>153.3137925677183</v>
+        <v>153.0428276331927</v>
       </c>
       <c r="J241">
-        <v>153.0991150350505</v>
+        <v>152.7797167547401</v>
       </c>
       <c r="K241">
-        <v>154.2471162310845</v>
+        <v>154.1803567544623</v>
       </c>
       <c r="O241">
         <v>1456.780424978075</v>
       </c>
       <c r="P241">
-        <v>1019.070409485163</v>
+        <v>1007.844598107429</v>
       </c>
       <c r="R241">
-        <v>5120.225046751294</v>
+        <v>5082.603515648467</v>
       </c>
       <c r="T241">
-        <v>3560.931470377008</v>
+        <v>3553.206495507358</v>
       </c>
       <c r="U241">
-        <v>2149.106751144436</v>
+        <v>2152.425998843914</v>
       </c>
       <c r="V241">
-        <v>734.5222362684475</v>
+        <v>796.9953718262771</v>
       </c>
       <c r="W241">
-        <v>5259.358573588168</v>
+        <v>5248.357169852069</v>
       </c>
       <c r="X241">
-        <v>2133.183272957629</v>
+        <v>2156.146671416903</v>
       </c>
       <c r="Z241">
-        <v>2069.737202419571</v>
+        <v>2070.015654888618</v>
       </c>
       <c r="AA241">
-        <v>3254.939768580592</v>
+        <v>3243.523323864239</v>
       </c>
       <c r="AD241">
-        <v>2798.409748869618</v>
+        <v>2799.737267725818</v>
       </c>
       <c r="AE241">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF241">
-        <v>640.0242600969408</v>
+        <v>677.6533295404945</v>
       </c>
       <c r="AG241">
-        <v>2102.706544080602</v>
+        <v>2125.669942539877</v>
       </c>
       <c r="AH241">
-        <v>2927.79847317873</v>
+        <v>2900.758037178865</v>
       </c>
       <c r="AI241">
-        <v>1012.870856155145</v>
+        <v>1013.845439796806</v>
       </c>
       <c r="AJ241">
-        <v>762.52172150739</v>
+        <v>753.4692277815403</v>
       </c>
       <c r="AK241">
-        <v>1984.155749810779</v>
+        <v>1987.474997510257</v>
       </c>
       <c r="AL241">
-        <v>94.49797617150675</v>
+        <v>119.3420422857826</v>
       </c>
       <c r="AM241">
         <v>30.47672887702665</v>
       </c>
       <c r="AN241">
-        <v>2192.426573572564</v>
+        <v>2181.845478469602</v>
       </c>
       <c r="AP241">
         <v>778.0974340302505</v>
@@ -47803,13 +47803,13 @@
         <v>102.8116128835418</v>
       </c>
       <c r="AS241">
-        <v>1424.140704910291</v>
+        <v>1425.316029417108</v>
       </c>
       <c r="AT241">
         <v>0.7051947040902652</v>
       </c>
       <c r="AU241">
-        <v>1424.845899614381</v>
+        <v>1426.021224121198</v>
       </c>
       <c r="AY241">
         <v>22645.8</v>
@@ -47830,7 +47830,7 @@
         <v>0.009482712871812682</v>
       </c>
       <c r="BF241">
-        <v>0.004622496147919763</v>
+        <v>0.004622496147919764</v>
       </c>
       <c r="BG241">
         <v>0.00523168908819116</v>
@@ -47899,7 +47899,7 @@
         <v>0</v>
       </c>
       <c r="CC241">
-        <v>0.005970495127484154</v>
+        <v>0.005970495127484155</v>
       </c>
       <c r="CD241">
         <v>0.008534474032354744</v>
@@ -47956,19 +47956,19 @@
         <v>708.6431932464548</v>
       </c>
       <c r="CV241">
-        <v>310.4272162387081</v>
+        <v>299.2014048609739</v>
       </c>
       <c r="CW241">
-        <v>304.2276629086898</v>
+        <v>305.202246550351</v>
       </c>
       <c r="CX241">
-        <v>1483.783380326109</v>
+        <v>1473.202285223147</v>
       </c>
       <c r="CY241">
-        <v>3636.441666425185</v>
+        <v>3609.40123042532</v>
       </c>
       <c r="CZ241">
-        <v>3492.24421850739</v>
+        <v>3483.19172478154</v>
       </c>
     </row>
     <row r="242">
@@ -47976,94 +47976,94 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>32224.50481217384</v>
+        <v>32223.74327719796</v>
       </c>
       <c r="C242">
         <v>23702.50027613567</v>
       </c>
       <c r="D242">
-        <v>135.8876855123676</v>
+        <v>135.8757508833923</v>
       </c>
       <c r="E242">
-        <v>21913.6017121703</v>
+        <v>21912.68831559464</v>
       </c>
       <c r="G242">
         <v>132.120727461104</v>
       </c>
       <c r="H242">
-        <v>135.5191841708219</v>
+        <v>135.5264875561762</v>
       </c>
       <c r="I242">
-        <v>154.5039973292824</v>
+        <v>154.2309288413199</v>
       </c>
       <c r="J242">
-        <v>154.2876532132153</v>
+        <v>153.9657753819937</v>
       </c>
       <c r="K242">
-        <v>155.4445665655982</v>
+        <v>155.3772888221871</v>
       </c>
       <c r="O242">
         <v>1496.218020156182</v>
       </c>
       <c r="P242">
-        <v>1032.800220485412</v>
+        <v>1021.423165123841</v>
       </c>
       <c r="R242">
-        <v>5217.968785517857</v>
+        <v>5179.537457712709</v>
       </c>
       <c r="T242">
-        <v>3596.870046632992</v>
+        <v>3589.072760932159</v>
       </c>
       <c r="U242">
-        <v>2167.940294943982</v>
+        <v>2171.291048837939</v>
       </c>
       <c r="V242">
-        <v>739.2177903871379</v>
+        <v>802.1500758174032</v>
       </c>
       <c r="W242">
-        <v>5303.649430407087</v>
+        <v>5292.555380088546</v>
       </c>
       <c r="X242">
-        <v>2151.266192188507</v>
+        <v>2174.423912738787</v>
       </c>
       <c r="Z242">
-        <v>2088.19209465314</v>
+        <v>2088.473029954453</v>
       </c>
       <c r="AA242">
-        <v>3286.231480166132</v>
+        <v>3274.705282237494</v>
       </c>
       <c r="AD242">
-        <v>2827.110492993984</v>
+        <v>2828.451627003943</v>
       </c>
       <c r="AE242">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF242">
-        <v>643.8228424061529</v>
+        <v>681.6752426301347</v>
       </c>
       <c r="AG242">
-        <v>2120.500179162175</v>
+        <v>2143.657899712456</v>
       </c>
       <c r="AH242">
-        <v>3004.465084597212</v>
+        <v>2976.71657438446</v>
       </c>
       <c r="AI242">
-        <v>1021.902158522911</v>
+        <v>1022.885432077503</v>
       </c>
       <c r="AJ242">
-        <v>769.7595536390079</v>
+        <v>760.6211339282162</v>
       </c>
       <c r="AK242">
-        <v>2002.989293610325</v>
+        <v>2006.340047504282</v>
       </c>
       <c r="AL242">
-        <v>95.39494798098505</v>
+        <v>120.4748331872685</v>
       </c>
       <c r="AM242">
         <v>30.76601302633152</v>
       </c>
       <c r="AN242">
-        <v>2213.503700920645</v>
+        <v>2202.820883328248</v>
       </c>
       <c r="AP242">
         <v>788.580645601874</v>
@@ -48075,13 +48075,13 @@
         <v>103.7283366269751</v>
       </c>
       <c r="AS242">
-        <v>1430.486066837246</v>
+        <v>1431.666628087422</v>
       </c>
       <c r="AT242">
         <v>0.7083367501050983</v>
       </c>
       <c r="AU242">
-        <v>1431.194403587351</v>
+        <v>1432.374964837527</v>
       </c>
       <c r="AY242">
         <v>22746.7</v>
@@ -48228,19 +48228,19 @@
         <v>718.1906563258725</v>
       </c>
       <c r="CV242">
-        <v>314.6095641595392</v>
+        <v>303.2325087979682</v>
       </c>
       <c r="CW242">
-        <v>303.7115021970385</v>
+        <v>304.6947757516308</v>
       </c>
       <c r="CX242">
-        <v>1495.313044594773</v>
+        <v>1484.630227002376</v>
       </c>
       <c r="CY242">
-        <v>3722.655740923085</v>
+        <v>3694.907230710333</v>
       </c>
       <c r="CZ242">
-        <v>3527.194114639008</v>
+        <v>3518.055694928216</v>
       </c>
     </row>
     <row r="243">
@@ -48248,112 +48248,112 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>32529.18841174361</v>
+        <v>32528.41967643311</v>
       </c>
       <c r="C243">
         <v>23807.33086689696</v>
       </c>
       <c r="D243">
-        <v>136.5917667844524</v>
+        <v>136.5797703180213</v>
       </c>
       <c r="E243">
-        <v>22140.6020794771</v>
+        <v>22139.67922113606</v>
       </c>
       <c r="G243">
         <v>132.7563553683342</v>
       </c>
       <c r="H243">
-        <v>136.2481252679642</v>
+        <v>136.255467937334</v>
       </c>
       <c r="I243">
-        <v>155.7028326285807</v>
+        <v>155.4276453336736</v>
       </c>
       <c r="J243">
-        <v>155.4848098442098</v>
+        <v>155.160434482097</v>
       </c>
       <c r="K243">
-        <v>156.6506999777054</v>
+        <v>156.5829002093949</v>
       </c>
       <c r="O243">
         <v>1535.655615334289</v>
       </c>
       <c r="P243">
-        <v>1046.530031485661</v>
+        <v>1035.001732140253</v>
       </c>
       <c r="R243">
-        <v>5302.790848675774</v>
+        <v>5263.667576192622</v>
       </c>
       <c r="T243">
-        <v>3632.848888992628</v>
+        <v>3624.978814430098</v>
       </c>
       <c r="U243">
-        <v>2186.878615065084</v>
+        <v>2190.261050431374</v>
       </c>
       <c r="V243">
-        <v>743.9183346132523</v>
+        <v>807.3110818441425</v>
       </c>
       <c r="W243">
-        <v>5347.527318864058</v>
+        <v>5336.341485800672</v>
       </c>
       <c r="X243">
-        <v>2169.350720788783</v>
+        <v>2192.702763430069</v>
       </c>
       <c r="Z243">
-        <v>2108.247021983102</v>
+        <v>2108.530655377691</v>
       </c>
       <c r="AA243">
-        <v>3317.021722014726</v>
+        <v>3305.387529739384</v>
       </c>
       <c r="AD243">
-        <v>2855.81123711835</v>
+        <v>2857.165986282068</v>
       </c>
       <c r="AE243">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF243">
-        <v>647.6214247153649</v>
+        <v>685.6971557197749</v>
       </c>
       <c r="AG243">
-        <v>2138.293814243749</v>
+        <v>2161.645856885035</v>
       </c>
       <c r="AH243">
-        <v>3068.547794883779</v>
+        <v>3040.207432314359</v>
       </c>
       <c r="AI243">
-        <v>1031.716472818987</v>
+        <v>1032.70918970005</v>
       </c>
       <c r="AJ243">
-        <v>777.0376518742786</v>
+        <v>767.8128281480306</v>
       </c>
       <c r="AK243">
-        <v>2021.927613731426</v>
+        <v>2025.310049097717</v>
       </c>
       <c r="AL243">
-        <v>96.29690989788742</v>
+        <v>121.6139261243676</v>
       </c>
       <c r="AM243">
         <v>31.05690654503447</v>
       </c>
       <c r="AN243">
-        <v>2234.243053791995</v>
+        <v>2223.460143878263</v>
       </c>
       <c r="AP243">
         <v>799.0638571734975</v>
       </c>
       <c r="AQ243">
-        <v>727.7381194052901</v>
+        <v>727.7381194052902</v>
       </c>
       <c r="AR243">
         <v>104.7245401172757</v>
       </c>
       <c r="AS243">
-        <v>1436.812562475023</v>
+        <v>1437.998344898458</v>
       </c>
       <c r="AT243">
         <v>0.7114694540604224</v>
       </c>
       <c r="AU243">
-        <v>1437.524031929084</v>
+        <v>1438.709814352518</v>
       </c>
       <c r="AY243">
         <v>22847.3</v>
@@ -48497,22 +48497,22 @@
         <v>0.007759251022763536</v>
       </c>
       <c r="CU243">
-        <v>727.7381194052901</v>
+        <v>727.7381194052902</v>
       </c>
       <c r="CV243">
-        <v>318.7919120803705</v>
+        <v>307.2636127349625</v>
       </c>
       <c r="CW243">
-        <v>303.9783534136972</v>
+        <v>304.9710702947599</v>
       </c>
       <c r="CX243">
-        <v>1506.504934386705</v>
+        <v>1495.722024472973</v>
       </c>
       <c r="CY243">
-        <v>3796.285914289069</v>
+        <v>3767.945551719649</v>
       </c>
       <c r="CZ243">
-        <v>3562.184276874279</v>
+        <v>3552.959453148031</v>
       </c>
     </row>
     <row r="244">
@@ -48520,94 +48520,94 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>32835.45232043978</v>
+        <v>32834.67634744853</v>
       </c>
       <c r="C244">
         <v>23911.74255419866</v>
       </c>
       <c r="D244">
-        <v>137.2958480565372</v>
+        <v>137.2837897526502</v>
       </c>
       <c r="E244">
-        <v>22366.97796159186</v>
+        <v>22366.04566751505</v>
       </c>
       <c r="G244">
         <v>133.3952786977072</v>
       </c>
       <c r="H244">
-        <v>136.9655942098025</v>
+        <v>136.9729755449316</v>
       </c>
       <c r="I244">
-        <v>156.9146004596369</v>
+        <v>156.6372715009859</v>
       </c>
       <c r="J244">
-        <v>156.6948808981934</v>
+        <v>156.3679810628752</v>
       </c>
       <c r="K244">
-        <v>157.8698446505466</v>
+        <v>157.8015172259514</v>
       </c>
       <c r="O244">
         <v>1575.093210512395</v>
       </c>
       <c r="P244">
-        <v>1060.25984248591</v>
+        <v>1048.580299156665</v>
       </c>
       <c r="R244">
-        <v>5377.713261188577</v>
+        <v>5337.990070571712</v>
       </c>
       <c r="T244">
-        <v>3668.865480824439</v>
+        <v>3660.922169246604</v>
       </c>
       <c r="U244">
-        <v>2205.915162987643</v>
+        <v>2209.329444149256</v>
       </c>
       <c r="V244">
-        <v>748.6235570650767</v>
+        <v>812.4779960292691</v>
       </c>
       <c r="W244">
-        <v>5391.611691502001</v>
+        <v>5380.333643774972</v>
       </c>
       <c r="X244">
-        <v>2187.43675817287</v>
+        <v>2210.983122905162</v>
       </c>
       <c r="Z244">
-        <v>2128.351056564836</v>
+        <v>2128.637394659355</v>
       </c>
       <c r="AA244">
-        <v>3348.012551758098</v>
+        <v>3336.26966158982</v>
       </c>
       <c r="AD244">
-        <v>2884.511981242715</v>
+        <v>2885.880345560192</v>
       </c>
       <c r="AE244">
-        <v>164.9510013336572</v>
+        <v>164.9510013336573</v>
       </c>
       <c r="AF244">
-        <v>651.4200070245769</v>
+        <v>689.7190688094149</v>
       </c>
       <c r="AG244">
-        <v>2156.087449325322</v>
+        <v>2179.633814057614</v>
       </c>
       <c r="AH244">
-        <v>3122.59574473454</v>
+        <v>3093.756208419982</v>
       </c>
       <c r="AI244">
-        <v>1041.554818815363</v>
+        <v>1042.557002146181</v>
       </c>
       <c r="AJ244">
-        <v>784.3534995817238</v>
+        <v>775.0418236864123</v>
       </c>
       <c r="AK244">
-        <v>2040.964161653985</v>
+        <v>2044.378442815599</v>
       </c>
       <c r="AL244">
-        <v>97.20355004049986</v>
+        <v>122.7589272198542</v>
       </c>
       <c r="AM244">
         <v>31.34930884754811</v>
       </c>
       <c r="AN244">
-        <v>2255.117516454037</v>
+        <v>2244.23386215173</v>
       </c>
       <c r="AP244">
         <v>809.547068745121</v>
@@ -48619,13 +48619,13 @@
         <v>105.7231829490315</v>
       </c>
       <c r="AS244">
-        <v>1443.107614297503</v>
+        <v>1444.298591944031</v>
       </c>
       <c r="AT244">
         <v>0.7145865879165652</v>
       </c>
       <c r="AU244">
-        <v>1443.82220088542</v>
+        <v>1445.013178531948</v>
       </c>
       <c r="AY244">
         <v>22947.4</v>
@@ -48772,19 +48772,19 @@
         <v>737.2855824847078</v>
       </c>
       <c r="CV244">
-        <v>322.9742600012017</v>
+        <v>311.294716671957</v>
       </c>
       <c r="CW244">
-        <v>304.2692363306547</v>
+        <v>305.2714196614735</v>
       </c>
       <c r="CX244">
-        <v>1517.831933969329</v>
+        <v>1506.948279667022</v>
       </c>
       <c r="CY244">
-        <v>3859.881327219248</v>
+        <v>3831.04179090469</v>
       </c>
       <c r="CZ244">
-        <v>3597.212188581724</v>
+        <v>3587.900512686412</v>
       </c>
     </row>
     <row r="245">
@@ -48792,70 +48792,70 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>33143.50724614588</v>
+        <v>33142.72399314826</v>
       </c>
       <c r="C245">
         <v>24015.73533804078</v>
       </c>
       <c r="D245">
-        <v>137.999929328622</v>
+        <v>137.9878091872792</v>
       </c>
       <c r="E245">
-        <v>22593.45792457196</v>
+        <v>22592.5161904211</v>
       </c>
       <c r="G245">
         <v>134.0370407261838</v>
       </c>
       <c r="H245">
-        <v>137.7106349414177</v>
+        <v>137.7180564282021</v>
       </c>
       <c r="I245">
-        <v>158.1300239035401</v>
+        <v>157.8505468202592</v>
       </c>
       <c r="J245">
-        <v>157.9086024462546</v>
+        <v>157.5791705220008</v>
       </c>
       <c r="K245">
-        <v>159.0926671903967</v>
+        <v>159.0238105177043</v>
       </c>
       <c r="W245">
-        <v>5436.109032501893</v>
+        <v>5424.737906273623</v>
       </c>
       <c r="Z245">
-        <v>2148.522039110028</v>
+        <v>2148.811090911335</v>
       </c>
       <c r="AA245">
-        <v>3379.00338150147</v>
+        <v>3367.151793440256</v>
       </c>
       <c r="AI245">
-        <v>1051.425927251813</v>
+        <v>1052.437608556385</v>
       </c>
       <c r="AJ245">
-        <v>791.7121300243004</v>
+        <v>782.313094052504</v>
       </c>
       <c r="AK245">
-        <v>2060.112034418197</v>
+        <v>2063.558347607855</v>
       </c>
       <c r="AL245">
-        <v>98.11549217225038</v>
+        <v>123.9106242281799</v>
       </c>
       <c r="AM245">
         <v>31.64342110504722</v>
       </c>
       <c r="AN245">
-        <v>2275.99197911608</v>
+        <v>2265.007580425197</v>
       </c>
       <c r="AR245">
         <v>106.7251513373335</v>
       </c>
       <c r="AS245">
-        <v>1449.383799830805</v>
+        <v>1450.579957130327</v>
       </c>
       <c r="AT245">
         <v>0.7176943797131988</v>
       </c>
       <c r="AU245">
-        <v>1450.101494210518</v>
+        <v>1451.297651510041</v>
       </c>
       <c r="AY245">
         <v>23047.19999999999</v>
@@ -48888,13 +48888,13 @@
         <v>0.005289213452704944</v>
       </c>
       <c r="BJ245">
-        <v>0.001344547431056275</v>
+        <v>0.001344547431056276</v>
       </c>
       <c r="BK245">
         <v>0.00103001765744537</v>
       </c>
       <c r="BL245">
-        <v>0.001499109903494888</v>
+        <v>0.001499109903494889</v>
       </c>
       <c r="BM245">
         <v>0.008253068571319133</v>
